--- a/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
+++ b/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
@@ -29,12 +29,12 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
+    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
+    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
     <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
-    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
-    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>작업이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,15 +247,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홈페이지 삽입 영상 제작</t>
+    <t>홈페이지 삽입영상 
+1차 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홈페이지 삽입 영상제작</t>
+    <t>홈페이지 삽입 영상
+#S 3-3 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홈페이지 삽입영상제작</t>
+    <t>홈페이지 삽입 영상
+#S 3-3 소스제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 삽입 영상
+#S 3-2 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 삽입 영상
+#S 3-1 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 삽입 영상
+#S 3-1 소스 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 삽입 영상
+#S 4 소스제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 삽입 영상
+#S 4 제작 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 삽입영상
+엔딩 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,13 +297,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>홈페이지 삽입영상 
-1차 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">홉페이지 삽입 영상
-</t>
+    <t>주간 스토리보드 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1131,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1252,129 +1279,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,31 +1453,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1548,7 +1581,7 @@
         <xdr:cNvPr id="8" name="순서도: 병합 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1647,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1996,7 @@
   <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1972,26 +2005,26 @@
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="81" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="82"/>
-      <c r="F1" s="81" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="81" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="84"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
@@ -2018,26 +2051,26 @@
       <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="85">
+      <c r="B2" s="53">
         <v>44165</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="85">
+      <c r="C2" s="54"/>
+      <c r="D2" s="53">
         <v>44166</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="85">
+      <c r="E2" s="54"/>
+      <c r="F2" s="53">
         <v>44167</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="85">
+      <c r="G2" s="54"/>
+      <c r="H2" s="53">
         <v>44169</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="85">
+      <c r="I2" s="54"/>
+      <c r="J2" s="53">
         <v>44170</v>
       </c>
-      <c r="K2" s="87"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -2060,26 +2093,28 @@
       <c r="AE2" s="38"/>
       <c r="AF2" s="38"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" ht="57" customHeight="1">
       <c r="A3" s="41">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
@@ -2106,16 +2141,16 @@
       <c r="A4" s="41">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="69"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
@@ -2144,8 +2179,8 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -2174,16 +2209,16 @@
       <c r="AE5" s="38"/>
       <c r="AF5" s="38"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" ht="13.5" customHeight="1">
       <c r="A6" s="44">
         <v>0.54166666666666696</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="105"/>
+      <c r="D6" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="111"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
@@ -2216,20 +2251,20 @@
       <c r="A7" s="44">
         <v>0.58333333333333404</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="69"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -2256,18 +2291,20 @@
       <c r="A8" s="44">
         <v>0.625</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="110"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="110" t="s">
+        <v>49</v>
+      </c>
       <c r="E8" s="111"/>
-      <c r="F8" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="69"/>
+      <c r="F8" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -2294,16 +2331,16 @@
       <c r="A9" s="44">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="69"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -2330,16 +2367,16 @@
       <c r="A10" s="44">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="69"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -2362,20 +2399,22 @@
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" ht="13.5" customHeight="1">
       <c r="A11" s="44">
         <v>0.75</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="110"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="110" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="111"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="69"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -2402,16 +2441,16 @@
       <c r="A12" s="44">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="61"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="77"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -2438,16 +2477,16 @@
       <c r="A13" s="47">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="73"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="74"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -2470,20 +2509,22 @@
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
     </row>
-    <row r="14" spans="1:32" ht="16.5">
+    <row r="14" spans="1:32" ht="30.75" customHeight="1">
       <c r="A14" s="47">
         <v>0.875</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="69"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="115"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
@@ -2510,16 +2551,16 @@
       <c r="A15" s="47">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="65"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="81"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
@@ -2546,16 +2587,16 @@
       <c r="A16" s="47">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="61"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="77"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -2579,19 +2620,19 @@
       <c r="AF16" s="38"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -2615,17 +2656,17 @@
       <c r="AF17" s="38"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="55"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -2649,17 +2690,17 @@
       <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -2785,19 +2826,19 @@
       <c r="AF22" s="38"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
@@ -2821,17 +2862,17 @@
       <c r="AF23" s="38"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -2855,17 +2896,17 @@
       <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -2892,16 +2933,16 @@
       <c r="A26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -2925,27 +2966,27 @@
       <c r="AF26" s="38"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49" t="s">
+      <c r="B27" s="91"/>
+      <c r="C27" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49" t="s">
+      <c r="D27" s="91"/>
+      <c r="E27" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49" t="s">
+      <c r="F27" s="91"/>
+      <c r="G27" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49" t="s">
+      <c r="H27" s="91"/>
+      <c r="I27" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
@@ -2969,17 +3010,17 @@
       <c r="AF27" s="38"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -3003,17 +3044,17 @@
       <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -3037,17 +3078,17 @@
       <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -3141,27 +3182,27 @@
       <c r="AF32" s="38"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49" t="s">
+      <c r="B33" s="91"/>
+      <c r="C33" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49" t="s">
+      <c r="D33" s="91"/>
+      <c r="E33" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49" t="s">
+      <c r="F33" s="91"/>
+      <c r="G33" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49" t="s">
+      <c r="H33" s="91"/>
+      <c r="I33" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
@@ -3185,17 +3226,17 @@
       <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
@@ -3219,17 +3260,17 @@
       <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -3253,17 +3294,17 @@
       <c r="AF35" s="38"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -3324,16 +3365,16 @@
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -3357,27 +3398,27 @@
       <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49" t="s">
+      <c r="B39" s="91"/>
+      <c r="C39" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49" t="s">
+      <c r="D39" s="91"/>
+      <c r="E39" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49" t="s">
+      <c r="F39" s="91"/>
+      <c r="G39" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49" t="s">
+      <c r="H39" s="91"/>
+      <c r="I39" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -3401,17 +3442,17 @@
       <c r="AF39" s="38"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -3435,17 +3476,17 @@
       <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -3469,17 +3510,17 @@
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -3979,74 +4020,23 @@
       <c r="AF56" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="B7:C12"/>
-    <mergeCell ref="D6:E14"/>
-    <mergeCell ref="F8:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J17:K19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:I19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="C28:D30"/>
-    <mergeCell ref="E28:F30"/>
-    <mergeCell ref="G28:H30"/>
-    <mergeCell ref="I28:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
+  <mergeCells count="99">
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I34:K36"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A28:B30"/>
     <mergeCell ref="A23:K25"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="A40:B42"/>
@@ -4063,14 +4053,73 @@
     <mergeCell ref="C34:D36"/>
     <mergeCell ref="E34:F36"/>
     <mergeCell ref="G34:H36"/>
-    <mergeCell ref="I34:K36"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="E28:F30"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="I28:K30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:I19"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F8:G12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4103,48 +4152,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:420" ht="12" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="100" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="102"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="104"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -4178,34 +4227,34 @@
       <c r="BA1" s="2"/>
     </row>
     <row r="2" spans="1:420" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95">
+      <c r="A2" s="94"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97">
         <f>I4</f>
         <v>44165</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="97">
         <f t="shared" ref="P2" si="0">P4</f>
         <v>44172</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="99"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -5280,24 +5329,24 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="23"/>
-      <c r="AD10" s="90" t="s">
+      <c r="AD10" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="90"/>
-      <c r="AM10" s="90"/>
-      <c r="AN10" s="90"/>
-      <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
-      <c r="AQ10" s="90"/>
-      <c r="AR10" s="90"/>
-      <c r="AS10" s="90"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="92"/>
     </row>
     <row r="11" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A11" s="21">
@@ -5333,22 +5382,22 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="23"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="90"/>
-      <c r="AQ11" s="90"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
     </row>
     <row r="12" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A12" s="21">
@@ -5384,22 +5433,22 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="23"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="90"/>
-      <c r="AN12" s="90"/>
-      <c r="AO12" s="90"/>
-      <c r="AP12" s="90"/>
-      <c r="AQ12" s="90"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="92"/>
     </row>
     <row r="13" spans="1:420" ht="24" customHeight="1" outlineLevel="1">
       <c r="A13" s="21">
@@ -5435,22 +5484,22 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="23"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="90"/>
-      <c r="AM13" s="90"/>
-      <c r="AN13" s="90"/>
-      <c r="AO13" s="90"/>
-      <c r="AP13" s="90"/>
-      <c r="AQ13" s="90"/>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="90"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
     </row>
     <row r="14" spans="1:420" ht="24.75" customHeight="1">
       <c r="A14" s="21">
@@ -5486,22 +5535,22 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="23"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="90"/>
-      <c r="AM14" s="90"/>
-      <c r="AN14" s="90"/>
-      <c r="AO14" s="90"/>
-      <c r="AP14" s="90"/>
-      <c r="AQ14" s="90"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="90"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="92"/>
+      <c r="AN14" s="92"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="92"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="92"/>
+      <c r="AS14" s="92"/>
     </row>
     <row r="15" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A15" s="21">
@@ -5744,28 +5793,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
+    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
+      <rowBreaks count="3" manualBreakCount="3">
+        <brk id="49" max="16383" man="1"/>
+        <brk id="107" max="16383" man="1"/>
+        <brk id="128" max="16383" man="1"/>
+      </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId2"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId3"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
@@ -5778,25 +5824,28 @@
       </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
-      <rowBreaks count="3" manualBreakCount="3">
-        <brk id="49" max="16383" man="1"/>
-        <brk id="107" max="16383" man="1"/>
-        <brk id="128" max="16383" man="1"/>
-      </rowBreaks>
+    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId6"/>
@@ -5863,79 +5912,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="100" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="102"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="104"/>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="21" thickBot="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95">
+      <c r="A2" s="94"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97">
         <f>I4</f>
         <v>44172</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="97">
         <f>P4</f>
         <v>44179</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="99"/>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" ht="21" hidden="1" thickBot="1">
@@ -6499,6 +6548,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -6506,11 +6560,6 @@
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:V17">
@@ -6540,102 +6589,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="E1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="100" t="s">
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="106"/>
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="106"/>
+      <c r="AG1" s="106"/>
+      <c r="AH1" s="106"/>
     </row>
     <row r="2" spans="1:34" ht="14.25" thickBot="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95">
+      <c r="A2" s="94"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="97">
         <f>I4</f>
         <v>44172</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="95">
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="97">
         <f>P4</f>
         <v>44179</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="22"/>
@@ -6702,18 +6751,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
     </row>
     <row r="4" spans="1:34" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="22"/>
@@ -6766,18 +6815,18 @@
       <c r="V4" s="32">
         <v>44185</v>
       </c>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
     </row>
     <row r="5" spans="1:34" ht="16.5">
       <c r="A5" s="20">
@@ -6812,18 +6861,18 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="24"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="106"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
     </row>
     <row r="6" spans="1:34" ht="45">
       <c r="A6" s="21">
@@ -6859,18 +6908,18 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="23"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="106"/>
+      <c r="AD6" s="106"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
     </row>
     <row r="7" spans="1:34" ht="16.5">
       <c r="A7" s="21">
@@ -6906,18 +6955,18 @@
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="23"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="104"/>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="104"/>
-      <c r="AF7" s="104"/>
-      <c r="AG7" s="104"/>
-      <c r="AH7" s="104"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
     </row>
     <row r="8" spans="1:34" ht="45">
       <c r="A8" s="21">
@@ -6953,18 +7002,18 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="23"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="104"/>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
     </row>
     <row r="9" spans="1:34" ht="45">
       <c r="A9" s="21">
@@ -7000,18 +7049,18 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="23"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="104"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
     </row>
     <row r="10" spans="1:34" ht="33.75">
       <c r="A10" s="21">
@@ -7047,18 +7096,18 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="23"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="104"/>
-      <c r="AG10" s="104"/>
-      <c r="AH10" s="104"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
     </row>
     <row r="11" spans="1:34" ht="16.5">
       <c r="A11" s="37">
@@ -7090,18 +7139,18 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="23"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="104"/>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="104"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="106"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
     </row>
     <row r="12" spans="1:34" ht="16.5">
       <c r="A12" s="21">
@@ -7131,18 +7180,18 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="23"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="104"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="106"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="106"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="106"/>
+      <c r="AC12" s="106"/>
+      <c r="AD12" s="106"/>
+      <c r="AE12" s="106"/>
+      <c r="AF12" s="106"/>
+      <c r="AG12" s="106"/>
+      <c r="AH12" s="106"/>
     </row>
     <row r="13" spans="1:34" ht="16.5">
       <c r="A13" s="21">
@@ -7172,18 +7221,18 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="23"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="104"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="106"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
     </row>
     <row r="14" spans="1:34" ht="16.5">
       <c r="A14" s="21">
@@ -7213,18 +7262,18 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="23"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="106"/>
+      <c r="Y14" s="106"/>
+      <c r="Z14" s="106"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="106"/>
     </row>
     <row r="15" spans="1:34" ht="16.5">
       <c r="A15" s="21">
@@ -7254,18 +7303,18 @@
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="23"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="104"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="106"/>
+      <c r="Y15" s="106"/>
+      <c r="Z15" s="106"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="106"/>
+      <c r="AD15" s="106"/>
+      <c r="AE15" s="106"/>
+      <c r="AF15" s="106"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="106"/>
     </row>
     <row r="16" spans="1:34" ht="16.5">
       <c r="A16" s="21">
@@ -7295,18 +7344,18 @@
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="23"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
     </row>
     <row r="17" spans="1:34" ht="16.5">
       <c r="A17" s="21">
@@ -7336,3582 +7385,3582 @@
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="23"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="104"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="103"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="104"/>
-      <c r="AH18" s="104"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="106"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="103"/>
-      <c r="T19" s="103"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="103"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="104"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="106"/>
+      <c r="Y19" s="106"/>
+      <c r="Z19" s="106"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="106"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="106"/>
+      <c r="AE19" s="106"/>
+      <c r="AF19" s="106"/>
+      <c r="AG19" s="106"/>
+      <c r="AH19" s="106"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="104"/>
-      <c r="AH20" s="104"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="106"/>
+      <c r="X20" s="106"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="106"/>
+      <c r="AE20" s="106"/>
+      <c r="AF20" s="106"/>
+      <c r="AG20" s="106"/>
+      <c r="AH20" s="106"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
-      <c r="U21" s="103"/>
-      <c r="V21" s="103"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="104"/>
-      <c r="AH21" s="104"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="105"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="106"/>
+      <c r="AA21" s="106"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="103"/>
-      <c r="T22" s="103"/>
-      <c r="U22" s="103"/>
-      <c r="V22" s="103"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="104"/>
-      <c r="AG22" s="104"/>
-      <c r="AH22" s="104"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="105"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="106"/>
+      <c r="Z22" s="106"/>
+      <c r="AA22" s="106"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="106"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="103"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="103"/>
-      <c r="T23" s="103"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="104"/>
-      <c r="AG23" s="104"/>
-      <c r="AH23" s="104"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="106"/>
+      <c r="X23" s="106"/>
+      <c r="Y23" s="106"/>
+      <c r="Z23" s="106"/>
+      <c r="AA23" s="106"/>
+      <c r="AB23" s="106"/>
+      <c r="AC23" s="106"/>
+      <c r="AD23" s="106"/>
+      <c r="AE23" s="106"/>
+      <c r="AF23" s="106"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="106"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="103"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="104"/>
-      <c r="Z24" s="104"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="104"/>
-      <c r="AG24" s="104"/>
-      <c r="AH24" s="104"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
+      <c r="AF24" s="106"/>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="106"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="103"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="104"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="104"/>
-      <c r="Z25" s="104"/>
-      <c r="AA25" s="104"/>
-      <c r="AB25" s="104"/>
-      <c r="AC25" s="104"/>
-      <c r="AD25" s="104"/>
-      <c r="AE25" s="104"/>
-      <c r="AF25" s="104"/>
-      <c r="AG25" s="104"/>
-      <c r="AH25" s="104"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="105"/>
+      <c r="R25" s="105"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="105"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="105"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="103"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="104"/>
-      <c r="Z26" s="104"/>
-      <c r="AA26" s="104"/>
-      <c r="AB26" s="104"/>
-      <c r="AC26" s="104"/>
-      <c r="AD26" s="104"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="104"/>
-      <c r="AG26" s="104"/>
-      <c r="AH26" s="104"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="105"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="103"/>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="104"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="104"/>
-      <c r="AB27" s="104"/>
-      <c r="AC27" s="104"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="104"/>
-      <c r="AG27" s="104"/>
-      <c r="AH27" s="104"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="105"/>
+      <c r="R27" s="105"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="105"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="105"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="103"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="104"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="104"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="104"/>
-      <c r="AB28" s="104"/>
-      <c r="AC28" s="104"/>
-      <c r="AD28" s="104"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="104"/>
-      <c r="AH28" s="104"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="106"/>
+      <c r="AB28" s="106"/>
+      <c r="AC28" s="106"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="106"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="106"/>
+      <c r="AH28" s="106"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="104"/>
-      <c r="AF29" s="104"/>
-      <c r="AG29" s="104"/>
-      <c r="AH29" s="104"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="105"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="105"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
-      <c r="AA30" s="104"/>
-      <c r="AB30" s="104"/>
-      <c r="AC30" s="104"/>
-      <c r="AD30" s="104"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="104"/>
-      <c r="AH30" s="104"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+      <c r="S30" s="105"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="105"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="106"/>
+      <c r="AA30" s="106"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="103"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
-      <c r="AA31" s="104"/>
-      <c r="AB31" s="104"/>
-      <c r="AC31" s="104"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="104"/>
-      <c r="AF31" s="104"/>
-      <c r="AG31" s="104"/>
-      <c r="AH31" s="104"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105"/>
+      <c r="R31" s="105"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="105"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="104"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="104"/>
-      <c r="AA32" s="104"/>
-      <c r="AB32" s="104"/>
-      <c r="AC32" s="104"/>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="104"/>
-      <c r="AF32" s="104"/>
-      <c r="AG32" s="104"/>
-      <c r="AH32" s="104"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="105"/>
+      <c r="R32" s="105"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="105"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="106"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="106"/>
+      <c r="AA32" s="106"/>
+      <c r="AB32" s="106"/>
+      <c r="AC32" s="106"/>
+      <c r="AD32" s="106"/>
+      <c r="AE32" s="106"/>
+      <c r="AF32" s="106"/>
+      <c r="AG32" s="106"/>
+      <c r="AH32" s="106"/>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="103"/>
-      <c r="V33" s="103"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="104"/>
-      <c r="AB33" s="104"/>
-      <c r="AC33" s="104"/>
-      <c r="AD33" s="104"/>
-      <c r="AE33" s="104"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="104"/>
-      <c r="AH33" s="104"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="106"/>
+      <c r="Y33" s="106"/>
+      <c r="Z33" s="106"/>
+      <c r="AA33" s="106"/>
+      <c r="AB33" s="106"/>
+      <c r="AC33" s="106"/>
+      <c r="AD33" s="106"/>
+      <c r="AE33" s="106"/>
+      <c r="AF33" s="106"/>
+      <c r="AG33" s="106"/>
+      <c r="AH33" s="106"/>
     </row>
     <row r="34" spans="1:34">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="104"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="104"/>
-      <c r="Z34" s="104"/>
-      <c r="AA34" s="104"/>
-      <c r="AB34" s="104"/>
-      <c r="AC34" s="104"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="104"/>
-      <c r="AF34" s="104"/>
-      <c r="AG34" s="104"/>
-      <c r="AH34" s="104"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="106"/>
+      <c r="AD34" s="106"/>
+      <c r="AE34" s="106"/>
+      <c r="AF34" s="106"/>
+      <c r="AG34" s="106"/>
+      <c r="AH34" s="106"/>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
-      <c r="Z35" s="104"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="104"/>
-      <c r="AC35" s="104"/>
-      <c r="AD35" s="104"/>
-      <c r="AE35" s="104"/>
-      <c r="AF35" s="104"/>
-      <c r="AG35" s="104"/>
-      <c r="AH35" s="104"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="105"/>
+      <c r="R35" s="105"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="105"/>
+      <c r="U35" s="105"/>
+      <c r="V35" s="105"/>
+      <c r="W35" s="106"/>
+      <c r="X35" s="106"/>
+      <c r="Y35" s="106"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="106"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="106"/>
+      <c r="AD35" s="106"/>
+      <c r="AE35" s="106"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="106"/>
+      <c r="AH35" s="106"/>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="104"/>
-      <c r="X36" s="104"/>
-      <c r="Y36" s="104"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="104"/>
-      <c r="AB36" s="104"/>
-      <c r="AC36" s="104"/>
-      <c r="AD36" s="104"/>
-      <c r="AE36" s="104"/>
-      <c r="AF36" s="104"/>
-      <c r="AG36" s="104"/>
-      <c r="AH36" s="104"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="105"/>
+      <c r="R36" s="105"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="105"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="105"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="106"/>
+      <c r="Z36" s="106"/>
+      <c r="AA36" s="106"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="106"/>
+      <c r="AE36" s="106"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="106"/>
+      <c r="AH36" s="106"/>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="103"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="103"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="103"/>
-      <c r="W37" s="104"/>
-      <c r="X37" s="104"/>
-      <c r="Y37" s="104"/>
-      <c r="Z37" s="104"/>
-      <c r="AA37" s="104"/>
-      <c r="AB37" s="104"/>
-      <c r="AC37" s="104"/>
-      <c r="AD37" s="104"/>
-      <c r="AE37" s="104"/>
-      <c r="AF37" s="104"/>
-      <c r="AG37" s="104"/>
-      <c r="AH37" s="104"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="105"/>
+      <c r="V37" s="105"/>
+      <c r="W37" s="106"/>
+      <c r="X37" s="106"/>
+      <c r="Y37" s="106"/>
+      <c r="Z37" s="106"/>
+      <c r="AA37" s="106"/>
+      <c r="AB37" s="106"/>
+      <c r="AC37" s="106"/>
+      <c r="AD37" s="106"/>
+      <c r="AE37" s="106"/>
+      <c r="AF37" s="106"/>
+      <c r="AG37" s="106"/>
+      <c r="AH37" s="106"/>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="103"/>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="103"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="103"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="103"/>
-      <c r="V38" s="103"/>
-      <c r="W38" s="104"/>
-      <c r="X38" s="104"/>
-      <c r="Y38" s="104"/>
-      <c r="Z38" s="104"/>
-      <c r="AA38" s="104"/>
-      <c r="AB38" s="104"/>
-      <c r="AC38" s="104"/>
-      <c r="AD38" s="104"/>
-      <c r="AE38" s="104"/>
-      <c r="AF38" s="104"/>
-      <c r="AG38" s="104"/>
-      <c r="AH38" s="104"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
+      <c r="V38" s="105"/>
+      <c r="W38" s="106"/>
+      <c r="X38" s="106"/>
+      <c r="Y38" s="106"/>
+      <c r="Z38" s="106"/>
+      <c r="AA38" s="106"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="106"/>
+      <c r="AD38" s="106"/>
+      <c r="AE38" s="106"/>
+      <c r="AF38" s="106"/>
+      <c r="AG38" s="106"/>
+      <c r="AH38" s="106"/>
     </row>
     <row r="39" spans="1:34">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="103"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="103"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="103"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="104"/>
-      <c r="X39" s="104"/>
-      <c r="Y39" s="104"/>
-      <c r="Z39" s="104"/>
-      <c r="AA39" s="104"/>
-      <c r="AB39" s="104"/>
-      <c r="AC39" s="104"/>
-      <c r="AD39" s="104"/>
-      <c r="AE39" s="104"/>
-      <c r="AF39" s="104"/>
-      <c r="AG39" s="104"/>
-      <c r="AH39" s="104"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="106"/>
+      <c r="X39" s="106"/>
+      <c r="Y39" s="106"/>
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="106"/>
+      <c r="AB39" s="106"/>
+      <c r="AC39" s="106"/>
+      <c r="AD39" s="106"/>
+      <c r="AE39" s="106"/>
+      <c r="AF39" s="106"/>
+      <c r="AG39" s="106"/>
+      <c r="AH39" s="106"/>
     </row>
     <row r="40" spans="1:34">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
-      <c r="O40" s="103"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="103"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="103"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="103"/>
-      <c r="V40" s="103"/>
-      <c r="W40" s="104"/>
-      <c r="X40" s="104"/>
-      <c r="Y40" s="104"/>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="104"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="104"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="104"/>
-      <c r="AF40" s="104"/>
-      <c r="AG40" s="104"/>
-      <c r="AH40" s="104"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="106"/>
+      <c r="X40" s="106"/>
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="106"/>
+      <c r="AA40" s="106"/>
+      <c r="AB40" s="106"/>
+      <c r="AC40" s="106"/>
+      <c r="AD40" s="106"/>
+      <c r="AE40" s="106"/>
+      <c r="AF40" s="106"/>
+      <c r="AG40" s="106"/>
+      <c r="AH40" s="106"/>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="103"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="103"/>
-      <c r="M41" s="103"/>
-      <c r="N41" s="103"/>
-      <c r="O41" s="103"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="103"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="103"/>
-      <c r="W41" s="104"/>
-      <c r="X41" s="104"/>
-      <c r="Y41" s="104"/>
-      <c r="Z41" s="104"/>
-      <c r="AA41" s="104"/>
-      <c r="AB41" s="104"/>
-      <c r="AC41" s="104"/>
-      <c r="AD41" s="104"/>
-      <c r="AE41" s="104"/>
-      <c r="AF41" s="104"/>
-      <c r="AG41" s="104"/>
-      <c r="AH41" s="104"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="105"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="105"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106"/>
+      <c r="Y41" s="106"/>
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="106"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="106"/>
+      <c r="AD41" s="106"/>
+      <c r="AE41" s="106"/>
+      <c r="AF41" s="106"/>
+      <c r="AG41" s="106"/>
+      <c r="AH41" s="106"/>
     </row>
     <row r="42" spans="1:34">
-      <c r="A42" s="103"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="103"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="104"/>
-      <c r="X42" s="104"/>
-      <c r="Y42" s="104"/>
-      <c r="Z42" s="104"/>
-      <c r="AA42" s="104"/>
-      <c r="AB42" s="104"/>
-      <c r="AC42" s="104"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="104"/>
-      <c r="AF42" s="104"/>
-      <c r="AG42" s="104"/>
-      <c r="AH42" s="104"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="105"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="106"/>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="106"/>
+      <c r="AB42" s="106"/>
+      <c r="AC42" s="106"/>
+      <c r="AD42" s="106"/>
+      <c r="AE42" s="106"/>
+      <c r="AF42" s="106"/>
+      <c r="AG42" s="106"/>
+      <c r="AH42" s="106"/>
     </row>
     <row r="43" spans="1:34">
-      <c r="A43" s="103"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="103"/>
-      <c r="M43" s="103"/>
-      <c r="N43" s="103"/>
-      <c r="O43" s="103"/>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="103"/>
-      <c r="R43" s="103"/>
-      <c r="S43" s="103"/>
-      <c r="T43" s="103"/>
-      <c r="U43" s="103"/>
-      <c r="V43" s="103"/>
-      <c r="W43" s="104"/>
-      <c r="X43" s="104"/>
-      <c r="Y43" s="104"/>
-      <c r="Z43" s="104"/>
-      <c r="AA43" s="104"/>
-      <c r="AB43" s="104"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="104"/>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="104"/>
-      <c r="AG43" s="104"/>
-      <c r="AH43" s="104"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="106"/>
+      <c r="X43" s="106"/>
+      <c r="Y43" s="106"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
+      <c r="AB43" s="106"/>
+      <c r="AC43" s="106"/>
+      <c r="AD43" s="106"/>
+      <c r="AE43" s="106"/>
+      <c r="AF43" s="106"/>
+      <c r="AG43" s="106"/>
+      <c r="AH43" s="106"/>
     </row>
     <row r="44" spans="1:34">
-      <c r="A44" s="103"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="103"/>
-      <c r="N44" s="103"/>
-      <c r="O44" s="103"/>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="103"/>
-      <c r="R44" s="103"/>
-      <c r="S44" s="103"/>
-      <c r="T44" s="103"/>
-      <c r="U44" s="103"/>
-      <c r="V44" s="103"/>
-      <c r="W44" s="104"/>
-      <c r="X44" s="104"/>
-      <c r="Y44" s="104"/>
-      <c r="Z44" s="104"/>
-      <c r="AA44" s="104"/>
-      <c r="AB44" s="104"/>
-      <c r="AC44" s="104"/>
-      <c r="AD44" s="104"/>
-      <c r="AE44" s="104"/>
-      <c r="AF44" s="104"/>
-      <c r="AG44" s="104"/>
-      <c r="AH44" s="104"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="105"/>
+      <c r="S44" s="105"/>
+      <c r="T44" s="105"/>
+      <c r="U44" s="105"/>
+      <c r="V44" s="105"/>
+      <c r="W44" s="106"/>
+      <c r="X44" s="106"/>
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="106"/>
+      <c r="AA44" s="106"/>
+      <c r="AB44" s="106"/>
+      <c r="AC44" s="106"/>
+      <c r="AD44" s="106"/>
+      <c r="AE44" s="106"/>
+      <c r="AF44" s="106"/>
+      <c r="AG44" s="106"/>
+      <c r="AH44" s="106"/>
     </row>
     <row r="45" spans="1:34">
-      <c r="A45" s="103"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="103"/>
-      <c r="I45" s="103"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
-      <c r="L45" s="103"/>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="103"/>
-      <c r="R45" s="103"/>
-      <c r="S45" s="103"/>
-      <c r="T45" s="103"/>
-      <c r="U45" s="103"/>
-      <c r="V45" s="103"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="104"/>
-      <c r="Y45" s="104"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="104"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="104"/>
-      <c r="AF45" s="104"/>
-      <c r="AG45" s="104"/>
-      <c r="AH45" s="104"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="105"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="105"/>
+      <c r="T45" s="105"/>
+      <c r="U45" s="105"/>
+      <c r="V45" s="105"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="106"/>
+      <c r="Y45" s="106"/>
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="106"/>
+      <c r="AB45" s="106"/>
+      <c r="AC45" s="106"/>
+      <c r="AD45" s="106"/>
+      <c r="AE45" s="106"/>
+      <c r="AF45" s="106"/>
+      <c r="AG45" s="106"/>
+      <c r="AH45" s="106"/>
     </row>
     <row r="46" spans="1:34">
-      <c r="A46" s="103"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="103"/>
-      <c r="T46" s="103"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="104"/>
-      <c r="X46" s="104"/>
-      <c r="Y46" s="104"/>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="104"/>
-      <c r="AB46" s="104"/>
-      <c r="AC46" s="104"/>
-      <c r="AD46" s="104"/>
-      <c r="AE46" s="104"/>
-      <c r="AF46" s="104"/>
-      <c r="AG46" s="104"/>
-      <c r="AH46" s="104"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="105"/>
+      <c r="R46" s="105"/>
+      <c r="S46" s="105"/>
+      <c r="T46" s="105"/>
+      <c r="U46" s="105"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" s="106"/>
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="106"/>
+      <c r="AB46" s="106"/>
+      <c r="AC46" s="106"/>
+      <c r="AD46" s="106"/>
+      <c r="AE46" s="106"/>
+      <c r="AF46" s="106"/>
+      <c r="AG46" s="106"/>
+      <c r="AH46" s="106"/>
     </row>
     <row r="47" spans="1:34">
-      <c r="A47" s="103"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="103"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="103"/>
-      <c r="R47" s="103"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="103"/>
-      <c r="U47" s="103"/>
-      <c r="V47" s="103"/>
-      <c r="W47" s="104"/>
-      <c r="X47" s="104"/>
-      <c r="Y47" s="104"/>
-      <c r="Z47" s="104"/>
-      <c r="AA47" s="104"/>
-      <c r="AB47" s="104"/>
-      <c r="AC47" s="104"/>
-      <c r="AD47" s="104"/>
-      <c r="AE47" s="104"/>
-      <c r="AF47" s="104"/>
-      <c r="AG47" s="104"/>
-      <c r="AH47" s="104"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="105"/>
+      <c r="T47" s="105"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="105"/>
+      <c r="W47" s="106"/>
+      <c r="X47" s="106"/>
+      <c r="Y47" s="106"/>
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="106"/>
+      <c r="AB47" s="106"/>
+      <c r="AC47" s="106"/>
+      <c r="AD47" s="106"/>
+      <c r="AE47" s="106"/>
+      <c r="AF47" s="106"/>
+      <c r="AG47" s="106"/>
+      <c r="AH47" s="106"/>
     </row>
     <row r="48" spans="1:34">
-      <c r="A48" s="103"/>
-      <c r="B48" s="103"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="103"/>
-      <c r="M48" s="103"/>
-      <c r="N48" s="103"/>
-      <c r="O48" s="103"/>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="103"/>
-      <c r="R48" s="103"/>
-      <c r="S48" s="103"/>
-      <c r="T48" s="103"/>
-      <c r="U48" s="103"/>
-      <c r="V48" s="103"/>
-      <c r="W48" s="104"/>
-      <c r="X48" s="104"/>
-      <c r="Y48" s="104"/>
-      <c r="Z48" s="104"/>
-      <c r="AA48" s="104"/>
-      <c r="AB48" s="104"/>
-      <c r="AC48" s="104"/>
-      <c r="AD48" s="104"/>
-      <c r="AE48" s="104"/>
-      <c r="AF48" s="104"/>
-      <c r="AG48" s="104"/>
-      <c r="AH48" s="104"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="106"/>
+      <c r="X48" s="106"/>
+      <c r="Y48" s="106"/>
+      <c r="Z48" s="106"/>
+      <c r="AA48" s="106"/>
+      <c r="AB48" s="106"/>
+      <c r="AC48" s="106"/>
+      <c r="AD48" s="106"/>
+      <c r="AE48" s="106"/>
+      <c r="AF48" s="106"/>
+      <c r="AG48" s="106"/>
+      <c r="AH48" s="106"/>
     </row>
     <row r="49" spans="1:34">
-      <c r="A49" s="103"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
-      <c r="K49" s="103"/>
-      <c r="L49" s="103"/>
-      <c r="M49" s="103"/>
-      <c r="N49" s="103"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="103"/>
-      <c r="R49" s="103"/>
-      <c r="S49" s="103"/>
-      <c r="T49" s="103"/>
-      <c r="U49" s="103"/>
-      <c r="V49" s="103"/>
-      <c r="W49" s="104"/>
-      <c r="X49" s="104"/>
-      <c r="Y49" s="104"/>
-      <c r="Z49" s="104"/>
-      <c r="AA49" s="104"/>
-      <c r="AB49" s="104"/>
-      <c r="AC49" s="104"/>
-      <c r="AD49" s="104"/>
-      <c r="AE49" s="104"/>
-      <c r="AF49" s="104"/>
-      <c r="AG49" s="104"/>
-      <c r="AH49" s="104"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="105"/>
+      <c r="S49" s="105"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="105"/>
+      <c r="V49" s="105"/>
+      <c r="W49" s="106"/>
+      <c r="X49" s="106"/>
+      <c r="Y49" s="106"/>
+      <c r="Z49" s="106"/>
+      <c r="AA49" s="106"/>
+      <c r="AB49" s="106"/>
+      <c r="AC49" s="106"/>
+      <c r="AD49" s="106"/>
+      <c r="AE49" s="106"/>
+      <c r="AF49" s="106"/>
+      <c r="AG49" s="106"/>
+      <c r="AH49" s="106"/>
     </row>
     <row r="50" spans="1:34">
-      <c r="A50" s="103"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="103"/>
-      <c r="S50" s="103"/>
-      <c r="T50" s="103"/>
-      <c r="U50" s="103"/>
-      <c r="V50" s="103"/>
-      <c r="W50" s="104"/>
-      <c r="X50" s="104"/>
-      <c r="Y50" s="104"/>
-      <c r="Z50" s="104"/>
-      <c r="AA50" s="104"/>
-      <c r="AB50" s="104"/>
-      <c r="AC50" s="104"/>
-      <c r="AD50" s="104"/>
-      <c r="AE50" s="104"/>
-      <c r="AF50" s="104"/>
-      <c r="AG50" s="104"/>
-      <c r="AH50" s="104"/>
+      <c r="A50" s="105"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="105"/>
+      <c r="U50" s="105"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="106"/>
+      <c r="X50" s="106"/>
+      <c r="Y50" s="106"/>
+      <c r="Z50" s="106"/>
+      <c r="AA50" s="106"/>
+      <c r="AB50" s="106"/>
+      <c r="AC50" s="106"/>
+      <c r="AD50" s="106"/>
+      <c r="AE50" s="106"/>
+      <c r="AF50" s="106"/>
+      <c r="AG50" s="106"/>
+      <c r="AH50" s="106"/>
     </row>
     <row r="51" spans="1:34">
-      <c r="A51" s="103"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="103"/>
-      <c r="M51" s="103"/>
-      <c r="N51" s="103"/>
-      <c r="O51" s="103"/>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="103"/>
-      <c r="R51" s="103"/>
-      <c r="S51" s="103"/>
-      <c r="T51" s="103"/>
-      <c r="U51" s="103"/>
-      <c r="V51" s="103"/>
-      <c r="W51" s="104"/>
-      <c r="X51" s="104"/>
-      <c r="Y51" s="104"/>
-      <c r="Z51" s="104"/>
-      <c r="AA51" s="104"/>
-      <c r="AB51" s="104"/>
-      <c r="AC51" s="104"/>
-      <c r="AD51" s="104"/>
-      <c r="AE51" s="104"/>
-      <c r="AF51" s="104"/>
-      <c r="AG51" s="104"/>
-      <c r="AH51" s="104"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="105"/>
+      <c r="W51" s="106"/>
+      <c r="X51" s="106"/>
+      <c r="Y51" s="106"/>
+      <c r="Z51" s="106"/>
+      <c r="AA51" s="106"/>
+      <c r="AB51" s="106"/>
+      <c r="AC51" s="106"/>
+      <c r="AD51" s="106"/>
+      <c r="AE51" s="106"/>
+      <c r="AF51" s="106"/>
+      <c r="AG51" s="106"/>
+      <c r="AH51" s="106"/>
     </row>
     <row r="52" spans="1:34">
-      <c r="A52" s="103"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="103"/>
-      <c r="M52" s="103"/>
-      <c r="N52" s="103"/>
-      <c r="O52" s="103"/>
-      <c r="P52" s="103"/>
-      <c r="Q52" s="103"/>
-      <c r="R52" s="103"/>
-      <c r="S52" s="103"/>
-      <c r="T52" s="103"/>
-      <c r="U52" s="103"/>
-      <c r="V52" s="103"/>
-      <c r="W52" s="104"/>
-      <c r="X52" s="104"/>
-      <c r="Y52" s="104"/>
-      <c r="Z52" s="104"/>
-      <c r="AA52" s="104"/>
-      <c r="AB52" s="104"/>
-      <c r="AC52" s="104"/>
-      <c r="AD52" s="104"/>
-      <c r="AE52" s="104"/>
-      <c r="AF52" s="104"/>
-      <c r="AG52" s="104"/>
-      <c r="AH52" s="104"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="105"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
+      <c r="J52" s="105"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="105"/>
+      <c r="R52" s="105"/>
+      <c r="S52" s="105"/>
+      <c r="T52" s="105"/>
+      <c r="U52" s="105"/>
+      <c r="V52" s="105"/>
+      <c r="W52" s="106"/>
+      <c r="X52" s="106"/>
+      <c r="Y52" s="106"/>
+      <c r="Z52" s="106"/>
+      <c r="AA52" s="106"/>
+      <c r="AB52" s="106"/>
+      <c r="AC52" s="106"/>
+      <c r="AD52" s="106"/>
+      <c r="AE52" s="106"/>
+      <c r="AF52" s="106"/>
+      <c r="AG52" s="106"/>
+      <c r="AH52" s="106"/>
     </row>
     <row r="53" spans="1:34">
-      <c r="A53" s="103"/>
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="103"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="103"/>
-      <c r="S53" s="103"/>
-      <c r="T53" s="103"/>
-      <c r="U53" s="103"/>
-      <c r="V53" s="103"/>
-      <c r="W53" s="104"/>
-      <c r="X53" s="104"/>
-      <c r="Y53" s="104"/>
-      <c r="Z53" s="104"/>
-      <c r="AA53" s="104"/>
-      <c r="AB53" s="104"/>
-      <c r="AC53" s="104"/>
-      <c r="AD53" s="104"/>
-      <c r="AE53" s="104"/>
-      <c r="AF53" s="104"/>
-      <c r="AG53" s="104"/>
-      <c r="AH53" s="104"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
+      <c r="R53" s="105"/>
+      <c r="S53" s="105"/>
+      <c r="T53" s="105"/>
+      <c r="U53" s="105"/>
+      <c r="V53" s="105"/>
+      <c r="W53" s="106"/>
+      <c r="X53" s="106"/>
+      <c r="Y53" s="106"/>
+      <c r="Z53" s="106"/>
+      <c r="AA53" s="106"/>
+      <c r="AB53" s="106"/>
+      <c r="AC53" s="106"/>
+      <c r="AD53" s="106"/>
+      <c r="AE53" s="106"/>
+      <c r="AF53" s="106"/>
+      <c r="AG53" s="106"/>
+      <c r="AH53" s="106"/>
     </row>
     <row r="54" spans="1:34">
-      <c r="A54" s="103"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="103"/>
-      <c r="N54" s="103"/>
-      <c r="O54" s="103"/>
-      <c r="P54" s="103"/>
-      <c r="Q54" s="103"/>
-      <c r="R54" s="103"/>
-      <c r="S54" s="103"/>
-      <c r="T54" s="103"/>
-      <c r="U54" s="103"/>
-      <c r="V54" s="103"/>
-      <c r="W54" s="104"/>
-      <c r="X54" s="104"/>
-      <c r="Y54" s="104"/>
-      <c r="Z54" s="104"/>
-      <c r="AA54" s="104"/>
-      <c r="AB54" s="104"/>
-      <c r="AC54" s="104"/>
-      <c r="AD54" s="104"/>
-      <c r="AE54" s="104"/>
-      <c r="AF54" s="104"/>
-      <c r="AG54" s="104"/>
-      <c r="AH54" s="104"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="105"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="105"/>
+      <c r="R54" s="105"/>
+      <c r="S54" s="105"/>
+      <c r="T54" s="105"/>
+      <c r="U54" s="105"/>
+      <c r="V54" s="105"/>
+      <c r="W54" s="106"/>
+      <c r="X54" s="106"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
+      <c r="AB54" s="106"/>
+      <c r="AC54" s="106"/>
+      <c r="AD54" s="106"/>
+      <c r="AE54" s="106"/>
+      <c r="AF54" s="106"/>
+      <c r="AG54" s="106"/>
+      <c r="AH54" s="106"/>
     </row>
     <row r="55" spans="1:34">
-      <c r="A55" s="103"/>
-      <c r="B55" s="103"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="103"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
-      <c r="L55" s="103"/>
-      <c r="M55" s="103"/>
-      <c r="N55" s="103"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="103"/>
-      <c r="R55" s="103"/>
-      <c r="S55" s="103"/>
-      <c r="T55" s="103"/>
-      <c r="U55" s="103"/>
-      <c r="V55" s="103"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104"/>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="104"/>
-      <c r="AB55" s="104"/>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="104"/>
-      <c r="AE55" s="104"/>
-      <c r="AF55" s="104"/>
-      <c r="AG55" s="104"/>
-      <c r="AH55" s="104"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="105"/>
+      <c r="S55" s="105"/>
+      <c r="T55" s="105"/>
+      <c r="U55" s="105"/>
+      <c r="V55" s="105"/>
+      <c r="W55" s="106"/>
+      <c r="X55" s="106"/>
+      <c r="Y55" s="106"/>
+      <c r="Z55" s="106"/>
+      <c r="AA55" s="106"/>
+      <c r="AB55" s="106"/>
+      <c r="AC55" s="106"/>
+      <c r="AD55" s="106"/>
+      <c r="AE55" s="106"/>
+      <c r="AF55" s="106"/>
+      <c r="AG55" s="106"/>
+      <c r="AH55" s="106"/>
     </row>
     <row r="56" spans="1:34">
-      <c r="A56" s="103"/>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="103"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="103"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
-      <c r="L56" s="103"/>
-      <c r="M56" s="103"/>
-      <c r="N56" s="103"/>
-      <c r="O56" s="103"/>
-      <c r="P56" s="103"/>
-      <c r="Q56" s="103"/>
-      <c r="R56" s="103"/>
-      <c r="S56" s="103"/>
-      <c r="T56" s="103"/>
-      <c r="U56" s="103"/>
-      <c r="V56" s="103"/>
-      <c r="W56" s="104"/>
-      <c r="X56" s="104"/>
-      <c r="Y56" s="104"/>
-      <c r="Z56" s="104"/>
-      <c r="AA56" s="104"/>
-      <c r="AB56" s="104"/>
-      <c r="AC56" s="104"/>
-      <c r="AD56" s="104"/>
-      <c r="AE56" s="104"/>
-      <c r="AF56" s="104"/>
-      <c r="AG56" s="104"/>
-      <c r="AH56" s="104"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="105"/>
+      <c r="R56" s="105"/>
+      <c r="S56" s="105"/>
+      <c r="T56" s="105"/>
+      <c r="U56" s="105"/>
+      <c r="V56" s="105"/>
+      <c r="W56" s="106"/>
+      <c r="X56" s="106"/>
+      <c r="Y56" s="106"/>
+      <c r="Z56" s="106"/>
+      <c r="AA56" s="106"/>
+      <c r="AB56" s="106"/>
+      <c r="AC56" s="106"/>
+      <c r="AD56" s="106"/>
+      <c r="AE56" s="106"/>
+      <c r="AF56" s="106"/>
+      <c r="AG56" s="106"/>
+      <c r="AH56" s="106"/>
     </row>
     <row r="57" spans="1:34">
-      <c r="A57" s="103"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
-      <c r="L57" s="103"/>
-      <c r="M57" s="103"/>
-      <c r="N57" s="103"/>
-      <c r="O57" s="103"/>
-      <c r="P57" s="103"/>
-      <c r="Q57" s="103"/>
-      <c r="R57" s="103"/>
-      <c r="S57" s="103"/>
-      <c r="T57" s="103"/>
-      <c r="U57" s="103"/>
-      <c r="V57" s="103"/>
-      <c r="W57" s="104"/>
-      <c r="X57" s="104"/>
-      <c r="Y57" s="104"/>
-      <c r="Z57" s="104"/>
-      <c r="AA57" s="104"/>
-      <c r="AB57" s="104"/>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="104"/>
-      <c r="AE57" s="104"/>
-      <c r="AF57" s="104"/>
-      <c r="AG57" s="104"/>
-      <c r="AH57" s="104"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="105"/>
+      <c r="R57" s="105"/>
+      <c r="S57" s="105"/>
+      <c r="T57" s="105"/>
+      <c r="U57" s="105"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="106"/>
+      <c r="X57" s="106"/>
+      <c r="Y57" s="106"/>
+      <c r="Z57" s="106"/>
+      <c r="AA57" s="106"/>
+      <c r="AB57" s="106"/>
+      <c r="AC57" s="106"/>
+      <c r="AD57" s="106"/>
+      <c r="AE57" s="106"/>
+      <c r="AF57" s="106"/>
+      <c r="AG57" s="106"/>
+      <c r="AH57" s="106"/>
     </row>
     <row r="58" spans="1:34">
-      <c r="A58" s="103"/>
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
-      <c r="L58" s="103"/>
-      <c r="M58" s="103"/>
-      <c r="N58" s="103"/>
-      <c r="O58" s="103"/>
-      <c r="P58" s="103"/>
-      <c r="Q58" s="103"/>
-      <c r="R58" s="103"/>
-      <c r="S58" s="103"/>
-      <c r="T58" s="103"/>
-      <c r="U58" s="103"/>
-      <c r="V58" s="103"/>
-      <c r="W58" s="104"/>
-      <c r="X58" s="104"/>
-      <c r="Y58" s="104"/>
-      <c r="Z58" s="104"/>
-      <c r="AA58" s="104"/>
-      <c r="AB58" s="104"/>
-      <c r="AC58" s="104"/>
-      <c r="AD58" s="104"/>
-      <c r="AE58" s="104"/>
-      <c r="AF58" s="104"/>
-      <c r="AG58" s="104"/>
-      <c r="AH58" s="104"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="105"/>
+      <c r="R58" s="105"/>
+      <c r="S58" s="105"/>
+      <c r="T58" s="105"/>
+      <c r="U58" s="105"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="106"/>
+      <c r="X58" s="106"/>
+      <c r="Y58" s="106"/>
+      <c r="Z58" s="106"/>
+      <c r="AA58" s="106"/>
+      <c r="AB58" s="106"/>
+      <c r="AC58" s="106"/>
+      <c r="AD58" s="106"/>
+      <c r="AE58" s="106"/>
+      <c r="AF58" s="106"/>
+      <c r="AG58" s="106"/>
+      <c r="AH58" s="106"/>
     </row>
     <row r="59" spans="1:34">
-      <c r="A59" s="103"/>
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="103"/>
-      <c r="N59" s="103"/>
-      <c r="O59" s="103"/>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="103"/>
-      <c r="R59" s="103"/>
-      <c r="S59" s="103"/>
-      <c r="T59" s="103"/>
-      <c r="U59" s="103"/>
-      <c r="V59" s="103"/>
-      <c r="W59" s="104"/>
-      <c r="X59" s="104"/>
-      <c r="Y59" s="104"/>
-      <c r="Z59" s="104"/>
-      <c r="AA59" s="104"/>
-      <c r="AB59" s="104"/>
-      <c r="AC59" s="104"/>
-      <c r="AD59" s="104"/>
-      <c r="AE59" s="104"/>
-      <c r="AF59" s="104"/>
-      <c r="AG59" s="104"/>
-      <c r="AH59" s="104"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="105"/>
+      <c r="O59" s="105"/>
+      <c r="P59" s="105"/>
+      <c r="Q59" s="105"/>
+      <c r="R59" s="105"/>
+      <c r="S59" s="105"/>
+      <c r="T59" s="105"/>
+      <c r="U59" s="105"/>
+      <c r="V59" s="105"/>
+      <c r="W59" s="106"/>
+      <c r="X59" s="106"/>
+      <c r="Y59" s="106"/>
+      <c r="Z59" s="106"/>
+      <c r="AA59" s="106"/>
+      <c r="AB59" s="106"/>
+      <c r="AC59" s="106"/>
+      <c r="AD59" s="106"/>
+      <c r="AE59" s="106"/>
+      <c r="AF59" s="106"/>
+      <c r="AG59" s="106"/>
+      <c r="AH59" s="106"/>
     </row>
     <row r="60" spans="1:34">
-      <c r="A60" s="103"/>
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="103"/>
-      <c r="N60" s="103"/>
-      <c r="O60" s="103"/>
-      <c r="P60" s="103"/>
-      <c r="Q60" s="103"/>
-      <c r="R60" s="103"/>
-      <c r="S60" s="103"/>
-      <c r="T60" s="103"/>
-      <c r="U60" s="103"/>
-      <c r="V60" s="103"/>
-      <c r="W60" s="104"/>
-      <c r="X60" s="104"/>
-      <c r="Y60" s="104"/>
-      <c r="Z60" s="104"/>
-      <c r="AA60" s="104"/>
-      <c r="AB60" s="104"/>
-      <c r="AC60" s="104"/>
-      <c r="AD60" s="104"/>
-      <c r="AE60" s="104"/>
-      <c r="AF60" s="104"/>
-      <c r="AG60" s="104"/>
-      <c r="AH60" s="104"/>
+      <c r="A60" s="105"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="105"/>
+      <c r="R60" s="105"/>
+      <c r="S60" s="105"/>
+      <c r="T60" s="105"/>
+      <c r="U60" s="105"/>
+      <c r="V60" s="105"/>
+      <c r="W60" s="106"/>
+      <c r="X60" s="106"/>
+      <c r="Y60" s="106"/>
+      <c r="Z60" s="106"/>
+      <c r="AA60" s="106"/>
+      <c r="AB60" s="106"/>
+      <c r="AC60" s="106"/>
+      <c r="AD60" s="106"/>
+      <c r="AE60" s="106"/>
+      <c r="AF60" s="106"/>
+      <c r="AG60" s="106"/>
+      <c r="AH60" s="106"/>
     </row>
     <row r="61" spans="1:34">
-      <c r="A61" s="103"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="103"/>
-      <c r="K61" s="103"/>
-      <c r="L61" s="103"/>
-      <c r="M61" s="103"/>
-      <c r="N61" s="103"/>
-      <c r="O61" s="103"/>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="103"/>
-      <c r="R61" s="103"/>
-      <c r="S61" s="103"/>
-      <c r="T61" s="103"/>
-      <c r="U61" s="103"/>
-      <c r="V61" s="103"/>
-      <c r="W61" s="104"/>
-      <c r="X61" s="104"/>
-      <c r="Y61" s="104"/>
-      <c r="Z61" s="104"/>
-      <c r="AA61" s="104"/>
-      <c r="AB61" s="104"/>
-      <c r="AC61" s="104"/>
-      <c r="AD61" s="104"/>
-      <c r="AE61" s="104"/>
-      <c r="AF61" s="104"/>
-      <c r="AG61" s="104"/>
-      <c r="AH61" s="104"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="105"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="105"/>
+      <c r="R61" s="105"/>
+      <c r="S61" s="105"/>
+      <c r="T61" s="105"/>
+      <c r="U61" s="105"/>
+      <c r="V61" s="105"/>
+      <c r="W61" s="106"/>
+      <c r="X61" s="106"/>
+      <c r="Y61" s="106"/>
+      <c r="Z61" s="106"/>
+      <c r="AA61" s="106"/>
+      <c r="AB61" s="106"/>
+      <c r="AC61" s="106"/>
+      <c r="AD61" s="106"/>
+      <c r="AE61" s="106"/>
+      <c r="AF61" s="106"/>
+      <c r="AG61" s="106"/>
+      <c r="AH61" s="106"/>
     </row>
     <row r="62" spans="1:34">
-      <c r="A62" s="103"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="103"/>
-      <c r="N62" s="103"/>
-      <c r="O62" s="103"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="103"/>
-      <c r="R62" s="103"/>
-      <c r="S62" s="103"/>
-      <c r="T62" s="103"/>
-      <c r="U62" s="103"/>
-      <c r="V62" s="103"/>
-      <c r="W62" s="104"/>
-      <c r="X62" s="104"/>
-      <c r="Y62" s="104"/>
-      <c r="Z62" s="104"/>
-      <c r="AA62" s="104"/>
-      <c r="AB62" s="104"/>
-      <c r="AC62" s="104"/>
-      <c r="AD62" s="104"/>
-      <c r="AE62" s="104"/>
-      <c r="AF62" s="104"/>
-      <c r="AG62" s="104"/>
-      <c r="AH62" s="104"/>
+      <c r="A62" s="105"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="105"/>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="105"/>
+      <c r="O62" s="105"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="105"/>
+      <c r="R62" s="105"/>
+      <c r="S62" s="105"/>
+      <c r="T62" s="105"/>
+      <c r="U62" s="105"/>
+      <c r="V62" s="105"/>
+      <c r="W62" s="106"/>
+      <c r="X62" s="106"/>
+      <c r="Y62" s="106"/>
+      <c r="Z62" s="106"/>
+      <c r="AA62" s="106"/>
+      <c r="AB62" s="106"/>
+      <c r="AC62" s="106"/>
+      <c r="AD62" s="106"/>
+      <c r="AE62" s="106"/>
+      <c r="AF62" s="106"/>
+      <c r="AG62" s="106"/>
+      <c r="AH62" s="106"/>
     </row>
     <row r="63" spans="1:34">
-      <c r="A63" s="103"/>
-      <c r="B63" s="103"/>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="103"/>
-      <c r="M63" s="103"/>
-      <c r="N63" s="103"/>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="103"/>
-      <c r="R63" s="103"/>
-      <c r="S63" s="103"/>
-      <c r="T63" s="103"/>
-      <c r="U63" s="103"/>
-      <c r="V63" s="103"/>
-      <c r="W63" s="104"/>
-      <c r="X63" s="104"/>
-      <c r="Y63" s="104"/>
-      <c r="Z63" s="104"/>
-      <c r="AA63" s="104"/>
-      <c r="AB63" s="104"/>
-      <c r="AC63" s="104"/>
-      <c r="AD63" s="104"/>
-      <c r="AE63" s="104"/>
-      <c r="AF63" s="104"/>
-      <c r="AG63" s="104"/>
-      <c r="AH63" s="104"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="105"/>
+      <c r="L63" s="105"/>
+      <c r="M63" s="105"/>
+      <c r="N63" s="105"/>
+      <c r="O63" s="105"/>
+      <c r="P63" s="105"/>
+      <c r="Q63" s="105"/>
+      <c r="R63" s="105"/>
+      <c r="S63" s="105"/>
+      <c r="T63" s="105"/>
+      <c r="U63" s="105"/>
+      <c r="V63" s="105"/>
+      <c r="W63" s="106"/>
+      <c r="X63" s="106"/>
+      <c r="Y63" s="106"/>
+      <c r="Z63" s="106"/>
+      <c r="AA63" s="106"/>
+      <c r="AB63" s="106"/>
+      <c r="AC63" s="106"/>
+      <c r="AD63" s="106"/>
+      <c r="AE63" s="106"/>
+      <c r="AF63" s="106"/>
+      <c r="AG63" s="106"/>
+      <c r="AH63" s="106"/>
     </row>
     <row r="64" spans="1:34">
-      <c r="A64" s="103"/>
-      <c r="B64" s="103"/>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="103"/>
-      <c r="M64" s="103"/>
-      <c r="N64" s="103"/>
-      <c r="O64" s="103"/>
-      <c r="P64" s="103"/>
-      <c r="Q64" s="103"/>
-      <c r="R64" s="103"/>
-      <c r="S64" s="103"/>
-      <c r="T64" s="103"/>
-      <c r="U64" s="103"/>
-      <c r="V64" s="103"/>
-      <c r="W64" s="104"/>
-      <c r="X64" s="104"/>
-      <c r="Y64" s="104"/>
-      <c r="Z64" s="104"/>
-      <c r="AA64" s="104"/>
-      <c r="AB64" s="104"/>
-      <c r="AC64" s="104"/>
-      <c r="AD64" s="104"/>
-      <c r="AE64" s="104"/>
-      <c r="AF64" s="104"/>
-      <c r="AG64" s="104"/>
-      <c r="AH64" s="104"/>
+      <c r="A64" s="105"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="105"/>
+      <c r="L64" s="105"/>
+      <c r="M64" s="105"/>
+      <c r="N64" s="105"/>
+      <c r="O64" s="105"/>
+      <c r="P64" s="105"/>
+      <c r="Q64" s="105"/>
+      <c r="R64" s="105"/>
+      <c r="S64" s="105"/>
+      <c r="T64" s="105"/>
+      <c r="U64" s="105"/>
+      <c r="V64" s="105"/>
+      <c r="W64" s="106"/>
+      <c r="X64" s="106"/>
+      <c r="Y64" s="106"/>
+      <c r="Z64" s="106"/>
+      <c r="AA64" s="106"/>
+      <c r="AB64" s="106"/>
+      <c r="AC64" s="106"/>
+      <c r="AD64" s="106"/>
+      <c r="AE64" s="106"/>
+      <c r="AF64" s="106"/>
+      <c r="AG64" s="106"/>
+      <c r="AH64" s="106"/>
     </row>
     <row r="65" spans="1:34">
-      <c r="A65" s="103"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="103"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="103"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="103"/>
-      <c r="R65" s="103"/>
-      <c r="S65" s="103"/>
-      <c r="T65" s="103"/>
-      <c r="U65" s="103"/>
-      <c r="V65" s="103"/>
-      <c r="W65" s="104"/>
-      <c r="X65" s="104"/>
-      <c r="Y65" s="104"/>
-      <c r="Z65" s="104"/>
-      <c r="AA65" s="104"/>
-      <c r="AB65" s="104"/>
-      <c r="AC65" s="104"/>
-      <c r="AD65" s="104"/>
-      <c r="AE65" s="104"/>
-      <c r="AF65" s="104"/>
-      <c r="AG65" s="104"/>
-      <c r="AH65" s="104"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="105"/>
+      <c r="L65" s="105"/>
+      <c r="M65" s="105"/>
+      <c r="N65" s="105"/>
+      <c r="O65" s="105"/>
+      <c r="P65" s="105"/>
+      <c r="Q65" s="105"/>
+      <c r="R65" s="105"/>
+      <c r="S65" s="105"/>
+      <c r="T65" s="105"/>
+      <c r="U65" s="105"/>
+      <c r="V65" s="105"/>
+      <c r="W65" s="106"/>
+      <c r="X65" s="106"/>
+      <c r="Y65" s="106"/>
+      <c r="Z65" s="106"/>
+      <c r="AA65" s="106"/>
+      <c r="AB65" s="106"/>
+      <c r="AC65" s="106"/>
+      <c r="AD65" s="106"/>
+      <c r="AE65" s="106"/>
+      <c r="AF65" s="106"/>
+      <c r="AG65" s="106"/>
+      <c r="AH65" s="106"/>
     </row>
     <row r="66" spans="1:34">
-      <c r="A66" s="103"/>
-      <c r="B66" s="103"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
-      <c r="L66" s="103"/>
-      <c r="M66" s="103"/>
-      <c r="N66" s="103"/>
-      <c r="O66" s="103"/>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="103"/>
-      <c r="R66" s="103"/>
-      <c r="S66" s="103"/>
-      <c r="T66" s="103"/>
-      <c r="U66" s="103"/>
-      <c r="V66" s="103"/>
-      <c r="W66" s="104"/>
-      <c r="X66" s="104"/>
-      <c r="Y66" s="104"/>
-      <c r="Z66" s="104"/>
-      <c r="AA66" s="104"/>
-      <c r="AB66" s="104"/>
-      <c r="AC66" s="104"/>
-      <c r="AD66" s="104"/>
-      <c r="AE66" s="104"/>
-      <c r="AF66" s="104"/>
-      <c r="AG66" s="104"/>
-      <c r="AH66" s="104"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
+      <c r="J66" s="105"/>
+      <c r="K66" s="105"/>
+      <c r="L66" s="105"/>
+      <c r="M66" s="105"/>
+      <c r="N66" s="105"/>
+      <c r="O66" s="105"/>
+      <c r="P66" s="105"/>
+      <c r="Q66" s="105"/>
+      <c r="R66" s="105"/>
+      <c r="S66" s="105"/>
+      <c r="T66" s="105"/>
+      <c r="U66" s="105"/>
+      <c r="V66" s="105"/>
+      <c r="W66" s="106"/>
+      <c r="X66" s="106"/>
+      <c r="Y66" s="106"/>
+      <c r="Z66" s="106"/>
+      <c r="AA66" s="106"/>
+      <c r="AB66" s="106"/>
+      <c r="AC66" s="106"/>
+      <c r="AD66" s="106"/>
+      <c r="AE66" s="106"/>
+      <c r="AF66" s="106"/>
+      <c r="AG66" s="106"/>
+      <c r="AH66" s="106"/>
     </row>
     <row r="67" spans="1:34">
-      <c r="A67" s="103"/>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="103"/>
-      <c r="K67" s="103"/>
-      <c r="L67" s="103"/>
-      <c r="M67" s="103"/>
-      <c r="N67" s="103"/>
-      <c r="O67" s="103"/>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="103"/>
-      <c r="R67" s="103"/>
-      <c r="S67" s="103"/>
-      <c r="T67" s="103"/>
-      <c r="U67" s="103"/>
-      <c r="V67" s="103"/>
-      <c r="W67" s="104"/>
-      <c r="X67" s="104"/>
-      <c r="Y67" s="104"/>
-      <c r="Z67" s="104"/>
-      <c r="AA67" s="104"/>
-      <c r="AB67" s="104"/>
-      <c r="AC67" s="104"/>
-      <c r="AD67" s="104"/>
-      <c r="AE67" s="104"/>
-      <c r="AF67" s="104"/>
-      <c r="AG67" s="104"/>
-      <c r="AH67" s="104"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105"/>
+      <c r="L67" s="105"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="105"/>
+      <c r="O67" s="105"/>
+      <c r="P67" s="105"/>
+      <c r="Q67" s="105"/>
+      <c r="R67" s="105"/>
+      <c r="S67" s="105"/>
+      <c r="T67" s="105"/>
+      <c r="U67" s="105"/>
+      <c r="V67" s="105"/>
+      <c r="W67" s="106"/>
+      <c r="X67" s="106"/>
+      <c r="Y67" s="106"/>
+      <c r="Z67" s="106"/>
+      <c r="AA67" s="106"/>
+      <c r="AB67" s="106"/>
+      <c r="AC67" s="106"/>
+      <c r="AD67" s="106"/>
+      <c r="AE67" s="106"/>
+      <c r="AF67" s="106"/>
+      <c r="AG67" s="106"/>
+      <c r="AH67" s="106"/>
     </row>
     <row r="68" spans="1:34">
-      <c r="A68" s="103"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="103"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="103"/>
-      <c r="K68" s="103"/>
-      <c r="L68" s="103"/>
-      <c r="M68" s="103"/>
-      <c r="N68" s="103"/>
-      <c r="O68" s="103"/>
-      <c r="P68" s="103"/>
-      <c r="Q68" s="103"/>
-      <c r="R68" s="103"/>
-      <c r="S68" s="103"/>
-      <c r="T68" s="103"/>
-      <c r="U68" s="103"/>
-      <c r="V68" s="103"/>
-      <c r="W68" s="104"/>
-      <c r="X68" s="104"/>
-      <c r="Y68" s="104"/>
-      <c r="Z68" s="104"/>
-      <c r="AA68" s="104"/>
-      <c r="AB68" s="104"/>
-      <c r="AC68" s="104"/>
-      <c r="AD68" s="104"/>
-      <c r="AE68" s="104"/>
-      <c r="AF68" s="104"/>
-      <c r="AG68" s="104"/>
-      <c r="AH68" s="104"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="105"/>
+      <c r="L68" s="105"/>
+      <c r="M68" s="105"/>
+      <c r="N68" s="105"/>
+      <c r="O68" s="105"/>
+      <c r="P68" s="105"/>
+      <c r="Q68" s="105"/>
+      <c r="R68" s="105"/>
+      <c r="S68" s="105"/>
+      <c r="T68" s="105"/>
+      <c r="U68" s="105"/>
+      <c r="V68" s="105"/>
+      <c r="W68" s="106"/>
+      <c r="X68" s="106"/>
+      <c r="Y68" s="106"/>
+      <c r="Z68" s="106"/>
+      <c r="AA68" s="106"/>
+      <c r="AB68" s="106"/>
+      <c r="AC68" s="106"/>
+      <c r="AD68" s="106"/>
+      <c r="AE68" s="106"/>
+      <c r="AF68" s="106"/>
+      <c r="AG68" s="106"/>
+      <c r="AH68" s="106"/>
     </row>
     <row r="69" spans="1:34">
-      <c r="A69" s="103"/>
-      <c r="B69" s="103"/>
-      <c r="C69" s="103"/>
-      <c r="D69" s="103"/>
-      <c r="E69" s="103"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="103"/>
-      <c r="I69" s="103"/>
-      <c r="J69" s="103"/>
-      <c r="K69" s="103"/>
-      <c r="L69" s="103"/>
-      <c r="M69" s="103"/>
-      <c r="N69" s="103"/>
-      <c r="O69" s="103"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="103"/>
-      <c r="R69" s="103"/>
-      <c r="S69" s="103"/>
-      <c r="T69" s="103"/>
-      <c r="U69" s="103"/>
-      <c r="V69" s="103"/>
-      <c r="W69" s="104"/>
-      <c r="X69" s="104"/>
-      <c r="Y69" s="104"/>
-      <c r="Z69" s="104"/>
-      <c r="AA69" s="104"/>
-      <c r="AB69" s="104"/>
-      <c r="AC69" s="104"/>
-      <c r="AD69" s="104"/>
-      <c r="AE69" s="104"/>
-      <c r="AF69" s="104"/>
-      <c r="AG69" s="104"/>
-      <c r="AH69" s="104"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="105"/>
+      <c r="L69" s="105"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="105"/>
+      <c r="O69" s="105"/>
+      <c r="P69" s="105"/>
+      <c r="Q69" s="105"/>
+      <c r="R69" s="105"/>
+      <c r="S69" s="105"/>
+      <c r="T69" s="105"/>
+      <c r="U69" s="105"/>
+      <c r="V69" s="105"/>
+      <c r="W69" s="106"/>
+      <c r="X69" s="106"/>
+      <c r="Y69" s="106"/>
+      <c r="Z69" s="106"/>
+      <c r="AA69" s="106"/>
+      <c r="AB69" s="106"/>
+      <c r="AC69" s="106"/>
+      <c r="AD69" s="106"/>
+      <c r="AE69" s="106"/>
+      <c r="AF69" s="106"/>
+      <c r="AG69" s="106"/>
+      <c r="AH69" s="106"/>
     </row>
     <row r="70" spans="1:34">
-      <c r="A70" s="103"/>
-      <c r="B70" s="103"/>
-      <c r="C70" s="103"/>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="103"/>
-      <c r="K70" s="103"/>
-      <c r="L70" s="103"/>
-      <c r="M70" s="103"/>
-      <c r="N70" s="103"/>
-      <c r="O70" s="103"/>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="103"/>
-      <c r="R70" s="103"/>
-      <c r="S70" s="103"/>
-      <c r="T70" s="103"/>
-      <c r="U70" s="103"/>
-      <c r="V70" s="103"/>
-      <c r="W70" s="104"/>
-      <c r="X70" s="104"/>
-      <c r="Y70" s="104"/>
-      <c r="Z70" s="104"/>
-      <c r="AA70" s="104"/>
-      <c r="AB70" s="104"/>
-      <c r="AC70" s="104"/>
-      <c r="AD70" s="104"/>
-      <c r="AE70" s="104"/>
-      <c r="AF70" s="104"/>
-      <c r="AG70" s="104"/>
-      <c r="AH70" s="104"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="105"/>
+      <c r="R70" s="105"/>
+      <c r="S70" s="105"/>
+      <c r="T70" s="105"/>
+      <c r="U70" s="105"/>
+      <c r="V70" s="105"/>
+      <c r="W70" s="106"/>
+      <c r="X70" s="106"/>
+      <c r="Y70" s="106"/>
+      <c r="Z70" s="106"/>
+      <c r="AA70" s="106"/>
+      <c r="AB70" s="106"/>
+      <c r="AC70" s="106"/>
+      <c r="AD70" s="106"/>
+      <c r="AE70" s="106"/>
+      <c r="AF70" s="106"/>
+      <c r="AG70" s="106"/>
+      <c r="AH70" s="106"/>
     </row>
     <row r="71" spans="1:34">
-      <c r="A71" s="103"/>
-      <c r="B71" s="103"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="103"/>
-      <c r="I71" s="103"/>
-      <c r="J71" s="103"/>
-      <c r="K71" s="103"/>
-      <c r="L71" s="103"/>
-      <c r="M71" s="103"/>
-      <c r="N71" s="103"/>
-      <c r="O71" s="103"/>
-      <c r="P71" s="103"/>
-      <c r="Q71" s="103"/>
-      <c r="R71" s="103"/>
-      <c r="S71" s="103"/>
-      <c r="T71" s="103"/>
-      <c r="U71" s="103"/>
-      <c r="V71" s="103"/>
-      <c r="W71" s="104"/>
-      <c r="X71" s="104"/>
-      <c r="Y71" s="104"/>
-      <c r="Z71" s="104"/>
-      <c r="AA71" s="104"/>
-      <c r="AB71" s="104"/>
-      <c r="AC71" s="104"/>
-      <c r="AD71" s="104"/>
-      <c r="AE71" s="104"/>
-      <c r="AF71" s="104"/>
-      <c r="AG71" s="104"/>
-      <c r="AH71" s="104"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="105"/>
+      <c r="O71" s="105"/>
+      <c r="P71" s="105"/>
+      <c r="Q71" s="105"/>
+      <c r="R71" s="105"/>
+      <c r="S71" s="105"/>
+      <c r="T71" s="105"/>
+      <c r="U71" s="105"/>
+      <c r="V71" s="105"/>
+      <c r="W71" s="106"/>
+      <c r="X71" s="106"/>
+      <c r="Y71" s="106"/>
+      <c r="Z71" s="106"/>
+      <c r="AA71" s="106"/>
+      <c r="AB71" s="106"/>
+      <c r="AC71" s="106"/>
+      <c r="AD71" s="106"/>
+      <c r="AE71" s="106"/>
+      <c r="AF71" s="106"/>
+      <c r="AG71" s="106"/>
+      <c r="AH71" s="106"/>
     </row>
     <row r="72" spans="1:34">
-      <c r="A72" s="103"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="103"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="103"/>
-      <c r="K72" s="103"/>
-      <c r="L72" s="103"/>
-      <c r="M72" s="103"/>
-      <c r="N72" s="103"/>
-      <c r="O72" s="103"/>
-      <c r="P72" s="103"/>
-      <c r="Q72" s="103"/>
-      <c r="R72" s="103"/>
-      <c r="S72" s="103"/>
-      <c r="T72" s="103"/>
-      <c r="U72" s="103"/>
-      <c r="V72" s="103"/>
-      <c r="W72" s="104"/>
-      <c r="X72" s="104"/>
-      <c r="Y72" s="104"/>
-      <c r="Z72" s="104"/>
-      <c r="AA72" s="104"/>
-      <c r="AB72" s="104"/>
-      <c r="AC72" s="104"/>
-      <c r="AD72" s="104"/>
-      <c r="AE72" s="104"/>
-      <c r="AF72" s="104"/>
-      <c r="AG72" s="104"/>
-      <c r="AH72" s="104"/>
+      <c r="A72" s="105"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="105"/>
+      <c r="L72" s="105"/>
+      <c r="M72" s="105"/>
+      <c r="N72" s="105"/>
+      <c r="O72" s="105"/>
+      <c r="P72" s="105"/>
+      <c r="Q72" s="105"/>
+      <c r="R72" s="105"/>
+      <c r="S72" s="105"/>
+      <c r="T72" s="105"/>
+      <c r="U72" s="105"/>
+      <c r="V72" s="105"/>
+      <c r="W72" s="106"/>
+      <c r="X72" s="106"/>
+      <c r="Y72" s="106"/>
+      <c r="Z72" s="106"/>
+      <c r="AA72" s="106"/>
+      <c r="AB72" s="106"/>
+      <c r="AC72" s="106"/>
+      <c r="AD72" s="106"/>
+      <c r="AE72" s="106"/>
+      <c r="AF72" s="106"/>
+      <c r="AG72" s="106"/>
+      <c r="AH72" s="106"/>
     </row>
     <row r="73" spans="1:34">
-      <c r="A73" s="103"/>
-      <c r="B73" s="103"/>
-      <c r="C73" s="103"/>
-      <c r="D73" s="103"/>
-      <c r="E73" s="103"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="103"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103"/>
-      <c r="K73" s="103"/>
-      <c r="L73" s="103"/>
-      <c r="M73" s="103"/>
-      <c r="N73" s="103"/>
-      <c r="O73" s="103"/>
-      <c r="P73" s="103"/>
-      <c r="Q73" s="103"/>
-      <c r="R73" s="103"/>
-      <c r="S73" s="103"/>
-      <c r="T73" s="103"/>
-      <c r="U73" s="103"/>
-      <c r="V73" s="103"/>
-      <c r="W73" s="104"/>
-      <c r="X73" s="104"/>
-      <c r="Y73" s="104"/>
-      <c r="Z73" s="104"/>
-      <c r="AA73" s="104"/>
-      <c r="AB73" s="104"/>
-      <c r="AC73" s="104"/>
-      <c r="AD73" s="104"/>
-      <c r="AE73" s="104"/>
-      <c r="AF73" s="104"/>
-      <c r="AG73" s="104"/>
-      <c r="AH73" s="104"/>
+      <c r="A73" s="105"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="105"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="105"/>
+      <c r="L73" s="105"/>
+      <c r="M73" s="105"/>
+      <c r="N73" s="105"/>
+      <c r="O73" s="105"/>
+      <c r="P73" s="105"/>
+      <c r="Q73" s="105"/>
+      <c r="R73" s="105"/>
+      <c r="S73" s="105"/>
+      <c r="T73" s="105"/>
+      <c r="U73" s="105"/>
+      <c r="V73" s="105"/>
+      <c r="W73" s="106"/>
+      <c r="X73" s="106"/>
+      <c r="Y73" s="106"/>
+      <c r="Z73" s="106"/>
+      <c r="AA73" s="106"/>
+      <c r="AB73" s="106"/>
+      <c r="AC73" s="106"/>
+      <c r="AD73" s="106"/>
+      <c r="AE73" s="106"/>
+      <c r="AF73" s="106"/>
+      <c r="AG73" s="106"/>
+      <c r="AH73" s="106"/>
     </row>
     <row r="74" spans="1:34">
-      <c r="A74" s="103"/>
-      <c r="B74" s="103"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="103"/>
-      <c r="M74" s="103"/>
-      <c r="N74" s="103"/>
-      <c r="O74" s="103"/>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="103"/>
-      <c r="R74" s="103"/>
-      <c r="S74" s="103"/>
-      <c r="T74" s="103"/>
-      <c r="U74" s="103"/>
-      <c r="V74" s="103"/>
-      <c r="W74" s="104"/>
-      <c r="X74" s="104"/>
-      <c r="Y74" s="104"/>
-      <c r="Z74" s="104"/>
-      <c r="AA74" s="104"/>
-      <c r="AB74" s="104"/>
-      <c r="AC74" s="104"/>
-      <c r="AD74" s="104"/>
-      <c r="AE74" s="104"/>
-      <c r="AF74" s="104"/>
-      <c r="AG74" s="104"/>
-      <c r="AH74" s="104"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="105"/>
+      <c r="N74" s="105"/>
+      <c r="O74" s="105"/>
+      <c r="P74" s="105"/>
+      <c r="Q74" s="105"/>
+      <c r="R74" s="105"/>
+      <c r="S74" s="105"/>
+      <c r="T74" s="105"/>
+      <c r="U74" s="105"/>
+      <c r="V74" s="105"/>
+      <c r="W74" s="106"/>
+      <c r="X74" s="106"/>
+      <c r="Y74" s="106"/>
+      <c r="Z74" s="106"/>
+      <c r="AA74" s="106"/>
+      <c r="AB74" s="106"/>
+      <c r="AC74" s="106"/>
+      <c r="AD74" s="106"/>
+      <c r="AE74" s="106"/>
+      <c r="AF74" s="106"/>
+      <c r="AG74" s="106"/>
+      <c r="AH74" s="106"/>
     </row>
     <row r="75" spans="1:34">
-      <c r="A75" s="103"/>
-      <c r="B75" s="103"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
-      <c r="L75" s="103"/>
-      <c r="M75" s="103"/>
-      <c r="N75" s="103"/>
-      <c r="O75" s="103"/>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="103"/>
-      <c r="R75" s="103"/>
-      <c r="S75" s="103"/>
-      <c r="T75" s="103"/>
-      <c r="U75" s="103"/>
-      <c r="V75" s="103"/>
-      <c r="W75" s="104"/>
-      <c r="X75" s="104"/>
-      <c r="Y75" s="104"/>
-      <c r="Z75" s="104"/>
-      <c r="AA75" s="104"/>
-      <c r="AB75" s="104"/>
-      <c r="AC75" s="104"/>
-      <c r="AD75" s="104"/>
-      <c r="AE75" s="104"/>
-      <c r="AF75" s="104"/>
-      <c r="AG75" s="104"/>
-      <c r="AH75" s="104"/>
+      <c r="A75" s="105"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="105"/>
+      <c r="O75" s="105"/>
+      <c r="P75" s="105"/>
+      <c r="Q75" s="105"/>
+      <c r="R75" s="105"/>
+      <c r="S75" s="105"/>
+      <c r="T75" s="105"/>
+      <c r="U75" s="105"/>
+      <c r="V75" s="105"/>
+      <c r="W75" s="106"/>
+      <c r="X75" s="106"/>
+      <c r="Y75" s="106"/>
+      <c r="Z75" s="106"/>
+      <c r="AA75" s="106"/>
+      <c r="AB75" s="106"/>
+      <c r="AC75" s="106"/>
+      <c r="AD75" s="106"/>
+      <c r="AE75" s="106"/>
+      <c r="AF75" s="106"/>
+      <c r="AG75" s="106"/>
+      <c r="AH75" s="106"/>
     </row>
     <row r="76" spans="1:34">
-      <c r="A76" s="103"/>
-      <c r="B76" s="103"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
-      <c r="L76" s="103"/>
-      <c r="M76" s="103"/>
-      <c r="N76" s="103"/>
-      <c r="O76" s="103"/>
-      <c r="P76" s="103"/>
-      <c r="Q76" s="103"/>
-      <c r="R76" s="103"/>
-      <c r="S76" s="103"/>
-      <c r="T76" s="103"/>
-      <c r="U76" s="103"/>
-      <c r="V76" s="103"/>
-      <c r="W76" s="104"/>
-      <c r="X76" s="104"/>
-      <c r="Y76" s="104"/>
-      <c r="Z76" s="104"/>
-      <c r="AA76" s="104"/>
-      <c r="AB76" s="104"/>
-      <c r="AC76" s="104"/>
-      <c r="AD76" s="104"/>
-      <c r="AE76" s="104"/>
-      <c r="AF76" s="104"/>
-      <c r="AG76" s="104"/>
-      <c r="AH76" s="104"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="105"/>
+      <c r="P76" s="105"/>
+      <c r="Q76" s="105"/>
+      <c r="R76" s="105"/>
+      <c r="S76" s="105"/>
+      <c r="T76" s="105"/>
+      <c r="U76" s="105"/>
+      <c r="V76" s="105"/>
+      <c r="W76" s="106"/>
+      <c r="X76" s="106"/>
+      <c r="Y76" s="106"/>
+      <c r="Z76" s="106"/>
+      <c r="AA76" s="106"/>
+      <c r="AB76" s="106"/>
+      <c r="AC76" s="106"/>
+      <c r="AD76" s="106"/>
+      <c r="AE76" s="106"/>
+      <c r="AF76" s="106"/>
+      <c r="AG76" s="106"/>
+      <c r="AH76" s="106"/>
     </row>
     <row r="77" spans="1:34">
-      <c r="A77" s="103"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="103"/>
-      <c r="L77" s="103"/>
-      <c r="M77" s="103"/>
-      <c r="N77" s="103"/>
-      <c r="O77" s="103"/>
-      <c r="P77" s="103"/>
-      <c r="Q77" s="103"/>
-      <c r="R77" s="103"/>
-      <c r="S77" s="103"/>
-      <c r="T77" s="103"/>
-      <c r="U77" s="103"/>
-      <c r="V77" s="103"/>
-      <c r="W77" s="104"/>
-      <c r="X77" s="104"/>
-      <c r="Y77" s="104"/>
-      <c r="Z77" s="104"/>
-      <c r="AA77" s="104"/>
-      <c r="AB77" s="104"/>
-      <c r="AC77" s="104"/>
-      <c r="AD77" s="104"/>
-      <c r="AE77" s="104"/>
-      <c r="AF77" s="104"/>
-      <c r="AG77" s="104"/>
-      <c r="AH77" s="104"/>
+      <c r="A77" s="105"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="105"/>
+      <c r="N77" s="105"/>
+      <c r="O77" s="105"/>
+      <c r="P77" s="105"/>
+      <c r="Q77" s="105"/>
+      <c r="R77" s="105"/>
+      <c r="S77" s="105"/>
+      <c r="T77" s="105"/>
+      <c r="U77" s="105"/>
+      <c r="V77" s="105"/>
+      <c r="W77" s="106"/>
+      <c r="X77" s="106"/>
+      <c r="Y77" s="106"/>
+      <c r="Z77" s="106"/>
+      <c r="AA77" s="106"/>
+      <c r="AB77" s="106"/>
+      <c r="AC77" s="106"/>
+      <c r="AD77" s="106"/>
+      <c r="AE77" s="106"/>
+      <c r="AF77" s="106"/>
+      <c r="AG77" s="106"/>
+      <c r="AH77" s="106"/>
     </row>
     <row r="78" spans="1:34">
-      <c r="A78" s="103"/>
-      <c r="B78" s="103"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="103"/>
-      <c r="J78" s="103"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="103"/>
-      <c r="N78" s="103"/>
-      <c r="O78" s="103"/>
-      <c r="P78" s="103"/>
-      <c r="Q78" s="103"/>
-      <c r="R78" s="103"/>
-      <c r="S78" s="103"/>
-      <c r="T78" s="103"/>
-      <c r="U78" s="103"/>
-      <c r="V78" s="103"/>
-      <c r="W78" s="104"/>
-      <c r="X78" s="104"/>
-      <c r="Y78" s="104"/>
-      <c r="Z78" s="104"/>
-      <c r="AA78" s="104"/>
-      <c r="AB78" s="104"/>
-      <c r="AC78" s="104"/>
-      <c r="AD78" s="104"/>
-      <c r="AE78" s="104"/>
-      <c r="AF78" s="104"/>
-      <c r="AG78" s="104"/>
-      <c r="AH78" s="104"/>
+      <c r="A78" s="105"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="105"/>
+      <c r="M78" s="105"/>
+      <c r="N78" s="105"/>
+      <c r="O78" s="105"/>
+      <c r="P78" s="105"/>
+      <c r="Q78" s="105"/>
+      <c r="R78" s="105"/>
+      <c r="S78" s="105"/>
+      <c r="T78" s="105"/>
+      <c r="U78" s="105"/>
+      <c r="V78" s="105"/>
+      <c r="W78" s="106"/>
+      <c r="X78" s="106"/>
+      <c r="Y78" s="106"/>
+      <c r="Z78" s="106"/>
+      <c r="AA78" s="106"/>
+      <c r="AB78" s="106"/>
+      <c r="AC78" s="106"/>
+      <c r="AD78" s="106"/>
+      <c r="AE78" s="106"/>
+      <c r="AF78" s="106"/>
+      <c r="AG78" s="106"/>
+      <c r="AH78" s="106"/>
     </row>
     <row r="79" spans="1:34">
-      <c r="A79" s="103"/>
-      <c r="B79" s="103"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="103"/>
-      <c r="N79" s="103"/>
-      <c r="O79" s="103"/>
-      <c r="P79" s="103"/>
-      <c r="Q79" s="103"/>
-      <c r="R79" s="103"/>
-      <c r="S79" s="103"/>
-      <c r="T79" s="103"/>
-      <c r="U79" s="103"/>
-      <c r="V79" s="103"/>
-      <c r="W79" s="104"/>
-      <c r="X79" s="104"/>
-      <c r="Y79" s="104"/>
-      <c r="Z79" s="104"/>
-      <c r="AA79" s="104"/>
-      <c r="AB79" s="104"/>
-      <c r="AC79" s="104"/>
-      <c r="AD79" s="104"/>
-      <c r="AE79" s="104"/>
-      <c r="AF79" s="104"/>
-      <c r="AG79" s="104"/>
-      <c r="AH79" s="104"/>
+      <c r="A79" s="105"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="105"/>
+      <c r="M79" s="105"/>
+      <c r="N79" s="105"/>
+      <c r="O79" s="105"/>
+      <c r="P79" s="105"/>
+      <c r="Q79" s="105"/>
+      <c r="R79" s="105"/>
+      <c r="S79" s="105"/>
+      <c r="T79" s="105"/>
+      <c r="U79" s="105"/>
+      <c r="V79" s="105"/>
+      <c r="W79" s="106"/>
+      <c r="X79" s="106"/>
+      <c r="Y79" s="106"/>
+      <c r="Z79" s="106"/>
+      <c r="AA79" s="106"/>
+      <c r="AB79" s="106"/>
+      <c r="AC79" s="106"/>
+      <c r="AD79" s="106"/>
+      <c r="AE79" s="106"/>
+      <c r="AF79" s="106"/>
+      <c r="AG79" s="106"/>
+      <c r="AH79" s="106"/>
     </row>
     <row r="80" spans="1:34">
-      <c r="A80" s="103"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="103"/>
-      <c r="I80" s="103"/>
-      <c r="J80" s="103"/>
-      <c r="K80" s="103"/>
-      <c r="L80" s="103"/>
-      <c r="M80" s="103"/>
-      <c r="N80" s="103"/>
-      <c r="O80" s="103"/>
-      <c r="P80" s="103"/>
-      <c r="Q80" s="103"/>
-      <c r="R80" s="103"/>
-      <c r="S80" s="103"/>
-      <c r="T80" s="103"/>
-      <c r="U80" s="103"/>
-      <c r="V80" s="103"/>
-      <c r="W80" s="104"/>
-      <c r="X80" s="104"/>
-      <c r="Y80" s="104"/>
-      <c r="Z80" s="104"/>
-      <c r="AA80" s="104"/>
-      <c r="AB80" s="104"/>
-      <c r="AC80" s="104"/>
-      <c r="AD80" s="104"/>
-      <c r="AE80" s="104"/>
-      <c r="AF80" s="104"/>
-      <c r="AG80" s="104"/>
-      <c r="AH80" s="104"/>
+      <c r="A80" s="105"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="105"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="105"/>
+      <c r="M80" s="105"/>
+      <c r="N80" s="105"/>
+      <c r="O80" s="105"/>
+      <c r="P80" s="105"/>
+      <c r="Q80" s="105"/>
+      <c r="R80" s="105"/>
+      <c r="S80" s="105"/>
+      <c r="T80" s="105"/>
+      <c r="U80" s="105"/>
+      <c r="V80" s="105"/>
+      <c r="W80" s="106"/>
+      <c r="X80" s="106"/>
+      <c r="Y80" s="106"/>
+      <c r="Z80" s="106"/>
+      <c r="AA80" s="106"/>
+      <c r="AB80" s="106"/>
+      <c r="AC80" s="106"/>
+      <c r="AD80" s="106"/>
+      <c r="AE80" s="106"/>
+      <c r="AF80" s="106"/>
+      <c r="AG80" s="106"/>
+      <c r="AH80" s="106"/>
     </row>
     <row r="81" spans="1:34">
-      <c r="A81" s="103"/>
-      <c r="B81" s="103"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="103"/>
-      <c r="L81" s="103"/>
-      <c r="M81" s="103"/>
-      <c r="N81" s="103"/>
-      <c r="O81" s="103"/>
-      <c r="P81" s="103"/>
-      <c r="Q81" s="103"/>
-      <c r="R81" s="103"/>
-      <c r="S81" s="103"/>
-      <c r="T81" s="103"/>
-      <c r="U81" s="103"/>
-      <c r="V81" s="103"/>
-      <c r="W81" s="104"/>
-      <c r="X81" s="104"/>
-      <c r="Y81" s="104"/>
-      <c r="Z81" s="104"/>
-      <c r="AA81" s="104"/>
-      <c r="AB81" s="104"/>
-      <c r="AC81" s="104"/>
-      <c r="AD81" s="104"/>
-      <c r="AE81" s="104"/>
-      <c r="AF81" s="104"/>
-      <c r="AG81" s="104"/>
-      <c r="AH81" s="104"/>
+      <c r="A81" s="105"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="105"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="105"/>
+      <c r="M81" s="105"/>
+      <c r="N81" s="105"/>
+      <c r="O81" s="105"/>
+      <c r="P81" s="105"/>
+      <c r="Q81" s="105"/>
+      <c r="R81" s="105"/>
+      <c r="S81" s="105"/>
+      <c r="T81" s="105"/>
+      <c r="U81" s="105"/>
+      <c r="V81" s="105"/>
+      <c r="W81" s="106"/>
+      <c r="X81" s="106"/>
+      <c r="Y81" s="106"/>
+      <c r="Z81" s="106"/>
+      <c r="AA81" s="106"/>
+      <c r="AB81" s="106"/>
+      <c r="AC81" s="106"/>
+      <c r="AD81" s="106"/>
+      <c r="AE81" s="106"/>
+      <c r="AF81" s="106"/>
+      <c r="AG81" s="106"/>
+      <c r="AH81" s="106"/>
     </row>
     <row r="82" spans="1:34">
-      <c r="A82" s="103"/>
-      <c r="B82" s="103"/>
-      <c r="C82" s="103"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="103"/>
-      <c r="L82" s="103"/>
-      <c r="M82" s="103"/>
-      <c r="N82" s="103"/>
-      <c r="O82" s="103"/>
-      <c r="P82" s="103"/>
-      <c r="Q82" s="103"/>
-      <c r="R82" s="103"/>
-      <c r="S82" s="103"/>
-      <c r="T82" s="103"/>
-      <c r="U82" s="103"/>
-      <c r="V82" s="103"/>
-      <c r="W82" s="104"/>
-      <c r="X82" s="104"/>
-      <c r="Y82" s="104"/>
-      <c r="Z82" s="104"/>
-      <c r="AA82" s="104"/>
-      <c r="AB82" s="104"/>
-      <c r="AC82" s="104"/>
-      <c r="AD82" s="104"/>
-      <c r="AE82" s="104"/>
-      <c r="AF82" s="104"/>
-      <c r="AG82" s="104"/>
-      <c r="AH82" s="104"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="105"/>
+      <c r="L82" s="105"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="105"/>
+      <c r="P82" s="105"/>
+      <c r="Q82" s="105"/>
+      <c r="R82" s="105"/>
+      <c r="S82" s="105"/>
+      <c r="T82" s="105"/>
+      <c r="U82" s="105"/>
+      <c r="V82" s="105"/>
+      <c r="W82" s="106"/>
+      <c r="X82" s="106"/>
+      <c r="Y82" s="106"/>
+      <c r="Z82" s="106"/>
+      <c r="AA82" s="106"/>
+      <c r="AB82" s="106"/>
+      <c r="AC82" s="106"/>
+      <c r="AD82" s="106"/>
+      <c r="AE82" s="106"/>
+      <c r="AF82" s="106"/>
+      <c r="AG82" s="106"/>
+      <c r="AH82" s="106"/>
     </row>
     <row r="83" spans="1:34">
-      <c r="A83" s="103"/>
-      <c r="B83" s="103"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
-      <c r="M83" s="103"/>
-      <c r="N83" s="103"/>
-      <c r="O83" s="103"/>
-      <c r="P83" s="103"/>
-      <c r="Q83" s="103"/>
-      <c r="R83" s="103"/>
-      <c r="S83" s="103"/>
-      <c r="T83" s="103"/>
-      <c r="U83" s="103"/>
-      <c r="V83" s="103"/>
-      <c r="W83" s="104"/>
-      <c r="X83" s="104"/>
-      <c r="Y83" s="104"/>
-      <c r="Z83" s="104"/>
-      <c r="AA83" s="104"/>
-      <c r="AB83" s="104"/>
-      <c r="AC83" s="104"/>
-      <c r="AD83" s="104"/>
-      <c r="AE83" s="104"/>
-      <c r="AF83" s="104"/>
-      <c r="AG83" s="104"/>
-      <c r="AH83" s="104"/>
+      <c r="A83" s="105"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="105"/>
+      <c r="L83" s="105"/>
+      <c r="M83" s="105"/>
+      <c r="N83" s="105"/>
+      <c r="O83" s="105"/>
+      <c r="P83" s="105"/>
+      <c r="Q83" s="105"/>
+      <c r="R83" s="105"/>
+      <c r="S83" s="105"/>
+      <c r="T83" s="105"/>
+      <c r="U83" s="105"/>
+      <c r="V83" s="105"/>
+      <c r="W83" s="106"/>
+      <c r="X83" s="106"/>
+      <c r="Y83" s="106"/>
+      <c r="Z83" s="106"/>
+      <c r="AA83" s="106"/>
+      <c r="AB83" s="106"/>
+      <c r="AC83" s="106"/>
+      <c r="AD83" s="106"/>
+      <c r="AE83" s="106"/>
+      <c r="AF83" s="106"/>
+      <c r="AG83" s="106"/>
+      <c r="AH83" s="106"/>
     </row>
     <row r="84" spans="1:34">
-      <c r="A84" s="103"/>
-      <c r="B84" s="103"/>
-      <c r="C84" s="103"/>
-      <c r="D84" s="103"/>
-      <c r="E84" s="103"/>
-      <c r="F84" s="103"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="103"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="103"/>
-      <c r="L84" s="103"/>
-      <c r="M84" s="103"/>
-      <c r="N84" s="103"/>
-      <c r="O84" s="103"/>
-      <c r="P84" s="103"/>
-      <c r="Q84" s="103"/>
-      <c r="R84" s="103"/>
-      <c r="S84" s="103"/>
-      <c r="T84" s="103"/>
-      <c r="U84" s="103"/>
-      <c r="V84" s="103"/>
-      <c r="W84" s="104"/>
-      <c r="X84" s="104"/>
-      <c r="Y84" s="104"/>
-      <c r="Z84" s="104"/>
-      <c r="AA84" s="104"/>
-      <c r="AB84" s="104"/>
-      <c r="AC84" s="104"/>
-      <c r="AD84" s="104"/>
-      <c r="AE84" s="104"/>
-      <c r="AF84" s="104"/>
-      <c r="AG84" s="104"/>
-      <c r="AH84" s="104"/>
+      <c r="A84" s="105"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
+      <c r="O84" s="105"/>
+      <c r="P84" s="105"/>
+      <c r="Q84" s="105"/>
+      <c r="R84" s="105"/>
+      <c r="S84" s="105"/>
+      <c r="T84" s="105"/>
+      <c r="U84" s="105"/>
+      <c r="V84" s="105"/>
+      <c r="W84" s="106"/>
+      <c r="X84" s="106"/>
+      <c r="Y84" s="106"/>
+      <c r="Z84" s="106"/>
+      <c r="AA84" s="106"/>
+      <c r="AB84" s="106"/>
+      <c r="AC84" s="106"/>
+      <c r="AD84" s="106"/>
+      <c r="AE84" s="106"/>
+      <c r="AF84" s="106"/>
+      <c r="AG84" s="106"/>
+      <c r="AH84" s="106"/>
     </row>
     <row r="85" spans="1:34">
-      <c r="A85" s="103"/>
-      <c r="B85" s="103"/>
-      <c r="C85" s="103"/>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="103"/>
-      <c r="L85" s="103"/>
-      <c r="M85" s="103"/>
-      <c r="N85" s="103"/>
-      <c r="O85" s="103"/>
-      <c r="P85" s="103"/>
-      <c r="Q85" s="103"/>
-      <c r="R85" s="103"/>
-      <c r="S85" s="103"/>
-      <c r="T85" s="103"/>
-      <c r="U85" s="103"/>
-      <c r="V85" s="103"/>
-      <c r="W85" s="104"/>
-      <c r="X85" s="104"/>
-      <c r="Y85" s="104"/>
-      <c r="Z85" s="104"/>
-      <c r="AA85" s="104"/>
-      <c r="AB85" s="104"/>
-      <c r="AC85" s="104"/>
-      <c r="AD85" s="104"/>
-      <c r="AE85" s="104"/>
-      <c r="AF85" s="104"/>
-      <c r="AG85" s="104"/>
-      <c r="AH85" s="104"/>
+      <c r="A85" s="105"/>
+      <c r="B85" s="105"/>
+      <c r="C85" s="105"/>
+      <c r="D85" s="105"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="105"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="105"/>
+      <c r="K85" s="105"/>
+      <c r="L85" s="105"/>
+      <c r="M85" s="105"/>
+      <c r="N85" s="105"/>
+      <c r="O85" s="105"/>
+      <c r="P85" s="105"/>
+      <c r="Q85" s="105"/>
+      <c r="R85" s="105"/>
+      <c r="S85" s="105"/>
+      <c r="T85" s="105"/>
+      <c r="U85" s="105"/>
+      <c r="V85" s="105"/>
+      <c r="W85" s="106"/>
+      <c r="X85" s="106"/>
+      <c r="Y85" s="106"/>
+      <c r="Z85" s="106"/>
+      <c r="AA85" s="106"/>
+      <c r="AB85" s="106"/>
+      <c r="AC85" s="106"/>
+      <c r="AD85" s="106"/>
+      <c r="AE85" s="106"/>
+      <c r="AF85" s="106"/>
+      <c r="AG85" s="106"/>
+      <c r="AH85" s="106"/>
     </row>
     <row r="86" spans="1:34">
-      <c r="A86" s="103"/>
-      <c r="B86" s="103"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="103"/>
-      <c r="J86" s="103"/>
-      <c r="K86" s="103"/>
-      <c r="L86" s="103"/>
-      <c r="M86" s="103"/>
-      <c r="N86" s="103"/>
-      <c r="O86" s="103"/>
-      <c r="P86" s="103"/>
-      <c r="Q86" s="103"/>
-      <c r="R86" s="103"/>
-      <c r="S86" s="103"/>
-      <c r="T86" s="103"/>
-      <c r="U86" s="103"/>
-      <c r="V86" s="103"/>
-      <c r="W86" s="104"/>
-      <c r="X86" s="104"/>
-      <c r="Y86" s="104"/>
-      <c r="Z86" s="104"/>
-      <c r="AA86" s="104"/>
-      <c r="AB86" s="104"/>
-      <c r="AC86" s="104"/>
-      <c r="AD86" s="104"/>
-      <c r="AE86" s="104"/>
-      <c r="AF86" s="104"/>
-      <c r="AG86" s="104"/>
-      <c r="AH86" s="104"/>
+      <c r="A86" s="105"/>
+      <c r="B86" s="105"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="105"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="105"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="105"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="105"/>
+      <c r="M86" s="105"/>
+      <c r="N86" s="105"/>
+      <c r="O86" s="105"/>
+      <c r="P86" s="105"/>
+      <c r="Q86" s="105"/>
+      <c r="R86" s="105"/>
+      <c r="S86" s="105"/>
+      <c r="T86" s="105"/>
+      <c r="U86" s="105"/>
+      <c r="V86" s="105"/>
+      <c r="W86" s="106"/>
+      <c r="X86" s="106"/>
+      <c r="Y86" s="106"/>
+      <c r="Z86" s="106"/>
+      <c r="AA86" s="106"/>
+      <c r="AB86" s="106"/>
+      <c r="AC86" s="106"/>
+      <c r="AD86" s="106"/>
+      <c r="AE86" s="106"/>
+      <c r="AF86" s="106"/>
+      <c r="AG86" s="106"/>
+      <c r="AH86" s="106"/>
     </row>
     <row r="87" spans="1:34">
-      <c r="A87" s="103"/>
-      <c r="B87" s="103"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="103"/>
-      <c r="E87" s="103"/>
-      <c r="F87" s="103"/>
-      <c r="G87" s="103"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="103"/>
-      <c r="J87" s="103"/>
-      <c r="K87" s="103"/>
-      <c r="L87" s="103"/>
-      <c r="M87" s="103"/>
-      <c r="N87" s="103"/>
-      <c r="O87" s="103"/>
-      <c r="P87" s="103"/>
-      <c r="Q87" s="103"/>
-      <c r="R87" s="103"/>
-      <c r="S87" s="103"/>
-      <c r="T87" s="103"/>
-      <c r="U87" s="103"/>
-      <c r="V87" s="103"/>
-      <c r="W87" s="104"/>
-      <c r="X87" s="104"/>
-      <c r="Y87" s="104"/>
-      <c r="Z87" s="104"/>
-      <c r="AA87" s="104"/>
-      <c r="AB87" s="104"/>
-      <c r="AC87" s="104"/>
-      <c r="AD87" s="104"/>
-      <c r="AE87" s="104"/>
-      <c r="AF87" s="104"/>
-      <c r="AG87" s="104"/>
-      <c r="AH87" s="104"/>
+      <c r="A87" s="105"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="105"/>
+      <c r="D87" s="105"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="105"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="105"/>
+      <c r="M87" s="105"/>
+      <c r="N87" s="105"/>
+      <c r="O87" s="105"/>
+      <c r="P87" s="105"/>
+      <c r="Q87" s="105"/>
+      <c r="R87" s="105"/>
+      <c r="S87" s="105"/>
+      <c r="T87" s="105"/>
+      <c r="U87" s="105"/>
+      <c r="V87" s="105"/>
+      <c r="W87" s="106"/>
+      <c r="X87" s="106"/>
+      <c r="Y87" s="106"/>
+      <c r="Z87" s="106"/>
+      <c r="AA87" s="106"/>
+      <c r="AB87" s="106"/>
+      <c r="AC87" s="106"/>
+      <c r="AD87" s="106"/>
+      <c r="AE87" s="106"/>
+      <c r="AF87" s="106"/>
+      <c r="AG87" s="106"/>
+      <c r="AH87" s="106"/>
     </row>
     <row r="88" spans="1:34">
-      <c r="A88" s="103"/>
-      <c r="B88" s="103"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="103"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="103"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="103"/>
-      <c r="I88" s="103"/>
-      <c r="J88" s="103"/>
-      <c r="K88" s="103"/>
-      <c r="L88" s="103"/>
-      <c r="M88" s="103"/>
-      <c r="N88" s="103"/>
-      <c r="O88" s="103"/>
-      <c r="P88" s="103"/>
-      <c r="Q88" s="103"/>
-      <c r="R88" s="103"/>
-      <c r="S88" s="103"/>
-      <c r="T88" s="103"/>
-      <c r="U88" s="103"/>
-      <c r="V88" s="103"/>
-      <c r="W88" s="104"/>
-      <c r="X88" s="104"/>
-      <c r="Y88" s="104"/>
-      <c r="Z88" s="104"/>
-      <c r="AA88" s="104"/>
-      <c r="AB88" s="104"/>
-      <c r="AC88" s="104"/>
-      <c r="AD88" s="104"/>
-      <c r="AE88" s="104"/>
-      <c r="AF88" s="104"/>
-      <c r="AG88" s="104"/>
-      <c r="AH88" s="104"/>
+      <c r="A88" s="105"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="105"/>
+      <c r="I88" s="105"/>
+      <c r="J88" s="105"/>
+      <c r="K88" s="105"/>
+      <c r="L88" s="105"/>
+      <c r="M88" s="105"/>
+      <c r="N88" s="105"/>
+      <c r="O88" s="105"/>
+      <c r="P88" s="105"/>
+      <c r="Q88" s="105"/>
+      <c r="R88" s="105"/>
+      <c r="S88" s="105"/>
+      <c r="T88" s="105"/>
+      <c r="U88" s="105"/>
+      <c r="V88" s="105"/>
+      <c r="W88" s="106"/>
+      <c r="X88" s="106"/>
+      <c r="Y88" s="106"/>
+      <c r="Z88" s="106"/>
+      <c r="AA88" s="106"/>
+      <c r="AB88" s="106"/>
+      <c r="AC88" s="106"/>
+      <c r="AD88" s="106"/>
+      <c r="AE88" s="106"/>
+      <c r="AF88" s="106"/>
+      <c r="AG88" s="106"/>
+      <c r="AH88" s="106"/>
     </row>
     <row r="89" spans="1:34">
-      <c r="A89" s="103"/>
-      <c r="B89" s="103"/>
-      <c r="C89" s="103"/>
-      <c r="D89" s="103"/>
-      <c r="E89" s="103"/>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="103"/>
-      <c r="I89" s="103"/>
-      <c r="J89" s="103"/>
-      <c r="K89" s="103"/>
-      <c r="L89" s="103"/>
-      <c r="M89" s="103"/>
-      <c r="N89" s="103"/>
-      <c r="O89" s="103"/>
-      <c r="P89" s="103"/>
-      <c r="Q89" s="103"/>
-      <c r="R89" s="103"/>
-      <c r="S89" s="103"/>
-      <c r="T89" s="103"/>
-      <c r="U89" s="103"/>
-      <c r="V89" s="103"/>
-      <c r="W89" s="104"/>
-      <c r="X89" s="104"/>
-      <c r="Y89" s="104"/>
-      <c r="Z89" s="104"/>
-      <c r="AA89" s="104"/>
-      <c r="AB89" s="104"/>
-      <c r="AC89" s="104"/>
-      <c r="AD89" s="104"/>
-      <c r="AE89" s="104"/>
-      <c r="AF89" s="104"/>
-      <c r="AG89" s="104"/>
-      <c r="AH89" s="104"/>
+      <c r="A89" s="105"/>
+      <c r="B89" s="105"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="105"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="105"/>
+      <c r="G89" s="105"/>
+      <c r="H89" s="105"/>
+      <c r="I89" s="105"/>
+      <c r="J89" s="105"/>
+      <c r="K89" s="105"/>
+      <c r="L89" s="105"/>
+      <c r="M89" s="105"/>
+      <c r="N89" s="105"/>
+      <c r="O89" s="105"/>
+      <c r="P89" s="105"/>
+      <c r="Q89" s="105"/>
+      <c r="R89" s="105"/>
+      <c r="S89" s="105"/>
+      <c r="T89" s="105"/>
+      <c r="U89" s="105"/>
+      <c r="V89" s="105"/>
+      <c r="W89" s="106"/>
+      <c r="X89" s="106"/>
+      <c r="Y89" s="106"/>
+      <c r="Z89" s="106"/>
+      <c r="AA89" s="106"/>
+      <c r="AB89" s="106"/>
+      <c r="AC89" s="106"/>
+      <c r="AD89" s="106"/>
+      <c r="AE89" s="106"/>
+      <c r="AF89" s="106"/>
+      <c r="AG89" s="106"/>
+      <c r="AH89" s="106"/>
     </row>
     <row r="90" spans="1:34">
-      <c r="A90" s="103"/>
-      <c r="B90" s="103"/>
-      <c r="C90" s="103"/>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="103"/>
-      <c r="I90" s="103"/>
-      <c r="J90" s="103"/>
-      <c r="K90" s="103"/>
-      <c r="L90" s="103"/>
-      <c r="M90" s="103"/>
-      <c r="N90" s="103"/>
-      <c r="O90" s="103"/>
-      <c r="P90" s="103"/>
-      <c r="Q90" s="103"/>
-      <c r="R90" s="103"/>
-      <c r="S90" s="103"/>
-      <c r="T90" s="103"/>
-      <c r="U90" s="103"/>
-      <c r="V90" s="103"/>
-      <c r="W90" s="104"/>
-      <c r="X90" s="104"/>
-      <c r="Y90" s="104"/>
-      <c r="Z90" s="104"/>
-      <c r="AA90" s="104"/>
-      <c r="AB90" s="104"/>
-      <c r="AC90" s="104"/>
-      <c r="AD90" s="104"/>
-      <c r="AE90" s="104"/>
-      <c r="AF90" s="104"/>
-      <c r="AG90" s="104"/>
-      <c r="AH90" s="104"/>
+      <c r="A90" s="105"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="105"/>
+      <c r="I90" s="105"/>
+      <c r="J90" s="105"/>
+      <c r="K90" s="105"/>
+      <c r="L90" s="105"/>
+      <c r="M90" s="105"/>
+      <c r="N90" s="105"/>
+      <c r="O90" s="105"/>
+      <c r="P90" s="105"/>
+      <c r="Q90" s="105"/>
+      <c r="R90" s="105"/>
+      <c r="S90" s="105"/>
+      <c r="T90" s="105"/>
+      <c r="U90" s="105"/>
+      <c r="V90" s="105"/>
+      <c r="W90" s="106"/>
+      <c r="X90" s="106"/>
+      <c r="Y90" s="106"/>
+      <c r="Z90" s="106"/>
+      <c r="AA90" s="106"/>
+      <c r="AB90" s="106"/>
+      <c r="AC90" s="106"/>
+      <c r="AD90" s="106"/>
+      <c r="AE90" s="106"/>
+      <c r="AF90" s="106"/>
+      <c r="AG90" s="106"/>
+      <c r="AH90" s="106"/>
     </row>
     <row r="91" spans="1:34">
-      <c r="A91" s="103"/>
-      <c r="B91" s="103"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="103"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="103"/>
-      <c r="I91" s="103"/>
-      <c r="J91" s="103"/>
-      <c r="K91" s="103"/>
-      <c r="L91" s="103"/>
-      <c r="M91" s="103"/>
-      <c r="N91" s="103"/>
-      <c r="O91" s="103"/>
-      <c r="P91" s="103"/>
-      <c r="Q91" s="103"/>
-      <c r="R91" s="103"/>
-      <c r="S91" s="103"/>
-      <c r="T91" s="103"/>
-      <c r="U91" s="103"/>
-      <c r="V91" s="103"/>
-      <c r="W91" s="104"/>
-      <c r="X91" s="104"/>
-      <c r="Y91" s="104"/>
-      <c r="Z91" s="104"/>
-      <c r="AA91" s="104"/>
-      <c r="AB91" s="104"/>
-      <c r="AC91" s="104"/>
-      <c r="AD91" s="104"/>
-      <c r="AE91" s="104"/>
-      <c r="AF91" s="104"/>
-      <c r="AG91" s="104"/>
-      <c r="AH91" s="104"/>
+      <c r="A91" s="105"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="105"/>
+      <c r="K91" s="105"/>
+      <c r="L91" s="105"/>
+      <c r="M91" s="105"/>
+      <c r="N91" s="105"/>
+      <c r="O91" s="105"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="105"/>
+      <c r="R91" s="105"/>
+      <c r="S91" s="105"/>
+      <c r="T91" s="105"/>
+      <c r="U91" s="105"/>
+      <c r="V91" s="105"/>
+      <c r="W91" s="106"/>
+      <c r="X91" s="106"/>
+      <c r="Y91" s="106"/>
+      <c r="Z91" s="106"/>
+      <c r="AA91" s="106"/>
+      <c r="AB91" s="106"/>
+      <c r="AC91" s="106"/>
+      <c r="AD91" s="106"/>
+      <c r="AE91" s="106"/>
+      <c r="AF91" s="106"/>
+      <c r="AG91" s="106"/>
+      <c r="AH91" s="106"/>
     </row>
     <row r="92" spans="1:34">
-      <c r="A92" s="103"/>
-      <c r="B92" s="103"/>
-      <c r="C92" s="103"/>
-      <c r="D92" s="103"/>
-      <c r="E92" s="103"/>
-      <c r="F92" s="103"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="103"/>
-      <c r="I92" s="103"/>
-      <c r="J92" s="103"/>
-      <c r="K92" s="103"/>
-      <c r="L92" s="103"/>
-      <c r="M92" s="103"/>
-      <c r="N92" s="103"/>
-      <c r="O92" s="103"/>
-      <c r="P92" s="103"/>
-      <c r="Q92" s="103"/>
-      <c r="R92" s="103"/>
-      <c r="S92" s="103"/>
-      <c r="T92" s="103"/>
-      <c r="U92" s="103"/>
-      <c r="V92" s="103"/>
-      <c r="W92" s="104"/>
-      <c r="X92" s="104"/>
-      <c r="Y92" s="104"/>
-      <c r="Z92" s="104"/>
-      <c r="AA92" s="104"/>
-      <c r="AB92" s="104"/>
-      <c r="AC92" s="104"/>
-      <c r="AD92" s="104"/>
-      <c r="AE92" s="104"/>
-      <c r="AF92" s="104"/>
-      <c r="AG92" s="104"/>
-      <c r="AH92" s="104"/>
+      <c r="A92" s="105"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="105"/>
+      <c r="G92" s="105"/>
+      <c r="H92" s="105"/>
+      <c r="I92" s="105"/>
+      <c r="J92" s="105"/>
+      <c r="K92" s="105"/>
+      <c r="L92" s="105"/>
+      <c r="M92" s="105"/>
+      <c r="N92" s="105"/>
+      <c r="O92" s="105"/>
+      <c r="P92" s="105"/>
+      <c r="Q92" s="105"/>
+      <c r="R92" s="105"/>
+      <c r="S92" s="105"/>
+      <c r="T92" s="105"/>
+      <c r="U92" s="105"/>
+      <c r="V92" s="105"/>
+      <c r="W92" s="106"/>
+      <c r="X92" s="106"/>
+      <c r="Y92" s="106"/>
+      <c r="Z92" s="106"/>
+      <c r="AA92" s="106"/>
+      <c r="AB92" s="106"/>
+      <c r="AC92" s="106"/>
+      <c r="AD92" s="106"/>
+      <c r="AE92" s="106"/>
+      <c r="AF92" s="106"/>
+      <c r="AG92" s="106"/>
+      <c r="AH92" s="106"/>
     </row>
     <row r="93" spans="1:34">
-      <c r="A93" s="103"/>
-      <c r="B93" s="103"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="103"/>
-      <c r="E93" s="103"/>
-      <c r="F93" s="103"/>
-      <c r="G93" s="103"/>
-      <c r="H93" s="103"/>
-      <c r="I93" s="103"/>
-      <c r="J93" s="103"/>
-      <c r="K93" s="103"/>
-      <c r="L93" s="103"/>
-      <c r="M93" s="103"/>
-      <c r="N93" s="103"/>
-      <c r="O93" s="103"/>
-      <c r="P93" s="103"/>
-      <c r="Q93" s="103"/>
-      <c r="R93" s="103"/>
-      <c r="S93" s="103"/>
-      <c r="T93" s="103"/>
-      <c r="U93" s="103"/>
-      <c r="V93" s="103"/>
-      <c r="W93" s="104"/>
-      <c r="X93" s="104"/>
-      <c r="Y93" s="104"/>
-      <c r="Z93" s="104"/>
-      <c r="AA93" s="104"/>
-      <c r="AB93" s="104"/>
-      <c r="AC93" s="104"/>
-      <c r="AD93" s="104"/>
-      <c r="AE93" s="104"/>
-      <c r="AF93" s="104"/>
-      <c r="AG93" s="104"/>
-      <c r="AH93" s="104"/>
+      <c r="A93" s="105"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="105"/>
+      <c r="L93" s="105"/>
+      <c r="M93" s="105"/>
+      <c r="N93" s="105"/>
+      <c r="O93" s="105"/>
+      <c r="P93" s="105"/>
+      <c r="Q93" s="105"/>
+      <c r="R93" s="105"/>
+      <c r="S93" s="105"/>
+      <c r="T93" s="105"/>
+      <c r="U93" s="105"/>
+      <c r="V93" s="105"/>
+      <c r="W93" s="106"/>
+      <c r="X93" s="106"/>
+      <c r="Y93" s="106"/>
+      <c r="Z93" s="106"/>
+      <c r="AA93" s="106"/>
+      <c r="AB93" s="106"/>
+      <c r="AC93" s="106"/>
+      <c r="AD93" s="106"/>
+      <c r="AE93" s="106"/>
+      <c r="AF93" s="106"/>
+      <c r="AG93" s="106"/>
+      <c r="AH93" s="106"/>
     </row>
     <row r="94" spans="1:34">
-      <c r="A94" s="103"/>
-      <c r="B94" s="103"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="103"/>
-      <c r="E94" s="103"/>
-      <c r="F94" s="103"/>
-      <c r="G94" s="103"/>
-      <c r="H94" s="103"/>
-      <c r="I94" s="103"/>
-      <c r="J94" s="103"/>
-      <c r="K94" s="103"/>
-      <c r="L94" s="103"/>
-      <c r="M94" s="103"/>
-      <c r="N94" s="103"/>
-      <c r="O94" s="103"/>
-      <c r="P94" s="103"/>
-      <c r="Q94" s="103"/>
-      <c r="R94" s="103"/>
-      <c r="S94" s="103"/>
-      <c r="T94" s="103"/>
-      <c r="U94" s="103"/>
-      <c r="V94" s="103"/>
-      <c r="W94" s="104"/>
-      <c r="X94" s="104"/>
-      <c r="Y94" s="104"/>
-      <c r="Z94" s="104"/>
-      <c r="AA94" s="104"/>
-      <c r="AB94" s="104"/>
-      <c r="AC94" s="104"/>
-      <c r="AD94" s="104"/>
-      <c r="AE94" s="104"/>
-      <c r="AF94" s="104"/>
-      <c r="AG94" s="104"/>
-      <c r="AH94" s="104"/>
+      <c r="A94" s="105"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="105"/>
+      <c r="E94" s="105"/>
+      <c r="F94" s="105"/>
+      <c r="G94" s="105"/>
+      <c r="H94" s="105"/>
+      <c r="I94" s="105"/>
+      <c r="J94" s="105"/>
+      <c r="K94" s="105"/>
+      <c r="L94" s="105"/>
+      <c r="M94" s="105"/>
+      <c r="N94" s="105"/>
+      <c r="O94" s="105"/>
+      <c r="P94" s="105"/>
+      <c r="Q94" s="105"/>
+      <c r="R94" s="105"/>
+      <c r="S94" s="105"/>
+      <c r="T94" s="105"/>
+      <c r="U94" s="105"/>
+      <c r="V94" s="105"/>
+      <c r="W94" s="106"/>
+      <c r="X94" s="106"/>
+      <c r="Y94" s="106"/>
+      <c r="Z94" s="106"/>
+      <c r="AA94" s="106"/>
+      <c r="AB94" s="106"/>
+      <c r="AC94" s="106"/>
+      <c r="AD94" s="106"/>
+      <c r="AE94" s="106"/>
+      <c r="AF94" s="106"/>
+      <c r="AG94" s="106"/>
+      <c r="AH94" s="106"/>
     </row>
     <row r="95" spans="1:34">
-      <c r="A95" s="103"/>
-      <c r="B95" s="103"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="103"/>
-      <c r="E95" s="103"/>
-      <c r="F95" s="103"/>
-      <c r="G95" s="103"/>
-      <c r="H95" s="103"/>
-      <c r="I95" s="103"/>
-      <c r="J95" s="103"/>
-      <c r="K95" s="103"/>
-      <c r="L95" s="103"/>
-      <c r="M95" s="103"/>
-      <c r="N95" s="103"/>
-      <c r="O95" s="103"/>
-      <c r="P95" s="103"/>
-      <c r="Q95" s="103"/>
-      <c r="R95" s="103"/>
-      <c r="S95" s="103"/>
-      <c r="T95" s="103"/>
-      <c r="U95" s="103"/>
-      <c r="V95" s="103"/>
-      <c r="W95" s="104"/>
-      <c r="X95" s="104"/>
-      <c r="Y95" s="104"/>
-      <c r="Z95" s="104"/>
-      <c r="AA95" s="104"/>
-      <c r="AB95" s="104"/>
-      <c r="AC95" s="104"/>
-      <c r="AD95" s="104"/>
-      <c r="AE95" s="104"/>
-      <c r="AF95" s="104"/>
-      <c r="AG95" s="104"/>
-      <c r="AH95" s="104"/>
+      <c r="A95" s="105"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="105"/>
+      <c r="D95" s="105"/>
+      <c r="E95" s="105"/>
+      <c r="F95" s="105"/>
+      <c r="G95" s="105"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="105"/>
+      <c r="K95" s="105"/>
+      <c r="L95" s="105"/>
+      <c r="M95" s="105"/>
+      <c r="N95" s="105"/>
+      <c r="O95" s="105"/>
+      <c r="P95" s="105"/>
+      <c r="Q95" s="105"/>
+      <c r="R95" s="105"/>
+      <c r="S95" s="105"/>
+      <c r="T95" s="105"/>
+      <c r="U95" s="105"/>
+      <c r="V95" s="105"/>
+      <c r="W95" s="106"/>
+      <c r="X95" s="106"/>
+      <c r="Y95" s="106"/>
+      <c r="Z95" s="106"/>
+      <c r="AA95" s="106"/>
+      <c r="AB95" s="106"/>
+      <c r="AC95" s="106"/>
+      <c r="AD95" s="106"/>
+      <c r="AE95" s="106"/>
+      <c r="AF95" s="106"/>
+      <c r="AG95" s="106"/>
+      <c r="AH95" s="106"/>
     </row>
     <row r="96" spans="1:34">
-      <c r="A96" s="103"/>
-      <c r="B96" s="103"/>
-      <c r="C96" s="103"/>
-      <c r="D96" s="103"/>
-      <c r="E96" s="103"/>
-      <c r="F96" s="103"/>
-      <c r="G96" s="103"/>
-      <c r="H96" s="103"/>
-      <c r="I96" s="103"/>
-      <c r="J96" s="103"/>
-      <c r="K96" s="103"/>
-      <c r="L96" s="103"/>
-      <c r="M96" s="103"/>
-      <c r="N96" s="103"/>
-      <c r="O96" s="103"/>
-      <c r="P96" s="103"/>
-      <c r="Q96" s="103"/>
-      <c r="R96" s="103"/>
-      <c r="S96" s="103"/>
-      <c r="T96" s="103"/>
-      <c r="U96" s="103"/>
-      <c r="V96" s="103"/>
-      <c r="W96" s="104"/>
-      <c r="X96" s="104"/>
-      <c r="Y96" s="104"/>
-      <c r="Z96" s="104"/>
-      <c r="AA96" s="104"/>
-      <c r="AB96" s="104"/>
-      <c r="AC96" s="104"/>
-      <c r="AD96" s="104"/>
-      <c r="AE96" s="104"/>
-      <c r="AF96" s="104"/>
-      <c r="AG96" s="104"/>
-      <c r="AH96" s="104"/>
+      <c r="A96" s="105"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="105"/>
+      <c r="F96" s="105"/>
+      <c r="G96" s="105"/>
+      <c r="H96" s="105"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="105"/>
+      <c r="K96" s="105"/>
+      <c r="L96" s="105"/>
+      <c r="M96" s="105"/>
+      <c r="N96" s="105"/>
+      <c r="O96" s="105"/>
+      <c r="P96" s="105"/>
+      <c r="Q96" s="105"/>
+      <c r="R96" s="105"/>
+      <c r="S96" s="105"/>
+      <c r="T96" s="105"/>
+      <c r="U96" s="105"/>
+      <c r="V96" s="105"/>
+      <c r="W96" s="106"/>
+      <c r="X96" s="106"/>
+      <c r="Y96" s="106"/>
+      <c r="Z96" s="106"/>
+      <c r="AA96" s="106"/>
+      <c r="AB96" s="106"/>
+      <c r="AC96" s="106"/>
+      <c r="AD96" s="106"/>
+      <c r="AE96" s="106"/>
+      <c r="AF96" s="106"/>
+      <c r="AG96" s="106"/>
+      <c r="AH96" s="106"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="103"/>
-      <c r="B97" s="103"/>
-      <c r="C97" s="103"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="103"/>
-      <c r="G97" s="103"/>
-      <c r="H97" s="103"/>
-      <c r="I97" s="103"/>
-      <c r="J97" s="103"/>
-      <c r="K97" s="103"/>
-      <c r="L97" s="103"/>
-      <c r="M97" s="103"/>
-      <c r="N97" s="103"/>
-      <c r="O97" s="103"/>
-      <c r="P97" s="103"/>
-      <c r="Q97" s="103"/>
-      <c r="R97" s="103"/>
-      <c r="S97" s="103"/>
-      <c r="T97" s="103"/>
-      <c r="U97" s="103"/>
-      <c r="V97" s="103"/>
+      <c r="A97" s="105"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="105"/>
+      <c r="K97" s="105"/>
+      <c r="L97" s="105"/>
+      <c r="M97" s="105"/>
+      <c r="N97" s="105"/>
+      <c r="O97" s="105"/>
+      <c r="P97" s="105"/>
+      <c r="Q97" s="105"/>
+      <c r="R97" s="105"/>
+      <c r="S97" s="105"/>
+      <c r="T97" s="105"/>
+      <c r="U97" s="105"/>
+      <c r="V97" s="105"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="103"/>
-      <c r="B98" s="103"/>
-      <c r="C98" s="103"/>
-      <c r="D98" s="103"/>
-      <c r="E98" s="103"/>
-      <c r="F98" s="103"/>
-      <c r="G98" s="103"/>
-      <c r="H98" s="103"/>
-      <c r="I98" s="103"/>
-      <c r="J98" s="103"/>
-      <c r="K98" s="103"/>
-      <c r="L98" s="103"/>
-      <c r="M98" s="103"/>
-      <c r="N98" s="103"/>
-      <c r="O98" s="103"/>
-      <c r="P98" s="103"/>
-      <c r="Q98" s="103"/>
-      <c r="R98" s="103"/>
-      <c r="S98" s="103"/>
-      <c r="T98" s="103"/>
-      <c r="U98" s="103"/>
-      <c r="V98" s="103"/>
+      <c r="A98" s="105"/>
+      <c r="B98" s="105"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="105"/>
+      <c r="E98" s="105"/>
+      <c r="F98" s="105"/>
+      <c r="G98" s="105"/>
+      <c r="H98" s="105"/>
+      <c r="I98" s="105"/>
+      <c r="J98" s="105"/>
+      <c r="K98" s="105"/>
+      <c r="L98" s="105"/>
+      <c r="M98" s="105"/>
+      <c r="N98" s="105"/>
+      <c r="O98" s="105"/>
+      <c r="P98" s="105"/>
+      <c r="Q98" s="105"/>
+      <c r="R98" s="105"/>
+      <c r="S98" s="105"/>
+      <c r="T98" s="105"/>
+      <c r="U98" s="105"/>
+      <c r="V98" s="105"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="103"/>
-      <c r="B99" s="103"/>
-      <c r="C99" s="103"/>
-      <c r="D99" s="103"/>
-      <c r="E99" s="103"/>
-      <c r="F99" s="103"/>
-      <c r="G99" s="103"/>
-      <c r="H99" s="103"/>
-      <c r="I99" s="103"/>
-      <c r="J99" s="103"/>
-      <c r="K99" s="103"/>
-      <c r="L99" s="103"/>
-      <c r="M99" s="103"/>
-      <c r="N99" s="103"/>
-      <c r="O99" s="103"/>
-      <c r="P99" s="103"/>
-      <c r="Q99" s="103"/>
-      <c r="R99" s="103"/>
-      <c r="S99" s="103"/>
-      <c r="T99" s="103"/>
-      <c r="U99" s="103"/>
-      <c r="V99" s="103"/>
+      <c r="A99" s="105"/>
+      <c r="B99" s="105"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="105"/>
+      <c r="E99" s="105"/>
+      <c r="F99" s="105"/>
+      <c r="G99" s="105"/>
+      <c r="H99" s="105"/>
+      <c r="I99" s="105"/>
+      <c r="J99" s="105"/>
+      <c r="K99" s="105"/>
+      <c r="L99" s="105"/>
+      <c r="M99" s="105"/>
+      <c r="N99" s="105"/>
+      <c r="O99" s="105"/>
+      <c r="P99" s="105"/>
+      <c r="Q99" s="105"/>
+      <c r="R99" s="105"/>
+      <c r="S99" s="105"/>
+      <c r="T99" s="105"/>
+      <c r="U99" s="105"/>
+      <c r="V99" s="105"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="103"/>
-      <c r="B100" s="103"/>
-      <c r="C100" s="103"/>
-      <c r="D100" s="103"/>
-      <c r="E100" s="103"/>
-      <c r="F100" s="103"/>
-      <c r="G100" s="103"/>
-      <c r="H100" s="103"/>
-      <c r="I100" s="103"/>
-      <c r="J100" s="103"/>
-      <c r="K100" s="103"/>
-      <c r="L100" s="103"/>
-      <c r="M100" s="103"/>
-      <c r="N100" s="103"/>
-      <c r="O100" s="103"/>
-      <c r="P100" s="103"/>
-      <c r="Q100" s="103"/>
-      <c r="R100" s="103"/>
-      <c r="S100" s="103"/>
-      <c r="T100" s="103"/>
-      <c r="U100" s="103"/>
-      <c r="V100" s="103"/>
+      <c r="A100" s="105"/>
+      <c r="B100" s="105"/>
+      <c r="C100" s="105"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="105"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="105"/>
+      <c r="K100" s="105"/>
+      <c r="L100" s="105"/>
+      <c r="M100" s="105"/>
+      <c r="N100" s="105"/>
+      <c r="O100" s="105"/>
+      <c r="P100" s="105"/>
+      <c r="Q100" s="105"/>
+      <c r="R100" s="105"/>
+      <c r="S100" s="105"/>
+      <c r="T100" s="105"/>
+      <c r="U100" s="105"/>
+      <c r="V100" s="105"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="103"/>
-      <c r="B101" s="103"/>
-      <c r="C101" s="103"/>
-      <c r="D101" s="103"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="103"/>
-      <c r="G101" s="103"/>
-      <c r="H101" s="103"/>
-      <c r="I101" s="103"/>
-      <c r="J101" s="103"/>
-      <c r="K101" s="103"/>
-      <c r="L101" s="103"/>
-      <c r="M101" s="103"/>
-      <c r="N101" s="103"/>
-      <c r="O101" s="103"/>
-      <c r="P101" s="103"/>
-      <c r="Q101" s="103"/>
-      <c r="R101" s="103"/>
-      <c r="S101" s="103"/>
-      <c r="T101" s="103"/>
-      <c r="U101" s="103"/>
-      <c r="V101" s="103"/>
+      <c r="A101" s="105"/>
+      <c r="B101" s="105"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="105"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="105"/>
+      <c r="J101" s="105"/>
+      <c r="K101" s="105"/>
+      <c r="L101" s="105"/>
+      <c r="M101" s="105"/>
+      <c r="N101" s="105"/>
+      <c r="O101" s="105"/>
+      <c r="P101" s="105"/>
+      <c r="Q101" s="105"/>
+      <c r="R101" s="105"/>
+      <c r="S101" s="105"/>
+      <c r="T101" s="105"/>
+      <c r="U101" s="105"/>
+      <c r="V101" s="105"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="103"/>
-      <c r="B102" s="103"/>
-      <c r="C102" s="103"/>
-      <c r="D102" s="103"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="103"/>
-      <c r="H102" s="103"/>
-      <c r="I102" s="103"/>
-      <c r="J102" s="103"/>
-      <c r="K102" s="103"/>
-      <c r="L102" s="103"/>
-      <c r="M102" s="103"/>
-      <c r="N102" s="103"/>
-      <c r="O102" s="103"/>
-      <c r="P102" s="103"/>
-      <c r="Q102" s="103"/>
-      <c r="R102" s="103"/>
-      <c r="S102" s="103"/>
-      <c r="T102" s="103"/>
-      <c r="U102" s="103"/>
-      <c r="V102" s="103"/>
+      <c r="A102" s="105"/>
+      <c r="B102" s="105"/>
+      <c r="C102" s="105"/>
+      <c r="D102" s="105"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="105"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="105"/>
+      <c r="J102" s="105"/>
+      <c r="K102" s="105"/>
+      <c r="L102" s="105"/>
+      <c r="M102" s="105"/>
+      <c r="N102" s="105"/>
+      <c r="O102" s="105"/>
+      <c r="P102" s="105"/>
+      <c r="Q102" s="105"/>
+      <c r="R102" s="105"/>
+      <c r="S102" s="105"/>
+      <c r="T102" s="105"/>
+      <c r="U102" s="105"/>
+      <c r="V102" s="105"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="103"/>
-      <c r="B103" s="103"/>
-      <c r="C103" s="103"/>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="103"/>
-      <c r="G103" s="103"/>
-      <c r="H103" s="103"/>
-      <c r="I103" s="103"/>
-      <c r="J103" s="103"/>
-      <c r="K103" s="103"/>
-      <c r="L103" s="103"/>
-      <c r="M103" s="103"/>
-      <c r="N103" s="103"/>
-      <c r="O103" s="103"/>
-      <c r="P103" s="103"/>
-      <c r="Q103" s="103"/>
-      <c r="R103" s="103"/>
-      <c r="S103" s="103"/>
-      <c r="T103" s="103"/>
-      <c r="U103" s="103"/>
-      <c r="V103" s="103"/>
+      <c r="A103" s="105"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
+      <c r="L103" s="105"/>
+      <c r="M103" s="105"/>
+      <c r="N103" s="105"/>
+      <c r="O103" s="105"/>
+      <c r="P103" s="105"/>
+      <c r="Q103" s="105"/>
+      <c r="R103" s="105"/>
+      <c r="S103" s="105"/>
+      <c r="T103" s="105"/>
+      <c r="U103" s="105"/>
+      <c r="V103" s="105"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="103"/>
-      <c r="B104" s="103"/>
-      <c r="C104" s="103"/>
-      <c r="D104" s="103"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="103"/>
-      <c r="G104" s="103"/>
-      <c r="H104" s="103"/>
-      <c r="I104" s="103"/>
-      <c r="J104" s="103"/>
-      <c r="K104" s="103"/>
-      <c r="L104" s="103"/>
-      <c r="M104" s="103"/>
-      <c r="N104" s="103"/>
-      <c r="O104" s="103"/>
-      <c r="P104" s="103"/>
-      <c r="Q104" s="103"/>
-      <c r="R104" s="103"/>
-      <c r="S104" s="103"/>
-      <c r="T104" s="103"/>
-      <c r="U104" s="103"/>
-      <c r="V104" s="103"/>
+      <c r="A104" s="105"/>
+      <c r="B104" s="105"/>
+      <c r="C104" s="105"/>
+      <c r="D104" s="105"/>
+      <c r="E104" s="105"/>
+      <c r="F104" s="105"/>
+      <c r="G104" s="105"/>
+      <c r="H104" s="105"/>
+      <c r="I104" s="105"/>
+      <c r="J104" s="105"/>
+      <c r="K104" s="105"/>
+      <c r="L104" s="105"/>
+      <c r="M104" s="105"/>
+      <c r="N104" s="105"/>
+      <c r="O104" s="105"/>
+      <c r="P104" s="105"/>
+      <c r="Q104" s="105"/>
+      <c r="R104" s="105"/>
+      <c r="S104" s="105"/>
+      <c r="T104" s="105"/>
+      <c r="U104" s="105"/>
+      <c r="V104" s="105"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="103"/>
-      <c r="B105" s="103"/>
-      <c r="C105" s="103"/>
-      <c r="D105" s="103"/>
-      <c r="E105" s="103"/>
-      <c r="F105" s="103"/>
-      <c r="G105" s="103"/>
-      <c r="H105" s="103"/>
-      <c r="I105" s="103"/>
-      <c r="J105" s="103"/>
-      <c r="K105" s="103"/>
-      <c r="L105" s="103"/>
-      <c r="M105" s="103"/>
-      <c r="N105" s="103"/>
-      <c r="O105" s="103"/>
-      <c r="P105" s="103"/>
-      <c r="Q105" s="103"/>
-      <c r="R105" s="103"/>
-      <c r="S105" s="103"/>
-      <c r="T105" s="103"/>
-      <c r="U105" s="103"/>
-      <c r="V105" s="103"/>
+      <c r="A105" s="105"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="105"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="105"/>
+      <c r="G105" s="105"/>
+      <c r="H105" s="105"/>
+      <c r="I105" s="105"/>
+      <c r="J105" s="105"/>
+      <c r="K105" s="105"/>
+      <c r="L105" s="105"/>
+      <c r="M105" s="105"/>
+      <c r="N105" s="105"/>
+      <c r="O105" s="105"/>
+      <c r="P105" s="105"/>
+      <c r="Q105" s="105"/>
+      <c r="R105" s="105"/>
+      <c r="S105" s="105"/>
+      <c r="T105" s="105"/>
+      <c r="U105" s="105"/>
+      <c r="V105" s="105"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="103"/>
-      <c r="B106" s="103"/>
-      <c r="C106" s="103"/>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="103"/>
-      <c r="I106" s="103"/>
-      <c r="J106" s="103"/>
-      <c r="K106" s="103"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="103"/>
-      <c r="N106" s="103"/>
-      <c r="O106" s="103"/>
-      <c r="P106" s="103"/>
-      <c r="Q106" s="103"/>
-      <c r="R106" s="103"/>
-      <c r="S106" s="103"/>
-      <c r="T106" s="103"/>
-      <c r="U106" s="103"/>
-      <c r="V106" s="103"/>
+      <c r="A106" s="105"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="105"/>
+      <c r="L106" s="105"/>
+      <c r="M106" s="105"/>
+      <c r="N106" s="105"/>
+      <c r="O106" s="105"/>
+      <c r="P106" s="105"/>
+      <c r="Q106" s="105"/>
+      <c r="R106" s="105"/>
+      <c r="S106" s="105"/>
+      <c r="T106" s="105"/>
+      <c r="U106" s="105"/>
+      <c r="V106" s="105"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="103"/>
-      <c r="B107" s="103"/>
-      <c r="C107" s="103"/>
-      <c r="D107" s="103"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="103"/>
-      <c r="G107" s="103"/>
-      <c r="H107" s="103"/>
-      <c r="I107" s="103"/>
-      <c r="J107" s="103"/>
-      <c r="K107" s="103"/>
-      <c r="L107" s="103"/>
-      <c r="M107" s="103"/>
-      <c r="N107" s="103"/>
-      <c r="O107" s="103"/>
-      <c r="P107" s="103"/>
-      <c r="Q107" s="103"/>
-      <c r="R107" s="103"/>
-      <c r="S107" s="103"/>
-      <c r="T107" s="103"/>
-      <c r="U107" s="103"/>
-      <c r="V107" s="103"/>
+      <c r="A107" s="105"/>
+      <c r="B107" s="105"/>
+      <c r="C107" s="105"/>
+      <c r="D107" s="105"/>
+      <c r="E107" s="105"/>
+      <c r="F107" s="105"/>
+      <c r="G107" s="105"/>
+      <c r="H107" s="105"/>
+      <c r="I107" s="105"/>
+      <c r="J107" s="105"/>
+      <c r="K107" s="105"/>
+      <c r="L107" s="105"/>
+      <c r="M107" s="105"/>
+      <c r="N107" s="105"/>
+      <c r="O107" s="105"/>
+      <c r="P107" s="105"/>
+      <c r="Q107" s="105"/>
+      <c r="R107" s="105"/>
+      <c r="S107" s="105"/>
+      <c r="T107" s="105"/>
+      <c r="U107" s="105"/>
+      <c r="V107" s="105"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="103"/>
-      <c r="B108" s="103"/>
-      <c r="C108" s="103"/>
-      <c r="D108" s="103"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="103"/>
-      <c r="G108" s="103"/>
-      <c r="H108" s="103"/>
-      <c r="I108" s="103"/>
-      <c r="J108" s="103"/>
-      <c r="K108" s="103"/>
-      <c r="L108" s="103"/>
-      <c r="M108" s="103"/>
-      <c r="N108" s="103"/>
-      <c r="O108" s="103"/>
-      <c r="P108" s="103"/>
-      <c r="Q108" s="103"/>
-      <c r="R108" s="103"/>
-      <c r="S108" s="103"/>
-      <c r="T108" s="103"/>
-      <c r="U108" s="103"/>
-      <c r="V108" s="103"/>
+      <c r="A108" s="105"/>
+      <c r="B108" s="105"/>
+      <c r="C108" s="105"/>
+      <c r="D108" s="105"/>
+      <c r="E108" s="105"/>
+      <c r="F108" s="105"/>
+      <c r="G108" s="105"/>
+      <c r="H108" s="105"/>
+      <c r="I108" s="105"/>
+      <c r="J108" s="105"/>
+      <c r="K108" s="105"/>
+      <c r="L108" s="105"/>
+      <c r="M108" s="105"/>
+      <c r="N108" s="105"/>
+      <c r="O108" s="105"/>
+      <c r="P108" s="105"/>
+      <c r="Q108" s="105"/>
+      <c r="R108" s="105"/>
+      <c r="S108" s="105"/>
+      <c r="T108" s="105"/>
+      <c r="U108" s="105"/>
+      <c r="V108" s="105"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="103"/>
-      <c r="B109" s="103"/>
-      <c r="C109" s="103"/>
-      <c r="D109" s="103"/>
-      <c r="E109" s="103"/>
-      <c r="F109" s="103"/>
-      <c r="G109" s="103"/>
-      <c r="H109" s="103"/>
-      <c r="I109" s="103"/>
-      <c r="J109" s="103"/>
-      <c r="K109" s="103"/>
-      <c r="L109" s="103"/>
-      <c r="M109" s="103"/>
-      <c r="N109" s="103"/>
-      <c r="O109" s="103"/>
-      <c r="P109" s="103"/>
-      <c r="Q109" s="103"/>
-      <c r="R109" s="103"/>
-      <c r="S109" s="103"/>
-      <c r="T109" s="103"/>
-      <c r="U109" s="103"/>
-      <c r="V109" s="103"/>
+      <c r="A109" s="105"/>
+      <c r="B109" s="105"/>
+      <c r="C109" s="105"/>
+      <c r="D109" s="105"/>
+      <c r="E109" s="105"/>
+      <c r="F109" s="105"/>
+      <c r="G109" s="105"/>
+      <c r="H109" s="105"/>
+      <c r="I109" s="105"/>
+      <c r="J109" s="105"/>
+      <c r="K109" s="105"/>
+      <c r="L109" s="105"/>
+      <c r="M109" s="105"/>
+      <c r="N109" s="105"/>
+      <c r="O109" s="105"/>
+      <c r="P109" s="105"/>
+      <c r="Q109" s="105"/>
+      <c r="R109" s="105"/>
+      <c r="S109" s="105"/>
+      <c r="T109" s="105"/>
+      <c r="U109" s="105"/>
+      <c r="V109" s="105"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="103"/>
-      <c r="B110" s="103"/>
-      <c r="C110" s="103"/>
-      <c r="D110" s="103"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="103"/>
-      <c r="G110" s="103"/>
-      <c r="H110" s="103"/>
-      <c r="I110" s="103"/>
-      <c r="J110" s="103"/>
-      <c r="K110" s="103"/>
-      <c r="L110" s="103"/>
-      <c r="M110" s="103"/>
-      <c r="N110" s="103"/>
-      <c r="O110" s="103"/>
-      <c r="P110" s="103"/>
-      <c r="Q110" s="103"/>
-      <c r="R110" s="103"/>
-      <c r="S110" s="103"/>
-      <c r="T110" s="103"/>
-      <c r="U110" s="103"/>
-      <c r="V110" s="103"/>
+      <c r="A110" s="105"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="105"/>
+      <c r="G110" s="105"/>
+      <c r="H110" s="105"/>
+      <c r="I110" s="105"/>
+      <c r="J110" s="105"/>
+      <c r="K110" s="105"/>
+      <c r="L110" s="105"/>
+      <c r="M110" s="105"/>
+      <c r="N110" s="105"/>
+      <c r="O110" s="105"/>
+      <c r="P110" s="105"/>
+      <c r="Q110" s="105"/>
+      <c r="R110" s="105"/>
+      <c r="S110" s="105"/>
+      <c r="T110" s="105"/>
+      <c r="U110" s="105"/>
+      <c r="V110" s="105"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="103"/>
-      <c r="B111" s="103"/>
-      <c r="C111" s="103"/>
-      <c r="D111" s="103"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="103"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="103"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="103"/>
-      <c r="L111" s="103"/>
-      <c r="M111" s="103"/>
-      <c r="N111" s="103"/>
-      <c r="O111" s="103"/>
-      <c r="P111" s="103"/>
-      <c r="Q111" s="103"/>
-      <c r="R111" s="103"/>
-      <c r="S111" s="103"/>
-      <c r="T111" s="103"/>
-      <c r="U111" s="103"/>
-      <c r="V111" s="103"/>
+      <c r="A111" s="105"/>
+      <c r="B111" s="105"/>
+      <c r="C111" s="105"/>
+      <c r="D111" s="105"/>
+      <c r="E111" s="105"/>
+      <c r="F111" s="105"/>
+      <c r="G111" s="105"/>
+      <c r="H111" s="105"/>
+      <c r="I111" s="105"/>
+      <c r="J111" s="105"/>
+      <c r="K111" s="105"/>
+      <c r="L111" s="105"/>
+      <c r="M111" s="105"/>
+      <c r="N111" s="105"/>
+      <c r="O111" s="105"/>
+      <c r="P111" s="105"/>
+      <c r="Q111" s="105"/>
+      <c r="R111" s="105"/>
+      <c r="S111" s="105"/>
+      <c r="T111" s="105"/>
+      <c r="U111" s="105"/>
+      <c r="V111" s="105"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="103"/>
-      <c r="B112" s="103"/>
-      <c r="C112" s="103"/>
-      <c r="D112" s="103"/>
-      <c r="E112" s="103"/>
-      <c r="F112" s="103"/>
-      <c r="G112" s="103"/>
-      <c r="H112" s="103"/>
-      <c r="I112" s="103"/>
-      <c r="J112" s="103"/>
-      <c r="K112" s="103"/>
-      <c r="L112" s="103"/>
-      <c r="M112" s="103"/>
-      <c r="N112" s="103"/>
-      <c r="O112" s="103"/>
-      <c r="P112" s="103"/>
-      <c r="Q112" s="103"/>
-      <c r="R112" s="103"/>
-      <c r="S112" s="103"/>
-      <c r="T112" s="103"/>
-      <c r="U112" s="103"/>
-      <c r="V112" s="103"/>
+      <c r="A112" s="105"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="105"/>
+      <c r="I112" s="105"/>
+      <c r="J112" s="105"/>
+      <c r="K112" s="105"/>
+      <c r="L112" s="105"/>
+      <c r="M112" s="105"/>
+      <c r="N112" s="105"/>
+      <c r="O112" s="105"/>
+      <c r="P112" s="105"/>
+      <c r="Q112" s="105"/>
+      <c r="R112" s="105"/>
+      <c r="S112" s="105"/>
+      <c r="T112" s="105"/>
+      <c r="U112" s="105"/>
+      <c r="V112" s="105"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="103"/>
-      <c r="B113" s="103"/>
-      <c r="C113" s="103"/>
-      <c r="D113" s="103"/>
-      <c r="E113" s="103"/>
-      <c r="F113" s="103"/>
-      <c r="G113" s="103"/>
-      <c r="H113" s="103"/>
-      <c r="I113" s="103"/>
-      <c r="J113" s="103"/>
-      <c r="K113" s="103"/>
-      <c r="L113" s="103"/>
-      <c r="M113" s="103"/>
-      <c r="N113" s="103"/>
-      <c r="O113" s="103"/>
-      <c r="P113" s="103"/>
-      <c r="Q113" s="103"/>
-      <c r="R113" s="103"/>
-      <c r="S113" s="103"/>
-      <c r="T113" s="103"/>
-      <c r="U113" s="103"/>
-      <c r="V113" s="103"/>
+      <c r="A113" s="105"/>
+      <c r="B113" s="105"/>
+      <c r="C113" s="105"/>
+      <c r="D113" s="105"/>
+      <c r="E113" s="105"/>
+      <c r="F113" s="105"/>
+      <c r="G113" s="105"/>
+      <c r="H113" s="105"/>
+      <c r="I113" s="105"/>
+      <c r="J113" s="105"/>
+      <c r="K113" s="105"/>
+      <c r="L113" s="105"/>
+      <c r="M113" s="105"/>
+      <c r="N113" s="105"/>
+      <c r="O113" s="105"/>
+      <c r="P113" s="105"/>
+      <c r="Q113" s="105"/>
+      <c r="R113" s="105"/>
+      <c r="S113" s="105"/>
+      <c r="T113" s="105"/>
+      <c r="U113" s="105"/>
+      <c r="V113" s="105"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="103"/>
-      <c r="B114" s="103"/>
-      <c r="C114" s="103"/>
-      <c r="D114" s="103"/>
-      <c r="E114" s="103"/>
-      <c r="F114" s="103"/>
-      <c r="G114" s="103"/>
-      <c r="H114" s="103"/>
-      <c r="I114" s="103"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="103"/>
-      <c r="M114" s="103"/>
-      <c r="N114" s="103"/>
-      <c r="O114" s="103"/>
-      <c r="P114" s="103"/>
-      <c r="Q114" s="103"/>
-      <c r="R114" s="103"/>
-      <c r="S114" s="103"/>
-      <c r="T114" s="103"/>
-      <c r="U114" s="103"/>
-      <c r="V114" s="103"/>
+      <c r="A114" s="105"/>
+      <c r="B114" s="105"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="105"/>
+      <c r="E114" s="105"/>
+      <c r="F114" s="105"/>
+      <c r="G114" s="105"/>
+      <c r="H114" s="105"/>
+      <c r="I114" s="105"/>
+      <c r="J114" s="105"/>
+      <c r="K114" s="105"/>
+      <c r="L114" s="105"/>
+      <c r="M114" s="105"/>
+      <c r="N114" s="105"/>
+      <c r="O114" s="105"/>
+      <c r="P114" s="105"/>
+      <c r="Q114" s="105"/>
+      <c r="R114" s="105"/>
+      <c r="S114" s="105"/>
+      <c r="T114" s="105"/>
+      <c r="U114" s="105"/>
+      <c r="V114" s="105"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="103"/>
-      <c r="B115" s="103"/>
-      <c r="C115" s="103"/>
-      <c r="D115" s="103"/>
-      <c r="E115" s="103"/>
-      <c r="F115" s="103"/>
-      <c r="G115" s="103"/>
-      <c r="H115" s="103"/>
-      <c r="I115" s="103"/>
-      <c r="J115" s="103"/>
-      <c r="K115" s="103"/>
-      <c r="L115" s="103"/>
-      <c r="M115" s="103"/>
-      <c r="N115" s="103"/>
-      <c r="O115" s="103"/>
-      <c r="P115" s="103"/>
-      <c r="Q115" s="103"/>
-      <c r="R115" s="103"/>
-      <c r="S115" s="103"/>
-      <c r="T115" s="103"/>
-      <c r="U115" s="103"/>
-      <c r="V115" s="103"/>
+      <c r="A115" s="105"/>
+      <c r="B115" s="105"/>
+      <c r="C115" s="105"/>
+      <c r="D115" s="105"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="105"/>
+      <c r="G115" s="105"/>
+      <c r="H115" s="105"/>
+      <c r="I115" s="105"/>
+      <c r="J115" s="105"/>
+      <c r="K115" s="105"/>
+      <c r="L115" s="105"/>
+      <c r="M115" s="105"/>
+      <c r="N115" s="105"/>
+      <c r="O115" s="105"/>
+      <c r="P115" s="105"/>
+      <c r="Q115" s="105"/>
+      <c r="R115" s="105"/>
+      <c r="S115" s="105"/>
+      <c r="T115" s="105"/>
+      <c r="U115" s="105"/>
+      <c r="V115" s="105"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="103"/>
-      <c r="B116" s="103"/>
-      <c r="C116" s="103"/>
-      <c r="D116" s="103"/>
-      <c r="E116" s="103"/>
-      <c r="F116" s="103"/>
-      <c r="G116" s="103"/>
-      <c r="H116" s="103"/>
-      <c r="I116" s="103"/>
-      <c r="J116" s="103"/>
-      <c r="K116" s="103"/>
-      <c r="L116" s="103"/>
-      <c r="M116" s="103"/>
-      <c r="N116" s="103"/>
-      <c r="O116" s="103"/>
-      <c r="P116" s="103"/>
-      <c r="Q116" s="103"/>
-      <c r="R116" s="103"/>
-      <c r="S116" s="103"/>
-      <c r="T116" s="103"/>
-      <c r="U116" s="103"/>
-      <c r="V116" s="103"/>
+      <c r="A116" s="105"/>
+      <c r="B116" s="105"/>
+      <c r="C116" s="105"/>
+      <c r="D116" s="105"/>
+      <c r="E116" s="105"/>
+      <c r="F116" s="105"/>
+      <c r="G116" s="105"/>
+      <c r="H116" s="105"/>
+      <c r="I116" s="105"/>
+      <c r="J116" s="105"/>
+      <c r="K116" s="105"/>
+      <c r="L116" s="105"/>
+      <c r="M116" s="105"/>
+      <c r="N116" s="105"/>
+      <c r="O116" s="105"/>
+      <c r="P116" s="105"/>
+      <c r="Q116" s="105"/>
+      <c r="R116" s="105"/>
+      <c r="S116" s="105"/>
+      <c r="T116" s="105"/>
+      <c r="U116" s="105"/>
+      <c r="V116" s="105"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="103"/>
-      <c r="B117" s="103"/>
-      <c r="C117" s="103"/>
-      <c r="D117" s="103"/>
-      <c r="E117" s="103"/>
-      <c r="F117" s="103"/>
-      <c r="G117" s="103"/>
-      <c r="H117" s="103"/>
-      <c r="I117" s="103"/>
-      <c r="J117" s="103"/>
-      <c r="K117" s="103"/>
-      <c r="L117" s="103"/>
-      <c r="M117" s="103"/>
-      <c r="N117" s="103"/>
-      <c r="O117" s="103"/>
-      <c r="P117" s="103"/>
-      <c r="Q117" s="103"/>
-      <c r="R117" s="103"/>
-      <c r="S117" s="103"/>
-      <c r="T117" s="103"/>
-      <c r="U117" s="103"/>
-      <c r="V117" s="103"/>
+      <c r="A117" s="105"/>
+      <c r="B117" s="105"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="105"/>
+      <c r="H117" s="105"/>
+      <c r="I117" s="105"/>
+      <c r="J117" s="105"/>
+      <c r="K117" s="105"/>
+      <c r="L117" s="105"/>
+      <c r="M117" s="105"/>
+      <c r="N117" s="105"/>
+      <c r="O117" s="105"/>
+      <c r="P117" s="105"/>
+      <c r="Q117" s="105"/>
+      <c r="R117" s="105"/>
+      <c r="S117" s="105"/>
+      <c r="T117" s="105"/>
+      <c r="U117" s="105"/>
+      <c r="V117" s="105"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="103"/>
-      <c r="B118" s="103"/>
-      <c r="C118" s="103"/>
-      <c r="D118" s="103"/>
-      <c r="E118" s="103"/>
-      <c r="F118" s="103"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="103"/>
-      <c r="I118" s="103"/>
-      <c r="J118" s="103"/>
-      <c r="K118" s="103"/>
-      <c r="L118" s="103"/>
-      <c r="M118" s="103"/>
-      <c r="N118" s="103"/>
-      <c r="O118" s="103"/>
-      <c r="P118" s="103"/>
-      <c r="Q118" s="103"/>
-      <c r="R118" s="103"/>
-      <c r="S118" s="103"/>
-      <c r="T118" s="103"/>
-      <c r="U118" s="103"/>
-      <c r="V118" s="103"/>
+      <c r="A118" s="105"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="105"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="105"/>
+      <c r="K118" s="105"/>
+      <c r="L118" s="105"/>
+      <c r="M118" s="105"/>
+      <c r="N118" s="105"/>
+      <c r="O118" s="105"/>
+      <c r="P118" s="105"/>
+      <c r="Q118" s="105"/>
+      <c r="R118" s="105"/>
+      <c r="S118" s="105"/>
+      <c r="T118" s="105"/>
+      <c r="U118" s="105"/>
+      <c r="V118" s="105"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="103"/>
-      <c r="B119" s="103"/>
-      <c r="C119" s="103"/>
-      <c r="D119" s="103"/>
-      <c r="E119" s="103"/>
-      <c r="F119" s="103"/>
-      <c r="G119" s="103"/>
-      <c r="H119" s="103"/>
-      <c r="I119" s="103"/>
-      <c r="J119" s="103"/>
-      <c r="K119" s="103"/>
-      <c r="L119" s="103"/>
-      <c r="M119" s="103"/>
-      <c r="N119" s="103"/>
-      <c r="O119" s="103"/>
-      <c r="P119" s="103"/>
-      <c r="Q119" s="103"/>
-      <c r="R119" s="103"/>
-      <c r="S119" s="103"/>
-      <c r="T119" s="103"/>
-      <c r="U119" s="103"/>
-      <c r="V119" s="103"/>
+      <c r="A119" s="105"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="105"/>
+      <c r="D119" s="105"/>
+      <c r="E119" s="105"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="105"/>
+      <c r="I119" s="105"/>
+      <c r="J119" s="105"/>
+      <c r="K119" s="105"/>
+      <c r="L119" s="105"/>
+      <c r="M119" s="105"/>
+      <c r="N119" s="105"/>
+      <c r="O119" s="105"/>
+      <c r="P119" s="105"/>
+      <c r="Q119" s="105"/>
+      <c r="R119" s="105"/>
+      <c r="S119" s="105"/>
+      <c r="T119" s="105"/>
+      <c r="U119" s="105"/>
+      <c r="V119" s="105"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="103"/>
-      <c r="B120" s="103"/>
-      <c r="C120" s="103"/>
-      <c r="D120" s="103"/>
-      <c r="E120" s="103"/>
-      <c r="F120" s="103"/>
-      <c r="G120" s="103"/>
-      <c r="H120" s="103"/>
-      <c r="I120" s="103"/>
-      <c r="J120" s="103"/>
-      <c r="K120" s="103"/>
-      <c r="L120" s="103"/>
-      <c r="M120" s="103"/>
-      <c r="N120" s="103"/>
-      <c r="O120" s="103"/>
-      <c r="P120" s="103"/>
-      <c r="Q120" s="103"/>
-      <c r="R120" s="103"/>
-      <c r="S120" s="103"/>
-      <c r="T120" s="103"/>
-      <c r="U120" s="103"/>
-      <c r="V120" s="103"/>
+      <c r="A120" s="105"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="105"/>
+      <c r="D120" s="105"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="105"/>
+      <c r="I120" s="105"/>
+      <c r="J120" s="105"/>
+      <c r="K120" s="105"/>
+      <c r="L120" s="105"/>
+      <c r="M120" s="105"/>
+      <c r="N120" s="105"/>
+      <c r="O120" s="105"/>
+      <c r="P120" s="105"/>
+      <c r="Q120" s="105"/>
+      <c r="R120" s="105"/>
+      <c r="S120" s="105"/>
+      <c r="T120" s="105"/>
+      <c r="U120" s="105"/>
+      <c r="V120" s="105"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="103"/>
-      <c r="B121" s="103"/>
-      <c r="C121" s="103"/>
-      <c r="D121" s="103"/>
-      <c r="E121" s="103"/>
-      <c r="F121" s="103"/>
-      <c r="G121" s="103"/>
-      <c r="H121" s="103"/>
-      <c r="I121" s="103"/>
-      <c r="J121" s="103"/>
-      <c r="K121" s="103"/>
-      <c r="L121" s="103"/>
-      <c r="M121" s="103"/>
-      <c r="N121" s="103"/>
-      <c r="O121" s="103"/>
-      <c r="P121" s="103"/>
-      <c r="Q121" s="103"/>
-      <c r="R121" s="103"/>
-      <c r="S121" s="103"/>
-      <c r="T121" s="103"/>
-      <c r="U121" s="103"/>
-      <c r="V121" s="103"/>
+      <c r="A121" s="105"/>
+      <c r="B121" s="105"/>
+      <c r="C121" s="105"/>
+      <c r="D121" s="105"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="105"/>
+      <c r="G121" s="105"/>
+      <c r="H121" s="105"/>
+      <c r="I121" s="105"/>
+      <c r="J121" s="105"/>
+      <c r="K121" s="105"/>
+      <c r="L121" s="105"/>
+      <c r="M121" s="105"/>
+      <c r="N121" s="105"/>
+      <c r="O121" s="105"/>
+      <c r="P121" s="105"/>
+      <c r="Q121" s="105"/>
+      <c r="R121" s="105"/>
+      <c r="S121" s="105"/>
+      <c r="T121" s="105"/>
+      <c r="U121" s="105"/>
+      <c r="V121" s="105"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="103"/>
-      <c r="B122" s="103"/>
-      <c r="C122" s="103"/>
-      <c r="D122" s="103"/>
-      <c r="E122" s="103"/>
-      <c r="F122" s="103"/>
-      <c r="G122" s="103"/>
-      <c r="H122" s="103"/>
-      <c r="I122" s="103"/>
-      <c r="J122" s="103"/>
-      <c r="K122" s="103"/>
-      <c r="L122" s="103"/>
-      <c r="M122" s="103"/>
-      <c r="N122" s="103"/>
-      <c r="O122" s="103"/>
-      <c r="P122" s="103"/>
-      <c r="Q122" s="103"/>
-      <c r="R122" s="103"/>
-      <c r="S122" s="103"/>
-      <c r="T122" s="103"/>
-      <c r="U122" s="103"/>
-      <c r="V122" s="103"/>
+      <c r="A122" s="105"/>
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="105"/>
+      <c r="H122" s="105"/>
+      <c r="I122" s="105"/>
+      <c r="J122" s="105"/>
+      <c r="K122" s="105"/>
+      <c r="L122" s="105"/>
+      <c r="M122" s="105"/>
+      <c r="N122" s="105"/>
+      <c r="O122" s="105"/>
+      <c r="P122" s="105"/>
+      <c r="Q122" s="105"/>
+      <c r="R122" s="105"/>
+      <c r="S122" s="105"/>
+      <c r="T122" s="105"/>
+      <c r="U122" s="105"/>
+      <c r="V122" s="105"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="103"/>
-      <c r="B123" s="103"/>
-      <c r="C123" s="103"/>
-      <c r="D123" s="103"/>
-      <c r="E123" s="103"/>
-      <c r="F123" s="103"/>
-      <c r="G123" s="103"/>
-      <c r="H123" s="103"/>
-      <c r="I123" s="103"/>
-      <c r="J123" s="103"/>
-      <c r="K123" s="103"/>
-      <c r="L123" s="103"/>
-      <c r="M123" s="103"/>
-      <c r="N123" s="103"/>
-      <c r="O123" s="103"/>
-      <c r="P123" s="103"/>
-      <c r="Q123" s="103"/>
-      <c r="R123" s="103"/>
-      <c r="S123" s="103"/>
-      <c r="T123" s="103"/>
-      <c r="U123" s="103"/>
-      <c r="V123" s="103"/>
+      <c r="A123" s="105"/>
+      <c r="B123" s="105"/>
+      <c r="C123" s="105"/>
+      <c r="D123" s="105"/>
+      <c r="E123" s="105"/>
+      <c r="F123" s="105"/>
+      <c r="G123" s="105"/>
+      <c r="H123" s="105"/>
+      <c r="I123" s="105"/>
+      <c r="J123" s="105"/>
+      <c r="K123" s="105"/>
+      <c r="L123" s="105"/>
+      <c r="M123" s="105"/>
+      <c r="N123" s="105"/>
+      <c r="O123" s="105"/>
+      <c r="P123" s="105"/>
+      <c r="Q123" s="105"/>
+      <c r="R123" s="105"/>
+      <c r="S123" s="105"/>
+      <c r="T123" s="105"/>
+      <c r="U123" s="105"/>
+      <c r="V123" s="105"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="103"/>
-      <c r="B124" s="103"/>
-      <c r="C124" s="103"/>
-      <c r="D124" s="103"/>
-      <c r="E124" s="103"/>
-      <c r="F124" s="103"/>
-      <c r="G124" s="103"/>
-      <c r="H124" s="103"/>
-      <c r="I124" s="103"/>
-      <c r="J124" s="103"/>
-      <c r="K124" s="103"/>
-      <c r="L124" s="103"/>
-      <c r="M124" s="103"/>
-      <c r="N124" s="103"/>
-      <c r="O124" s="103"/>
-      <c r="P124" s="103"/>
-      <c r="Q124" s="103"/>
-      <c r="R124" s="103"/>
-      <c r="S124" s="103"/>
-      <c r="T124" s="103"/>
-      <c r="U124" s="103"/>
-      <c r="V124" s="103"/>
+      <c r="A124" s="105"/>
+      <c r="B124" s="105"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="105"/>
+      <c r="E124" s="105"/>
+      <c r="F124" s="105"/>
+      <c r="G124" s="105"/>
+      <c r="H124" s="105"/>
+      <c r="I124" s="105"/>
+      <c r="J124" s="105"/>
+      <c r="K124" s="105"/>
+      <c r="L124" s="105"/>
+      <c r="M124" s="105"/>
+      <c r="N124" s="105"/>
+      <c r="O124" s="105"/>
+      <c r="P124" s="105"/>
+      <c r="Q124" s="105"/>
+      <c r="R124" s="105"/>
+      <c r="S124" s="105"/>
+      <c r="T124" s="105"/>
+      <c r="U124" s="105"/>
+      <c r="V124" s="105"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="103"/>
-      <c r="B125" s="103"/>
-      <c r="C125" s="103"/>
-      <c r="D125" s="103"/>
-      <c r="E125" s="103"/>
-      <c r="F125" s="103"/>
-      <c r="G125" s="103"/>
-      <c r="H125" s="103"/>
-      <c r="I125" s="103"/>
-      <c r="J125" s="103"/>
-      <c r="K125" s="103"/>
-      <c r="L125" s="103"/>
-      <c r="M125" s="103"/>
-      <c r="N125" s="103"/>
-      <c r="O125" s="103"/>
-      <c r="P125" s="103"/>
-      <c r="Q125" s="103"/>
-      <c r="R125" s="103"/>
-      <c r="S125" s="103"/>
-      <c r="T125" s="103"/>
-      <c r="U125" s="103"/>
-      <c r="V125" s="103"/>
+      <c r="A125" s="105"/>
+      <c r="B125" s="105"/>
+      <c r="C125" s="105"/>
+      <c r="D125" s="105"/>
+      <c r="E125" s="105"/>
+      <c r="F125" s="105"/>
+      <c r="G125" s="105"/>
+      <c r="H125" s="105"/>
+      <c r="I125" s="105"/>
+      <c r="J125" s="105"/>
+      <c r="K125" s="105"/>
+      <c r="L125" s="105"/>
+      <c r="M125" s="105"/>
+      <c r="N125" s="105"/>
+      <c r="O125" s="105"/>
+      <c r="P125" s="105"/>
+      <c r="Q125" s="105"/>
+      <c r="R125" s="105"/>
+      <c r="S125" s="105"/>
+      <c r="T125" s="105"/>
+      <c r="U125" s="105"/>
+      <c r="V125" s="105"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="103"/>
-      <c r="B126" s="103"/>
-      <c r="C126" s="103"/>
-      <c r="D126" s="103"/>
-      <c r="E126" s="103"/>
-      <c r="F126" s="103"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="103"/>
-      <c r="I126" s="103"/>
-      <c r="J126" s="103"/>
-      <c r="K126" s="103"/>
-      <c r="L126" s="103"/>
-      <c r="M126" s="103"/>
-      <c r="N126" s="103"/>
-      <c r="O126" s="103"/>
-      <c r="P126" s="103"/>
-      <c r="Q126" s="103"/>
-      <c r="R126" s="103"/>
-      <c r="S126" s="103"/>
-      <c r="T126" s="103"/>
-      <c r="U126" s="103"/>
-      <c r="V126" s="103"/>
+      <c r="A126" s="105"/>
+      <c r="B126" s="105"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="105"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="105"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="105"/>
+      <c r="K126" s="105"/>
+      <c r="L126" s="105"/>
+      <c r="M126" s="105"/>
+      <c r="N126" s="105"/>
+      <c r="O126" s="105"/>
+      <c r="P126" s="105"/>
+      <c r="Q126" s="105"/>
+      <c r="R126" s="105"/>
+      <c r="S126" s="105"/>
+      <c r="T126" s="105"/>
+      <c r="U126" s="105"/>
+      <c r="V126" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
+++ b/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\Desktop\fixability\공용폴더\주간발표자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\fixability\공용폴더\주간발표자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,14 +27,14 @@
     <definedName name="Z_CD8AA89C_E9C0_4B5A_84A9_409329BA5C2A_.wvu.FilterData" localSheetId="1" hidden="1">'12월1주차'!$B$6:$AK$20</definedName>
     <definedName name="Z_F64BC8EB_E4C5_49CE_995F_59B1A73C0D9F_.wvu.FilterData" localSheetId="1" hidden="1">'12월1주차'!$B$6:$AK$20</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
     <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
-    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
-    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
-    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>작업이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,11 +273,6 @@
   </si>
   <si>
     <t>홈페이지 삽입 영상
-#S 3-1 소스 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈페이지 삽입 영상
 #S 4 소스제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,11 +295,20 @@
     <t>주간 스토리보드 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>홈페이지 삽입 영상
+#S 3-1 소스 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 정리 및 홈페이지 구성내용 회의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
@@ -484,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -955,122 +959,6 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1112,12 +1000,64 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1131,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +1219,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,193 +1321,85 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1581,7 +1503,7 @@
         <xdr:cNvPr id="8" name="순서도: 병합 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1569,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1918,7 @@
   <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2005,26 +1927,26 @@
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="80"/>
+      <c r="J1" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="82"/>
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
@@ -2051,26 +1973,26 @@
       <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="76">
         <v>44165</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="53">
+      <c r="C2" s="77"/>
+      <c r="D2" s="76">
         <v>44166</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53">
+      <c r="E2" s="77"/>
+      <c r="F2" s="76">
         <v>44167</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="53">
+      <c r="G2" s="77"/>
+      <c r="H2" s="76">
         <v>44169</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53">
+      <c r="I2" s="77"/>
+      <c r="J2" s="76">
         <v>44170</v>
       </c>
-      <c r="K2" s="55"/>
+      <c r="K2" s="78"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -2097,24 +2019,24 @@
       <c r="A3" s="41">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="60"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="52"/>
+      <c r="H3" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="71"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="72"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
@@ -2141,16 +2063,16 @@
       <c r="A4" s="41">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="60"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
@@ -2179,8 +2101,8 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -2215,10 +2137,10 @@
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="111"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
@@ -2251,20 +2173,20 @@
       <c r="A7" s="44">
         <v>0.58333333333333404</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="56" t="s">
+      <c r="B7" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="60"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -2291,20 +2213,22 @@
       <c r="A8" s="44">
         <v>0.625</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="110" t="s">
+      <c r="B8" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="60"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="52"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -2331,16 +2255,16 @@
       <c r="A9" s="44">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="60"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -2367,16 +2291,16 @@
       <c r="A10" s="44">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="60"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -2403,18 +2327,18 @@
       <c r="A11" s="44">
         <v>0.75</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="110" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="60"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="104"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -2441,16 +2365,16 @@
       <c r="A12" s="44">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="77"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -2477,16 +2401,16 @@
       <c r="A13" s="47">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="74"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="99"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -2513,18 +2437,18 @@
       <c r="A14" s="47">
         <v>0.875</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="60"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
@@ -2551,16 +2475,16 @@
       <c r="A15" s="47">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="81"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="66"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
@@ -2587,16 +2511,16 @@
       <c r="A16" s="47">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="77"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -2620,19 +2544,19 @@
       <c r="AF16" s="38"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -2656,17 +2580,17 @@
       <c r="AF17" s="38"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="87"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -2690,17 +2614,17 @@
       <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="88"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="98"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -2826,19 +2750,19 @@
       <c r="AF22" s="38"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
@@ -2862,17 +2786,17 @@
       <c r="AF23" s="38"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -2896,17 +2820,17 @@
       <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -2933,16 +2857,16 @@
       <c r="A26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -2966,27 +2890,27 @@
       <c r="AF26" s="38"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="91" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91" t="s">
+      <c r="F27" s="55"/>
+      <c r="G27" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91" t="s">
+      <c r="H27" s="55"/>
+      <c r="I27" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
@@ -3010,17 +2934,17 @@
       <c r="AF27" s="38"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -3044,17 +2968,17 @@
       <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -3078,17 +3002,17 @@
       <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -3182,27 +3106,27 @@
       <c r="AF32" s="38"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91" t="s">
+      <c r="B33" s="55"/>
+      <c r="C33" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91" t="s">
+      <c r="F33" s="55"/>
+      <c r="G33" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91" t="s">
+      <c r="H33" s="55"/>
+      <c r="I33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
@@ -3226,17 +3150,17 @@
       <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
@@ -3260,17 +3184,17 @@
       <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -3294,17 +3218,17 @@
       <c r="AF35" s="38"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -3365,16 +3289,16 @@
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -3398,27 +3322,27 @@
       <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="91" t="s">
+      <c r="A39" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91" t="s">
+      <c r="B39" s="55"/>
+      <c r="C39" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91" t="s">
+      <c r="D39" s="55"/>
+      <c r="E39" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91" t="s">
+      <c r="F39" s="55"/>
+      <c r="G39" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91" t="s">
+      <c r="H39" s="55"/>
+      <c r="I39" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -3442,17 +3366,17 @@
       <c r="AF39" s="38"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -3476,17 +3400,17 @@
       <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -3510,17 +3434,17 @@
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -4020,23 +3944,67 @@
       <c r="AF56" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
-    <mergeCell ref="D8:E10"/>
-    <mergeCell ref="D11:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I34:K36"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A28:B30"/>
+  <mergeCells count="96">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B8:C11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F8:G12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:I19"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K19"/>
     <mergeCell ref="A23:K25"/>
     <mergeCell ref="B38:K38"/>
     <mergeCell ref="A40:B42"/>
@@ -4053,6 +4021,14 @@
     <mergeCell ref="C34:D36"/>
     <mergeCell ref="E34:F36"/>
     <mergeCell ref="G34:H36"/>
+    <mergeCell ref="I34:K36"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A28:B30"/>
     <mergeCell ref="C28:D30"/>
     <mergeCell ref="E28:F30"/>
     <mergeCell ref="G28:H30"/>
@@ -4061,65 +4037,10 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:I19"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F8:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4152,48 +4073,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:420" ht="12" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="102" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -4227,34 +4148,34 @@
       <c r="BA1" s="2"/>
     </row>
     <row r="2" spans="1:420" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97">
+      <c r="A2" s="85"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88">
         <f>I4</f>
         <v>44165</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97">
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="88">
         <f t="shared" ref="P2" si="0">P4</f>
         <v>44172</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="99"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="90"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -5329,24 +5250,24 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="23"/>
-      <c r="AD10" s="92" t="s">
+      <c r="AD10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="83"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="83"/>
+      <c r="AM10" s="83"/>
+      <c r="AN10" s="83"/>
+      <c r="AO10" s="83"/>
+      <c r="AP10" s="83"/>
+      <c r="AQ10" s="83"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="83"/>
     </row>
     <row r="11" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A11" s="21">
@@ -5382,22 +5303,22 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="23"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
+      <c r="AI11" s="83"/>
+      <c r="AJ11" s="83"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="83"/>
+      <c r="AM11" s="83"/>
+      <c r="AN11" s="83"/>
+      <c r="AO11" s="83"/>
+      <c r="AP11" s="83"/>
+      <c r="AQ11" s="83"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="83"/>
     </row>
     <row r="12" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A12" s="21">
@@ -5433,22 +5354,22 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="23"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="92"/>
-      <c r="AM12" s="92"/>
-      <c r="AN12" s="92"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="92"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
+      <c r="AI12" s="83"/>
+      <c r="AJ12" s="83"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="83"/>
+      <c r="AM12" s="83"/>
+      <c r="AN12" s="83"/>
+      <c r="AO12" s="83"/>
+      <c r="AP12" s="83"/>
+      <c r="AQ12" s="83"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="83"/>
     </row>
     <row r="13" spans="1:420" ht="24" customHeight="1" outlineLevel="1">
       <c r="A13" s="21">
@@ -5484,22 +5405,22 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="23"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="92"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="83"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="83"/>
     </row>
     <row r="14" spans="1:420" ht="24.75" customHeight="1">
       <c r="A14" s="21">
@@ -5535,22 +5456,22 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="23"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="92"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="92"/>
-      <c r="AN14" s="92"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="92"/>
-      <c r="AQ14" s="92"/>
-      <c r="AR14" s="92"/>
-      <c r="AS14" s="92"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="83"/>
+      <c r="AP14" s="83"/>
+      <c r="AQ14" s="83"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="83"/>
     </row>
     <row r="15" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A15" s="21">
@@ -5793,12 +5714,41 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId2"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId3"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
+      <pane xSplit="2" ySplit="12" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21:B25"/>
+      <rowBreaks count="3" manualBreakCount="3">
+        <brk id="49" max="16383" man="1"/>
+        <brk id="107" max="16383" man="1"/>
+        <brk id="128" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
@@ -5811,41 +5761,12 @@
       </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
-      <pane xSplit="2" ySplit="12" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21:B25"/>
-      <rowBreaks count="3" manualBreakCount="3">
-        <brk id="49" max="16383" man="1"/>
-        <brk id="107" max="16383" man="1"/>
-        <brk id="128" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId3"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId4"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
+    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId6"/>
@@ -5912,79 +5833,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="102" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="95"/>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="21" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97">
+      <c r="A2" s="85"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88">
         <f>I4</f>
         <v>44172</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97">
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="88">
         <f>P4</f>
         <v>44179</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="99"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="90"/>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" ht="21" hidden="1" thickBot="1">
@@ -6548,11 +6469,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -6560,6 +6476,11 @@
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:V17">
@@ -6589,102 +6510,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="102" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
     </row>
     <row r="2" spans="1:34" ht="14.25" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="97">
+      <c r="A2" s="85"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88">
         <f>I4</f>
         <v>44172</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="97">
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="88">
         <f>P4</f>
         <v>44179</v>
       </c>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="22"/>
@@ -6751,18 +6672,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
     </row>
     <row r="4" spans="1:34" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="22"/>
@@ -6815,18 +6736,18 @@
       <c r="V4" s="32">
         <v>44185</v>
       </c>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
     </row>
     <row r="5" spans="1:34" ht="16.5">
       <c r="A5" s="20">
@@ -6861,18 +6782,18 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="24"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
     </row>
     <row r="6" spans="1:34" ht="45">
       <c r="A6" s="21">
@@ -6908,18 +6829,18 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="23"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="106"/>
-      <c r="Y6" s="106"/>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="106"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="106"/>
-      <c r="AD6" s="106"/>
-      <c r="AE6" s="106"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="106"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
     </row>
     <row r="7" spans="1:34" ht="16.5">
       <c r="A7" s="21">
@@ -6955,18 +6876,18 @@
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="23"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="106"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
     </row>
     <row r="8" spans="1:34" ht="45">
       <c r="A8" s="21">
@@ -7002,18 +6923,18 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="23"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
+      <c r="W8" s="97"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="97"/>
+      <c r="Z8" s="97"/>
+      <c r="AA8" s="97"/>
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="97"/>
+      <c r="AD8" s="97"/>
+      <c r="AE8" s="97"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+      <c r="AH8" s="97"/>
     </row>
     <row r="9" spans="1:34" ht="45">
       <c r="A9" s="21">
@@ -7049,18 +6970,18 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="23"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="106"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="106"/>
+      <c r="W9" s="97"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="97"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="97"/>
+      <c r="AC9" s="97"/>
+      <c r="AD9" s="97"/>
+      <c r="AE9" s="97"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="97"/>
     </row>
     <row r="10" spans="1:34" ht="33.75">
       <c r="A10" s="21">
@@ -7096,18 +7017,18 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="23"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
+      <c r="W10" s="97"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="97"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="97"/>
+      <c r="AC10" s="97"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
     </row>
     <row r="11" spans="1:34" ht="16.5">
       <c r="A11" s="37">
@@ -7139,18 +7060,18 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="23"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
+      <c r="W11" s="97"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="97"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="97"/>
+      <c r="AE11" s="97"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
     </row>
     <row r="12" spans="1:34" ht="16.5">
       <c r="A12" s="21">
@@ -7180,18 +7101,18 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="23"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
     </row>
     <row r="13" spans="1:34" ht="16.5">
       <c r="A13" s="21">
@@ -7221,18 +7142,18 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="23"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="97"/>
     </row>
     <row r="14" spans="1:34" ht="16.5">
       <c r="A14" s="21">
@@ -7262,18 +7183,18 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="23"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="106"/>
+      <c r="W14" s="97"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="97"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
+      <c r="AC14" s="97"/>
+      <c r="AD14" s="97"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="97"/>
     </row>
     <row r="15" spans="1:34" ht="16.5">
       <c r="A15" s="21">
@@ -7303,18 +7224,18 @@
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="23"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="106"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97"/>
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
     </row>
     <row r="16" spans="1:34" ht="16.5">
       <c r="A16" s="21">
@@ -7344,18 +7265,18 @@
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="23"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="106"/>
-      <c r="AD16" s="106"/>
-      <c r="AE16" s="106"/>
-      <c r="AF16" s="106"/>
-      <c r="AG16" s="106"/>
-      <c r="AH16" s="106"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
     </row>
     <row r="17" spans="1:34" ht="16.5">
       <c r="A17" s="21">
@@ -7385,3582 +7306,3582 @@
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="23"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="106"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="106"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="97"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="106"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="106"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="106"/>
-      <c r="AH18" s="106"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
+      <c r="AC18" s="97"/>
+      <c r="AD18" s="97"/>
+      <c r="AE18" s="97"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="97"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="106"/>
-      <c r="AD19" s="106"/>
-      <c r="AE19" s="106"/>
-      <c r="AF19" s="106"/>
-      <c r="AG19" s="106"/>
-      <c r="AH19" s="106"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="97"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="97"/>
+      <c r="AH19" s="97"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="106"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="97"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="106"/>
-      <c r="AF21" s="106"/>
-      <c r="AG21" s="106"/>
-      <c r="AH21" s="106"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="97"/>
+      <c r="AA21" s="97"/>
+      <c r="AB21" s="97"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="97"/>
+      <c r="AE21" s="97"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="97"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="105"/>
-      <c r="R22" s="105"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="105"/>
-      <c r="U22" s="105"/>
-      <c r="V22" s="105"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="106"/>
-      <c r="AF22" s="106"/>
-      <c r="AG22" s="106"/>
-      <c r="AH22" s="106"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="97"/>
+      <c r="AH22" s="97"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="106"/>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="97"/>
+      <c r="Z23" s="97"/>
+      <c r="AA23" s="97"/>
+      <c r="AB23" s="97"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="97"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="97"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="97"/>
+      <c r="AA24" s="97"/>
+      <c r="AB24" s="97"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="97"/>
+      <c r="AE24" s="97"/>
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="97"/>
+      <c r="AH24" s="97"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="106"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="97"/>
+      <c r="AB25" s="97"/>
+      <c r="AC25" s="97"/>
+      <c r="AD25" s="97"/>
+      <c r="AE25" s="97"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="97"/>
+      <c r="AH25" s="97"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="97"/>
+      <c r="AA26" s="97"/>
+      <c r="AB26" s="97"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="97"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="97"/>
+      <c r="AH26" s="97"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="105"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="105"/>
-      <c r="U27" s="105"/>
-      <c r="V27" s="105"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="96"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="97"/>
+      <c r="Z27" s="97"/>
+      <c r="AA27" s="97"/>
+      <c r="AB27" s="97"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="97"/>
+      <c r="AH27" s="97"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="97"/>
+      <c r="AH28" s="97"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
-      <c r="V29" s="105"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="106"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
+      <c r="S29" s="96"/>
+      <c r="T29" s="96"/>
+      <c r="U29" s="96"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="97"/>
+      <c r="Z29" s="97"/>
+      <c r="AA29" s="97"/>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="97"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="97"/>
+      <c r="AH29" s="97"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="105"/>
-      <c r="R30" s="105"/>
-      <c r="S30" s="105"/>
-      <c r="T30" s="105"/>
-      <c r="U30" s="105"/>
-      <c r="V30" s="105"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="106"/>
-      <c r="AF30" s="106"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="96"/>
+      <c r="R30" s="96"/>
+      <c r="S30" s="96"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="96"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="97"/>
+      <c r="AE30" s="97"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="97"/>
+      <c r="AH30" s="97"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="105"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
-      <c r="S31" s="105"/>
-      <c r="T31" s="105"/>
-      <c r="U31" s="105"/>
-      <c r="V31" s="105"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="106"/>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="106"/>
-      <c r="AF31" s="106"/>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="106"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="96"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="97"/>
+      <c r="Z31" s="97"/>
+      <c r="AA31" s="97"/>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="97"/>
+      <c r="AE31" s="97"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="97"/>
+      <c r="AH31" s="97"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="105"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="105"/>
-      <c r="V32" s="105"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="106"/>
-      <c r="AC32" s="106"/>
-      <c r="AD32" s="106"/>
-      <c r="AE32" s="106"/>
-      <c r="AF32" s="106"/>
-      <c r="AG32" s="106"/>
-      <c r="AH32" s="106"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="96"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="97"/>
+      <c r="Z32" s="97"/>
+      <c r="AA32" s="97"/>
+      <c r="AB32" s="97"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="97"/>
+      <c r="AE32" s="97"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="97"/>
+      <c r="AH32" s="97"/>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="105"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="105"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="105"/>
-      <c r="V33" s="105"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="106"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="106"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
     </row>
     <row r="34" spans="1:34">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="106"/>
-      <c r="AD34" s="106"/>
-      <c r="AE34" s="106"/>
-      <c r="AF34" s="106"/>
-      <c r="AG34" s="106"/>
-      <c r="AH34" s="106"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
+      <c r="S34" s="96"/>
+      <c r="T34" s="96"/>
+      <c r="U34" s="96"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="105"/>
-      <c r="P35" s="105"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="105"/>
-      <c r="V35" s="105"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
-      <c r="AA35" s="106"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="106"/>
-      <c r="AD35" s="106"/>
-      <c r="AE35" s="106"/>
-      <c r="AF35" s="106"/>
-      <c r="AG35" s="106"/>
-      <c r="AH35" s="106"/>
+      <c r="A35" s="96"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="97"/>
+      <c r="X35" s="97"/>
+      <c r="Y35" s="97"/>
+      <c r="Z35" s="97"/>
+      <c r="AA35" s="97"/>
+      <c r="AB35" s="97"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="97"/>
+      <c r="AE35" s="97"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="97"/>
+      <c r="AH35" s="97"/>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="105"/>
-      <c r="V36" s="105"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="106"/>
-      <c r="AD36" s="106"/>
-      <c r="AE36" s="106"/>
-      <c r="AF36" s="106"/>
-      <c r="AG36" s="106"/>
-      <c r="AH36" s="106"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
+      <c r="T36" s="96"/>
+      <c r="U36" s="96"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="97"/>
+      <c r="AB36" s="97"/>
+      <c r="AC36" s="97"/>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="97"/>
+      <c r="AH36" s="97"/>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="105"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="106"/>
-      <c r="Z37" s="106"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="106"/>
-      <c r="AC37" s="106"/>
-      <c r="AD37" s="106"/>
-      <c r="AE37" s="106"/>
-      <c r="AF37" s="106"/>
-      <c r="AG37" s="106"/>
-      <c r="AH37" s="106"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
+      <c r="T37" s="96"/>
+      <c r="U37" s="96"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="97"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="97"/>
+      <c r="AH37" s="97"/>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="105"/>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="105"/>
-      <c r="U38" s="105"/>
-      <c r="V38" s="105"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="106"/>
-      <c r="Y38" s="106"/>
-      <c r="Z38" s="106"/>
-      <c r="AA38" s="106"/>
-      <c r="AB38" s="106"/>
-      <c r="AC38" s="106"/>
-      <c r="AD38" s="106"/>
-      <c r="AE38" s="106"/>
-      <c r="AF38" s="106"/>
-      <c r="AG38" s="106"/>
-      <c r="AH38" s="106"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="97"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
+      <c r="AH38" s="97"/>
     </row>
     <row r="39" spans="1:34">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="105"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="105"/>
-      <c r="R39" s="105"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="105"/>
-      <c r="U39" s="105"/>
-      <c r="V39" s="105"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="106"/>
-      <c r="AA39" s="106"/>
-      <c r="AB39" s="106"/>
-      <c r="AC39" s="106"/>
-      <c r="AD39" s="106"/>
-      <c r="AE39" s="106"/>
-      <c r="AF39" s="106"/>
-      <c r="AG39" s="106"/>
-      <c r="AH39" s="106"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="97"/>
+      <c r="AB39" s="97"/>
+      <c r="AC39" s="97"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="97"/>
+      <c r="AG39" s="97"/>
+      <c r="AH39" s="97"/>
     </row>
     <row r="40" spans="1:34">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="105"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="106"/>
-      <c r="AA40" s="106"/>
-      <c r="AB40" s="106"/>
-      <c r="AC40" s="106"/>
-      <c r="AD40" s="106"/>
-      <c r="AE40" s="106"/>
-      <c r="AF40" s="106"/>
-      <c r="AG40" s="106"/>
-      <c r="AH40" s="106"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="96"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="96"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="96"/>
+      <c r="V40" s="96"/>
+      <c r="W40" s="97"/>
+      <c r="X40" s="97"/>
+      <c r="Y40" s="97"/>
+      <c r="Z40" s="97"/>
+      <c r="AA40" s="97"/>
+      <c r="AB40" s="97"/>
+      <c r="AC40" s="97"/>
+      <c r="AD40" s="97"/>
+      <c r="AE40" s="97"/>
+      <c r="AF40" s="97"/>
+      <c r="AG40" s="97"/>
+      <c r="AH40" s="97"/>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="105"/>
-      <c r="R41" s="105"/>
-      <c r="S41" s="105"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="105"/>
-      <c r="V41" s="105"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="106"/>
-      <c r="Y41" s="106"/>
-      <c r="Z41" s="106"/>
-      <c r="AA41" s="106"/>
-      <c r="AB41" s="106"/>
-      <c r="AC41" s="106"/>
-      <c r="AD41" s="106"/>
-      <c r="AE41" s="106"/>
-      <c r="AF41" s="106"/>
-      <c r="AG41" s="106"/>
-      <c r="AH41" s="106"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="96"/>
+      <c r="W41" s="97"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="97"/>
+      <c r="Z41" s="97"/>
+      <c r="AA41" s="97"/>
+      <c r="AB41" s="97"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="97"/>
+      <c r="AG41" s="97"/>
+      <c r="AH41" s="97"/>
     </row>
     <row r="42" spans="1:34">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="105"/>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="105"/>
-      <c r="R42" s="105"/>
-      <c r="S42" s="105"/>
-      <c r="T42" s="105"/>
-      <c r="U42" s="105"/>
-      <c r="V42" s="105"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="106"/>
-      <c r="AA42" s="106"/>
-      <c r="AB42" s="106"/>
-      <c r="AC42" s="106"/>
-      <c r="AD42" s="106"/>
-      <c r="AE42" s="106"/>
-      <c r="AF42" s="106"/>
-      <c r="AG42" s="106"/>
-      <c r="AH42" s="106"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="97"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="97"/>
+      <c r="AH42" s="97"/>
     </row>
     <row r="43" spans="1:34">
-      <c r="A43" s="105"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
-      <c r="O43" s="105"/>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="105"/>
-      <c r="R43" s="105"/>
-      <c r="S43" s="105"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="105"/>
-      <c r="V43" s="105"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
-      <c r="AB43" s="106"/>
-      <c r="AC43" s="106"/>
-      <c r="AD43" s="106"/>
-      <c r="AE43" s="106"/>
-      <c r="AF43" s="106"/>
-      <c r="AG43" s="106"/>
-      <c r="AH43" s="106"/>
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="96"/>
+      <c r="W43" s="97"/>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="97"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="97"/>
+      <c r="AG43" s="97"/>
+      <c r="AH43" s="97"/>
     </row>
     <row r="44" spans="1:34">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
-      <c r="O44" s="105"/>
-      <c r="P44" s="105"/>
-      <c r="Q44" s="105"/>
-      <c r="R44" s="105"/>
-      <c r="S44" s="105"/>
-      <c r="T44" s="105"/>
-      <c r="U44" s="105"/>
-      <c r="V44" s="105"/>
-      <c r="W44" s="106"/>
-      <c r="X44" s="106"/>
-      <c r="Y44" s="106"/>
-      <c r="Z44" s="106"/>
-      <c r="AA44" s="106"/>
-      <c r="AB44" s="106"/>
-      <c r="AC44" s="106"/>
-      <c r="AD44" s="106"/>
-      <c r="AE44" s="106"/>
-      <c r="AF44" s="106"/>
-      <c r="AG44" s="106"/>
-      <c r="AH44" s="106"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="96"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
+      <c r="AH44" s="97"/>
     </row>
     <row r="45" spans="1:34">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
-      <c r="O45" s="105"/>
-      <c r="P45" s="105"/>
-      <c r="Q45" s="105"/>
-      <c r="R45" s="105"/>
-      <c r="S45" s="105"/>
-      <c r="T45" s="105"/>
-      <c r="U45" s="105"/>
-      <c r="V45" s="105"/>
-      <c r="W45" s="106"/>
-      <c r="X45" s="106"/>
-      <c r="Y45" s="106"/>
-      <c r="Z45" s="106"/>
-      <c r="AA45" s="106"/>
-      <c r="AB45" s="106"/>
-      <c r="AC45" s="106"/>
-      <c r="AD45" s="106"/>
-      <c r="AE45" s="106"/>
-      <c r="AF45" s="106"/>
-      <c r="AG45" s="106"/>
-      <c r="AH45" s="106"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
+      <c r="S45" s="96"/>
+      <c r="T45" s="96"/>
+      <c r="U45" s="96"/>
+      <c r="V45" s="96"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
     </row>
     <row r="46" spans="1:34">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
-      <c r="N46" s="105"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="105"/>
-      <c r="S46" s="105"/>
-      <c r="T46" s="105"/>
-      <c r="U46" s="105"/>
-      <c r="V46" s="105"/>
-      <c r="W46" s="106"/>
-      <c r="X46" s="106"/>
-      <c r="Y46" s="106"/>
-      <c r="Z46" s="106"/>
-      <c r="AA46" s="106"/>
-      <c r="AB46" s="106"/>
-      <c r="AC46" s="106"/>
-      <c r="AD46" s="106"/>
-      <c r="AE46" s="106"/>
-      <c r="AF46" s="106"/>
-      <c r="AG46" s="106"/>
-      <c r="AH46" s="106"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="97"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="97"/>
+      <c r="Z46" s="97"/>
+      <c r="AA46" s="97"/>
+      <c r="AB46" s="97"/>
+      <c r="AC46" s="97"/>
+      <c r="AD46" s="97"/>
+      <c r="AE46" s="97"/>
+      <c r="AF46" s="97"/>
+      <c r="AG46" s="97"/>
+      <c r="AH46" s="97"/>
     </row>
     <row r="47" spans="1:34">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="105"/>
-      <c r="P47" s="105"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="105"/>
-      <c r="T47" s="105"/>
-      <c r="U47" s="105"/>
-      <c r="V47" s="105"/>
-      <c r="W47" s="106"/>
-      <c r="X47" s="106"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="106"/>
-      <c r="AA47" s="106"/>
-      <c r="AB47" s="106"/>
-      <c r="AC47" s="106"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="106"/>
-      <c r="AF47" s="106"/>
-      <c r="AG47" s="106"/>
-      <c r="AH47" s="106"/>
+      <c r="A47" s="96"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="97"/>
+      <c r="X47" s="97"/>
+      <c r="Y47" s="97"/>
+      <c r="Z47" s="97"/>
+      <c r="AA47" s="97"/>
+      <c r="AB47" s="97"/>
+      <c r="AC47" s="97"/>
+      <c r="AD47" s="97"/>
+      <c r="AE47" s="97"/>
+      <c r="AF47" s="97"/>
+      <c r="AG47" s="97"/>
+      <c r="AH47" s="97"/>
     </row>
     <row r="48" spans="1:34">
-      <c r="A48" s="105"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="105"/>
-      <c r="W48" s="106"/>
-      <c r="X48" s="106"/>
-      <c r="Y48" s="106"/>
-      <c r="Z48" s="106"/>
-      <c r="AA48" s="106"/>
-      <c r="AB48" s="106"/>
-      <c r="AC48" s="106"/>
-      <c r="AD48" s="106"/>
-      <c r="AE48" s="106"/>
-      <c r="AF48" s="106"/>
-      <c r="AG48" s="106"/>
-      <c r="AH48" s="106"/>
+      <c r="A48" s="96"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="96"/>
+      <c r="W48" s="97"/>
+      <c r="X48" s="97"/>
+      <c r="Y48" s="97"/>
+      <c r="Z48" s="97"/>
+      <c r="AA48" s="97"/>
+      <c r="AB48" s="97"/>
+      <c r="AC48" s="97"/>
+      <c r="AD48" s="97"/>
+      <c r="AE48" s="97"/>
+      <c r="AF48" s="97"/>
+      <c r="AG48" s="97"/>
+      <c r="AH48" s="97"/>
     </row>
     <row r="49" spans="1:34">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="105"/>
-      <c r="P49" s="105"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="105"/>
-      <c r="S49" s="105"/>
-      <c r="T49" s="105"/>
-      <c r="U49" s="105"/>
-      <c r="V49" s="105"/>
-      <c r="W49" s="106"/>
-      <c r="X49" s="106"/>
-      <c r="Y49" s="106"/>
-      <c r="Z49" s="106"/>
-      <c r="AA49" s="106"/>
-      <c r="AB49" s="106"/>
-      <c r="AC49" s="106"/>
-      <c r="AD49" s="106"/>
-      <c r="AE49" s="106"/>
-      <c r="AF49" s="106"/>
-      <c r="AG49" s="106"/>
-      <c r="AH49" s="106"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
+      <c r="H49" s="96"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
+      <c r="S49" s="96"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="96"/>
+      <c r="V49" s="96"/>
+      <c r="W49" s="97"/>
+      <c r="X49" s="97"/>
+      <c r="Y49" s="97"/>
+      <c r="Z49" s="97"/>
+      <c r="AA49" s="97"/>
+      <c r="AB49" s="97"/>
+      <c r="AC49" s="97"/>
+      <c r="AD49" s="97"/>
+      <c r="AE49" s="97"/>
+      <c r="AF49" s="97"/>
+      <c r="AG49" s="97"/>
+      <c r="AH49" s="97"/>
     </row>
     <row r="50" spans="1:34">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="105"/>
-      <c r="S50" s="105"/>
-      <c r="T50" s="105"/>
-      <c r="U50" s="105"/>
-      <c r="V50" s="105"/>
-      <c r="W50" s="106"/>
-      <c r="X50" s="106"/>
-      <c r="Y50" s="106"/>
-      <c r="Z50" s="106"/>
-      <c r="AA50" s="106"/>
-      <c r="AB50" s="106"/>
-      <c r="AC50" s="106"/>
-      <c r="AD50" s="106"/>
-      <c r="AE50" s="106"/>
-      <c r="AF50" s="106"/>
-      <c r="AG50" s="106"/>
-      <c r="AH50" s="106"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="96"/>
+      <c r="L50" s="96"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="96"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="96"/>
+      <c r="T50" s="96"/>
+      <c r="U50" s="96"/>
+      <c r="V50" s="96"/>
+      <c r="W50" s="97"/>
+      <c r="X50" s="97"/>
+      <c r="Y50" s="97"/>
+      <c r="Z50" s="97"/>
+      <c r="AA50" s="97"/>
+      <c r="AB50" s="97"/>
+      <c r="AC50" s="97"/>
+      <c r="AD50" s="97"/>
+      <c r="AE50" s="97"/>
+      <c r="AF50" s="97"/>
+      <c r="AG50" s="97"/>
+      <c r="AH50" s="97"/>
     </row>
     <row r="51" spans="1:34">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="105"/>
-      <c r="S51" s="105"/>
-      <c r="T51" s="105"/>
-      <c r="U51" s="105"/>
-      <c r="V51" s="105"/>
-      <c r="W51" s="106"/>
-      <c r="X51" s="106"/>
-      <c r="Y51" s="106"/>
-      <c r="Z51" s="106"/>
-      <c r="AA51" s="106"/>
-      <c r="AB51" s="106"/>
-      <c r="AC51" s="106"/>
-      <c r="AD51" s="106"/>
-      <c r="AE51" s="106"/>
-      <c r="AF51" s="106"/>
-      <c r="AG51" s="106"/>
-      <c r="AH51" s="106"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="96"/>
+      <c r="S51" s="96"/>
+      <c r="T51" s="96"/>
+      <c r="U51" s="96"/>
+      <c r="V51" s="96"/>
+      <c r="W51" s="97"/>
+      <c r="X51" s="97"/>
+      <c r="Y51" s="97"/>
+      <c r="Z51" s="97"/>
+      <c r="AA51" s="97"/>
+      <c r="AB51" s="97"/>
+      <c r="AC51" s="97"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="97"/>
+      <c r="AF51" s="97"/>
+      <c r="AG51" s="97"/>
+      <c r="AH51" s="97"/>
     </row>
     <row r="52" spans="1:34">
-      <c r="A52" s="105"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="105"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="105"/>
-      <c r="Q52" s="105"/>
-      <c r="R52" s="105"/>
-      <c r="S52" s="105"/>
-      <c r="T52" s="105"/>
-      <c r="U52" s="105"/>
-      <c r="V52" s="105"/>
-      <c r="W52" s="106"/>
-      <c r="X52" s="106"/>
-      <c r="Y52" s="106"/>
-      <c r="Z52" s="106"/>
-      <c r="AA52" s="106"/>
-      <c r="AB52" s="106"/>
-      <c r="AC52" s="106"/>
-      <c r="AD52" s="106"/>
-      <c r="AE52" s="106"/>
-      <c r="AF52" s="106"/>
-      <c r="AG52" s="106"/>
-      <c r="AH52" s="106"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="97"/>
+      <c r="X52" s="97"/>
+      <c r="Y52" s="97"/>
+      <c r="Z52" s="97"/>
+      <c r="AA52" s="97"/>
+      <c r="AB52" s="97"/>
+      <c r="AC52" s="97"/>
+      <c r="AD52" s="97"/>
+      <c r="AE52" s="97"/>
+      <c r="AF52" s="97"/>
+      <c r="AG52" s="97"/>
+      <c r="AH52" s="97"/>
     </row>
     <row r="53" spans="1:34">
-      <c r="A53" s="105"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
-      <c r="R53" s="105"/>
-      <c r="S53" s="105"/>
-      <c r="T53" s="105"/>
-      <c r="U53" s="105"/>
-      <c r="V53" s="105"/>
-      <c r="W53" s="106"/>
-      <c r="X53" s="106"/>
-      <c r="Y53" s="106"/>
-      <c r="Z53" s="106"/>
-      <c r="AA53" s="106"/>
-      <c r="AB53" s="106"/>
-      <c r="AC53" s="106"/>
-      <c r="AD53" s="106"/>
-      <c r="AE53" s="106"/>
-      <c r="AF53" s="106"/>
-      <c r="AG53" s="106"/>
-      <c r="AH53" s="106"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="96"/>
+      <c r="U53" s="96"/>
+      <c r="V53" s="96"/>
+      <c r="W53" s="97"/>
+      <c r="X53" s="97"/>
+      <c r="Y53" s="97"/>
+      <c r="Z53" s="97"/>
+      <c r="AA53" s="97"/>
+      <c r="AB53" s="97"/>
+      <c r="AC53" s="97"/>
+      <c r="AD53" s="97"/>
+      <c r="AE53" s="97"/>
+      <c r="AF53" s="97"/>
+      <c r="AG53" s="97"/>
+      <c r="AH53" s="97"/>
     </row>
     <row r="54" spans="1:34">
-      <c r="A54" s="105"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="105"/>
-      <c r="Q54" s="105"/>
-      <c r="R54" s="105"/>
-      <c r="S54" s="105"/>
-      <c r="T54" s="105"/>
-      <c r="U54" s="105"/>
-      <c r="V54" s="105"/>
-      <c r="W54" s="106"/>
-      <c r="X54" s="106"/>
-      <c r="Y54" s="106"/>
-      <c r="Z54" s="106"/>
-      <c r="AA54" s="106"/>
-      <c r="AB54" s="106"/>
-      <c r="AC54" s="106"/>
-      <c r="AD54" s="106"/>
-      <c r="AE54" s="106"/>
-      <c r="AF54" s="106"/>
-      <c r="AG54" s="106"/>
-      <c r="AH54" s="106"/>
+      <c r="A54" s="96"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="96"/>
+      <c r="G54" s="96"/>
+      <c r="H54" s="96"/>
+      <c r="I54" s="96"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
+      <c r="L54" s="96"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="96"/>
+      <c r="O54" s="96"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="96"/>
+      <c r="U54" s="96"/>
+      <c r="V54" s="96"/>
+      <c r="W54" s="97"/>
+      <c r="X54" s="97"/>
+      <c r="Y54" s="97"/>
+      <c r="Z54" s="97"/>
+      <c r="AA54" s="97"/>
+      <c r="AB54" s="97"/>
+      <c r="AC54" s="97"/>
+      <c r="AD54" s="97"/>
+      <c r="AE54" s="97"/>
+      <c r="AF54" s="97"/>
+      <c r="AG54" s="97"/>
+      <c r="AH54" s="97"/>
     </row>
     <row r="55" spans="1:34">
-      <c r="A55" s="105"/>
-      <c r="B55" s="105"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="105"/>
-      <c r="N55" s="105"/>
-      <c r="O55" s="105"/>
-      <c r="P55" s="105"/>
-      <c r="Q55" s="105"/>
-      <c r="R55" s="105"/>
-      <c r="S55" s="105"/>
-      <c r="T55" s="105"/>
-      <c r="U55" s="105"/>
-      <c r="V55" s="105"/>
-      <c r="W55" s="106"/>
-      <c r="X55" s="106"/>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106"/>
-      <c r="AA55" s="106"/>
-      <c r="AB55" s="106"/>
-      <c r="AC55" s="106"/>
-      <c r="AD55" s="106"/>
-      <c r="AE55" s="106"/>
-      <c r="AF55" s="106"/>
-      <c r="AG55" s="106"/>
-      <c r="AH55" s="106"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
+      <c r="W55" s="97"/>
+      <c r="X55" s="97"/>
+      <c r="Y55" s="97"/>
+      <c r="Z55" s="97"/>
+      <c r="AA55" s="97"/>
+      <c r="AB55" s="97"/>
+      <c r="AC55" s="97"/>
+      <c r="AD55" s="97"/>
+      <c r="AE55" s="97"/>
+      <c r="AF55" s="97"/>
+      <c r="AG55" s="97"/>
+      <c r="AH55" s="97"/>
     </row>
     <row r="56" spans="1:34">
-      <c r="A56" s="105"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="105"/>
-      <c r="P56" s="105"/>
-      <c r="Q56" s="105"/>
-      <c r="R56" s="105"/>
-      <c r="S56" s="105"/>
-      <c r="T56" s="105"/>
-      <c r="U56" s="105"/>
-      <c r="V56" s="105"/>
-      <c r="W56" s="106"/>
-      <c r="X56" s="106"/>
-      <c r="Y56" s="106"/>
-      <c r="Z56" s="106"/>
-      <c r="AA56" s="106"/>
-      <c r="AB56" s="106"/>
-      <c r="AC56" s="106"/>
-      <c r="AD56" s="106"/>
-      <c r="AE56" s="106"/>
-      <c r="AF56" s="106"/>
-      <c r="AG56" s="106"/>
-      <c r="AH56" s="106"/>
+      <c r="A56" s="96"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="96"/>
+      <c r="U56" s="96"/>
+      <c r="V56" s="96"/>
+      <c r="W56" s="97"/>
+      <c r="X56" s="97"/>
+      <c r="Y56" s="97"/>
+      <c r="Z56" s="97"/>
+      <c r="AA56" s="97"/>
+      <c r="AB56" s="97"/>
+      <c r="AC56" s="97"/>
+      <c r="AD56" s="97"/>
+      <c r="AE56" s="97"/>
+      <c r="AF56" s="97"/>
+      <c r="AG56" s="97"/>
+      <c r="AH56" s="97"/>
     </row>
     <row r="57" spans="1:34">
-      <c r="A57" s="105"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105"/>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="105"/>
-      <c r="K57" s="105"/>
-      <c r="L57" s="105"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="105"/>
-      <c r="O57" s="105"/>
-      <c r="P57" s="105"/>
-      <c r="Q57" s="105"/>
-      <c r="R57" s="105"/>
-      <c r="S57" s="105"/>
-      <c r="T57" s="105"/>
-      <c r="U57" s="105"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="106"/>
-      <c r="X57" s="106"/>
-      <c r="Y57" s="106"/>
-      <c r="Z57" s="106"/>
-      <c r="AA57" s="106"/>
-      <c r="AB57" s="106"/>
-      <c r="AC57" s="106"/>
-      <c r="AD57" s="106"/>
-      <c r="AE57" s="106"/>
-      <c r="AF57" s="106"/>
-      <c r="AG57" s="106"/>
-      <c r="AH57" s="106"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="97"/>
+      <c r="X57" s="97"/>
+      <c r="Y57" s="97"/>
+      <c r="Z57" s="97"/>
+      <c r="AA57" s="97"/>
+      <c r="AB57" s="97"/>
+      <c r="AC57" s="97"/>
+      <c r="AD57" s="97"/>
+      <c r="AE57" s="97"/>
+      <c r="AF57" s="97"/>
+      <c r="AG57" s="97"/>
+      <c r="AH57" s="97"/>
     </row>
     <row r="58" spans="1:34">
-      <c r="A58" s="105"/>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="105"/>
-      <c r="L58" s="105"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="105"/>
-      <c r="O58" s="105"/>
-      <c r="P58" s="105"/>
-      <c r="Q58" s="105"/>
-      <c r="R58" s="105"/>
-      <c r="S58" s="105"/>
-      <c r="T58" s="105"/>
-      <c r="U58" s="105"/>
-      <c r="V58" s="105"/>
-      <c r="W58" s="106"/>
-      <c r="X58" s="106"/>
-      <c r="Y58" s="106"/>
-      <c r="Z58" s="106"/>
-      <c r="AA58" s="106"/>
-      <c r="AB58" s="106"/>
-      <c r="AC58" s="106"/>
-      <c r="AD58" s="106"/>
-      <c r="AE58" s="106"/>
-      <c r="AF58" s="106"/>
-      <c r="AG58" s="106"/>
-      <c r="AH58" s="106"/>
+      <c r="A58" s="96"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="96"/>
+      <c r="U58" s="96"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="97"/>
+      <c r="X58" s="97"/>
+      <c r="Y58" s="97"/>
+      <c r="Z58" s="97"/>
+      <c r="AA58" s="97"/>
+      <c r="AB58" s="97"/>
+      <c r="AC58" s="97"/>
+      <c r="AD58" s="97"/>
+      <c r="AE58" s="97"/>
+      <c r="AF58" s="97"/>
+      <c r="AG58" s="97"/>
+      <c r="AH58" s="97"/>
     </row>
     <row r="59" spans="1:34">
-      <c r="A59" s="105"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="105"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-      <c r="K59" s="105"/>
-      <c r="L59" s="105"/>
-      <c r="M59" s="105"/>
-      <c r="N59" s="105"/>
-      <c r="O59" s="105"/>
-      <c r="P59" s="105"/>
-      <c r="Q59" s="105"/>
-      <c r="R59" s="105"/>
-      <c r="S59" s="105"/>
-      <c r="T59" s="105"/>
-      <c r="U59" s="105"/>
-      <c r="V59" s="105"/>
-      <c r="W59" s="106"/>
-      <c r="X59" s="106"/>
-      <c r="Y59" s="106"/>
-      <c r="Z59" s="106"/>
-      <c r="AA59" s="106"/>
-      <c r="AB59" s="106"/>
-      <c r="AC59" s="106"/>
-      <c r="AD59" s="106"/>
-      <c r="AE59" s="106"/>
-      <c r="AF59" s="106"/>
-      <c r="AG59" s="106"/>
-      <c r="AH59" s="106"/>
+      <c r="A59" s="96"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="96"/>
+      <c r="W59" s="97"/>
+      <c r="X59" s="97"/>
+      <c r="Y59" s="97"/>
+      <c r="Z59" s="97"/>
+      <c r="AA59" s="97"/>
+      <c r="AB59" s="97"/>
+      <c r="AC59" s="97"/>
+      <c r="AD59" s="97"/>
+      <c r="AE59" s="97"/>
+      <c r="AF59" s="97"/>
+      <c r="AG59" s="97"/>
+      <c r="AH59" s="97"/>
     </row>
     <row r="60" spans="1:34">
-      <c r="A60" s="105"/>
-      <c r="B60" s="105"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="105"/>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="105"/>
-      <c r="N60" s="105"/>
-      <c r="O60" s="105"/>
-      <c r="P60" s="105"/>
-      <c r="Q60" s="105"/>
-      <c r="R60" s="105"/>
-      <c r="S60" s="105"/>
-      <c r="T60" s="105"/>
-      <c r="U60" s="105"/>
-      <c r="V60" s="105"/>
-      <c r="W60" s="106"/>
-      <c r="X60" s="106"/>
-      <c r="Y60" s="106"/>
-      <c r="Z60" s="106"/>
-      <c r="AA60" s="106"/>
-      <c r="AB60" s="106"/>
-      <c r="AC60" s="106"/>
-      <c r="AD60" s="106"/>
-      <c r="AE60" s="106"/>
-      <c r="AF60" s="106"/>
-      <c r="AG60" s="106"/>
-      <c r="AH60" s="106"/>
+      <c r="A60" s="96"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="96"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="96"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="96"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="96"/>
+      <c r="W60" s="97"/>
+      <c r="X60" s="97"/>
+      <c r="Y60" s="97"/>
+      <c r="Z60" s="97"/>
+      <c r="AA60" s="97"/>
+      <c r="AB60" s="97"/>
+      <c r="AC60" s="97"/>
+      <c r="AD60" s="97"/>
+      <c r="AE60" s="97"/>
+      <c r="AF60" s="97"/>
+      <c r="AG60" s="97"/>
+      <c r="AH60" s="97"/>
     </row>
     <row r="61" spans="1:34">
-      <c r="A61" s="105"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="105"/>
-      <c r="L61" s="105"/>
-      <c r="M61" s="105"/>
-      <c r="N61" s="105"/>
-      <c r="O61" s="105"/>
-      <c r="P61" s="105"/>
-      <c r="Q61" s="105"/>
-      <c r="R61" s="105"/>
-      <c r="S61" s="105"/>
-      <c r="T61" s="105"/>
-      <c r="U61" s="105"/>
-      <c r="V61" s="105"/>
-      <c r="W61" s="106"/>
-      <c r="X61" s="106"/>
-      <c r="Y61" s="106"/>
-      <c r="Z61" s="106"/>
-      <c r="AA61" s="106"/>
-      <c r="AB61" s="106"/>
-      <c r="AC61" s="106"/>
-      <c r="AD61" s="106"/>
-      <c r="AE61" s="106"/>
-      <c r="AF61" s="106"/>
-      <c r="AG61" s="106"/>
-      <c r="AH61" s="106"/>
+      <c r="A61" s="96"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="96"/>
+      <c r="T61" s="96"/>
+      <c r="U61" s="96"/>
+      <c r="V61" s="96"/>
+      <c r="W61" s="97"/>
+      <c r="X61" s="97"/>
+      <c r="Y61" s="97"/>
+      <c r="Z61" s="97"/>
+      <c r="AA61" s="97"/>
+      <c r="AB61" s="97"/>
+      <c r="AC61" s="97"/>
+      <c r="AD61" s="97"/>
+      <c r="AE61" s="97"/>
+      <c r="AF61" s="97"/>
+      <c r="AG61" s="97"/>
+      <c r="AH61" s="97"/>
     </row>
     <row r="62" spans="1:34">
-      <c r="A62" s="105"/>
-      <c r="B62" s="105"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
-      <c r="M62" s="105"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="105"/>
-      <c r="P62" s="105"/>
-      <c r="Q62" s="105"/>
-      <c r="R62" s="105"/>
-      <c r="S62" s="105"/>
-      <c r="T62" s="105"/>
-      <c r="U62" s="105"/>
-      <c r="V62" s="105"/>
-      <c r="W62" s="106"/>
-      <c r="X62" s="106"/>
-      <c r="Y62" s="106"/>
-      <c r="Z62" s="106"/>
-      <c r="AA62" s="106"/>
-      <c r="AB62" s="106"/>
-      <c r="AC62" s="106"/>
-      <c r="AD62" s="106"/>
-      <c r="AE62" s="106"/>
-      <c r="AF62" s="106"/>
-      <c r="AG62" s="106"/>
-      <c r="AH62" s="106"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="96"/>
+      <c r="W62" s="97"/>
+      <c r="X62" s="97"/>
+      <c r="Y62" s="97"/>
+      <c r="Z62" s="97"/>
+      <c r="AA62" s="97"/>
+      <c r="AB62" s="97"/>
+      <c r="AC62" s="97"/>
+      <c r="AD62" s="97"/>
+      <c r="AE62" s="97"/>
+      <c r="AF62" s="97"/>
+      <c r="AG62" s="97"/>
+      <c r="AH62" s="97"/>
     </row>
     <row r="63" spans="1:34">
-      <c r="A63" s="105"/>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105"/>
-      <c r="L63" s="105"/>
-      <c r="M63" s="105"/>
-      <c r="N63" s="105"/>
-      <c r="O63" s="105"/>
-      <c r="P63" s="105"/>
-      <c r="Q63" s="105"/>
-      <c r="R63" s="105"/>
-      <c r="S63" s="105"/>
-      <c r="T63" s="105"/>
-      <c r="U63" s="105"/>
-      <c r="V63" s="105"/>
-      <c r="W63" s="106"/>
-      <c r="X63" s="106"/>
-      <c r="Y63" s="106"/>
-      <c r="Z63" s="106"/>
-      <c r="AA63" s="106"/>
-      <c r="AB63" s="106"/>
-      <c r="AC63" s="106"/>
-      <c r="AD63" s="106"/>
-      <c r="AE63" s="106"/>
-      <c r="AF63" s="106"/>
-      <c r="AG63" s="106"/>
-      <c r="AH63" s="106"/>
+      <c r="A63" s="96"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="96"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="96"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="96"/>
+      <c r="O63" s="96"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="96"/>
+      <c r="R63" s="96"/>
+      <c r="S63" s="96"/>
+      <c r="T63" s="96"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="96"/>
+      <c r="W63" s="97"/>
+      <c r="X63" s="97"/>
+      <c r="Y63" s="97"/>
+      <c r="Z63" s="97"/>
+      <c r="AA63" s="97"/>
+      <c r="AB63" s="97"/>
+      <c r="AC63" s="97"/>
+      <c r="AD63" s="97"/>
+      <c r="AE63" s="97"/>
+      <c r="AF63" s="97"/>
+      <c r="AG63" s="97"/>
+      <c r="AH63" s="97"/>
     </row>
     <row r="64" spans="1:34">
-      <c r="A64" s="105"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
-      <c r="M64" s="105"/>
-      <c r="N64" s="105"/>
-      <c r="O64" s="105"/>
-      <c r="P64" s="105"/>
-      <c r="Q64" s="105"/>
-      <c r="R64" s="105"/>
-      <c r="S64" s="105"/>
-      <c r="T64" s="105"/>
-      <c r="U64" s="105"/>
-      <c r="V64" s="105"/>
-      <c r="W64" s="106"/>
-      <c r="X64" s="106"/>
-      <c r="Y64" s="106"/>
-      <c r="Z64" s="106"/>
-      <c r="AA64" s="106"/>
-      <c r="AB64" s="106"/>
-      <c r="AC64" s="106"/>
-      <c r="AD64" s="106"/>
-      <c r="AE64" s="106"/>
-      <c r="AF64" s="106"/>
-      <c r="AG64" s="106"/>
-      <c r="AH64" s="106"/>
+      <c r="A64" s="96"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="96"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="96"/>
+      <c r="S64" s="96"/>
+      <c r="T64" s="96"/>
+      <c r="U64" s="96"/>
+      <c r="V64" s="96"/>
+      <c r="W64" s="97"/>
+      <c r="X64" s="97"/>
+      <c r="Y64" s="97"/>
+      <c r="Z64" s="97"/>
+      <c r="AA64" s="97"/>
+      <c r="AB64" s="97"/>
+      <c r="AC64" s="97"/>
+      <c r="AD64" s="97"/>
+      <c r="AE64" s="97"/>
+      <c r="AF64" s="97"/>
+      <c r="AG64" s="97"/>
+      <c r="AH64" s="97"/>
     </row>
     <row r="65" spans="1:34">
-      <c r="A65" s="105"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105"/>
-      <c r="L65" s="105"/>
-      <c r="M65" s="105"/>
-      <c r="N65" s="105"/>
-      <c r="O65" s="105"/>
-      <c r="P65" s="105"/>
-      <c r="Q65" s="105"/>
-      <c r="R65" s="105"/>
-      <c r="S65" s="105"/>
-      <c r="T65" s="105"/>
-      <c r="U65" s="105"/>
-      <c r="V65" s="105"/>
-      <c r="W65" s="106"/>
-      <c r="X65" s="106"/>
-      <c r="Y65" s="106"/>
-      <c r="Z65" s="106"/>
-      <c r="AA65" s="106"/>
-      <c r="AB65" s="106"/>
-      <c r="AC65" s="106"/>
-      <c r="AD65" s="106"/>
-      <c r="AE65" s="106"/>
-      <c r="AF65" s="106"/>
-      <c r="AG65" s="106"/>
-      <c r="AH65" s="106"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="96"/>
+      <c r="O65" s="96"/>
+      <c r="P65" s="96"/>
+      <c r="Q65" s="96"/>
+      <c r="R65" s="96"/>
+      <c r="S65" s="96"/>
+      <c r="T65" s="96"/>
+      <c r="U65" s="96"/>
+      <c r="V65" s="96"/>
+      <c r="W65" s="97"/>
+      <c r="X65" s="97"/>
+      <c r="Y65" s="97"/>
+      <c r="Z65" s="97"/>
+      <c r="AA65" s="97"/>
+      <c r="AB65" s="97"/>
+      <c r="AC65" s="97"/>
+      <c r="AD65" s="97"/>
+      <c r="AE65" s="97"/>
+      <c r="AF65" s="97"/>
+      <c r="AG65" s="97"/>
+      <c r="AH65" s="97"/>
     </row>
     <row r="66" spans="1:34">
-      <c r="A66" s="105"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="105"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="105"/>
-      <c r="I66" s="105"/>
-      <c r="J66" s="105"/>
-      <c r="K66" s="105"/>
-      <c r="L66" s="105"/>
-      <c r="M66" s="105"/>
-      <c r="N66" s="105"/>
-      <c r="O66" s="105"/>
-      <c r="P66" s="105"/>
-      <c r="Q66" s="105"/>
-      <c r="R66" s="105"/>
-      <c r="S66" s="105"/>
-      <c r="T66" s="105"/>
-      <c r="U66" s="105"/>
-      <c r="V66" s="105"/>
-      <c r="W66" s="106"/>
-      <c r="X66" s="106"/>
-      <c r="Y66" s="106"/>
-      <c r="Z66" s="106"/>
-      <c r="AA66" s="106"/>
-      <c r="AB66" s="106"/>
-      <c r="AC66" s="106"/>
-      <c r="AD66" s="106"/>
-      <c r="AE66" s="106"/>
-      <c r="AF66" s="106"/>
-      <c r="AG66" s="106"/>
-      <c r="AH66" s="106"/>
+      <c r="A66" s="96"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
+      <c r="L66" s="96"/>
+      <c r="M66" s="96"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="96"/>
+      <c r="P66" s="96"/>
+      <c r="Q66" s="96"/>
+      <c r="R66" s="96"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="96"/>
+      <c r="U66" s="96"/>
+      <c r="V66" s="96"/>
+      <c r="W66" s="97"/>
+      <c r="X66" s="97"/>
+      <c r="Y66" s="97"/>
+      <c r="Z66" s="97"/>
+      <c r="AA66" s="97"/>
+      <c r="AB66" s="97"/>
+      <c r="AC66" s="97"/>
+      <c r="AD66" s="97"/>
+      <c r="AE66" s="97"/>
+      <c r="AF66" s="97"/>
+      <c r="AG66" s="97"/>
+      <c r="AH66" s="97"/>
     </row>
     <row r="67" spans="1:34">
-      <c r="A67" s="105"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="105"/>
-      <c r="K67" s="105"/>
-      <c r="L67" s="105"/>
-      <c r="M67" s="105"/>
-      <c r="N67" s="105"/>
-      <c r="O67" s="105"/>
-      <c r="P67" s="105"/>
-      <c r="Q67" s="105"/>
-      <c r="R67" s="105"/>
-      <c r="S67" s="105"/>
-      <c r="T67" s="105"/>
-      <c r="U67" s="105"/>
-      <c r="V67" s="105"/>
-      <c r="W67" s="106"/>
-      <c r="X67" s="106"/>
-      <c r="Y67" s="106"/>
-      <c r="Z67" s="106"/>
-      <c r="AA67" s="106"/>
-      <c r="AB67" s="106"/>
-      <c r="AC67" s="106"/>
-      <c r="AD67" s="106"/>
-      <c r="AE67" s="106"/>
-      <c r="AF67" s="106"/>
-      <c r="AG67" s="106"/>
-      <c r="AH67" s="106"/>
+      <c r="A67" s="96"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="96"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="96"/>
+      <c r="G67" s="96"/>
+      <c r="H67" s="96"/>
+      <c r="I67" s="96"/>
+      <c r="J67" s="96"/>
+      <c r="K67" s="96"/>
+      <c r="L67" s="96"/>
+      <c r="M67" s="96"/>
+      <c r="N67" s="96"/>
+      <c r="O67" s="96"/>
+      <c r="P67" s="96"/>
+      <c r="Q67" s="96"/>
+      <c r="R67" s="96"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="96"/>
+      <c r="U67" s="96"/>
+      <c r="V67" s="96"/>
+      <c r="W67" s="97"/>
+      <c r="X67" s="97"/>
+      <c r="Y67" s="97"/>
+      <c r="Z67" s="97"/>
+      <c r="AA67" s="97"/>
+      <c r="AB67" s="97"/>
+      <c r="AC67" s="97"/>
+      <c r="AD67" s="97"/>
+      <c r="AE67" s="97"/>
+      <c r="AF67" s="97"/>
+      <c r="AG67" s="97"/>
+      <c r="AH67" s="97"/>
     </row>
     <row r="68" spans="1:34">
-      <c r="A68" s="105"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="105"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="105"/>
-      <c r="K68" s="105"/>
-      <c r="L68" s="105"/>
-      <c r="M68" s="105"/>
-      <c r="N68" s="105"/>
-      <c r="O68" s="105"/>
-      <c r="P68" s="105"/>
-      <c r="Q68" s="105"/>
-      <c r="R68" s="105"/>
-      <c r="S68" s="105"/>
-      <c r="T68" s="105"/>
-      <c r="U68" s="105"/>
-      <c r="V68" s="105"/>
-      <c r="W68" s="106"/>
-      <c r="X68" s="106"/>
-      <c r="Y68" s="106"/>
-      <c r="Z68" s="106"/>
-      <c r="AA68" s="106"/>
-      <c r="AB68" s="106"/>
-      <c r="AC68" s="106"/>
-      <c r="AD68" s="106"/>
-      <c r="AE68" s="106"/>
-      <c r="AF68" s="106"/>
-      <c r="AG68" s="106"/>
-      <c r="AH68" s="106"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
+      <c r="L68" s="96"/>
+      <c r="M68" s="96"/>
+      <c r="N68" s="96"/>
+      <c r="O68" s="96"/>
+      <c r="P68" s="96"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="96"/>
+      <c r="S68" s="96"/>
+      <c r="T68" s="96"/>
+      <c r="U68" s="96"/>
+      <c r="V68" s="96"/>
+      <c r="W68" s="97"/>
+      <c r="X68" s="97"/>
+      <c r="Y68" s="97"/>
+      <c r="Z68" s="97"/>
+      <c r="AA68" s="97"/>
+      <c r="AB68" s="97"/>
+      <c r="AC68" s="97"/>
+      <c r="AD68" s="97"/>
+      <c r="AE68" s="97"/>
+      <c r="AF68" s="97"/>
+      <c r="AG68" s="97"/>
+      <c r="AH68" s="97"/>
     </row>
     <row r="69" spans="1:34">
-      <c r="A69" s="105"/>
-      <c r="B69" s="105"/>
-      <c r="C69" s="105"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="105"/>
-      <c r="L69" s="105"/>
-      <c r="M69" s="105"/>
-      <c r="N69" s="105"/>
-      <c r="O69" s="105"/>
-      <c r="P69" s="105"/>
-      <c r="Q69" s="105"/>
-      <c r="R69" s="105"/>
-      <c r="S69" s="105"/>
-      <c r="T69" s="105"/>
-      <c r="U69" s="105"/>
-      <c r="V69" s="105"/>
-      <c r="W69" s="106"/>
-      <c r="X69" s="106"/>
-      <c r="Y69" s="106"/>
-      <c r="Z69" s="106"/>
-      <c r="AA69" s="106"/>
-      <c r="AB69" s="106"/>
-      <c r="AC69" s="106"/>
-      <c r="AD69" s="106"/>
-      <c r="AE69" s="106"/>
-      <c r="AF69" s="106"/>
-      <c r="AG69" s="106"/>
-      <c r="AH69" s="106"/>
+      <c r="A69" s="96"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="96"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="96"/>
+      <c r="L69" s="96"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="96"/>
+      <c r="R69" s="96"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="96"/>
+      <c r="U69" s="96"/>
+      <c r="V69" s="96"/>
+      <c r="W69" s="97"/>
+      <c r="X69" s="97"/>
+      <c r="Y69" s="97"/>
+      <c r="Z69" s="97"/>
+      <c r="AA69" s="97"/>
+      <c r="AB69" s="97"/>
+      <c r="AC69" s="97"/>
+      <c r="AD69" s="97"/>
+      <c r="AE69" s="97"/>
+      <c r="AF69" s="97"/>
+      <c r="AG69" s="97"/>
+      <c r="AH69" s="97"/>
     </row>
     <row r="70" spans="1:34">
-      <c r="A70" s="105"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="105"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="105"/>
-      <c r="M70" s="105"/>
-      <c r="N70" s="105"/>
-      <c r="O70" s="105"/>
-      <c r="P70" s="105"/>
-      <c r="Q70" s="105"/>
-      <c r="R70" s="105"/>
-      <c r="S70" s="105"/>
-      <c r="T70" s="105"/>
-      <c r="U70" s="105"/>
-      <c r="V70" s="105"/>
-      <c r="W70" s="106"/>
-      <c r="X70" s="106"/>
-      <c r="Y70" s="106"/>
-      <c r="Z70" s="106"/>
-      <c r="AA70" s="106"/>
-      <c r="AB70" s="106"/>
-      <c r="AC70" s="106"/>
-      <c r="AD70" s="106"/>
-      <c r="AE70" s="106"/>
-      <c r="AF70" s="106"/>
-      <c r="AG70" s="106"/>
-      <c r="AH70" s="106"/>
+      <c r="A70" s="96"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="96"/>
+      <c r="M70" s="96"/>
+      <c r="N70" s="96"/>
+      <c r="O70" s="96"/>
+      <c r="P70" s="96"/>
+      <c r="Q70" s="96"/>
+      <c r="R70" s="96"/>
+      <c r="S70" s="96"/>
+      <c r="T70" s="96"/>
+      <c r="U70" s="96"/>
+      <c r="V70" s="96"/>
+      <c r="W70" s="97"/>
+      <c r="X70" s="97"/>
+      <c r="Y70" s="97"/>
+      <c r="Z70" s="97"/>
+      <c r="AA70" s="97"/>
+      <c r="AB70" s="97"/>
+      <c r="AC70" s="97"/>
+      <c r="AD70" s="97"/>
+      <c r="AE70" s="97"/>
+      <c r="AF70" s="97"/>
+      <c r="AG70" s="97"/>
+      <c r="AH70" s="97"/>
     </row>
     <row r="71" spans="1:34">
-      <c r="A71" s="105"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="105"/>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="105"/>
-      <c r="M71" s="105"/>
-      <c r="N71" s="105"/>
-      <c r="O71" s="105"/>
-      <c r="P71" s="105"/>
-      <c r="Q71" s="105"/>
-      <c r="R71" s="105"/>
-      <c r="S71" s="105"/>
-      <c r="T71" s="105"/>
-      <c r="U71" s="105"/>
-      <c r="V71" s="105"/>
-      <c r="W71" s="106"/>
-      <c r="X71" s="106"/>
-      <c r="Y71" s="106"/>
-      <c r="Z71" s="106"/>
-      <c r="AA71" s="106"/>
-      <c r="AB71" s="106"/>
-      <c r="AC71" s="106"/>
-      <c r="AD71" s="106"/>
-      <c r="AE71" s="106"/>
-      <c r="AF71" s="106"/>
-      <c r="AG71" s="106"/>
-      <c r="AH71" s="106"/>
+      <c r="A71" s="96"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="96"/>
+      <c r="H71" s="96"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="96"/>
+      <c r="L71" s="96"/>
+      <c r="M71" s="96"/>
+      <c r="N71" s="96"/>
+      <c r="O71" s="96"/>
+      <c r="P71" s="96"/>
+      <c r="Q71" s="96"/>
+      <c r="R71" s="96"/>
+      <c r="S71" s="96"/>
+      <c r="T71" s="96"/>
+      <c r="U71" s="96"/>
+      <c r="V71" s="96"/>
+      <c r="W71" s="97"/>
+      <c r="X71" s="97"/>
+      <c r="Y71" s="97"/>
+      <c r="Z71" s="97"/>
+      <c r="AA71" s="97"/>
+      <c r="AB71" s="97"/>
+      <c r="AC71" s="97"/>
+      <c r="AD71" s="97"/>
+      <c r="AE71" s="97"/>
+      <c r="AF71" s="97"/>
+      <c r="AG71" s="97"/>
+      <c r="AH71" s="97"/>
     </row>
     <row r="72" spans="1:34">
-      <c r="A72" s="105"/>
-      <c r="B72" s="105"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="105"/>
-      <c r="I72" s="105"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="105"/>
-      <c r="L72" s="105"/>
-      <c r="M72" s="105"/>
-      <c r="N72" s="105"/>
-      <c r="O72" s="105"/>
-      <c r="P72" s="105"/>
-      <c r="Q72" s="105"/>
-      <c r="R72" s="105"/>
-      <c r="S72" s="105"/>
-      <c r="T72" s="105"/>
-      <c r="U72" s="105"/>
-      <c r="V72" s="105"/>
-      <c r="W72" s="106"/>
-      <c r="X72" s="106"/>
-      <c r="Y72" s="106"/>
-      <c r="Z72" s="106"/>
-      <c r="AA72" s="106"/>
-      <c r="AB72" s="106"/>
-      <c r="AC72" s="106"/>
-      <c r="AD72" s="106"/>
-      <c r="AE72" s="106"/>
-      <c r="AF72" s="106"/>
-      <c r="AG72" s="106"/>
-      <c r="AH72" s="106"/>
+      <c r="A72" s="96"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="96"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="96"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="96"/>
+      <c r="O72" s="96"/>
+      <c r="P72" s="96"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="96"/>
+      <c r="V72" s="96"/>
+      <c r="W72" s="97"/>
+      <c r="X72" s="97"/>
+      <c r="Y72" s="97"/>
+      <c r="Z72" s="97"/>
+      <c r="AA72" s="97"/>
+      <c r="AB72" s="97"/>
+      <c r="AC72" s="97"/>
+      <c r="AD72" s="97"/>
+      <c r="AE72" s="97"/>
+      <c r="AF72" s="97"/>
+      <c r="AG72" s="97"/>
+      <c r="AH72" s="97"/>
     </row>
     <row r="73" spans="1:34">
-      <c r="A73" s="105"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="105"/>
-      <c r="D73" s="105"/>
-      <c r="E73" s="105"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="105"/>
-      <c r="J73" s="105"/>
-      <c r="K73" s="105"/>
-      <c r="L73" s="105"/>
-      <c r="M73" s="105"/>
-      <c r="N73" s="105"/>
-      <c r="O73" s="105"/>
-      <c r="P73" s="105"/>
-      <c r="Q73" s="105"/>
-      <c r="R73" s="105"/>
-      <c r="S73" s="105"/>
-      <c r="T73" s="105"/>
-      <c r="U73" s="105"/>
-      <c r="V73" s="105"/>
-      <c r="W73" s="106"/>
-      <c r="X73" s="106"/>
-      <c r="Y73" s="106"/>
-      <c r="Z73" s="106"/>
-      <c r="AA73" s="106"/>
-      <c r="AB73" s="106"/>
-      <c r="AC73" s="106"/>
-      <c r="AD73" s="106"/>
-      <c r="AE73" s="106"/>
-      <c r="AF73" s="106"/>
-      <c r="AG73" s="106"/>
-      <c r="AH73" s="106"/>
+      <c r="A73" s="96"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="96"/>
+      <c r="L73" s="96"/>
+      <c r="M73" s="96"/>
+      <c r="N73" s="96"/>
+      <c r="O73" s="96"/>
+      <c r="P73" s="96"/>
+      <c r="Q73" s="96"/>
+      <c r="R73" s="96"/>
+      <c r="S73" s="96"/>
+      <c r="T73" s="96"/>
+      <c r="U73" s="96"/>
+      <c r="V73" s="96"/>
+      <c r="W73" s="97"/>
+      <c r="X73" s="97"/>
+      <c r="Y73" s="97"/>
+      <c r="Z73" s="97"/>
+      <c r="AA73" s="97"/>
+      <c r="AB73" s="97"/>
+      <c r="AC73" s="97"/>
+      <c r="AD73" s="97"/>
+      <c r="AE73" s="97"/>
+      <c r="AF73" s="97"/>
+      <c r="AG73" s="97"/>
+      <c r="AH73" s="97"/>
     </row>
     <row r="74" spans="1:34">
-      <c r="A74" s="105"/>
-      <c r="B74" s="105"/>
-      <c r="C74" s="105"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
-      <c r="I74" s="105"/>
-      <c r="J74" s="105"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="105"/>
-      <c r="M74" s="105"/>
-      <c r="N74" s="105"/>
-      <c r="O74" s="105"/>
-      <c r="P74" s="105"/>
-      <c r="Q74" s="105"/>
-      <c r="R74" s="105"/>
-      <c r="S74" s="105"/>
-      <c r="T74" s="105"/>
-      <c r="U74" s="105"/>
-      <c r="V74" s="105"/>
-      <c r="W74" s="106"/>
-      <c r="X74" s="106"/>
-      <c r="Y74" s="106"/>
-      <c r="Z74" s="106"/>
-      <c r="AA74" s="106"/>
-      <c r="AB74" s="106"/>
-      <c r="AC74" s="106"/>
-      <c r="AD74" s="106"/>
-      <c r="AE74" s="106"/>
-      <c r="AF74" s="106"/>
-      <c r="AG74" s="106"/>
-      <c r="AH74" s="106"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="96"/>
+      <c r="M74" s="96"/>
+      <c r="N74" s="96"/>
+      <c r="O74" s="96"/>
+      <c r="P74" s="96"/>
+      <c r="Q74" s="96"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="96"/>
+      <c r="T74" s="96"/>
+      <c r="U74" s="96"/>
+      <c r="V74" s="96"/>
+      <c r="W74" s="97"/>
+      <c r="X74" s="97"/>
+      <c r="Y74" s="97"/>
+      <c r="Z74" s="97"/>
+      <c r="AA74" s="97"/>
+      <c r="AB74" s="97"/>
+      <c r="AC74" s="97"/>
+      <c r="AD74" s="97"/>
+      <c r="AE74" s="97"/>
+      <c r="AF74" s="97"/>
+      <c r="AG74" s="97"/>
+      <c r="AH74" s="97"/>
     </row>
     <row r="75" spans="1:34">
-      <c r="A75" s="105"/>
-      <c r="B75" s="105"/>
-      <c r="C75" s="105"/>
-      <c r="D75" s="105"/>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="105"/>
-      <c r="I75" s="105"/>
-      <c r="J75" s="105"/>
-      <c r="K75" s="105"/>
-      <c r="L75" s="105"/>
-      <c r="M75" s="105"/>
-      <c r="N75" s="105"/>
-      <c r="O75" s="105"/>
-      <c r="P75" s="105"/>
-      <c r="Q75" s="105"/>
-      <c r="R75" s="105"/>
-      <c r="S75" s="105"/>
-      <c r="T75" s="105"/>
-      <c r="U75" s="105"/>
-      <c r="V75" s="105"/>
-      <c r="W75" s="106"/>
-      <c r="X75" s="106"/>
-      <c r="Y75" s="106"/>
-      <c r="Z75" s="106"/>
-      <c r="AA75" s="106"/>
-      <c r="AB75" s="106"/>
-      <c r="AC75" s="106"/>
-      <c r="AD75" s="106"/>
-      <c r="AE75" s="106"/>
-      <c r="AF75" s="106"/>
-      <c r="AG75" s="106"/>
-      <c r="AH75" s="106"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="96"/>
+      <c r="K75" s="96"/>
+      <c r="L75" s="96"/>
+      <c r="M75" s="96"/>
+      <c r="N75" s="96"/>
+      <c r="O75" s="96"/>
+      <c r="P75" s="96"/>
+      <c r="Q75" s="96"/>
+      <c r="R75" s="96"/>
+      <c r="S75" s="96"/>
+      <c r="T75" s="96"/>
+      <c r="U75" s="96"/>
+      <c r="V75" s="96"/>
+      <c r="W75" s="97"/>
+      <c r="X75" s="97"/>
+      <c r="Y75" s="97"/>
+      <c r="Z75" s="97"/>
+      <c r="AA75" s="97"/>
+      <c r="AB75" s="97"/>
+      <c r="AC75" s="97"/>
+      <c r="AD75" s="97"/>
+      <c r="AE75" s="97"/>
+      <c r="AF75" s="97"/>
+      <c r="AG75" s="97"/>
+      <c r="AH75" s="97"/>
     </row>
     <row r="76" spans="1:34">
-      <c r="A76" s="105"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="105"/>
-      <c r="M76" s="105"/>
-      <c r="N76" s="105"/>
-      <c r="O76" s="105"/>
-      <c r="P76" s="105"/>
-      <c r="Q76" s="105"/>
-      <c r="R76" s="105"/>
-      <c r="S76" s="105"/>
-      <c r="T76" s="105"/>
-      <c r="U76" s="105"/>
-      <c r="V76" s="105"/>
-      <c r="W76" s="106"/>
-      <c r="X76" s="106"/>
-      <c r="Y76" s="106"/>
-      <c r="Z76" s="106"/>
-      <c r="AA76" s="106"/>
-      <c r="AB76" s="106"/>
-      <c r="AC76" s="106"/>
-      <c r="AD76" s="106"/>
-      <c r="AE76" s="106"/>
-      <c r="AF76" s="106"/>
-      <c r="AG76" s="106"/>
-      <c r="AH76" s="106"/>
+      <c r="A76" s="96"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="96"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="96"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="96"/>
+      <c r="J76" s="96"/>
+      <c r="K76" s="96"/>
+      <c r="L76" s="96"/>
+      <c r="M76" s="96"/>
+      <c r="N76" s="96"/>
+      <c r="O76" s="96"/>
+      <c r="P76" s="96"/>
+      <c r="Q76" s="96"/>
+      <c r="R76" s="96"/>
+      <c r="S76" s="96"/>
+      <c r="T76" s="96"/>
+      <c r="U76" s="96"/>
+      <c r="V76" s="96"/>
+      <c r="W76" s="97"/>
+      <c r="X76" s="97"/>
+      <c r="Y76" s="97"/>
+      <c r="Z76" s="97"/>
+      <c r="AA76" s="97"/>
+      <c r="AB76" s="97"/>
+      <c r="AC76" s="97"/>
+      <c r="AD76" s="97"/>
+      <c r="AE76" s="97"/>
+      <c r="AF76" s="97"/>
+      <c r="AG76" s="97"/>
+      <c r="AH76" s="97"/>
     </row>
     <row r="77" spans="1:34">
-      <c r="A77" s="105"/>
-      <c r="B77" s="105"/>
-      <c r="C77" s="105"/>
-      <c r="D77" s="105"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="105"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="105"/>
-      <c r="J77" s="105"/>
-      <c r="K77" s="105"/>
-      <c r="L77" s="105"/>
-      <c r="M77" s="105"/>
-      <c r="N77" s="105"/>
-      <c r="O77" s="105"/>
-      <c r="P77" s="105"/>
-      <c r="Q77" s="105"/>
-      <c r="R77" s="105"/>
-      <c r="S77" s="105"/>
-      <c r="T77" s="105"/>
-      <c r="U77" s="105"/>
-      <c r="V77" s="105"/>
-      <c r="W77" s="106"/>
-      <c r="X77" s="106"/>
-      <c r="Y77" s="106"/>
-      <c r="Z77" s="106"/>
-      <c r="AA77" s="106"/>
-      <c r="AB77" s="106"/>
-      <c r="AC77" s="106"/>
-      <c r="AD77" s="106"/>
-      <c r="AE77" s="106"/>
-      <c r="AF77" s="106"/>
-      <c r="AG77" s="106"/>
-      <c r="AH77" s="106"/>
+      <c r="A77" s="96"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="96"/>
+      <c r="D77" s="96"/>
+      <c r="E77" s="96"/>
+      <c r="F77" s="96"/>
+      <c r="G77" s="96"/>
+      <c r="H77" s="96"/>
+      <c r="I77" s="96"/>
+      <c r="J77" s="96"/>
+      <c r="K77" s="96"/>
+      <c r="L77" s="96"/>
+      <c r="M77" s="96"/>
+      <c r="N77" s="96"/>
+      <c r="O77" s="96"/>
+      <c r="P77" s="96"/>
+      <c r="Q77" s="96"/>
+      <c r="R77" s="96"/>
+      <c r="S77" s="96"/>
+      <c r="T77" s="96"/>
+      <c r="U77" s="96"/>
+      <c r="V77" s="96"/>
+      <c r="W77" s="97"/>
+      <c r="X77" s="97"/>
+      <c r="Y77" s="97"/>
+      <c r="Z77" s="97"/>
+      <c r="AA77" s="97"/>
+      <c r="AB77" s="97"/>
+      <c r="AC77" s="97"/>
+      <c r="AD77" s="97"/>
+      <c r="AE77" s="97"/>
+      <c r="AF77" s="97"/>
+      <c r="AG77" s="97"/>
+      <c r="AH77" s="97"/>
     </row>
     <row r="78" spans="1:34">
-      <c r="A78" s="105"/>
-      <c r="B78" s="105"/>
-      <c r="C78" s="105"/>
-      <c r="D78" s="105"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="105"/>
-      <c r="K78" s="105"/>
-      <c r="L78" s="105"/>
-      <c r="M78" s="105"/>
-      <c r="N78" s="105"/>
-      <c r="O78" s="105"/>
-      <c r="P78" s="105"/>
-      <c r="Q78" s="105"/>
-      <c r="R78" s="105"/>
-      <c r="S78" s="105"/>
-      <c r="T78" s="105"/>
-      <c r="U78" s="105"/>
-      <c r="V78" s="105"/>
-      <c r="W78" s="106"/>
-      <c r="X78" s="106"/>
-      <c r="Y78" s="106"/>
-      <c r="Z78" s="106"/>
-      <c r="AA78" s="106"/>
-      <c r="AB78" s="106"/>
-      <c r="AC78" s="106"/>
-      <c r="AD78" s="106"/>
-      <c r="AE78" s="106"/>
-      <c r="AF78" s="106"/>
-      <c r="AG78" s="106"/>
-      <c r="AH78" s="106"/>
+      <c r="A78" s="96"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="96"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="96"/>
+      <c r="J78" s="96"/>
+      <c r="K78" s="96"/>
+      <c r="L78" s="96"/>
+      <c r="M78" s="96"/>
+      <c r="N78" s="96"/>
+      <c r="O78" s="96"/>
+      <c r="P78" s="96"/>
+      <c r="Q78" s="96"/>
+      <c r="R78" s="96"/>
+      <c r="S78" s="96"/>
+      <c r="T78" s="96"/>
+      <c r="U78" s="96"/>
+      <c r="V78" s="96"/>
+      <c r="W78" s="97"/>
+      <c r="X78" s="97"/>
+      <c r="Y78" s="97"/>
+      <c r="Z78" s="97"/>
+      <c r="AA78" s="97"/>
+      <c r="AB78" s="97"/>
+      <c r="AC78" s="97"/>
+      <c r="AD78" s="97"/>
+      <c r="AE78" s="97"/>
+      <c r="AF78" s="97"/>
+      <c r="AG78" s="97"/>
+      <c r="AH78" s="97"/>
     </row>
     <row r="79" spans="1:34">
-      <c r="A79" s="105"/>
-      <c r="B79" s="105"/>
-      <c r="C79" s="105"/>
-      <c r="D79" s="105"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="105"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="105"/>
-      <c r="K79" s="105"/>
-      <c r="L79" s="105"/>
-      <c r="M79" s="105"/>
-      <c r="N79" s="105"/>
-      <c r="O79" s="105"/>
-      <c r="P79" s="105"/>
-      <c r="Q79" s="105"/>
-      <c r="R79" s="105"/>
-      <c r="S79" s="105"/>
-      <c r="T79" s="105"/>
-      <c r="U79" s="105"/>
-      <c r="V79" s="105"/>
-      <c r="W79" s="106"/>
-      <c r="X79" s="106"/>
-      <c r="Y79" s="106"/>
-      <c r="Z79" s="106"/>
-      <c r="AA79" s="106"/>
-      <c r="AB79" s="106"/>
-      <c r="AC79" s="106"/>
-      <c r="AD79" s="106"/>
-      <c r="AE79" s="106"/>
-      <c r="AF79" s="106"/>
-      <c r="AG79" s="106"/>
-      <c r="AH79" s="106"/>
+      <c r="A79" s="96"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="96"/>
+      <c r="G79" s="96"/>
+      <c r="H79" s="96"/>
+      <c r="I79" s="96"/>
+      <c r="J79" s="96"/>
+      <c r="K79" s="96"/>
+      <c r="L79" s="96"/>
+      <c r="M79" s="96"/>
+      <c r="N79" s="96"/>
+      <c r="O79" s="96"/>
+      <c r="P79" s="96"/>
+      <c r="Q79" s="96"/>
+      <c r="R79" s="96"/>
+      <c r="S79" s="96"/>
+      <c r="T79" s="96"/>
+      <c r="U79" s="96"/>
+      <c r="V79" s="96"/>
+      <c r="W79" s="97"/>
+      <c r="X79" s="97"/>
+      <c r="Y79" s="97"/>
+      <c r="Z79" s="97"/>
+      <c r="AA79" s="97"/>
+      <c r="AB79" s="97"/>
+      <c r="AC79" s="97"/>
+      <c r="AD79" s="97"/>
+      <c r="AE79" s="97"/>
+      <c r="AF79" s="97"/>
+      <c r="AG79" s="97"/>
+      <c r="AH79" s="97"/>
     </row>
     <row r="80" spans="1:34">
-      <c r="A80" s="105"/>
-      <c r="B80" s="105"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="105"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="105"/>
-      <c r="I80" s="105"/>
-      <c r="J80" s="105"/>
-      <c r="K80" s="105"/>
-      <c r="L80" s="105"/>
-      <c r="M80" s="105"/>
-      <c r="N80" s="105"/>
-      <c r="O80" s="105"/>
-      <c r="P80" s="105"/>
-      <c r="Q80" s="105"/>
-      <c r="R80" s="105"/>
-      <c r="S80" s="105"/>
-      <c r="T80" s="105"/>
-      <c r="U80" s="105"/>
-      <c r="V80" s="105"/>
-      <c r="W80" s="106"/>
-      <c r="X80" s="106"/>
-      <c r="Y80" s="106"/>
-      <c r="Z80" s="106"/>
-      <c r="AA80" s="106"/>
-      <c r="AB80" s="106"/>
-      <c r="AC80" s="106"/>
-      <c r="AD80" s="106"/>
-      <c r="AE80" s="106"/>
-      <c r="AF80" s="106"/>
-      <c r="AG80" s="106"/>
-      <c r="AH80" s="106"/>
+      <c r="A80" s="96"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="96"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="96"/>
+      <c r="I80" s="96"/>
+      <c r="J80" s="96"/>
+      <c r="K80" s="96"/>
+      <c r="L80" s="96"/>
+      <c r="M80" s="96"/>
+      <c r="N80" s="96"/>
+      <c r="O80" s="96"/>
+      <c r="P80" s="96"/>
+      <c r="Q80" s="96"/>
+      <c r="R80" s="96"/>
+      <c r="S80" s="96"/>
+      <c r="T80" s="96"/>
+      <c r="U80" s="96"/>
+      <c r="V80" s="96"/>
+      <c r="W80" s="97"/>
+      <c r="X80" s="97"/>
+      <c r="Y80" s="97"/>
+      <c r="Z80" s="97"/>
+      <c r="AA80" s="97"/>
+      <c r="AB80" s="97"/>
+      <c r="AC80" s="97"/>
+      <c r="AD80" s="97"/>
+      <c r="AE80" s="97"/>
+      <c r="AF80" s="97"/>
+      <c r="AG80" s="97"/>
+      <c r="AH80" s="97"/>
     </row>
     <row r="81" spans="1:34">
-      <c r="A81" s="105"/>
-      <c r="B81" s="105"/>
-      <c r="C81" s="105"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="105"/>
-      <c r="K81" s="105"/>
-      <c r="L81" s="105"/>
-      <c r="M81" s="105"/>
-      <c r="N81" s="105"/>
-      <c r="O81" s="105"/>
-      <c r="P81" s="105"/>
-      <c r="Q81" s="105"/>
-      <c r="R81" s="105"/>
-      <c r="S81" s="105"/>
-      <c r="T81" s="105"/>
-      <c r="U81" s="105"/>
-      <c r="V81" s="105"/>
-      <c r="W81" s="106"/>
-      <c r="X81" s="106"/>
-      <c r="Y81" s="106"/>
-      <c r="Z81" s="106"/>
-      <c r="AA81" s="106"/>
-      <c r="AB81" s="106"/>
-      <c r="AC81" s="106"/>
-      <c r="AD81" s="106"/>
-      <c r="AE81" s="106"/>
-      <c r="AF81" s="106"/>
-      <c r="AG81" s="106"/>
-      <c r="AH81" s="106"/>
+      <c r="A81" s="96"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="96"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="96"/>
+      <c r="L81" s="96"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="96"/>
+      <c r="O81" s="96"/>
+      <c r="P81" s="96"/>
+      <c r="Q81" s="96"/>
+      <c r="R81" s="96"/>
+      <c r="S81" s="96"/>
+      <c r="T81" s="96"/>
+      <c r="U81" s="96"/>
+      <c r="V81" s="96"/>
+      <c r="W81" s="97"/>
+      <c r="X81" s="97"/>
+      <c r="Y81" s="97"/>
+      <c r="Z81" s="97"/>
+      <c r="AA81" s="97"/>
+      <c r="AB81" s="97"/>
+      <c r="AC81" s="97"/>
+      <c r="AD81" s="97"/>
+      <c r="AE81" s="97"/>
+      <c r="AF81" s="97"/>
+      <c r="AG81" s="97"/>
+      <c r="AH81" s="97"/>
     </row>
     <row r="82" spans="1:34">
-      <c r="A82" s="105"/>
-      <c r="B82" s="105"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="105"/>
-      <c r="I82" s="105"/>
-      <c r="J82" s="105"/>
-      <c r="K82" s="105"/>
-      <c r="L82" s="105"/>
-      <c r="M82" s="105"/>
-      <c r="N82" s="105"/>
-      <c r="O82" s="105"/>
-      <c r="P82" s="105"/>
-      <c r="Q82" s="105"/>
-      <c r="R82" s="105"/>
-      <c r="S82" s="105"/>
-      <c r="T82" s="105"/>
-      <c r="U82" s="105"/>
-      <c r="V82" s="105"/>
-      <c r="W82" s="106"/>
-      <c r="X82" s="106"/>
-      <c r="Y82" s="106"/>
-      <c r="Z82" s="106"/>
-      <c r="AA82" s="106"/>
-      <c r="AB82" s="106"/>
-      <c r="AC82" s="106"/>
-      <c r="AD82" s="106"/>
-      <c r="AE82" s="106"/>
-      <c r="AF82" s="106"/>
-      <c r="AG82" s="106"/>
-      <c r="AH82" s="106"/>
+      <c r="A82" s="96"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="96"/>
+      <c r="G82" s="96"/>
+      <c r="H82" s="96"/>
+      <c r="I82" s="96"/>
+      <c r="J82" s="96"/>
+      <c r="K82" s="96"/>
+      <c r="L82" s="96"/>
+      <c r="M82" s="96"/>
+      <c r="N82" s="96"/>
+      <c r="O82" s="96"/>
+      <c r="P82" s="96"/>
+      <c r="Q82" s="96"/>
+      <c r="R82" s="96"/>
+      <c r="S82" s="96"/>
+      <c r="T82" s="96"/>
+      <c r="U82" s="96"/>
+      <c r="V82" s="96"/>
+      <c r="W82" s="97"/>
+      <c r="X82" s="97"/>
+      <c r="Y82" s="97"/>
+      <c r="Z82" s="97"/>
+      <c r="AA82" s="97"/>
+      <c r="AB82" s="97"/>
+      <c r="AC82" s="97"/>
+      <c r="AD82" s="97"/>
+      <c r="AE82" s="97"/>
+      <c r="AF82" s="97"/>
+      <c r="AG82" s="97"/>
+      <c r="AH82" s="97"/>
     </row>
     <row r="83" spans="1:34">
-      <c r="A83" s="105"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="105"/>
-      <c r="K83" s="105"/>
-      <c r="L83" s="105"/>
-      <c r="M83" s="105"/>
-      <c r="N83" s="105"/>
-      <c r="O83" s="105"/>
-      <c r="P83" s="105"/>
-      <c r="Q83" s="105"/>
-      <c r="R83" s="105"/>
-      <c r="S83" s="105"/>
-      <c r="T83" s="105"/>
-      <c r="U83" s="105"/>
-      <c r="V83" s="105"/>
-      <c r="W83" s="106"/>
-      <c r="X83" s="106"/>
-      <c r="Y83" s="106"/>
-      <c r="Z83" s="106"/>
-      <c r="AA83" s="106"/>
-      <c r="AB83" s="106"/>
-      <c r="AC83" s="106"/>
-      <c r="AD83" s="106"/>
-      <c r="AE83" s="106"/>
-      <c r="AF83" s="106"/>
-      <c r="AG83" s="106"/>
-      <c r="AH83" s="106"/>
+      <c r="A83" s="96"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="96"/>
+      <c r="J83" s="96"/>
+      <c r="K83" s="96"/>
+      <c r="L83" s="96"/>
+      <c r="M83" s="96"/>
+      <c r="N83" s="96"/>
+      <c r="O83" s="96"/>
+      <c r="P83" s="96"/>
+      <c r="Q83" s="96"/>
+      <c r="R83" s="96"/>
+      <c r="S83" s="96"/>
+      <c r="T83" s="96"/>
+      <c r="U83" s="96"/>
+      <c r="V83" s="96"/>
+      <c r="W83" s="97"/>
+      <c r="X83" s="97"/>
+      <c r="Y83" s="97"/>
+      <c r="Z83" s="97"/>
+      <c r="AA83" s="97"/>
+      <c r="AB83" s="97"/>
+      <c r="AC83" s="97"/>
+      <c r="AD83" s="97"/>
+      <c r="AE83" s="97"/>
+      <c r="AF83" s="97"/>
+      <c r="AG83" s="97"/>
+      <c r="AH83" s="97"/>
     </row>
     <row r="84" spans="1:34">
-      <c r="A84" s="105"/>
-      <c r="B84" s="105"/>
-      <c r="C84" s="105"/>
-      <c r="D84" s="105"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="105"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
-      <c r="M84" s="105"/>
-      <c r="N84" s="105"/>
-      <c r="O84" s="105"/>
-      <c r="P84" s="105"/>
-      <c r="Q84" s="105"/>
-      <c r="R84" s="105"/>
-      <c r="S84" s="105"/>
-      <c r="T84" s="105"/>
-      <c r="U84" s="105"/>
-      <c r="V84" s="105"/>
-      <c r="W84" s="106"/>
-      <c r="X84" s="106"/>
-      <c r="Y84" s="106"/>
-      <c r="Z84" s="106"/>
-      <c r="AA84" s="106"/>
-      <c r="AB84" s="106"/>
-      <c r="AC84" s="106"/>
-      <c r="AD84" s="106"/>
-      <c r="AE84" s="106"/>
-      <c r="AF84" s="106"/>
-      <c r="AG84" s="106"/>
-      <c r="AH84" s="106"/>
+      <c r="A84" s="96"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96"/>
+      <c r="J84" s="96"/>
+      <c r="K84" s="96"/>
+      <c r="L84" s="96"/>
+      <c r="M84" s="96"/>
+      <c r="N84" s="96"/>
+      <c r="O84" s="96"/>
+      <c r="P84" s="96"/>
+      <c r="Q84" s="96"/>
+      <c r="R84" s="96"/>
+      <c r="S84" s="96"/>
+      <c r="T84" s="96"/>
+      <c r="U84" s="96"/>
+      <c r="V84" s="96"/>
+      <c r="W84" s="97"/>
+      <c r="X84" s="97"/>
+      <c r="Y84" s="97"/>
+      <c r="Z84" s="97"/>
+      <c r="AA84" s="97"/>
+      <c r="AB84" s="97"/>
+      <c r="AC84" s="97"/>
+      <c r="AD84" s="97"/>
+      <c r="AE84" s="97"/>
+      <c r="AF84" s="97"/>
+      <c r="AG84" s="97"/>
+      <c r="AH84" s="97"/>
     </row>
     <row r="85" spans="1:34">
-      <c r="A85" s="105"/>
-      <c r="B85" s="105"/>
-      <c r="C85" s="105"/>
-      <c r="D85" s="105"/>
-      <c r="E85" s="105"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="105"/>
-      <c r="K85" s="105"/>
-      <c r="L85" s="105"/>
-      <c r="M85" s="105"/>
-      <c r="N85" s="105"/>
-      <c r="O85" s="105"/>
-      <c r="P85" s="105"/>
-      <c r="Q85" s="105"/>
-      <c r="R85" s="105"/>
-      <c r="S85" s="105"/>
-      <c r="T85" s="105"/>
-      <c r="U85" s="105"/>
-      <c r="V85" s="105"/>
-      <c r="W85" s="106"/>
-      <c r="X85" s="106"/>
-      <c r="Y85" s="106"/>
-      <c r="Z85" s="106"/>
-      <c r="AA85" s="106"/>
-      <c r="AB85" s="106"/>
-      <c r="AC85" s="106"/>
-      <c r="AD85" s="106"/>
-      <c r="AE85" s="106"/>
-      <c r="AF85" s="106"/>
-      <c r="AG85" s="106"/>
-      <c r="AH85" s="106"/>
+      <c r="A85" s="96"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="96"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="96"/>
+      <c r="J85" s="96"/>
+      <c r="K85" s="96"/>
+      <c r="L85" s="96"/>
+      <c r="M85" s="96"/>
+      <c r="N85" s="96"/>
+      <c r="O85" s="96"/>
+      <c r="P85" s="96"/>
+      <c r="Q85" s="96"/>
+      <c r="R85" s="96"/>
+      <c r="S85" s="96"/>
+      <c r="T85" s="96"/>
+      <c r="U85" s="96"/>
+      <c r="V85" s="96"/>
+      <c r="W85" s="97"/>
+      <c r="X85" s="97"/>
+      <c r="Y85" s="97"/>
+      <c r="Z85" s="97"/>
+      <c r="AA85" s="97"/>
+      <c r="AB85" s="97"/>
+      <c r="AC85" s="97"/>
+      <c r="AD85" s="97"/>
+      <c r="AE85" s="97"/>
+      <c r="AF85" s="97"/>
+      <c r="AG85" s="97"/>
+      <c r="AH85" s="97"/>
     </row>
     <row r="86" spans="1:34">
-      <c r="A86" s="105"/>
-      <c r="B86" s="105"/>
-      <c r="C86" s="105"/>
-      <c r="D86" s="105"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="105"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="105"/>
-      <c r="K86" s="105"/>
-      <c r="L86" s="105"/>
-      <c r="M86" s="105"/>
-      <c r="N86" s="105"/>
-      <c r="O86" s="105"/>
-      <c r="P86" s="105"/>
-      <c r="Q86" s="105"/>
-      <c r="R86" s="105"/>
-      <c r="S86" s="105"/>
-      <c r="T86" s="105"/>
-      <c r="U86" s="105"/>
-      <c r="V86" s="105"/>
-      <c r="W86" s="106"/>
-      <c r="X86" s="106"/>
-      <c r="Y86" s="106"/>
-      <c r="Z86" s="106"/>
-      <c r="AA86" s="106"/>
-      <c r="AB86" s="106"/>
-      <c r="AC86" s="106"/>
-      <c r="AD86" s="106"/>
-      <c r="AE86" s="106"/>
-      <c r="AF86" s="106"/>
-      <c r="AG86" s="106"/>
-      <c r="AH86" s="106"/>
+      <c r="A86" s="96"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
+      <c r="H86" s="96"/>
+      <c r="I86" s="96"/>
+      <c r="J86" s="96"/>
+      <c r="K86" s="96"/>
+      <c r="L86" s="96"/>
+      <c r="M86" s="96"/>
+      <c r="N86" s="96"/>
+      <c r="O86" s="96"/>
+      <c r="P86" s="96"/>
+      <c r="Q86" s="96"/>
+      <c r="R86" s="96"/>
+      <c r="S86" s="96"/>
+      <c r="T86" s="96"/>
+      <c r="U86" s="96"/>
+      <c r="V86" s="96"/>
+      <c r="W86" s="97"/>
+      <c r="X86" s="97"/>
+      <c r="Y86" s="97"/>
+      <c r="Z86" s="97"/>
+      <c r="AA86" s="97"/>
+      <c r="AB86" s="97"/>
+      <c r="AC86" s="97"/>
+      <c r="AD86" s="97"/>
+      <c r="AE86" s="97"/>
+      <c r="AF86" s="97"/>
+      <c r="AG86" s="97"/>
+      <c r="AH86" s="97"/>
     </row>
     <row r="87" spans="1:34">
-      <c r="A87" s="105"/>
-      <c r="B87" s="105"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="105"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="105"/>
-      <c r="K87" s="105"/>
-      <c r="L87" s="105"/>
-      <c r="M87" s="105"/>
-      <c r="N87" s="105"/>
-      <c r="O87" s="105"/>
-      <c r="P87" s="105"/>
-      <c r="Q87" s="105"/>
-      <c r="R87" s="105"/>
-      <c r="S87" s="105"/>
-      <c r="T87" s="105"/>
-      <c r="U87" s="105"/>
-      <c r="V87" s="105"/>
-      <c r="W87" s="106"/>
-      <c r="X87" s="106"/>
-      <c r="Y87" s="106"/>
-      <c r="Z87" s="106"/>
-      <c r="AA87" s="106"/>
-      <c r="AB87" s="106"/>
-      <c r="AC87" s="106"/>
-      <c r="AD87" s="106"/>
-      <c r="AE87" s="106"/>
-      <c r="AF87" s="106"/>
-      <c r="AG87" s="106"/>
-      <c r="AH87" s="106"/>
+      <c r="A87" s="96"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="96"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="96"/>
+      <c r="G87" s="96"/>
+      <c r="H87" s="96"/>
+      <c r="I87" s="96"/>
+      <c r="J87" s="96"/>
+      <c r="K87" s="96"/>
+      <c r="L87" s="96"/>
+      <c r="M87" s="96"/>
+      <c r="N87" s="96"/>
+      <c r="O87" s="96"/>
+      <c r="P87" s="96"/>
+      <c r="Q87" s="96"/>
+      <c r="R87" s="96"/>
+      <c r="S87" s="96"/>
+      <c r="T87" s="96"/>
+      <c r="U87" s="96"/>
+      <c r="V87" s="96"/>
+      <c r="W87" s="97"/>
+      <c r="X87" s="97"/>
+      <c r="Y87" s="97"/>
+      <c r="Z87" s="97"/>
+      <c r="AA87" s="97"/>
+      <c r="AB87" s="97"/>
+      <c r="AC87" s="97"/>
+      <c r="AD87" s="97"/>
+      <c r="AE87" s="97"/>
+      <c r="AF87" s="97"/>
+      <c r="AG87" s="97"/>
+      <c r="AH87" s="97"/>
     </row>
     <row r="88" spans="1:34">
-      <c r="A88" s="105"/>
-      <c r="B88" s="105"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="105"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="105"/>
-      <c r="I88" s="105"/>
-      <c r="J88" s="105"/>
-      <c r="K88" s="105"/>
-      <c r="L88" s="105"/>
-      <c r="M88" s="105"/>
-      <c r="N88" s="105"/>
-      <c r="O88" s="105"/>
-      <c r="P88" s="105"/>
-      <c r="Q88" s="105"/>
-      <c r="R88" s="105"/>
-      <c r="S88" s="105"/>
-      <c r="T88" s="105"/>
-      <c r="U88" s="105"/>
-      <c r="V88" s="105"/>
-      <c r="W88" s="106"/>
-      <c r="X88" s="106"/>
-      <c r="Y88" s="106"/>
-      <c r="Z88" s="106"/>
-      <c r="AA88" s="106"/>
-      <c r="AB88" s="106"/>
-      <c r="AC88" s="106"/>
-      <c r="AD88" s="106"/>
-      <c r="AE88" s="106"/>
-      <c r="AF88" s="106"/>
-      <c r="AG88" s="106"/>
-      <c r="AH88" s="106"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="96"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="96"/>
+      <c r="G88" s="96"/>
+      <c r="H88" s="96"/>
+      <c r="I88" s="96"/>
+      <c r="J88" s="96"/>
+      <c r="K88" s="96"/>
+      <c r="L88" s="96"/>
+      <c r="M88" s="96"/>
+      <c r="N88" s="96"/>
+      <c r="O88" s="96"/>
+      <c r="P88" s="96"/>
+      <c r="Q88" s="96"/>
+      <c r="R88" s="96"/>
+      <c r="S88" s="96"/>
+      <c r="T88" s="96"/>
+      <c r="U88" s="96"/>
+      <c r="V88" s="96"/>
+      <c r="W88" s="97"/>
+      <c r="X88" s="97"/>
+      <c r="Y88" s="97"/>
+      <c r="Z88" s="97"/>
+      <c r="AA88" s="97"/>
+      <c r="AB88" s="97"/>
+      <c r="AC88" s="97"/>
+      <c r="AD88" s="97"/>
+      <c r="AE88" s="97"/>
+      <c r="AF88" s="97"/>
+      <c r="AG88" s="97"/>
+      <c r="AH88" s="97"/>
     </row>
     <row r="89" spans="1:34">
-      <c r="A89" s="105"/>
-      <c r="B89" s="105"/>
-      <c r="C89" s="105"/>
-      <c r="D89" s="105"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="105"/>
-      <c r="I89" s="105"/>
-      <c r="J89" s="105"/>
-      <c r="K89" s="105"/>
-      <c r="L89" s="105"/>
-      <c r="M89" s="105"/>
-      <c r="N89" s="105"/>
-      <c r="O89" s="105"/>
-      <c r="P89" s="105"/>
-      <c r="Q89" s="105"/>
-      <c r="R89" s="105"/>
-      <c r="S89" s="105"/>
-      <c r="T89" s="105"/>
-      <c r="U89" s="105"/>
-      <c r="V89" s="105"/>
-      <c r="W89" s="106"/>
-      <c r="X89" s="106"/>
-      <c r="Y89" s="106"/>
-      <c r="Z89" s="106"/>
-      <c r="AA89" s="106"/>
-      <c r="AB89" s="106"/>
-      <c r="AC89" s="106"/>
-      <c r="AD89" s="106"/>
-      <c r="AE89" s="106"/>
-      <c r="AF89" s="106"/>
-      <c r="AG89" s="106"/>
-      <c r="AH89" s="106"/>
+      <c r="A89" s="96"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="96"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="96"/>
+      <c r="G89" s="96"/>
+      <c r="H89" s="96"/>
+      <c r="I89" s="96"/>
+      <c r="J89" s="96"/>
+      <c r="K89" s="96"/>
+      <c r="L89" s="96"/>
+      <c r="M89" s="96"/>
+      <c r="N89" s="96"/>
+      <c r="O89" s="96"/>
+      <c r="P89" s="96"/>
+      <c r="Q89" s="96"/>
+      <c r="R89" s="96"/>
+      <c r="S89" s="96"/>
+      <c r="T89" s="96"/>
+      <c r="U89" s="96"/>
+      <c r="V89" s="96"/>
+      <c r="W89" s="97"/>
+      <c r="X89" s="97"/>
+      <c r="Y89" s="97"/>
+      <c r="Z89" s="97"/>
+      <c r="AA89" s="97"/>
+      <c r="AB89" s="97"/>
+      <c r="AC89" s="97"/>
+      <c r="AD89" s="97"/>
+      <c r="AE89" s="97"/>
+      <c r="AF89" s="97"/>
+      <c r="AG89" s="97"/>
+      <c r="AH89" s="97"/>
     </row>
     <row r="90" spans="1:34">
-      <c r="A90" s="105"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="105"/>
-      <c r="I90" s="105"/>
-      <c r="J90" s="105"/>
-      <c r="K90" s="105"/>
-      <c r="L90" s="105"/>
-      <c r="M90" s="105"/>
-      <c r="N90" s="105"/>
-      <c r="O90" s="105"/>
-      <c r="P90" s="105"/>
-      <c r="Q90" s="105"/>
-      <c r="R90" s="105"/>
-      <c r="S90" s="105"/>
-      <c r="T90" s="105"/>
-      <c r="U90" s="105"/>
-      <c r="V90" s="105"/>
-      <c r="W90" s="106"/>
-      <c r="X90" s="106"/>
-      <c r="Y90" s="106"/>
-      <c r="Z90" s="106"/>
-      <c r="AA90" s="106"/>
-      <c r="AB90" s="106"/>
-      <c r="AC90" s="106"/>
-      <c r="AD90" s="106"/>
-      <c r="AE90" s="106"/>
-      <c r="AF90" s="106"/>
-      <c r="AG90" s="106"/>
-      <c r="AH90" s="106"/>
+      <c r="A90" s="96"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="96"/>
+      <c r="G90" s="96"/>
+      <c r="H90" s="96"/>
+      <c r="I90" s="96"/>
+      <c r="J90" s="96"/>
+      <c r="K90" s="96"/>
+      <c r="L90" s="96"/>
+      <c r="M90" s="96"/>
+      <c r="N90" s="96"/>
+      <c r="O90" s="96"/>
+      <c r="P90" s="96"/>
+      <c r="Q90" s="96"/>
+      <c r="R90" s="96"/>
+      <c r="S90" s="96"/>
+      <c r="T90" s="96"/>
+      <c r="U90" s="96"/>
+      <c r="V90" s="96"/>
+      <c r="W90" s="97"/>
+      <c r="X90" s="97"/>
+      <c r="Y90" s="97"/>
+      <c r="Z90" s="97"/>
+      <c r="AA90" s="97"/>
+      <c r="AB90" s="97"/>
+      <c r="AC90" s="97"/>
+      <c r="AD90" s="97"/>
+      <c r="AE90" s="97"/>
+      <c r="AF90" s="97"/>
+      <c r="AG90" s="97"/>
+      <c r="AH90" s="97"/>
     </row>
     <row r="91" spans="1:34">
-      <c r="A91" s="105"/>
-      <c r="B91" s="105"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="105"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="105"/>
-      <c r="J91" s="105"/>
-      <c r="K91" s="105"/>
-      <c r="L91" s="105"/>
-      <c r="M91" s="105"/>
-      <c r="N91" s="105"/>
-      <c r="O91" s="105"/>
-      <c r="P91" s="105"/>
-      <c r="Q91" s="105"/>
-      <c r="R91" s="105"/>
-      <c r="S91" s="105"/>
-      <c r="T91" s="105"/>
-      <c r="U91" s="105"/>
-      <c r="V91" s="105"/>
-      <c r="W91" s="106"/>
-      <c r="X91" s="106"/>
-      <c r="Y91" s="106"/>
-      <c r="Z91" s="106"/>
-      <c r="AA91" s="106"/>
-      <c r="AB91" s="106"/>
-      <c r="AC91" s="106"/>
-      <c r="AD91" s="106"/>
-      <c r="AE91" s="106"/>
-      <c r="AF91" s="106"/>
-      <c r="AG91" s="106"/>
-      <c r="AH91" s="106"/>
+      <c r="A91" s="96"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="96"/>
+      <c r="G91" s="96"/>
+      <c r="H91" s="96"/>
+      <c r="I91" s="96"/>
+      <c r="J91" s="96"/>
+      <c r="K91" s="96"/>
+      <c r="L91" s="96"/>
+      <c r="M91" s="96"/>
+      <c r="N91" s="96"/>
+      <c r="O91" s="96"/>
+      <c r="P91" s="96"/>
+      <c r="Q91" s="96"/>
+      <c r="R91" s="96"/>
+      <c r="S91" s="96"/>
+      <c r="T91" s="96"/>
+      <c r="U91" s="96"/>
+      <c r="V91" s="96"/>
+      <c r="W91" s="97"/>
+      <c r="X91" s="97"/>
+      <c r="Y91" s="97"/>
+      <c r="Z91" s="97"/>
+      <c r="AA91" s="97"/>
+      <c r="AB91" s="97"/>
+      <c r="AC91" s="97"/>
+      <c r="AD91" s="97"/>
+      <c r="AE91" s="97"/>
+      <c r="AF91" s="97"/>
+      <c r="AG91" s="97"/>
+      <c r="AH91" s="97"/>
     </row>
     <row r="92" spans="1:34">
-      <c r="A92" s="105"/>
-      <c r="B92" s="105"/>
-      <c r="C92" s="105"/>
-      <c r="D92" s="105"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="105"/>
-      <c r="I92" s="105"/>
-      <c r="J92" s="105"/>
-      <c r="K92" s="105"/>
-      <c r="L92" s="105"/>
-      <c r="M92" s="105"/>
-      <c r="N92" s="105"/>
-      <c r="O92" s="105"/>
-      <c r="P92" s="105"/>
-      <c r="Q92" s="105"/>
-      <c r="R92" s="105"/>
-      <c r="S92" s="105"/>
-      <c r="T92" s="105"/>
-      <c r="U92" s="105"/>
-      <c r="V92" s="105"/>
-      <c r="W92" s="106"/>
-      <c r="X92" s="106"/>
-      <c r="Y92" s="106"/>
-      <c r="Z92" s="106"/>
-      <c r="AA92" s="106"/>
-      <c r="AB92" s="106"/>
-      <c r="AC92" s="106"/>
-      <c r="AD92" s="106"/>
-      <c r="AE92" s="106"/>
-      <c r="AF92" s="106"/>
-      <c r="AG92" s="106"/>
-      <c r="AH92" s="106"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="96"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="96"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="96"/>
+      <c r="I92" s="96"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="96"/>
+      <c r="L92" s="96"/>
+      <c r="M92" s="96"/>
+      <c r="N92" s="96"/>
+      <c r="O92" s="96"/>
+      <c r="P92" s="96"/>
+      <c r="Q92" s="96"/>
+      <c r="R92" s="96"/>
+      <c r="S92" s="96"/>
+      <c r="T92" s="96"/>
+      <c r="U92" s="96"/>
+      <c r="V92" s="96"/>
+      <c r="W92" s="97"/>
+      <c r="X92" s="97"/>
+      <c r="Y92" s="97"/>
+      <c r="Z92" s="97"/>
+      <c r="AA92" s="97"/>
+      <c r="AB92" s="97"/>
+      <c r="AC92" s="97"/>
+      <c r="AD92" s="97"/>
+      <c r="AE92" s="97"/>
+      <c r="AF92" s="97"/>
+      <c r="AG92" s="97"/>
+      <c r="AH92" s="97"/>
     </row>
     <row r="93" spans="1:34">
-      <c r="A93" s="105"/>
-      <c r="B93" s="105"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="105"/>
-      <c r="L93" s="105"/>
-      <c r="M93" s="105"/>
-      <c r="N93" s="105"/>
-      <c r="O93" s="105"/>
-      <c r="P93" s="105"/>
-      <c r="Q93" s="105"/>
-      <c r="R93" s="105"/>
-      <c r="S93" s="105"/>
-      <c r="T93" s="105"/>
-      <c r="U93" s="105"/>
-      <c r="V93" s="105"/>
-      <c r="W93" s="106"/>
-      <c r="X93" s="106"/>
-      <c r="Y93" s="106"/>
-      <c r="Z93" s="106"/>
-      <c r="AA93" s="106"/>
-      <c r="AB93" s="106"/>
-      <c r="AC93" s="106"/>
-      <c r="AD93" s="106"/>
-      <c r="AE93" s="106"/>
-      <c r="AF93" s="106"/>
-      <c r="AG93" s="106"/>
-      <c r="AH93" s="106"/>
+      <c r="A93" s="96"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="96"/>
+      <c r="G93" s="96"/>
+      <c r="H93" s="96"/>
+      <c r="I93" s="96"/>
+      <c r="J93" s="96"/>
+      <c r="K93" s="96"/>
+      <c r="L93" s="96"/>
+      <c r="M93" s="96"/>
+      <c r="N93" s="96"/>
+      <c r="O93" s="96"/>
+      <c r="P93" s="96"/>
+      <c r="Q93" s="96"/>
+      <c r="R93" s="96"/>
+      <c r="S93" s="96"/>
+      <c r="T93" s="96"/>
+      <c r="U93" s="96"/>
+      <c r="V93" s="96"/>
+      <c r="W93" s="97"/>
+      <c r="X93" s="97"/>
+      <c r="Y93" s="97"/>
+      <c r="Z93" s="97"/>
+      <c r="AA93" s="97"/>
+      <c r="AB93" s="97"/>
+      <c r="AC93" s="97"/>
+      <c r="AD93" s="97"/>
+      <c r="AE93" s="97"/>
+      <c r="AF93" s="97"/>
+      <c r="AG93" s="97"/>
+      <c r="AH93" s="97"/>
     </row>
     <row r="94" spans="1:34">
-      <c r="A94" s="105"/>
-      <c r="B94" s="105"/>
-      <c r="C94" s="105"/>
-      <c r="D94" s="105"/>
-      <c r="E94" s="105"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="105"/>
-      <c r="I94" s="105"/>
-      <c r="J94" s="105"/>
-      <c r="K94" s="105"/>
-      <c r="L94" s="105"/>
-      <c r="M94" s="105"/>
-      <c r="N94" s="105"/>
-      <c r="O94" s="105"/>
-      <c r="P94" s="105"/>
-      <c r="Q94" s="105"/>
-      <c r="R94" s="105"/>
-      <c r="S94" s="105"/>
-      <c r="T94" s="105"/>
-      <c r="U94" s="105"/>
-      <c r="V94" s="105"/>
-      <c r="W94" s="106"/>
-      <c r="X94" s="106"/>
-      <c r="Y94" s="106"/>
-      <c r="Z94" s="106"/>
-      <c r="AA94" s="106"/>
-      <c r="AB94" s="106"/>
-      <c r="AC94" s="106"/>
-      <c r="AD94" s="106"/>
-      <c r="AE94" s="106"/>
-      <c r="AF94" s="106"/>
-      <c r="AG94" s="106"/>
-      <c r="AH94" s="106"/>
+      <c r="A94" s="96"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="96"/>
+      <c r="D94" s="96"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="96"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="96"/>
+      <c r="I94" s="96"/>
+      <c r="J94" s="96"/>
+      <c r="K94" s="96"/>
+      <c r="L94" s="96"/>
+      <c r="M94" s="96"/>
+      <c r="N94" s="96"/>
+      <c r="O94" s="96"/>
+      <c r="P94" s="96"/>
+      <c r="Q94" s="96"/>
+      <c r="R94" s="96"/>
+      <c r="S94" s="96"/>
+      <c r="T94" s="96"/>
+      <c r="U94" s="96"/>
+      <c r="V94" s="96"/>
+      <c r="W94" s="97"/>
+      <c r="X94" s="97"/>
+      <c r="Y94" s="97"/>
+      <c r="Z94" s="97"/>
+      <c r="AA94" s="97"/>
+      <c r="AB94" s="97"/>
+      <c r="AC94" s="97"/>
+      <c r="AD94" s="97"/>
+      <c r="AE94" s="97"/>
+      <c r="AF94" s="97"/>
+      <c r="AG94" s="97"/>
+      <c r="AH94" s="97"/>
     </row>
     <row r="95" spans="1:34">
-      <c r="A95" s="105"/>
-      <c r="B95" s="105"/>
-      <c r="C95" s="105"/>
-      <c r="D95" s="105"/>
-      <c r="E95" s="105"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="105"/>
-      <c r="I95" s="105"/>
-      <c r="J95" s="105"/>
-      <c r="K95" s="105"/>
-      <c r="L95" s="105"/>
-      <c r="M95" s="105"/>
-      <c r="N95" s="105"/>
-      <c r="O95" s="105"/>
-      <c r="P95" s="105"/>
-      <c r="Q95" s="105"/>
-      <c r="R95" s="105"/>
-      <c r="S95" s="105"/>
-      <c r="T95" s="105"/>
-      <c r="U95" s="105"/>
-      <c r="V95" s="105"/>
-      <c r="W95" s="106"/>
-      <c r="X95" s="106"/>
-      <c r="Y95" s="106"/>
-      <c r="Z95" s="106"/>
-      <c r="AA95" s="106"/>
-      <c r="AB95" s="106"/>
-      <c r="AC95" s="106"/>
-      <c r="AD95" s="106"/>
-      <c r="AE95" s="106"/>
-      <c r="AF95" s="106"/>
-      <c r="AG95" s="106"/>
-      <c r="AH95" s="106"/>
+      <c r="A95" s="96"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="96"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="96"/>
+      <c r="G95" s="96"/>
+      <c r="H95" s="96"/>
+      <c r="I95" s="96"/>
+      <c r="J95" s="96"/>
+      <c r="K95" s="96"/>
+      <c r="L95" s="96"/>
+      <c r="M95" s="96"/>
+      <c r="N95" s="96"/>
+      <c r="O95" s="96"/>
+      <c r="P95" s="96"/>
+      <c r="Q95" s="96"/>
+      <c r="R95" s="96"/>
+      <c r="S95" s="96"/>
+      <c r="T95" s="96"/>
+      <c r="U95" s="96"/>
+      <c r="V95" s="96"/>
+      <c r="W95" s="97"/>
+      <c r="X95" s="97"/>
+      <c r="Y95" s="97"/>
+      <c r="Z95" s="97"/>
+      <c r="AA95" s="97"/>
+      <c r="AB95" s="97"/>
+      <c r="AC95" s="97"/>
+      <c r="AD95" s="97"/>
+      <c r="AE95" s="97"/>
+      <c r="AF95" s="97"/>
+      <c r="AG95" s="97"/>
+      <c r="AH95" s="97"/>
     </row>
     <row r="96" spans="1:34">
-      <c r="A96" s="105"/>
-      <c r="B96" s="105"/>
-      <c r="C96" s="105"/>
-      <c r="D96" s="105"/>
-      <c r="E96" s="105"/>
-      <c r="F96" s="105"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="105"/>
-      <c r="I96" s="105"/>
-      <c r="J96" s="105"/>
-      <c r="K96" s="105"/>
-      <c r="L96" s="105"/>
-      <c r="M96" s="105"/>
-      <c r="N96" s="105"/>
-      <c r="O96" s="105"/>
-      <c r="P96" s="105"/>
-      <c r="Q96" s="105"/>
-      <c r="R96" s="105"/>
-      <c r="S96" s="105"/>
-      <c r="T96" s="105"/>
-      <c r="U96" s="105"/>
-      <c r="V96" s="105"/>
-      <c r="W96" s="106"/>
-      <c r="X96" s="106"/>
-      <c r="Y96" s="106"/>
-      <c r="Z96" s="106"/>
-      <c r="AA96" s="106"/>
-      <c r="AB96" s="106"/>
-      <c r="AC96" s="106"/>
-      <c r="AD96" s="106"/>
-      <c r="AE96" s="106"/>
-      <c r="AF96" s="106"/>
-      <c r="AG96" s="106"/>
-      <c r="AH96" s="106"/>
+      <c r="A96" s="96"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="96"/>
+      <c r="G96" s="96"/>
+      <c r="H96" s="96"/>
+      <c r="I96" s="96"/>
+      <c r="J96" s="96"/>
+      <c r="K96" s="96"/>
+      <c r="L96" s="96"/>
+      <c r="M96" s="96"/>
+      <c r="N96" s="96"/>
+      <c r="O96" s="96"/>
+      <c r="P96" s="96"/>
+      <c r="Q96" s="96"/>
+      <c r="R96" s="96"/>
+      <c r="S96" s="96"/>
+      <c r="T96" s="96"/>
+      <c r="U96" s="96"/>
+      <c r="V96" s="96"/>
+      <c r="W96" s="97"/>
+      <c r="X96" s="97"/>
+      <c r="Y96" s="97"/>
+      <c r="Z96" s="97"/>
+      <c r="AA96" s="97"/>
+      <c r="AB96" s="97"/>
+      <c r="AC96" s="97"/>
+      <c r="AD96" s="97"/>
+      <c r="AE96" s="97"/>
+      <c r="AF96" s="97"/>
+      <c r="AG96" s="97"/>
+      <c r="AH96" s="97"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="105"/>
-      <c r="B97" s="105"/>
-      <c r="C97" s="105"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="105"/>
-      <c r="K97" s="105"/>
-      <c r="L97" s="105"/>
-      <c r="M97" s="105"/>
-      <c r="N97" s="105"/>
-      <c r="O97" s="105"/>
-      <c r="P97" s="105"/>
-      <c r="Q97" s="105"/>
-      <c r="R97" s="105"/>
-      <c r="S97" s="105"/>
-      <c r="T97" s="105"/>
-      <c r="U97" s="105"/>
-      <c r="V97" s="105"/>
+      <c r="A97" s="96"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="96"/>
+      <c r="D97" s="96"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="96"/>
+      <c r="G97" s="96"/>
+      <c r="H97" s="96"/>
+      <c r="I97" s="96"/>
+      <c r="J97" s="96"/>
+      <c r="K97" s="96"/>
+      <c r="L97" s="96"/>
+      <c r="M97" s="96"/>
+      <c r="N97" s="96"/>
+      <c r="O97" s="96"/>
+      <c r="P97" s="96"/>
+      <c r="Q97" s="96"/>
+      <c r="R97" s="96"/>
+      <c r="S97" s="96"/>
+      <c r="T97" s="96"/>
+      <c r="U97" s="96"/>
+      <c r="V97" s="96"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="105"/>
-      <c r="B98" s="105"/>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="105"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
-      <c r="H98" s="105"/>
-      <c r="I98" s="105"/>
-      <c r="J98" s="105"/>
-      <c r="K98" s="105"/>
-      <c r="L98" s="105"/>
-      <c r="M98" s="105"/>
-      <c r="N98" s="105"/>
-      <c r="O98" s="105"/>
-      <c r="P98" s="105"/>
-      <c r="Q98" s="105"/>
-      <c r="R98" s="105"/>
-      <c r="S98" s="105"/>
-      <c r="T98" s="105"/>
-      <c r="U98" s="105"/>
-      <c r="V98" s="105"/>
+      <c r="A98" s="96"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="96"/>
+      <c r="D98" s="96"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="96"/>
+      <c r="G98" s="96"/>
+      <c r="H98" s="96"/>
+      <c r="I98" s="96"/>
+      <c r="J98" s="96"/>
+      <c r="K98" s="96"/>
+      <c r="L98" s="96"/>
+      <c r="M98" s="96"/>
+      <c r="N98" s="96"/>
+      <c r="O98" s="96"/>
+      <c r="P98" s="96"/>
+      <c r="Q98" s="96"/>
+      <c r="R98" s="96"/>
+      <c r="S98" s="96"/>
+      <c r="T98" s="96"/>
+      <c r="U98" s="96"/>
+      <c r="V98" s="96"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="105"/>
-      <c r="B99" s="105"/>
-      <c r="C99" s="105"/>
-      <c r="D99" s="105"/>
-      <c r="E99" s="105"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="105"/>
-      <c r="I99" s="105"/>
-      <c r="J99" s="105"/>
-      <c r="K99" s="105"/>
-      <c r="L99" s="105"/>
-      <c r="M99" s="105"/>
-      <c r="N99" s="105"/>
-      <c r="O99" s="105"/>
-      <c r="P99" s="105"/>
-      <c r="Q99" s="105"/>
-      <c r="R99" s="105"/>
-      <c r="S99" s="105"/>
-      <c r="T99" s="105"/>
-      <c r="U99" s="105"/>
-      <c r="V99" s="105"/>
+      <c r="A99" s="96"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="96"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="96"/>
+      <c r="G99" s="96"/>
+      <c r="H99" s="96"/>
+      <c r="I99" s="96"/>
+      <c r="J99" s="96"/>
+      <c r="K99" s="96"/>
+      <c r="L99" s="96"/>
+      <c r="M99" s="96"/>
+      <c r="N99" s="96"/>
+      <c r="O99" s="96"/>
+      <c r="P99" s="96"/>
+      <c r="Q99" s="96"/>
+      <c r="R99" s="96"/>
+      <c r="S99" s="96"/>
+      <c r="T99" s="96"/>
+      <c r="U99" s="96"/>
+      <c r="V99" s="96"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="105"/>
-      <c r="B100" s="105"/>
-      <c r="C100" s="105"/>
-      <c r="D100" s="105"/>
-      <c r="E100" s="105"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="105"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="105"/>
-      <c r="K100" s="105"/>
-      <c r="L100" s="105"/>
-      <c r="M100" s="105"/>
-      <c r="N100" s="105"/>
-      <c r="O100" s="105"/>
-      <c r="P100" s="105"/>
-      <c r="Q100" s="105"/>
-      <c r="R100" s="105"/>
-      <c r="S100" s="105"/>
-      <c r="T100" s="105"/>
-      <c r="U100" s="105"/>
-      <c r="V100" s="105"/>
+      <c r="A100" s="96"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="96"/>
+      <c r="G100" s="96"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="96"/>
+      <c r="J100" s="96"/>
+      <c r="K100" s="96"/>
+      <c r="L100" s="96"/>
+      <c r="M100" s="96"/>
+      <c r="N100" s="96"/>
+      <c r="O100" s="96"/>
+      <c r="P100" s="96"/>
+      <c r="Q100" s="96"/>
+      <c r="R100" s="96"/>
+      <c r="S100" s="96"/>
+      <c r="T100" s="96"/>
+      <c r="U100" s="96"/>
+      <c r="V100" s="96"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="105"/>
-      <c r="B101" s="105"/>
-      <c r="C101" s="105"/>
-      <c r="D101" s="105"/>
-      <c r="E101" s="105"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="105"/>
-      <c r="H101" s="105"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="105"/>
-      <c r="L101" s="105"/>
-      <c r="M101" s="105"/>
-      <c r="N101" s="105"/>
-      <c r="O101" s="105"/>
-      <c r="P101" s="105"/>
-      <c r="Q101" s="105"/>
-      <c r="R101" s="105"/>
-      <c r="S101" s="105"/>
-      <c r="T101" s="105"/>
-      <c r="U101" s="105"/>
-      <c r="V101" s="105"/>
+      <c r="A101" s="96"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="96"/>
+      <c r="D101" s="96"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="96"/>
+      <c r="G101" s="96"/>
+      <c r="H101" s="96"/>
+      <c r="I101" s="96"/>
+      <c r="J101" s="96"/>
+      <c r="K101" s="96"/>
+      <c r="L101" s="96"/>
+      <c r="M101" s="96"/>
+      <c r="N101" s="96"/>
+      <c r="O101" s="96"/>
+      <c r="P101" s="96"/>
+      <c r="Q101" s="96"/>
+      <c r="R101" s="96"/>
+      <c r="S101" s="96"/>
+      <c r="T101" s="96"/>
+      <c r="U101" s="96"/>
+      <c r="V101" s="96"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="105"/>
-      <c r="B102" s="105"/>
-      <c r="C102" s="105"/>
-      <c r="D102" s="105"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="105"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="105"/>
-      <c r="I102" s="105"/>
-      <c r="J102" s="105"/>
-      <c r="K102" s="105"/>
-      <c r="L102" s="105"/>
-      <c r="M102" s="105"/>
-      <c r="N102" s="105"/>
-      <c r="O102" s="105"/>
-      <c r="P102" s="105"/>
-      <c r="Q102" s="105"/>
-      <c r="R102" s="105"/>
-      <c r="S102" s="105"/>
-      <c r="T102" s="105"/>
-      <c r="U102" s="105"/>
-      <c r="V102" s="105"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="96"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="96"/>
+      <c r="K102" s="96"/>
+      <c r="L102" s="96"/>
+      <c r="M102" s="96"/>
+      <c r="N102" s="96"/>
+      <c r="O102" s="96"/>
+      <c r="P102" s="96"/>
+      <c r="Q102" s="96"/>
+      <c r="R102" s="96"/>
+      <c r="S102" s="96"/>
+      <c r="T102" s="96"/>
+      <c r="U102" s="96"/>
+      <c r="V102" s="96"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="105"/>
-      <c r="B103" s="105"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="105"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="105"/>
-      <c r="K103" s="105"/>
-      <c r="L103" s="105"/>
-      <c r="M103" s="105"/>
-      <c r="N103" s="105"/>
-      <c r="O103" s="105"/>
-      <c r="P103" s="105"/>
-      <c r="Q103" s="105"/>
-      <c r="R103" s="105"/>
-      <c r="S103" s="105"/>
-      <c r="T103" s="105"/>
-      <c r="U103" s="105"/>
-      <c r="V103" s="105"/>
+      <c r="A103" s="96"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="96"/>
+      <c r="D103" s="96"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="96"/>
+      <c r="G103" s="96"/>
+      <c r="H103" s="96"/>
+      <c r="I103" s="96"/>
+      <c r="J103" s="96"/>
+      <c r="K103" s="96"/>
+      <c r="L103" s="96"/>
+      <c r="M103" s="96"/>
+      <c r="N103" s="96"/>
+      <c r="O103" s="96"/>
+      <c r="P103" s="96"/>
+      <c r="Q103" s="96"/>
+      <c r="R103" s="96"/>
+      <c r="S103" s="96"/>
+      <c r="T103" s="96"/>
+      <c r="U103" s="96"/>
+      <c r="V103" s="96"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="105"/>
-      <c r="B104" s="105"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="105"/>
-      <c r="E104" s="105"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="105"/>
-      <c r="I104" s="105"/>
-      <c r="J104" s="105"/>
-      <c r="K104" s="105"/>
-      <c r="L104" s="105"/>
-      <c r="M104" s="105"/>
-      <c r="N104" s="105"/>
-      <c r="O104" s="105"/>
-      <c r="P104" s="105"/>
-      <c r="Q104" s="105"/>
-      <c r="R104" s="105"/>
-      <c r="S104" s="105"/>
-      <c r="T104" s="105"/>
-      <c r="U104" s="105"/>
-      <c r="V104" s="105"/>
+      <c r="A104" s="96"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="96"/>
+      <c r="G104" s="96"/>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
+      <c r="J104" s="96"/>
+      <c r="K104" s="96"/>
+      <c r="L104" s="96"/>
+      <c r="M104" s="96"/>
+      <c r="N104" s="96"/>
+      <c r="O104" s="96"/>
+      <c r="P104" s="96"/>
+      <c r="Q104" s="96"/>
+      <c r="R104" s="96"/>
+      <c r="S104" s="96"/>
+      <c r="T104" s="96"/>
+      <c r="U104" s="96"/>
+      <c r="V104" s="96"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="105"/>
-      <c r="B105" s="105"/>
-      <c r="C105" s="105"/>
-      <c r="D105" s="105"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="105"/>
-      <c r="I105" s="105"/>
-      <c r="J105" s="105"/>
-      <c r="K105" s="105"/>
-      <c r="L105" s="105"/>
-      <c r="M105" s="105"/>
-      <c r="N105" s="105"/>
-      <c r="O105" s="105"/>
-      <c r="P105" s="105"/>
-      <c r="Q105" s="105"/>
-      <c r="R105" s="105"/>
-      <c r="S105" s="105"/>
-      <c r="T105" s="105"/>
-      <c r="U105" s="105"/>
-      <c r="V105" s="105"/>
+      <c r="A105" s="96"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="96"/>
+      <c r="D105" s="96"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="96"/>
+      <c r="G105" s="96"/>
+      <c r="H105" s="96"/>
+      <c r="I105" s="96"/>
+      <c r="J105" s="96"/>
+      <c r="K105" s="96"/>
+      <c r="L105" s="96"/>
+      <c r="M105" s="96"/>
+      <c r="N105" s="96"/>
+      <c r="O105" s="96"/>
+      <c r="P105" s="96"/>
+      <c r="Q105" s="96"/>
+      <c r="R105" s="96"/>
+      <c r="S105" s="96"/>
+      <c r="T105" s="96"/>
+      <c r="U105" s="96"/>
+      <c r="V105" s="96"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="105"/>
-      <c r="B106" s="105"/>
-      <c r="C106" s="105"/>
-      <c r="D106" s="105"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="105"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="105"/>
-      <c r="M106" s="105"/>
-      <c r="N106" s="105"/>
-      <c r="O106" s="105"/>
-      <c r="P106" s="105"/>
-      <c r="Q106" s="105"/>
-      <c r="R106" s="105"/>
-      <c r="S106" s="105"/>
-      <c r="T106" s="105"/>
-      <c r="U106" s="105"/>
-      <c r="V106" s="105"/>
+      <c r="A106" s="96"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="96"/>
+      <c r="G106" s="96"/>
+      <c r="H106" s="96"/>
+      <c r="I106" s="96"/>
+      <c r="J106" s="96"/>
+      <c r="K106" s="96"/>
+      <c r="L106" s="96"/>
+      <c r="M106" s="96"/>
+      <c r="N106" s="96"/>
+      <c r="O106" s="96"/>
+      <c r="P106" s="96"/>
+      <c r="Q106" s="96"/>
+      <c r="R106" s="96"/>
+      <c r="S106" s="96"/>
+      <c r="T106" s="96"/>
+      <c r="U106" s="96"/>
+      <c r="V106" s="96"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="105"/>
-      <c r="B107" s="105"/>
-      <c r="C107" s="105"/>
-      <c r="D107" s="105"/>
-      <c r="E107" s="105"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="105"/>
-      <c r="J107" s="105"/>
-      <c r="K107" s="105"/>
-      <c r="L107" s="105"/>
-      <c r="M107" s="105"/>
-      <c r="N107" s="105"/>
-      <c r="O107" s="105"/>
-      <c r="P107" s="105"/>
-      <c r="Q107" s="105"/>
-      <c r="R107" s="105"/>
-      <c r="S107" s="105"/>
-      <c r="T107" s="105"/>
-      <c r="U107" s="105"/>
-      <c r="V107" s="105"/>
+      <c r="A107" s="96"/>
+      <c r="B107" s="96"/>
+      <c r="C107" s="96"/>
+      <c r="D107" s="96"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="96"/>
+      <c r="G107" s="96"/>
+      <c r="H107" s="96"/>
+      <c r="I107" s="96"/>
+      <c r="J107" s="96"/>
+      <c r="K107" s="96"/>
+      <c r="L107" s="96"/>
+      <c r="M107" s="96"/>
+      <c r="N107" s="96"/>
+      <c r="O107" s="96"/>
+      <c r="P107" s="96"/>
+      <c r="Q107" s="96"/>
+      <c r="R107" s="96"/>
+      <c r="S107" s="96"/>
+      <c r="T107" s="96"/>
+      <c r="U107" s="96"/>
+      <c r="V107" s="96"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="105"/>
-      <c r="B108" s="105"/>
-      <c r="C108" s="105"/>
-      <c r="D108" s="105"/>
-      <c r="E108" s="105"/>
-      <c r="F108" s="105"/>
-      <c r="G108" s="105"/>
-      <c r="H108" s="105"/>
-      <c r="I108" s="105"/>
-      <c r="J108" s="105"/>
-      <c r="K108" s="105"/>
-      <c r="L108" s="105"/>
-      <c r="M108" s="105"/>
-      <c r="N108" s="105"/>
-      <c r="O108" s="105"/>
-      <c r="P108" s="105"/>
-      <c r="Q108" s="105"/>
-      <c r="R108" s="105"/>
-      <c r="S108" s="105"/>
-      <c r="T108" s="105"/>
-      <c r="U108" s="105"/>
-      <c r="V108" s="105"/>
+      <c r="A108" s="96"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="96"/>
+      <c r="D108" s="96"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="96"/>
+      <c r="G108" s="96"/>
+      <c r="H108" s="96"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="96"/>
+      <c r="K108" s="96"/>
+      <c r="L108" s="96"/>
+      <c r="M108" s="96"/>
+      <c r="N108" s="96"/>
+      <c r="O108" s="96"/>
+      <c r="P108" s="96"/>
+      <c r="Q108" s="96"/>
+      <c r="R108" s="96"/>
+      <c r="S108" s="96"/>
+      <c r="T108" s="96"/>
+      <c r="U108" s="96"/>
+      <c r="V108" s="96"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="105"/>
-      <c r="B109" s="105"/>
-      <c r="C109" s="105"/>
-      <c r="D109" s="105"/>
-      <c r="E109" s="105"/>
-      <c r="F109" s="105"/>
-      <c r="G109" s="105"/>
-      <c r="H109" s="105"/>
-      <c r="I109" s="105"/>
-      <c r="J109" s="105"/>
-      <c r="K109" s="105"/>
-      <c r="L109" s="105"/>
-      <c r="M109" s="105"/>
-      <c r="N109" s="105"/>
-      <c r="O109" s="105"/>
-      <c r="P109" s="105"/>
-      <c r="Q109" s="105"/>
-      <c r="R109" s="105"/>
-      <c r="S109" s="105"/>
-      <c r="T109" s="105"/>
-      <c r="U109" s="105"/>
-      <c r="V109" s="105"/>
+      <c r="A109" s="96"/>
+      <c r="B109" s="96"/>
+      <c r="C109" s="96"/>
+      <c r="D109" s="96"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="96"/>
+      <c r="G109" s="96"/>
+      <c r="H109" s="96"/>
+      <c r="I109" s="96"/>
+      <c r="J109" s="96"/>
+      <c r="K109" s="96"/>
+      <c r="L109" s="96"/>
+      <c r="M109" s="96"/>
+      <c r="N109" s="96"/>
+      <c r="O109" s="96"/>
+      <c r="P109" s="96"/>
+      <c r="Q109" s="96"/>
+      <c r="R109" s="96"/>
+      <c r="S109" s="96"/>
+      <c r="T109" s="96"/>
+      <c r="U109" s="96"/>
+      <c r="V109" s="96"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="105"/>
-      <c r="B110" s="105"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="105"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
-      <c r="L110" s="105"/>
-      <c r="M110" s="105"/>
-      <c r="N110" s="105"/>
-      <c r="O110" s="105"/>
-      <c r="P110" s="105"/>
-      <c r="Q110" s="105"/>
-      <c r="R110" s="105"/>
-      <c r="S110" s="105"/>
-      <c r="T110" s="105"/>
-      <c r="U110" s="105"/>
-      <c r="V110" s="105"/>
+      <c r="A110" s="96"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="96"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="96"/>
+      <c r="G110" s="96"/>
+      <c r="H110" s="96"/>
+      <c r="I110" s="96"/>
+      <c r="J110" s="96"/>
+      <c r="K110" s="96"/>
+      <c r="L110" s="96"/>
+      <c r="M110" s="96"/>
+      <c r="N110" s="96"/>
+      <c r="O110" s="96"/>
+      <c r="P110" s="96"/>
+      <c r="Q110" s="96"/>
+      <c r="R110" s="96"/>
+      <c r="S110" s="96"/>
+      <c r="T110" s="96"/>
+      <c r="U110" s="96"/>
+      <c r="V110" s="96"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="105"/>
-      <c r="B111" s="105"/>
-      <c r="C111" s="105"/>
-      <c r="D111" s="105"/>
-      <c r="E111" s="105"/>
-      <c r="F111" s="105"/>
-      <c r="G111" s="105"/>
-      <c r="H111" s="105"/>
-      <c r="I111" s="105"/>
-      <c r="J111" s="105"/>
-      <c r="K111" s="105"/>
-      <c r="L111" s="105"/>
-      <c r="M111" s="105"/>
-      <c r="N111" s="105"/>
-      <c r="O111" s="105"/>
-      <c r="P111" s="105"/>
-      <c r="Q111" s="105"/>
-      <c r="R111" s="105"/>
-      <c r="S111" s="105"/>
-      <c r="T111" s="105"/>
-      <c r="U111" s="105"/>
-      <c r="V111" s="105"/>
+      <c r="A111" s="96"/>
+      <c r="B111" s="96"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="96"/>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="96"/>
+      <c r="K111" s="96"/>
+      <c r="L111" s="96"/>
+      <c r="M111" s="96"/>
+      <c r="N111" s="96"/>
+      <c r="O111" s="96"/>
+      <c r="P111" s="96"/>
+      <c r="Q111" s="96"/>
+      <c r="R111" s="96"/>
+      <c r="S111" s="96"/>
+      <c r="T111" s="96"/>
+      <c r="U111" s="96"/>
+      <c r="V111" s="96"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="105"/>
-      <c r="B112" s="105"/>
-      <c r="C112" s="105"/>
-      <c r="D112" s="105"/>
-      <c r="E112" s="105"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="105"/>
-      <c r="H112" s="105"/>
-      <c r="I112" s="105"/>
-      <c r="J112" s="105"/>
-      <c r="K112" s="105"/>
-      <c r="L112" s="105"/>
-      <c r="M112" s="105"/>
-      <c r="N112" s="105"/>
-      <c r="O112" s="105"/>
-      <c r="P112" s="105"/>
-      <c r="Q112" s="105"/>
-      <c r="R112" s="105"/>
-      <c r="S112" s="105"/>
-      <c r="T112" s="105"/>
-      <c r="U112" s="105"/>
-      <c r="V112" s="105"/>
+      <c r="A112" s="96"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="96"/>
+      <c r="D112" s="96"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="96"/>
+      <c r="G112" s="96"/>
+      <c r="H112" s="96"/>
+      <c r="I112" s="96"/>
+      <c r="J112" s="96"/>
+      <c r="K112" s="96"/>
+      <c r="L112" s="96"/>
+      <c r="M112" s="96"/>
+      <c r="N112" s="96"/>
+      <c r="O112" s="96"/>
+      <c r="P112" s="96"/>
+      <c r="Q112" s="96"/>
+      <c r="R112" s="96"/>
+      <c r="S112" s="96"/>
+      <c r="T112" s="96"/>
+      <c r="U112" s="96"/>
+      <c r="V112" s="96"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="105"/>
-      <c r="B113" s="105"/>
-      <c r="C113" s="105"/>
-      <c r="D113" s="105"/>
-      <c r="E113" s="105"/>
-      <c r="F113" s="105"/>
-      <c r="G113" s="105"/>
-      <c r="H113" s="105"/>
-      <c r="I113" s="105"/>
-      <c r="J113" s="105"/>
-      <c r="K113" s="105"/>
-      <c r="L113" s="105"/>
-      <c r="M113" s="105"/>
-      <c r="N113" s="105"/>
-      <c r="O113" s="105"/>
-      <c r="P113" s="105"/>
-      <c r="Q113" s="105"/>
-      <c r="R113" s="105"/>
-      <c r="S113" s="105"/>
-      <c r="T113" s="105"/>
-      <c r="U113" s="105"/>
-      <c r="V113" s="105"/>
+      <c r="A113" s="96"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="96"/>
+      <c r="D113" s="96"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="96"/>
+      <c r="G113" s="96"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="96"/>
+      <c r="J113" s="96"/>
+      <c r="K113" s="96"/>
+      <c r="L113" s="96"/>
+      <c r="M113" s="96"/>
+      <c r="N113" s="96"/>
+      <c r="O113" s="96"/>
+      <c r="P113" s="96"/>
+      <c r="Q113" s="96"/>
+      <c r="R113" s="96"/>
+      <c r="S113" s="96"/>
+      <c r="T113" s="96"/>
+      <c r="U113" s="96"/>
+      <c r="V113" s="96"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="105"/>
-      <c r="B114" s="105"/>
-      <c r="C114" s="105"/>
-      <c r="D114" s="105"/>
-      <c r="E114" s="105"/>
-      <c r="F114" s="105"/>
-      <c r="G114" s="105"/>
-      <c r="H114" s="105"/>
-      <c r="I114" s="105"/>
-      <c r="J114" s="105"/>
-      <c r="K114" s="105"/>
-      <c r="L114" s="105"/>
-      <c r="M114" s="105"/>
-      <c r="N114" s="105"/>
-      <c r="O114" s="105"/>
-      <c r="P114" s="105"/>
-      <c r="Q114" s="105"/>
-      <c r="R114" s="105"/>
-      <c r="S114" s="105"/>
-      <c r="T114" s="105"/>
-      <c r="U114" s="105"/>
-      <c r="V114" s="105"/>
+      <c r="A114" s="96"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="96"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="96"/>
+      <c r="G114" s="96"/>
+      <c r="H114" s="96"/>
+      <c r="I114" s="96"/>
+      <c r="J114" s="96"/>
+      <c r="K114" s="96"/>
+      <c r="L114" s="96"/>
+      <c r="M114" s="96"/>
+      <c r="N114" s="96"/>
+      <c r="O114" s="96"/>
+      <c r="P114" s="96"/>
+      <c r="Q114" s="96"/>
+      <c r="R114" s="96"/>
+      <c r="S114" s="96"/>
+      <c r="T114" s="96"/>
+      <c r="U114" s="96"/>
+      <c r="V114" s="96"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="105"/>
-      <c r="B115" s="105"/>
-      <c r="C115" s="105"/>
-      <c r="D115" s="105"/>
-      <c r="E115" s="105"/>
-      <c r="F115" s="105"/>
-      <c r="G115" s="105"/>
-      <c r="H115" s="105"/>
-      <c r="I115" s="105"/>
-      <c r="J115" s="105"/>
-      <c r="K115" s="105"/>
-      <c r="L115" s="105"/>
-      <c r="M115" s="105"/>
-      <c r="N115" s="105"/>
-      <c r="O115" s="105"/>
-      <c r="P115" s="105"/>
-      <c r="Q115" s="105"/>
-      <c r="R115" s="105"/>
-      <c r="S115" s="105"/>
-      <c r="T115" s="105"/>
-      <c r="U115" s="105"/>
-      <c r="V115" s="105"/>
+      <c r="A115" s="96"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="96"/>
+      <c r="D115" s="96"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="96"/>
+      <c r="G115" s="96"/>
+      <c r="H115" s="96"/>
+      <c r="I115" s="96"/>
+      <c r="J115" s="96"/>
+      <c r="K115" s="96"/>
+      <c r="L115" s="96"/>
+      <c r="M115" s="96"/>
+      <c r="N115" s="96"/>
+      <c r="O115" s="96"/>
+      <c r="P115" s="96"/>
+      <c r="Q115" s="96"/>
+      <c r="R115" s="96"/>
+      <c r="S115" s="96"/>
+      <c r="T115" s="96"/>
+      <c r="U115" s="96"/>
+      <c r="V115" s="96"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="105"/>
-      <c r="B116" s="105"/>
-      <c r="C116" s="105"/>
-      <c r="D116" s="105"/>
-      <c r="E116" s="105"/>
-      <c r="F116" s="105"/>
-      <c r="G116" s="105"/>
-      <c r="H116" s="105"/>
-      <c r="I116" s="105"/>
-      <c r="J116" s="105"/>
-      <c r="K116" s="105"/>
-      <c r="L116" s="105"/>
-      <c r="M116" s="105"/>
-      <c r="N116" s="105"/>
-      <c r="O116" s="105"/>
-      <c r="P116" s="105"/>
-      <c r="Q116" s="105"/>
-      <c r="R116" s="105"/>
-      <c r="S116" s="105"/>
-      <c r="T116" s="105"/>
-      <c r="U116" s="105"/>
-      <c r="V116" s="105"/>
+      <c r="A116" s="96"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="96"/>
+      <c r="D116" s="96"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="96"/>
+      <c r="G116" s="96"/>
+      <c r="H116" s="96"/>
+      <c r="I116" s="96"/>
+      <c r="J116" s="96"/>
+      <c r="K116" s="96"/>
+      <c r="L116" s="96"/>
+      <c r="M116" s="96"/>
+      <c r="N116" s="96"/>
+      <c r="O116" s="96"/>
+      <c r="P116" s="96"/>
+      <c r="Q116" s="96"/>
+      <c r="R116" s="96"/>
+      <c r="S116" s="96"/>
+      <c r="T116" s="96"/>
+      <c r="U116" s="96"/>
+      <c r="V116" s="96"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="105"/>
-      <c r="B117" s="105"/>
-      <c r="C117" s="105"/>
-      <c r="D117" s="105"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="105"/>
-      <c r="H117" s="105"/>
-      <c r="I117" s="105"/>
-      <c r="J117" s="105"/>
-      <c r="K117" s="105"/>
-      <c r="L117" s="105"/>
-      <c r="M117" s="105"/>
-      <c r="N117" s="105"/>
-      <c r="O117" s="105"/>
-      <c r="P117" s="105"/>
-      <c r="Q117" s="105"/>
-      <c r="R117" s="105"/>
-      <c r="S117" s="105"/>
-      <c r="T117" s="105"/>
-      <c r="U117" s="105"/>
-      <c r="V117" s="105"/>
+      <c r="A117" s="96"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="96"/>
+      <c r="H117" s="96"/>
+      <c r="I117" s="96"/>
+      <c r="J117" s="96"/>
+      <c r="K117" s="96"/>
+      <c r="L117" s="96"/>
+      <c r="M117" s="96"/>
+      <c r="N117" s="96"/>
+      <c r="O117" s="96"/>
+      <c r="P117" s="96"/>
+      <c r="Q117" s="96"/>
+      <c r="R117" s="96"/>
+      <c r="S117" s="96"/>
+      <c r="T117" s="96"/>
+      <c r="U117" s="96"/>
+      <c r="V117" s="96"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="105"/>
-      <c r="B118" s="105"/>
-      <c r="C118" s="105"/>
-      <c r="D118" s="105"/>
-      <c r="E118" s="105"/>
-      <c r="F118" s="105"/>
-      <c r="G118" s="105"/>
-      <c r="H118" s="105"/>
-      <c r="I118" s="105"/>
-      <c r="J118" s="105"/>
-      <c r="K118" s="105"/>
-      <c r="L118" s="105"/>
-      <c r="M118" s="105"/>
-      <c r="N118" s="105"/>
-      <c r="O118" s="105"/>
-      <c r="P118" s="105"/>
-      <c r="Q118" s="105"/>
-      <c r="R118" s="105"/>
-      <c r="S118" s="105"/>
-      <c r="T118" s="105"/>
-      <c r="U118" s="105"/>
-      <c r="V118" s="105"/>
+      <c r="A118" s="96"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="96"/>
+      <c r="D118" s="96"/>
+      <c r="E118" s="96"/>
+      <c r="F118" s="96"/>
+      <c r="G118" s="96"/>
+      <c r="H118" s="96"/>
+      <c r="I118" s="96"/>
+      <c r="J118" s="96"/>
+      <c r="K118" s="96"/>
+      <c r="L118" s="96"/>
+      <c r="M118" s="96"/>
+      <c r="N118" s="96"/>
+      <c r="O118" s="96"/>
+      <c r="P118" s="96"/>
+      <c r="Q118" s="96"/>
+      <c r="R118" s="96"/>
+      <c r="S118" s="96"/>
+      <c r="T118" s="96"/>
+      <c r="U118" s="96"/>
+      <c r="V118" s="96"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="105"/>
-      <c r="B119" s="105"/>
-      <c r="C119" s="105"/>
-      <c r="D119" s="105"/>
-      <c r="E119" s="105"/>
-      <c r="F119" s="105"/>
-      <c r="G119" s="105"/>
-      <c r="H119" s="105"/>
-      <c r="I119" s="105"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="105"/>
-      <c r="L119" s="105"/>
-      <c r="M119" s="105"/>
-      <c r="N119" s="105"/>
-      <c r="O119" s="105"/>
-      <c r="P119" s="105"/>
-      <c r="Q119" s="105"/>
-      <c r="R119" s="105"/>
-      <c r="S119" s="105"/>
-      <c r="T119" s="105"/>
-      <c r="U119" s="105"/>
-      <c r="V119" s="105"/>
+      <c r="A119" s="96"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="96"/>
+      <c r="G119" s="96"/>
+      <c r="H119" s="96"/>
+      <c r="I119" s="96"/>
+      <c r="J119" s="96"/>
+      <c r="K119" s="96"/>
+      <c r="L119" s="96"/>
+      <c r="M119" s="96"/>
+      <c r="N119" s="96"/>
+      <c r="O119" s="96"/>
+      <c r="P119" s="96"/>
+      <c r="Q119" s="96"/>
+      <c r="R119" s="96"/>
+      <c r="S119" s="96"/>
+      <c r="T119" s="96"/>
+      <c r="U119" s="96"/>
+      <c r="V119" s="96"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="105"/>
-      <c r="B120" s="105"/>
-      <c r="C120" s="105"/>
-      <c r="D120" s="105"/>
-      <c r="E120" s="105"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="105"/>
-      <c r="I120" s="105"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="105"/>
-      <c r="M120" s="105"/>
-      <c r="N120" s="105"/>
-      <c r="O120" s="105"/>
-      <c r="P120" s="105"/>
-      <c r="Q120" s="105"/>
-      <c r="R120" s="105"/>
-      <c r="S120" s="105"/>
-      <c r="T120" s="105"/>
-      <c r="U120" s="105"/>
-      <c r="V120" s="105"/>
+      <c r="A120" s="96"/>
+      <c r="B120" s="96"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+      <c r="F120" s="96"/>
+      <c r="G120" s="96"/>
+      <c r="H120" s="96"/>
+      <c r="I120" s="96"/>
+      <c r="J120" s="96"/>
+      <c r="K120" s="96"/>
+      <c r="L120" s="96"/>
+      <c r="M120" s="96"/>
+      <c r="N120" s="96"/>
+      <c r="O120" s="96"/>
+      <c r="P120" s="96"/>
+      <c r="Q120" s="96"/>
+      <c r="R120" s="96"/>
+      <c r="S120" s="96"/>
+      <c r="T120" s="96"/>
+      <c r="U120" s="96"/>
+      <c r="V120" s="96"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="105"/>
-      <c r="B121" s="105"/>
-      <c r="C121" s="105"/>
-      <c r="D121" s="105"/>
-      <c r="E121" s="105"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="105"/>
-      <c r="I121" s="105"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
-      <c r="L121" s="105"/>
-      <c r="M121" s="105"/>
-      <c r="N121" s="105"/>
-      <c r="O121" s="105"/>
-      <c r="P121" s="105"/>
-      <c r="Q121" s="105"/>
-      <c r="R121" s="105"/>
-      <c r="S121" s="105"/>
-      <c r="T121" s="105"/>
-      <c r="U121" s="105"/>
-      <c r="V121" s="105"/>
+      <c r="A121" s="96"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="96"/>
+      <c r="D121" s="96"/>
+      <c r="E121" s="96"/>
+      <c r="F121" s="96"/>
+      <c r="G121" s="96"/>
+      <c r="H121" s="96"/>
+      <c r="I121" s="96"/>
+      <c r="J121" s="96"/>
+      <c r="K121" s="96"/>
+      <c r="L121" s="96"/>
+      <c r="M121" s="96"/>
+      <c r="N121" s="96"/>
+      <c r="O121" s="96"/>
+      <c r="P121" s="96"/>
+      <c r="Q121" s="96"/>
+      <c r="R121" s="96"/>
+      <c r="S121" s="96"/>
+      <c r="T121" s="96"/>
+      <c r="U121" s="96"/>
+      <c r="V121" s="96"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="105"/>
-      <c r="B122" s="105"/>
-      <c r="C122" s="105"/>
-      <c r="D122" s="105"/>
-      <c r="E122" s="105"/>
-      <c r="F122" s="105"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="105"/>
-      <c r="I122" s="105"/>
-      <c r="J122" s="105"/>
-      <c r="K122" s="105"/>
-      <c r="L122" s="105"/>
-      <c r="M122" s="105"/>
-      <c r="N122" s="105"/>
-      <c r="O122" s="105"/>
-      <c r="P122" s="105"/>
-      <c r="Q122" s="105"/>
-      <c r="R122" s="105"/>
-      <c r="S122" s="105"/>
-      <c r="T122" s="105"/>
-      <c r="U122" s="105"/>
-      <c r="V122" s="105"/>
+      <c r="A122" s="96"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="96"/>
+      <c r="D122" s="96"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="96"/>
+      <c r="G122" s="96"/>
+      <c r="H122" s="96"/>
+      <c r="I122" s="96"/>
+      <c r="J122" s="96"/>
+      <c r="K122" s="96"/>
+      <c r="L122" s="96"/>
+      <c r="M122" s="96"/>
+      <c r="N122" s="96"/>
+      <c r="O122" s="96"/>
+      <c r="P122" s="96"/>
+      <c r="Q122" s="96"/>
+      <c r="R122" s="96"/>
+      <c r="S122" s="96"/>
+      <c r="T122" s="96"/>
+      <c r="U122" s="96"/>
+      <c r="V122" s="96"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="105"/>
-      <c r="B123" s="105"/>
-      <c r="C123" s="105"/>
-      <c r="D123" s="105"/>
-      <c r="E123" s="105"/>
-      <c r="F123" s="105"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="105"/>
-      <c r="I123" s="105"/>
-      <c r="J123" s="105"/>
-      <c r="K123" s="105"/>
-      <c r="L123" s="105"/>
-      <c r="M123" s="105"/>
-      <c r="N123" s="105"/>
-      <c r="O123" s="105"/>
-      <c r="P123" s="105"/>
-      <c r="Q123" s="105"/>
-      <c r="R123" s="105"/>
-      <c r="S123" s="105"/>
-      <c r="T123" s="105"/>
-      <c r="U123" s="105"/>
-      <c r="V123" s="105"/>
+      <c r="A123" s="96"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="96"/>
+      <c r="J123" s="96"/>
+      <c r="K123" s="96"/>
+      <c r="L123" s="96"/>
+      <c r="M123" s="96"/>
+      <c r="N123" s="96"/>
+      <c r="O123" s="96"/>
+      <c r="P123" s="96"/>
+      <c r="Q123" s="96"/>
+      <c r="R123" s="96"/>
+      <c r="S123" s="96"/>
+      <c r="T123" s="96"/>
+      <c r="U123" s="96"/>
+      <c r="V123" s="96"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="105"/>
-      <c r="B124" s="105"/>
-      <c r="C124" s="105"/>
-      <c r="D124" s="105"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="105"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="105"/>
-      <c r="M124" s="105"/>
-      <c r="N124" s="105"/>
-      <c r="O124" s="105"/>
-      <c r="P124" s="105"/>
-      <c r="Q124" s="105"/>
-      <c r="R124" s="105"/>
-      <c r="S124" s="105"/>
-      <c r="T124" s="105"/>
-      <c r="U124" s="105"/>
-      <c r="V124" s="105"/>
+      <c r="A124" s="96"/>
+      <c r="B124" s="96"/>
+      <c r="C124" s="96"/>
+      <c r="D124" s="96"/>
+      <c r="E124" s="96"/>
+      <c r="F124" s="96"/>
+      <c r="G124" s="96"/>
+      <c r="H124" s="96"/>
+      <c r="I124" s="96"/>
+      <c r="J124" s="96"/>
+      <c r="K124" s="96"/>
+      <c r="L124" s="96"/>
+      <c r="M124" s="96"/>
+      <c r="N124" s="96"/>
+      <c r="O124" s="96"/>
+      <c r="P124" s="96"/>
+      <c r="Q124" s="96"/>
+      <c r="R124" s="96"/>
+      <c r="S124" s="96"/>
+      <c r="T124" s="96"/>
+      <c r="U124" s="96"/>
+      <c r="V124" s="96"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="105"/>
-      <c r="B125" s="105"/>
-      <c r="C125" s="105"/>
-      <c r="D125" s="105"/>
-      <c r="E125" s="105"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="105"/>
-      <c r="I125" s="105"/>
-      <c r="J125" s="105"/>
-      <c r="K125" s="105"/>
-      <c r="L125" s="105"/>
-      <c r="M125" s="105"/>
-      <c r="N125" s="105"/>
-      <c r="O125" s="105"/>
-      <c r="P125" s="105"/>
-      <c r="Q125" s="105"/>
-      <c r="R125" s="105"/>
-      <c r="S125" s="105"/>
-      <c r="T125" s="105"/>
-      <c r="U125" s="105"/>
-      <c r="V125" s="105"/>
+      <c r="A125" s="96"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="96"/>
+      <c r="D125" s="96"/>
+      <c r="E125" s="96"/>
+      <c r="F125" s="96"/>
+      <c r="G125" s="96"/>
+      <c r="H125" s="96"/>
+      <c r="I125" s="96"/>
+      <c r="J125" s="96"/>
+      <c r="K125" s="96"/>
+      <c r="L125" s="96"/>
+      <c r="M125" s="96"/>
+      <c r="N125" s="96"/>
+      <c r="O125" s="96"/>
+      <c r="P125" s="96"/>
+      <c r="Q125" s="96"/>
+      <c r="R125" s="96"/>
+      <c r="S125" s="96"/>
+      <c r="T125" s="96"/>
+      <c r="U125" s="96"/>
+      <c r="V125" s="96"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="105"/>
-      <c r="B126" s="105"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="105"/>
-      <c r="M126" s="105"/>
-      <c r="N126" s="105"/>
-      <c r="O126" s="105"/>
-      <c r="P126" s="105"/>
-      <c r="Q126" s="105"/>
-      <c r="R126" s="105"/>
-      <c r="S126" s="105"/>
-      <c r="T126" s="105"/>
-      <c r="U126" s="105"/>
-      <c r="V126" s="105"/>
+      <c r="A126" s="96"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="96"/>
+      <c r="D126" s="96"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="96"/>
+      <c r="G126" s="96"/>
+      <c r="H126" s="96"/>
+      <c r="I126" s="96"/>
+      <c r="J126" s="96"/>
+      <c r="K126" s="96"/>
+      <c r="L126" s="96"/>
+      <c r="M126" s="96"/>
+      <c r="N126" s="96"/>
+      <c r="O126" s="96"/>
+      <c r="P126" s="96"/>
+      <c r="Q126" s="96"/>
+      <c r="R126" s="96"/>
+      <c r="S126" s="96"/>
+      <c r="T126" s="96"/>
+      <c r="U126" s="96"/>
+      <c r="V126" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
+++ b/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\fixability\공용폴더\주간발표자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\Desktop\fixability\공용폴더\주간발표자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,14 +27,14 @@
     <definedName name="Z_CD8AA89C_E9C0_4B5A_84A9_409329BA5C2A_.wvu.FilterData" localSheetId="1" hidden="1">'12월1주차'!$B$6:$AK$20</definedName>
     <definedName name="Z_F64BC8EB_E4C5_49CE_995F_59B1A73C0D9F_.wvu.FilterData" localSheetId="1" hidden="1">'12월1주차'!$B$6:$AK$20</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
+    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
+    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
     <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
-    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
-    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
   <si>
     <t>작업이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,11 +304,20 @@
     <t>일정 정리 및 홈페이지 구성내용 회의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>홈페이지 내용 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 레이아웃
+재 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
@@ -1219,6 +1228,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1229,6 +1283,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1237,89 +1306,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,42 +1410,6 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1503,7 +1512,7 @@
         <xdr:cNvPr id="8" name="순서도: 병합 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1578,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1927,7 @@
   <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1927,26 +1936,26 @@
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="79" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="82"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
@@ -1973,26 +1982,26 @@
       <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="76">
+      <c r="B2" s="53">
         <v>44165</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="76">
+      <c r="C2" s="54"/>
+      <c r="D2" s="53">
         <v>44166</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="76">
+      <c r="E2" s="54"/>
+      <c r="F2" s="53">
         <v>44167</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="76">
+      <c r="G2" s="54"/>
+      <c r="H2" s="53">
         <v>44169</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="76">
+      <c r="I2" s="54"/>
+      <c r="J2" s="53">
         <v>44170</v>
       </c>
-      <c r="K2" s="78"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -2019,24 +2028,24 @@
       <c r="A3" s="41">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="67"/>
+      <c r="D3" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="51" t="s">
+      <c r="E3" s="67"/>
+      <c r="F3" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="72"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
@@ -2063,16 +2072,18 @@
       <c r="A4" s="41">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
@@ -2101,8 +2112,8 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -2137,10 +2148,10 @@
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="103" t="s">
+      <c r="D6" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="104"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
@@ -2173,20 +2184,22 @@
       <c r="A7" s="44">
         <v>0.58333333333333404</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="74" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="72"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -2213,22 +2226,22 @@
       <c r="A8" s="44">
         <v>0.625</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="103" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="51" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="72"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -2255,16 +2268,16 @@
       <c r="A9" s="44">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -2291,16 +2304,16 @@
       <c r="A10" s="44">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -2327,18 +2340,18 @@
       <c r="A11" s="44">
         <v>0.75</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="103" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="72"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -2365,16 +2378,16 @@
       <c r="A12" s="44">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -2401,16 +2414,16 @@
       <c r="A13" s="47">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="99"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="78"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -2437,18 +2450,18 @@
       <c r="A14" s="47">
         <v>0.875</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="105" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="72"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
@@ -2475,16 +2488,16 @@
       <c r="A15" s="47">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="66"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="84"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
@@ -2511,16 +2524,16 @@
       <c r="A16" s="47">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="72"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -2544,19 +2557,19 @@
       <c r="AF16" s="38"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="91"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -2580,17 +2593,17 @@
       <c r="AF17" s="38"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="59"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="57"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="91"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -2614,17 +2627,17 @@
       <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="98"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="92"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -2750,19 +2763,19 @@
       <c r="AF22" s="38"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
@@ -2786,17 +2799,17 @@
       <c r="AF23" s="38"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -2820,17 +2833,17 @@
       <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -2857,16 +2870,16 @@
       <c r="A26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -2890,27 +2903,27 @@
       <c r="AF26" s="38"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55" t="s">
+      <c r="D27" s="90"/>
+      <c r="E27" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55" t="s">
+      <c r="H27" s="90"/>
+      <c r="I27" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
@@ -2934,17 +2947,17 @@
       <c r="AF27" s="38"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -2968,17 +2981,17 @@
       <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -3002,17 +3015,17 @@
       <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -3106,27 +3119,27 @@
       <c r="AF32" s="38"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55" t="s">
+      <c r="B33" s="90"/>
+      <c r="C33" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55" t="s">
+      <c r="D33" s="90"/>
+      <c r="E33" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55" t="s">
+      <c r="F33" s="90"/>
+      <c r="G33" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55" t="s">
+      <c r="H33" s="90"/>
+      <c r="I33" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
@@ -3150,17 +3163,17 @@
       <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
@@ -3184,17 +3197,17 @@
       <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -3218,17 +3231,17 @@
       <c r="AF35" s="38"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -3289,16 +3302,16 @@
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -3322,27 +3335,27 @@
       <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55" t="s">
+      <c r="B39" s="90"/>
+      <c r="C39" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55" t="s">
+      <c r="D39" s="90"/>
+      <c r="E39" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55" t="s">
+      <c r="F39" s="90"/>
+      <c r="G39" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55" t="s">
+      <c r="H39" s="90"/>
+      <c r="I39" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -3366,17 +3379,17 @@
       <c r="AF39" s="38"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -3400,17 +3413,17 @@
       <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
+      <c r="A41" s="90"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -3434,17 +3447,17 @@
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -3944,29 +3957,70 @@
       <c r="AF56" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F3:G4"/>
+  <mergeCells count="95">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="E28:F30"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="I28:K30"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B36"/>
+    <mergeCell ref="C34:D36"/>
+    <mergeCell ref="E34:F36"/>
+    <mergeCell ref="G34:H36"/>
+    <mergeCell ref="I34:K36"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="A40:B42"/>
+    <mergeCell ref="C40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:H42"/>
+    <mergeCell ref="I40:K42"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K19"/>
+    <mergeCell ref="A23:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:I19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F8:G12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="H10:I10"/>
@@ -3978,69 +4032,27 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="B8:C11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F8:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:I19"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K19"/>
-    <mergeCell ref="A23:K25"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="A40:B42"/>
-    <mergeCell ref="C40:D42"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:H42"/>
-    <mergeCell ref="I40:K42"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A34:B36"/>
-    <mergeCell ref="C34:D36"/>
-    <mergeCell ref="E34:F36"/>
-    <mergeCell ref="G34:H36"/>
-    <mergeCell ref="I34:K36"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A28:B30"/>
-    <mergeCell ref="C28:D30"/>
-    <mergeCell ref="E28:F30"/>
-    <mergeCell ref="G28:H30"/>
-    <mergeCell ref="I28:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D8:E10"/>
-    <mergeCell ref="D11:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4073,48 +4085,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:420" ht="12" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="93" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="95"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="107"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -4148,34 +4160,34 @@
       <c r="BA1" s="2"/>
     </row>
     <row r="2" spans="1:420" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88">
+      <c r="A2" s="97"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100">
         <f>I4</f>
         <v>44165</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88">
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="100">
         <f t="shared" ref="P2" si="0">P4</f>
         <v>44172</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="90"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -5250,24 +5262,24 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="23"/>
-      <c r="AD10" s="83" t="s">
+      <c r="AD10" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="95"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="95"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
     </row>
     <row r="11" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A11" s="21">
@@ -5303,22 +5315,22 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="23"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="83"/>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="83"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="83"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="83"/>
-      <c r="AO11" s="83"/>
-      <c r="AP11" s="83"/>
-      <c r="AQ11" s="83"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="83"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="95"/>
+      <c r="AM11" s="95"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
     </row>
     <row r="12" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A12" s="21">
@@ -5354,22 +5366,22 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="23"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="83"/>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="83"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
     </row>
     <row r="13" spans="1:420" ht="24" customHeight="1" outlineLevel="1">
       <c r="A13" s="21">
@@ -5405,22 +5417,22 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="23"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="83"/>
-      <c r="AI13" s="83"/>
-      <c r="AJ13" s="83"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="83"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="83"/>
-      <c r="AO13" s="83"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="83"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="83"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" s="95"/>
+      <c r="AM13" s="95"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="95"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="95"/>
     </row>
     <row r="14" spans="1:420" ht="24.75" customHeight="1">
       <c r="A14" s="21">
@@ -5456,22 +5468,22 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="23"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
-      <c r="AL14" s="83"/>
-      <c r="AM14" s="83"/>
-      <c r="AN14" s="83"/>
-      <c r="AO14" s="83"/>
-      <c r="AP14" s="83"/>
-      <c r="AQ14" s="83"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="83"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="95"/>
+      <c r="AM14" s="95"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
     </row>
     <row r="15" spans="1:420" ht="21.95" customHeight="1" outlineLevel="1">
       <c r="A15" s="21">
@@ -5714,28 +5726,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
+    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
+      <rowBreaks count="3" manualBreakCount="3">
+        <brk id="49" max="16383" man="1"/>
+        <brk id="107" max="16383" man="1"/>
+        <brk id="128" max="16383" man="1"/>
+      </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId2"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId3"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
@@ -5748,25 +5757,28 @@
       </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
-      <rowBreaks count="3" manualBreakCount="3">
-        <brk id="49" max="16383" man="1"/>
-        <brk id="107" max="16383" man="1"/>
-        <brk id="128" max="16383" man="1"/>
-      </rowBreaks>
+    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId6"/>
@@ -5833,79 +5845,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="93" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="95"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="107"/>
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="21" thickBot="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88">
+      <c r="A2" s="97"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100">
         <f>I4</f>
         <v>44172</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88">
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="100">
         <f>P4</f>
         <v>44179</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="90"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
       <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" ht="21" hidden="1" thickBot="1">
@@ -6469,6 +6481,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -6476,11 +6493,6 @@
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:V17">
@@ -6510,102 +6522,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="93" t="s">
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
     </row>
     <row r="2" spans="1:34" ht="14.25" thickBot="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88">
+      <c r="A2" s="97"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="100">
         <f>I4</f>
         <v>44172</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88">
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="100">
         <f>P4</f>
         <v>44179</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="97"/>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="97"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="97"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="109"/>
+      <c r="AH2" s="109"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="22"/>
@@ -6672,18 +6684,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
     </row>
     <row r="4" spans="1:34" ht="14.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A4" s="22"/>
@@ -6736,18 +6748,18 @@
       <c r="V4" s="32">
         <v>44185</v>
       </c>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="97"/>
-      <c r="AE4" s="97"/>
-      <c r="AF4" s="97"/>
-      <c r="AG4" s="97"/>
-      <c r="AH4" s="97"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
     </row>
     <row r="5" spans="1:34" ht="16.5">
       <c r="A5" s="20">
@@ -6782,18 +6794,18 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="24"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="109"/>
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
     </row>
     <row r="6" spans="1:34" ht="45">
       <c r="A6" s="21">
@@ -6829,18 +6841,18 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="23"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
+      <c r="W6" s="109"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="109"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="109"/>
+      <c r="AH6" s="109"/>
     </row>
     <row r="7" spans="1:34" ht="16.5">
       <c r="A7" s="21">
@@ -6876,18 +6888,18 @@
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="23"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
+      <c r="W7" s="109"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
+      <c r="AD7" s="109"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="109"/>
     </row>
     <row r="8" spans="1:34" ht="45">
       <c r="A8" s="21">
@@ -6923,18 +6935,18 @@
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="23"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="97"/>
-      <c r="Z8" s="97"/>
-      <c r="AA8" s="97"/>
-      <c r="AB8" s="97"/>
-      <c r="AC8" s="97"/>
-      <c r="AD8" s="97"/>
-      <c r="AE8" s="97"/>
-      <c r="AF8" s="97"/>
-      <c r="AG8" s="97"/>
-      <c r="AH8" s="97"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="109"/>
+      <c r="AH8" s="109"/>
     </row>
     <row r="9" spans="1:34" ht="45">
       <c r="A9" s="21">
@@ -6970,18 +6982,18 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="23"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="97"/>
-      <c r="AF9" s="97"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="97"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="109"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="109"/>
+      <c r="AF9" s="109"/>
+      <c r="AG9" s="109"/>
+      <c r="AH9" s="109"/>
     </row>
     <row r="10" spans="1:34" ht="33.75">
       <c r="A10" s="21">
@@ -7017,18 +7029,18 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="23"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="109"/>
+      <c r="AH10" s="109"/>
     </row>
     <row r="11" spans="1:34" ht="16.5">
       <c r="A11" s="37">
@@ -7060,18 +7072,18 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="23"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="109"/>
+      <c r="Y11" s="109"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="109"/>
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="109"/>
+      <c r="AD11" s="109"/>
+      <c r="AE11" s="109"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="109"/>
+      <c r="AH11" s="109"/>
     </row>
     <row r="12" spans="1:34" ht="16.5">
       <c r="A12" s="21">
@@ -7101,18 +7113,18 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="23"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="109"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="109"/>
+      <c r="AB12" s="109"/>
+      <c r="AC12" s="109"/>
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="109"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="109"/>
+      <c r="AH12" s="109"/>
     </row>
     <row r="13" spans="1:34" ht="16.5">
       <c r="A13" s="21">
@@ -7142,18 +7154,18 @@
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="23"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="109"/>
+      <c r="AC13" s="109"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="109"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="109"/>
+      <c r="AH13" s="109"/>
     </row>
     <row r="14" spans="1:34" ht="16.5">
       <c r="A14" s="21">
@@ -7183,18 +7195,18 @@
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="23"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="97"/>
-      <c r="AF14" s="97"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="97"/>
+      <c r="W14" s="109"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="109"/>
+      <c r="AB14" s="109"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="109"/>
+      <c r="AE14" s="109"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="109"/>
+      <c r="AH14" s="109"/>
     </row>
     <row r="15" spans="1:34" ht="16.5">
       <c r="A15" s="21">
@@ -7224,18 +7236,18 @@
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="23"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="109"/>
+      <c r="AA15" s="109"/>
+      <c r="AB15" s="109"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="109"/>
+      <c r="AE15" s="109"/>
+      <c r="AF15" s="109"/>
+      <c r="AG15" s="109"/>
+      <c r="AH15" s="109"/>
     </row>
     <row r="16" spans="1:34" ht="16.5">
       <c r="A16" s="21">
@@ -7265,18 +7277,18 @@
       <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="23"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="97"/>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
+      <c r="W16" s="109"/>
+      <c r="X16" s="109"/>
+      <c r="Y16" s="109"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="109"/>
+      <c r="AB16" s="109"/>
+      <c r="AC16" s="109"/>
+      <c r="AD16" s="109"/>
+      <c r="AE16" s="109"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="109"/>
+      <c r="AH16" s="109"/>
     </row>
     <row r="17" spans="1:34" ht="16.5">
       <c r="A17" s="21">
@@ -7306,3582 +7318,3582 @@
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="23"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="97"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="109"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="109"/>
+      <c r="AB17" s="109"/>
+      <c r="AC17" s="109"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="109"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="109"/>
+      <c r="AH17" s="109"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="97"/>
-      <c r="AF18" s="97"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="97"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="108"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="109"/>
+      <c r="Y18" s="109"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="109"/>
+      <c r="AC18" s="109"/>
+      <c r="AD18" s="109"/>
+      <c r="AE18" s="109"/>
+      <c r="AF18" s="109"/>
+      <c r="AG18" s="109"/>
+      <c r="AH18" s="109"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="97"/>
-      <c r="AH19" s="97"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="109"/>
+      <c r="X19" s="109"/>
+      <c r="Y19" s="109"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="109"/>
+      <c r="AB19" s="109"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="109"/>
+      <c r="AE19" s="109"/>
+      <c r="AF19" s="109"/>
+      <c r="AG19" s="109"/>
+      <c r="AH19" s="109"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="97"/>
-      <c r="AF20" s="97"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="97"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="109"/>
+      <c r="X20" s="109"/>
+      <c r="Y20" s="109"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="109"/>
+      <c r="AC20" s="109"/>
+      <c r="AD20" s="109"/>
+      <c r="AE20" s="109"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="109"/>
+      <c r="AH20" s="109"/>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="97"/>
-      <c r="AF21" s="97"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="97"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="109"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="109"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="109"/>
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="109"/>
+      <c r="AH21" s="109"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="96"/>
-      <c r="M22" s="96"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="97"/>
-      <c r="AF22" s="97"/>
-      <c r="AG22" s="97"/>
-      <c r="AH22" s="97"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="109"/>
+      <c r="X22" s="109"/>
+      <c r="Y22" s="109"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="109"/>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109"/>
+      <c r="AD22" s="109"/>
+      <c r="AE22" s="109"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="109"/>
+      <c r="AH22" s="109"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="97"/>
-      <c r="AF23" s="97"/>
-      <c r="AG23" s="97"/>
-      <c r="AH23" s="97"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="109"/>
+      <c r="X23" s="109"/>
+      <c r="Y23" s="109"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="109"/>
+      <c r="AF23" s="109"/>
+      <c r="AG23" s="109"/>
+      <c r="AH23" s="109"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="96"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="97"/>
-      <c r="AF24" s="97"/>
-      <c r="AG24" s="97"/>
-      <c r="AH24" s="97"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="109"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="109"/>
+      <c r="AF24" s="109"/>
+      <c r="AG24" s="109"/>
+      <c r="AH24" s="109"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="96"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="97"/>
-      <c r="AF25" s="97"/>
-      <c r="AG25" s="97"/>
-      <c r="AH25" s="97"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="109"/>
+      <c r="Y25" s="109"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="109"/>
+      <c r="AB25" s="109"/>
+      <c r="AC25" s="109"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="109"/>
+      <c r="AF25" s="109"/>
+      <c r="AG25" s="109"/>
+      <c r="AH25" s="109"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="96"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="97"/>
-      <c r="AF26" s="97"/>
-      <c r="AG26" s="97"/>
-      <c r="AH26" s="97"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="109"/>
+      <c r="AF26" s="109"/>
+      <c r="AG26" s="109"/>
+      <c r="AH26" s="109"/>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="96"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="97"/>
-      <c r="AF27" s="97"/>
-      <c r="AG27" s="97"/>
-      <c r="AH27" s="97"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="108"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="109"/>
+      <c r="AF27" s="109"/>
+      <c r="AG27" s="109"/>
+      <c r="AH27" s="109"/>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="96"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="97"/>
-      <c r="AH28" s="97"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="109"/>
+      <c r="AF28" s="109"/>
+      <c r="AG28" s="109"/>
+      <c r="AH28" s="109"/>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="96"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="96"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="97"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="97"/>
-      <c r="AH29" s="97"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="108"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="109"/>
+      <c r="AF29" s="109"/>
+      <c r="AG29" s="109"/>
+      <c r="AH29" s="109"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="96"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="97"/>
-      <c r="AF30" s="97"/>
-      <c r="AG30" s="97"/>
-      <c r="AH30" s="97"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="109"/>
+      <c r="AF30" s="109"/>
+      <c r="AG30" s="109"/>
+      <c r="AH30" s="109"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="96"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
-      <c r="S31" s="96"/>
-      <c r="T31" s="96"/>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="97"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="97"/>
-      <c r="AE31" s="97"/>
-      <c r="AF31" s="97"/>
-      <c r="AG31" s="97"/>
-      <c r="AH31" s="97"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="109"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="109"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="109"/>
+      <c r="AB31" s="109"/>
+      <c r="AC31" s="109"/>
+      <c r="AD31" s="109"/>
+      <c r="AE31" s="109"/>
+      <c r="AF31" s="109"/>
+      <c r="AG31" s="109"/>
+      <c r="AH31" s="109"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
-      <c r="S32" s="96"/>
-      <c r="T32" s="96"/>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="97"/>
-      <c r="Z32" s="97"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="97"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="97"/>
-      <c r="AE32" s="97"/>
-      <c r="AF32" s="97"/>
-      <c r="AG32" s="97"/>
-      <c r="AH32" s="97"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="109"/>
+      <c r="X32" s="109"/>
+      <c r="Y32" s="109"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="109"/>
+      <c r="AB32" s="109"/>
+      <c r="AC32" s="109"/>
+      <c r="AD32" s="109"/>
+      <c r="AE32" s="109"/>
+      <c r="AF32" s="109"/>
+      <c r="AG32" s="109"/>
+      <c r="AH32" s="109"/>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="96"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="97"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="97"/>
-      <c r="AH33" s="97"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="109"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="109"/>
     </row>
     <row r="34" spans="1:34">
-      <c r="A34" s="96"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="97"/>
-      <c r="AB34" s="97"/>
-      <c r="AC34" s="97"/>
-      <c r="AD34" s="97"/>
-      <c r="AE34" s="97"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="97"/>
-      <c r="AH34" s="97"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="109"/>
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109"/>
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="109"/>
+      <c r="AB34" s="109"/>
+      <c r="AC34" s="109"/>
+      <c r="AD34" s="109"/>
+      <c r="AE34" s="109"/>
+      <c r="AF34" s="109"/>
+      <c r="AG34" s="109"/>
+      <c r="AH34" s="109"/>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="96"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
-      <c r="S35" s="96"/>
-      <c r="T35" s="96"/>
-      <c r="U35" s="96"/>
-      <c r="V35" s="96"/>
-      <c r="W35" s="97"/>
-      <c r="X35" s="97"/>
-      <c r="Y35" s="97"/>
-      <c r="Z35" s="97"/>
-      <c r="AA35" s="97"/>
-      <c r="AB35" s="97"/>
-      <c r="AC35" s="97"/>
-      <c r="AD35" s="97"/>
-      <c r="AE35" s="97"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="97"/>
-      <c r="AH35" s="97"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
+      <c r="AH35" s="109"/>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="96"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
-      <c r="T36" s="96"/>
-      <c r="U36" s="96"/>
-      <c r="V36" s="96"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="108"/>
+      <c r="D36" s="108"/>
+      <c r="E36" s="108"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="108"/>
+      <c r="R36" s="108"/>
+      <c r="S36" s="108"/>
+      <c r="T36" s="108"/>
+      <c r="U36" s="108"/>
+      <c r="V36" s="108"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="109"/>
+      <c r="AG36" s="109"/>
+      <c r="AH36" s="109"/>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="96"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="109"/>
+      <c r="Z37" s="109"/>
+      <c r="AA37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="109"/>
+      <c r="AD37" s="109"/>
+      <c r="AE37" s="109"/>
+      <c r="AF37" s="109"/>
+      <c r="AG37" s="109"/>
+      <c r="AH37" s="109"/>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="96"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="108"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="108"/>
+      <c r="M38" s="108"/>
+      <c r="N38" s="108"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="108"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="109"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
+      <c r="AE38" s="109"/>
+      <c r="AF38" s="109"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="109"/>
     </row>
     <row r="39" spans="1:34">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="97"/>
-      <c r="X39" s="97"/>
-      <c r="Y39" s="97"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="97"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="97"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="97"/>
-      <c r="AH39" s="97"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+      <c r="T39" s="108"/>
+      <c r="U39" s="108"/>
+      <c r="V39" s="108"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
+      <c r="AE39" s="109"/>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="109"/>
+      <c r="AH39" s="109"/>
     </row>
     <row r="40" spans="1:34">
-      <c r="A40" s="96"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="96"/>
-      <c r="W40" s="97"/>
-      <c r="X40" s="97"/>
-      <c r="Y40" s="97"/>
-      <c r="Z40" s="97"/>
-      <c r="AA40" s="97"/>
-      <c r="AB40" s="97"/>
-      <c r="AC40" s="97"/>
-      <c r="AD40" s="97"/>
-      <c r="AE40" s="97"/>
-      <c r="AF40" s="97"/>
-      <c r="AG40" s="97"/>
-      <c r="AH40" s="97"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+      <c r="T40" s="108"/>
+      <c r="U40" s="108"/>
+      <c r="V40" s="108"/>
+      <c r="W40" s="109"/>
+      <c r="X40" s="109"/>
+      <c r="Y40" s="109"/>
+      <c r="Z40" s="109"/>
+      <c r="AA40" s="109"/>
+      <c r="AB40" s="109"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="109"/>
+      <c r="AE40" s="109"/>
+      <c r="AF40" s="109"/>
+      <c r="AG40" s="109"/>
+      <c r="AH40" s="109"/>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="96"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="96"/>
-      <c r="W41" s="97"/>
-      <c r="X41" s="97"/>
-      <c r="Y41" s="97"/>
-      <c r="Z41" s="97"/>
-      <c r="AA41" s="97"/>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
-      <c r="AF41" s="97"/>
-      <c r="AG41" s="97"/>
-      <c r="AH41" s="97"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+      <c r="T41" s="108"/>
+      <c r="U41" s="108"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="109"/>
+      <c r="AF41" s="109"/>
+      <c r="AG41" s="109"/>
+      <c r="AH41" s="109"/>
     </row>
     <row r="42" spans="1:34">
-      <c r="A42" s="96"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="97"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
-      <c r="AG42" s="97"/>
-      <c r="AH42" s="97"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
+      <c r="N42" s="108"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="108"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="108"/>
+      <c r="T42" s="108"/>
+      <c r="U42" s="108"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="109"/>
+      <c r="X42" s="109"/>
+      <c r="Y42" s="109"/>
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109"/>
+      <c r="AE42" s="109"/>
+      <c r="AF42" s="109"/>
+      <c r="AG42" s="109"/>
+      <c r="AH42" s="109"/>
     </row>
     <row r="43" spans="1:34">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96"/>
-      <c r="V43" s="96"/>
-      <c r="W43" s="97"/>
-      <c r="X43" s="97"/>
-      <c r="Y43" s="97"/>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="97"/>
-      <c r="AB43" s="97"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="97"/>
-      <c r="AE43" s="97"/>
-      <c r="AF43" s="97"/>
-      <c r="AG43" s="97"/>
-      <c r="AH43" s="97"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="108"/>
+      <c r="M43" s="108"/>
+      <c r="N43" s="108"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="108"/>
+      <c r="R43" s="108"/>
+      <c r="S43" s="108"/>
+      <c r="T43" s="108"/>
+      <c r="U43" s="108"/>
+      <c r="V43" s="108"/>
+      <c r="W43" s="109"/>
+      <c r="X43" s="109"/>
+      <c r="Y43" s="109"/>
+      <c r="Z43" s="109"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="109"/>
+      <c r="AC43" s="109"/>
+      <c r="AD43" s="109"/>
+      <c r="AE43" s="109"/>
+      <c r="AF43" s="109"/>
+      <c r="AG43" s="109"/>
+      <c r="AH43" s="109"/>
     </row>
     <row r="44" spans="1:34">
-      <c r="A44" s="96"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
-      <c r="AE44" s="97"/>
-      <c r="AF44" s="97"/>
-      <c r="AG44" s="97"/>
-      <c r="AH44" s="97"/>
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="108"/>
+      <c r="L44" s="108"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+      <c r="T44" s="108"/>
+      <c r="U44" s="108"/>
+      <c r="V44" s="108"/>
+      <c r="W44" s="109"/>
+      <c r="X44" s="109"/>
+      <c r="Y44" s="109"/>
+      <c r="Z44" s="109"/>
+      <c r="AA44" s="109"/>
+      <c r="AB44" s="109"/>
+      <c r="AC44" s="109"/>
+      <c r="AD44" s="109"/>
+      <c r="AE44" s="109"/>
+      <c r="AF44" s="109"/>
+      <c r="AG44" s="109"/>
+      <c r="AH44" s="109"/>
     </row>
     <row r="45" spans="1:34">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="96"/>
-      <c r="R45" s="96"/>
-      <c r="S45" s="96"/>
-      <c r="T45" s="96"/>
-      <c r="U45" s="96"/>
-      <c r="V45" s="96"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="97"/>
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="97"/>
-      <c r="AC45" s="97"/>
-      <c r="AD45" s="97"/>
-      <c r="AE45" s="97"/>
-      <c r="AF45" s="97"/>
-      <c r="AG45" s="97"/>
-      <c r="AH45" s="97"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="108"/>
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="109"/>
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="109"/>
+      <c r="AG45" s="109"/>
+      <c r="AH45" s="109"/>
     </row>
     <row r="46" spans="1:34">
-      <c r="A46" s="96"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="97"/>
-      <c r="X46" s="97"/>
-      <c r="Y46" s="97"/>
-      <c r="Z46" s="97"/>
-      <c r="AA46" s="97"/>
-      <c r="AB46" s="97"/>
-      <c r="AC46" s="97"/>
-      <c r="AD46" s="97"/>
-      <c r="AE46" s="97"/>
-      <c r="AF46" s="97"/>
-      <c r="AG46" s="97"/>
-      <c r="AH46" s="97"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="108"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="109"/>
+      <c r="X46" s="109"/>
+      <c r="Y46" s="109"/>
+      <c r="Z46" s="109"/>
+      <c r="AA46" s="109"/>
+      <c r="AB46" s="109"/>
+      <c r="AC46" s="109"/>
+      <c r="AD46" s="109"/>
+      <c r="AE46" s="109"/>
+      <c r="AF46" s="109"/>
+      <c r="AG46" s="109"/>
+      <c r="AH46" s="109"/>
     </row>
     <row r="47" spans="1:34">
-      <c r="A47" s="96"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96"/>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="96"/>
-      <c r="S47" s="96"/>
-      <c r="T47" s="96"/>
-      <c r="U47" s="96"/>
-      <c r="V47" s="96"/>
-      <c r="W47" s="97"/>
-      <c r="X47" s="97"/>
-      <c r="Y47" s="97"/>
-      <c r="Z47" s="97"/>
-      <c r="AA47" s="97"/>
-      <c r="AB47" s="97"/>
-      <c r="AC47" s="97"/>
-      <c r="AD47" s="97"/>
-      <c r="AE47" s="97"/>
-      <c r="AF47" s="97"/>
-      <c r="AG47" s="97"/>
-      <c r="AH47" s="97"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="109"/>
+      <c r="X47" s="109"/>
+      <c r="Y47" s="109"/>
+      <c r="Z47" s="109"/>
+      <c r="AA47" s="109"/>
+      <c r="AB47" s="109"/>
+      <c r="AC47" s="109"/>
+      <c r="AD47" s="109"/>
+      <c r="AE47" s="109"/>
+      <c r="AF47" s="109"/>
+      <c r="AG47" s="109"/>
+      <c r="AH47" s="109"/>
     </row>
     <row r="48" spans="1:34">
-      <c r="A48" s="96"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="96"/>
-      <c r="S48" s="96"/>
-      <c r="T48" s="96"/>
-      <c r="U48" s="96"/>
-      <c r="V48" s="96"/>
-      <c r="W48" s="97"/>
-      <c r="X48" s="97"/>
-      <c r="Y48" s="97"/>
-      <c r="Z48" s="97"/>
-      <c r="AA48" s="97"/>
-      <c r="AB48" s="97"/>
-      <c r="AC48" s="97"/>
-      <c r="AD48" s="97"/>
-      <c r="AE48" s="97"/>
-      <c r="AF48" s="97"/>
-      <c r="AG48" s="97"/>
-      <c r="AH48" s="97"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="108"/>
+      <c r="V48" s="108"/>
+      <c r="W48" s="109"/>
+      <c r="X48" s="109"/>
+      <c r="Y48" s="109"/>
+      <c r="Z48" s="109"/>
+      <c r="AA48" s="109"/>
+      <c r="AB48" s="109"/>
+      <c r="AC48" s="109"/>
+      <c r="AD48" s="109"/>
+      <c r="AE48" s="109"/>
+      <c r="AF48" s="109"/>
+      <c r="AG48" s="109"/>
+      <c r="AH48" s="109"/>
     </row>
     <row r="49" spans="1:34">
-      <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
-      <c r="P49" s="96"/>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="96"/>
-      <c r="S49" s="96"/>
-      <c r="T49" s="96"/>
-      <c r="U49" s="96"/>
-      <c r="V49" s="96"/>
-      <c r="W49" s="97"/>
-      <c r="X49" s="97"/>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="97"/>
-      <c r="AA49" s="97"/>
-      <c r="AB49" s="97"/>
-      <c r="AC49" s="97"/>
-      <c r="AD49" s="97"/>
-      <c r="AE49" s="97"/>
-      <c r="AF49" s="97"/>
-      <c r="AG49" s="97"/>
-      <c r="AH49" s="97"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="108"/>
+      <c r="U49" s="108"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="109"/>
+      <c r="X49" s="109"/>
+      <c r="Y49" s="109"/>
+      <c r="Z49" s="109"/>
+      <c r="AA49" s="109"/>
+      <c r="AB49" s="109"/>
+      <c r="AC49" s="109"/>
+      <c r="AD49" s="109"/>
+      <c r="AE49" s="109"/>
+      <c r="AF49" s="109"/>
+      <c r="AG49" s="109"/>
+      <c r="AH49" s="109"/>
     </row>
     <row r="50" spans="1:34">
-      <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="96"/>
-      <c r="R50" s="96"/>
-      <c r="S50" s="96"/>
-      <c r="T50" s="96"/>
-      <c r="U50" s="96"/>
-      <c r="V50" s="96"/>
-      <c r="W50" s="97"/>
-      <c r="X50" s="97"/>
-      <c r="Y50" s="97"/>
-      <c r="Z50" s="97"/>
-      <c r="AA50" s="97"/>
-      <c r="AB50" s="97"/>
-      <c r="AC50" s="97"/>
-      <c r="AD50" s="97"/>
-      <c r="AE50" s="97"/>
-      <c r="AF50" s="97"/>
-      <c r="AG50" s="97"/>
-      <c r="AH50" s="97"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="108"/>
+      <c r="T50" s="108"/>
+      <c r="U50" s="108"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="109"/>
+      <c r="X50" s="109"/>
+      <c r="Y50" s="109"/>
+      <c r="Z50" s="109"/>
+      <c r="AA50" s="109"/>
+      <c r="AB50" s="109"/>
+      <c r="AC50" s="109"/>
+      <c r="AD50" s="109"/>
+      <c r="AE50" s="109"/>
+      <c r="AF50" s="109"/>
+      <c r="AG50" s="109"/>
+      <c r="AH50" s="109"/>
     </row>
     <row r="51" spans="1:34">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="96"/>
-      <c r="U51" s="96"/>
-      <c r="V51" s="96"/>
-      <c r="W51" s="97"/>
-      <c r="X51" s="97"/>
-      <c r="Y51" s="97"/>
-      <c r="Z51" s="97"/>
-      <c r="AA51" s="97"/>
-      <c r="AB51" s="97"/>
-      <c r="AC51" s="97"/>
-      <c r="AD51" s="97"/>
-      <c r="AE51" s="97"/>
-      <c r="AF51" s="97"/>
-      <c r="AG51" s="97"/>
-      <c r="AH51" s="97"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="108"/>
+      <c r="O51" s="108"/>
+      <c r="P51" s="108"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="108"/>
+      <c r="T51" s="108"/>
+      <c r="U51" s="108"/>
+      <c r="V51" s="108"/>
+      <c r="W51" s="109"/>
+      <c r="X51" s="109"/>
+      <c r="Y51" s="109"/>
+      <c r="Z51" s="109"/>
+      <c r="AA51" s="109"/>
+      <c r="AB51" s="109"/>
+      <c r="AC51" s="109"/>
+      <c r="AD51" s="109"/>
+      <c r="AE51" s="109"/>
+      <c r="AF51" s="109"/>
+      <c r="AG51" s="109"/>
+      <c r="AH51" s="109"/>
     </row>
     <row r="52" spans="1:34">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
-      <c r="L52" s="96"/>
-      <c r="M52" s="96"/>
-      <c r="N52" s="96"/>
-      <c r="O52" s="96"/>
-      <c r="P52" s="96"/>
-      <c r="Q52" s="96"/>
-      <c r="R52" s="96"/>
-      <c r="S52" s="96"/>
-      <c r="T52" s="96"/>
-      <c r="U52" s="96"/>
-      <c r="V52" s="96"/>
-      <c r="W52" s="97"/>
-      <c r="X52" s="97"/>
-      <c r="Y52" s="97"/>
-      <c r="Z52" s="97"/>
-      <c r="AA52" s="97"/>
-      <c r="AB52" s="97"/>
-      <c r="AC52" s="97"/>
-      <c r="AD52" s="97"/>
-      <c r="AE52" s="97"/>
-      <c r="AF52" s="97"/>
-      <c r="AG52" s="97"/>
-      <c r="AH52" s="97"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="108"/>
+      <c r="P52" s="108"/>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="108"/>
+      <c r="W52" s="109"/>
+      <c r="X52" s="109"/>
+      <c r="Y52" s="109"/>
+      <c r="Z52" s="109"/>
+      <c r="AA52" s="109"/>
+      <c r="AB52" s="109"/>
+      <c r="AC52" s="109"/>
+      <c r="AD52" s="109"/>
+      <c r="AE52" s="109"/>
+      <c r="AF52" s="109"/>
+      <c r="AG52" s="109"/>
+      <c r="AH52" s="109"/>
     </row>
     <row r="53" spans="1:34">
-      <c r="A53" s="96"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="96"/>
-      <c r="U53" s="96"/>
-      <c r="V53" s="96"/>
-      <c r="W53" s="97"/>
-      <c r="X53" s="97"/>
-      <c r="Y53" s="97"/>
-      <c r="Z53" s="97"/>
-      <c r="AA53" s="97"/>
-      <c r="AB53" s="97"/>
-      <c r="AC53" s="97"/>
-      <c r="AD53" s="97"/>
-      <c r="AE53" s="97"/>
-      <c r="AF53" s="97"/>
-      <c r="AG53" s="97"/>
-      <c r="AH53" s="97"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="108"/>
+      <c r="N53" s="108"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="108"/>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="108"/>
+      <c r="T53" s="108"/>
+      <c r="U53" s="108"/>
+      <c r="V53" s="108"/>
+      <c r="W53" s="109"/>
+      <c r="X53" s="109"/>
+      <c r="Y53" s="109"/>
+      <c r="Z53" s="109"/>
+      <c r="AA53" s="109"/>
+      <c r="AB53" s="109"/>
+      <c r="AC53" s="109"/>
+      <c r="AD53" s="109"/>
+      <c r="AE53" s="109"/>
+      <c r="AF53" s="109"/>
+      <c r="AG53" s="109"/>
+      <c r="AH53" s="109"/>
     </row>
     <row r="54" spans="1:34">
-      <c r="A54" s="96"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="96"/>
-      <c r="J54" s="96"/>
-      <c r="K54" s="96"/>
-      <c r="L54" s="96"/>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="96"/>
-      <c r="U54" s="96"/>
-      <c r="V54" s="96"/>
-      <c r="W54" s="97"/>
-      <c r="X54" s="97"/>
-      <c r="Y54" s="97"/>
-      <c r="Z54" s="97"/>
-      <c r="AA54" s="97"/>
-      <c r="AB54" s="97"/>
-      <c r="AC54" s="97"/>
-      <c r="AD54" s="97"/>
-      <c r="AE54" s="97"/>
-      <c r="AF54" s="97"/>
-      <c r="AG54" s="97"/>
-      <c r="AH54" s="97"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="108"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="108"/>
+      <c r="T54" s="108"/>
+      <c r="U54" s="108"/>
+      <c r="V54" s="108"/>
+      <c r="W54" s="109"/>
+      <c r="X54" s="109"/>
+      <c r="Y54" s="109"/>
+      <c r="Z54" s="109"/>
+      <c r="AA54" s="109"/>
+      <c r="AB54" s="109"/>
+      <c r="AC54" s="109"/>
+      <c r="AD54" s="109"/>
+      <c r="AE54" s="109"/>
+      <c r="AF54" s="109"/>
+      <c r="AG54" s="109"/>
+      <c r="AH54" s="109"/>
     </row>
     <row r="55" spans="1:34">
-      <c r="A55" s="96"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="96"/>
-      <c r="U55" s="96"/>
-      <c r="V55" s="96"/>
-      <c r="W55" s="97"/>
-      <c r="X55" s="97"/>
-      <c r="Y55" s="97"/>
-      <c r="Z55" s="97"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="97"/>
-      <c r="AC55" s="97"/>
-      <c r="AD55" s="97"/>
-      <c r="AE55" s="97"/>
-      <c r="AF55" s="97"/>
-      <c r="AG55" s="97"/>
-      <c r="AH55" s="97"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="108"/>
+      <c r="L55" s="108"/>
+      <c r="M55" s="108"/>
+      <c r="N55" s="108"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="108"/>
+      <c r="Q55" s="108"/>
+      <c r="R55" s="108"/>
+      <c r="S55" s="108"/>
+      <c r="T55" s="108"/>
+      <c r="U55" s="108"/>
+      <c r="V55" s="108"/>
+      <c r="W55" s="109"/>
+      <c r="X55" s="109"/>
+      <c r="Y55" s="109"/>
+      <c r="Z55" s="109"/>
+      <c r="AA55" s="109"/>
+      <c r="AB55" s="109"/>
+      <c r="AC55" s="109"/>
+      <c r="AD55" s="109"/>
+      <c r="AE55" s="109"/>
+      <c r="AF55" s="109"/>
+      <c r="AG55" s="109"/>
+      <c r="AH55" s="109"/>
     </row>
     <row r="56" spans="1:34">
-      <c r="A56" s="96"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="96"/>
-      <c r="T56" s="96"/>
-      <c r="U56" s="96"/>
-      <c r="V56" s="96"/>
-      <c r="W56" s="97"/>
-      <c r="X56" s="97"/>
-      <c r="Y56" s="97"/>
-      <c r="Z56" s="97"/>
-      <c r="AA56" s="97"/>
-      <c r="AB56" s="97"/>
-      <c r="AC56" s="97"/>
-      <c r="AD56" s="97"/>
-      <c r="AE56" s="97"/>
-      <c r="AF56" s="97"/>
-      <c r="AG56" s="97"/>
-      <c r="AH56" s="97"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="108"/>
+      <c r="Q56" s="108"/>
+      <c r="R56" s="108"/>
+      <c r="S56" s="108"/>
+      <c r="T56" s="108"/>
+      <c r="U56" s="108"/>
+      <c r="V56" s="108"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="109"/>
+      <c r="Y56" s="109"/>
+      <c r="Z56" s="109"/>
+      <c r="AA56" s="109"/>
+      <c r="AB56" s="109"/>
+      <c r="AC56" s="109"/>
+      <c r="AD56" s="109"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="109"/>
+      <c r="AG56" s="109"/>
+      <c r="AH56" s="109"/>
     </row>
     <row r="57" spans="1:34">
-      <c r="A57" s="96"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="96"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="97"/>
-      <c r="X57" s="97"/>
-      <c r="Y57" s="97"/>
-      <c r="Z57" s="97"/>
-      <c r="AA57" s="97"/>
-      <c r="AB57" s="97"/>
-      <c r="AC57" s="97"/>
-      <c r="AD57" s="97"/>
-      <c r="AE57" s="97"/>
-      <c r="AF57" s="97"/>
-      <c r="AG57" s="97"/>
-      <c r="AH57" s="97"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+      <c r="J57" s="108"/>
+      <c r="K57" s="108"/>
+      <c r="L57" s="108"/>
+      <c r="M57" s="108"/>
+      <c r="N57" s="108"/>
+      <c r="O57" s="108"/>
+      <c r="P57" s="108"/>
+      <c r="Q57" s="108"/>
+      <c r="R57" s="108"/>
+      <c r="S57" s="108"/>
+      <c r="T57" s="108"/>
+      <c r="U57" s="108"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="109"/>
+      <c r="X57" s="109"/>
+      <c r="Y57" s="109"/>
+      <c r="Z57" s="109"/>
+      <c r="AA57" s="109"/>
+      <c r="AB57" s="109"/>
+      <c r="AC57" s="109"/>
+      <c r="AD57" s="109"/>
+      <c r="AE57" s="109"/>
+      <c r="AF57" s="109"/>
+      <c r="AG57" s="109"/>
+      <c r="AH57" s="109"/>
     </row>
     <row r="58" spans="1:34">
-      <c r="A58" s="96"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="96"/>
-      <c r="J58" s="96"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="96"/>
-      <c r="S58" s="96"/>
-      <c r="T58" s="96"/>
-      <c r="U58" s="96"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="97"/>
-      <c r="X58" s="97"/>
-      <c r="Y58" s="97"/>
-      <c r="Z58" s="97"/>
-      <c r="AA58" s="97"/>
-      <c r="AB58" s="97"/>
-      <c r="AC58" s="97"/>
-      <c r="AD58" s="97"/>
-      <c r="AE58" s="97"/>
-      <c r="AF58" s="97"/>
-      <c r="AG58" s="97"/>
-      <c r="AH58" s="97"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="108"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="108"/>
+      <c r="Q58" s="108"/>
+      <c r="R58" s="108"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="108"/>
+      <c r="U58" s="108"/>
+      <c r="V58" s="108"/>
+      <c r="W58" s="109"/>
+      <c r="X58" s="109"/>
+      <c r="Y58" s="109"/>
+      <c r="Z58" s="109"/>
+      <c r="AA58" s="109"/>
+      <c r="AB58" s="109"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="109"/>
+      <c r="AE58" s="109"/>
+      <c r="AF58" s="109"/>
+      <c r="AG58" s="109"/>
+      <c r="AH58" s="109"/>
     </row>
     <row r="59" spans="1:34">
-      <c r="A59" s="96"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="96"/>
-      <c r="U59" s="96"/>
-      <c r="V59" s="96"/>
-      <c r="W59" s="97"/>
-      <c r="X59" s="97"/>
-      <c r="Y59" s="97"/>
-      <c r="Z59" s="97"/>
-      <c r="AA59" s="97"/>
-      <c r="AB59" s="97"/>
-      <c r="AC59" s="97"/>
-      <c r="AD59" s="97"/>
-      <c r="AE59" s="97"/>
-      <c r="AF59" s="97"/>
-      <c r="AG59" s="97"/>
-      <c r="AH59" s="97"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="108"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+      <c r="R59" s="108"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="108"/>
+      <c r="W59" s="109"/>
+      <c r="X59" s="109"/>
+      <c r="Y59" s="109"/>
+      <c r="Z59" s="109"/>
+      <c r="AA59" s="109"/>
+      <c r="AB59" s="109"/>
+      <c r="AC59" s="109"/>
+      <c r="AD59" s="109"/>
+      <c r="AE59" s="109"/>
+      <c r="AF59" s="109"/>
+      <c r="AG59" s="109"/>
+      <c r="AH59" s="109"/>
     </row>
     <row r="60" spans="1:34">
-      <c r="A60" s="96"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="96"/>
-      <c r="S60" s="96"/>
-      <c r="T60" s="96"/>
-      <c r="U60" s="96"/>
-      <c r="V60" s="96"/>
-      <c r="W60" s="97"/>
-      <c r="X60" s="97"/>
-      <c r="Y60" s="97"/>
-      <c r="Z60" s="97"/>
-      <c r="AA60" s="97"/>
-      <c r="AB60" s="97"/>
-      <c r="AC60" s="97"/>
-      <c r="AD60" s="97"/>
-      <c r="AE60" s="97"/>
-      <c r="AF60" s="97"/>
-      <c r="AG60" s="97"/>
-      <c r="AH60" s="97"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="108"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="108"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="108"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="109"/>
+      <c r="X60" s="109"/>
+      <c r="Y60" s="109"/>
+      <c r="Z60" s="109"/>
+      <c r="AA60" s="109"/>
+      <c r="AB60" s="109"/>
+      <c r="AC60" s="109"/>
+      <c r="AD60" s="109"/>
+      <c r="AE60" s="109"/>
+      <c r="AF60" s="109"/>
+      <c r="AG60" s="109"/>
+      <c r="AH60" s="109"/>
     </row>
     <row r="61" spans="1:34">
-      <c r="A61" s="96"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="96"/>
-      <c r="U61" s="96"/>
-      <c r="V61" s="96"/>
-      <c r="W61" s="97"/>
-      <c r="X61" s="97"/>
-      <c r="Y61" s="97"/>
-      <c r="Z61" s="97"/>
-      <c r="AA61" s="97"/>
-      <c r="AB61" s="97"/>
-      <c r="AC61" s="97"/>
-      <c r="AD61" s="97"/>
-      <c r="AE61" s="97"/>
-      <c r="AF61" s="97"/>
-      <c r="AG61" s="97"/>
-      <c r="AH61" s="97"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="108"/>
+      <c r="J61" s="108"/>
+      <c r="K61" s="108"/>
+      <c r="L61" s="108"/>
+      <c r="M61" s="108"/>
+      <c r="N61" s="108"/>
+      <c r="O61" s="108"/>
+      <c r="P61" s="108"/>
+      <c r="Q61" s="108"/>
+      <c r="R61" s="108"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="108"/>
+      <c r="U61" s="108"/>
+      <c r="V61" s="108"/>
+      <c r="W61" s="109"/>
+      <c r="X61" s="109"/>
+      <c r="Y61" s="109"/>
+      <c r="Z61" s="109"/>
+      <c r="AA61" s="109"/>
+      <c r="AB61" s="109"/>
+      <c r="AC61" s="109"/>
+      <c r="AD61" s="109"/>
+      <c r="AE61" s="109"/>
+      <c r="AF61" s="109"/>
+      <c r="AG61" s="109"/>
+      <c r="AH61" s="109"/>
     </row>
     <row r="62" spans="1:34">
-      <c r="A62" s="96"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="96"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="96"/>
-      <c r="H62" s="96"/>
-      <c r="I62" s="96"/>
-      <c r="J62" s="96"/>
-      <c r="K62" s="96"/>
-      <c r="L62" s="96"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="96"/>
-      <c r="O62" s="96"/>
-      <c r="P62" s="96"/>
-      <c r="Q62" s="96"/>
-      <c r="R62" s="96"/>
-      <c r="S62" s="96"/>
-      <c r="T62" s="96"/>
-      <c r="U62" s="96"/>
-      <c r="V62" s="96"/>
-      <c r="W62" s="97"/>
-      <c r="X62" s="97"/>
-      <c r="Y62" s="97"/>
-      <c r="Z62" s="97"/>
-      <c r="AA62" s="97"/>
-      <c r="AB62" s="97"/>
-      <c r="AC62" s="97"/>
-      <c r="AD62" s="97"/>
-      <c r="AE62" s="97"/>
-      <c r="AF62" s="97"/>
-      <c r="AG62" s="97"/>
-      <c r="AH62" s="97"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="108"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="108"/>
+      <c r="J62" s="108"/>
+      <c r="K62" s="108"/>
+      <c r="L62" s="108"/>
+      <c r="M62" s="108"/>
+      <c r="N62" s="108"/>
+      <c r="O62" s="108"/>
+      <c r="P62" s="108"/>
+      <c r="Q62" s="108"/>
+      <c r="R62" s="108"/>
+      <c r="S62" s="108"/>
+      <c r="T62" s="108"/>
+      <c r="U62" s="108"/>
+      <c r="V62" s="108"/>
+      <c r="W62" s="109"/>
+      <c r="X62" s="109"/>
+      <c r="Y62" s="109"/>
+      <c r="Z62" s="109"/>
+      <c r="AA62" s="109"/>
+      <c r="AB62" s="109"/>
+      <c r="AC62" s="109"/>
+      <c r="AD62" s="109"/>
+      <c r="AE62" s="109"/>
+      <c r="AF62" s="109"/>
+      <c r="AG62" s="109"/>
+      <c r="AH62" s="109"/>
     </row>
     <row r="63" spans="1:34">
-      <c r="A63" s="96"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="96"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="96"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="96"/>
-      <c r="J63" s="96"/>
-      <c r="K63" s="96"/>
-      <c r="L63" s="96"/>
-      <c r="M63" s="96"/>
-      <c r="N63" s="96"/>
-      <c r="O63" s="96"/>
-      <c r="P63" s="96"/>
-      <c r="Q63" s="96"/>
-      <c r="R63" s="96"/>
-      <c r="S63" s="96"/>
-      <c r="T63" s="96"/>
-      <c r="U63" s="96"/>
-      <c r="V63" s="96"/>
-      <c r="W63" s="97"/>
-      <c r="X63" s="97"/>
-      <c r="Y63" s="97"/>
-      <c r="Z63" s="97"/>
-      <c r="AA63" s="97"/>
-      <c r="AB63" s="97"/>
-      <c r="AC63" s="97"/>
-      <c r="AD63" s="97"/>
-      <c r="AE63" s="97"/>
-      <c r="AF63" s="97"/>
-      <c r="AG63" s="97"/>
-      <c r="AH63" s="97"/>
+      <c r="A63" s="108"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="108"/>
+      <c r="D63" s="108"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="108"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+      <c r="J63" s="108"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="108"/>
+      <c r="M63" s="108"/>
+      <c r="N63" s="108"/>
+      <c r="O63" s="108"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="108"/>
+      <c r="R63" s="108"/>
+      <c r="S63" s="108"/>
+      <c r="T63" s="108"/>
+      <c r="U63" s="108"/>
+      <c r="V63" s="108"/>
+      <c r="W63" s="109"/>
+      <c r="X63" s="109"/>
+      <c r="Y63" s="109"/>
+      <c r="Z63" s="109"/>
+      <c r="AA63" s="109"/>
+      <c r="AB63" s="109"/>
+      <c r="AC63" s="109"/>
+      <c r="AD63" s="109"/>
+      <c r="AE63" s="109"/>
+      <c r="AF63" s="109"/>
+      <c r="AG63" s="109"/>
+      <c r="AH63" s="109"/>
     </row>
     <row r="64" spans="1:34">
-      <c r="A64" s="96"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="96"/>
-      <c r="E64" s="96"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="96"/>
-      <c r="H64" s="96"/>
-      <c r="I64" s="96"/>
-      <c r="J64" s="96"/>
-      <c r="K64" s="96"/>
-      <c r="L64" s="96"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="96"/>
-      <c r="O64" s="96"/>
-      <c r="P64" s="96"/>
-      <c r="Q64" s="96"/>
-      <c r="R64" s="96"/>
-      <c r="S64" s="96"/>
-      <c r="T64" s="96"/>
-      <c r="U64" s="96"/>
-      <c r="V64" s="96"/>
-      <c r="W64" s="97"/>
-      <c r="X64" s="97"/>
-      <c r="Y64" s="97"/>
-      <c r="Z64" s="97"/>
-      <c r="AA64" s="97"/>
-      <c r="AB64" s="97"/>
-      <c r="AC64" s="97"/>
-      <c r="AD64" s="97"/>
-      <c r="AE64" s="97"/>
-      <c r="AF64" s="97"/>
-      <c r="AG64" s="97"/>
-      <c r="AH64" s="97"/>
+      <c r="A64" s="108"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="108"/>
+      <c r="L64" s="108"/>
+      <c r="M64" s="108"/>
+      <c r="N64" s="108"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="108"/>
+      <c r="Q64" s="108"/>
+      <c r="R64" s="108"/>
+      <c r="S64" s="108"/>
+      <c r="T64" s="108"/>
+      <c r="U64" s="108"/>
+      <c r="V64" s="108"/>
+      <c r="W64" s="109"/>
+      <c r="X64" s="109"/>
+      <c r="Y64" s="109"/>
+      <c r="Z64" s="109"/>
+      <c r="AA64" s="109"/>
+      <c r="AB64" s="109"/>
+      <c r="AC64" s="109"/>
+      <c r="AD64" s="109"/>
+      <c r="AE64" s="109"/>
+      <c r="AF64" s="109"/>
+      <c r="AG64" s="109"/>
+      <c r="AH64" s="109"/>
     </row>
     <row r="65" spans="1:34">
-      <c r="A65" s="96"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="96"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="96"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="96"/>
-      <c r="J65" s="96"/>
-      <c r="K65" s="96"/>
-      <c r="L65" s="96"/>
-      <c r="M65" s="96"/>
-      <c r="N65" s="96"/>
-      <c r="O65" s="96"/>
-      <c r="P65" s="96"/>
-      <c r="Q65" s="96"/>
-      <c r="R65" s="96"/>
-      <c r="S65" s="96"/>
-      <c r="T65" s="96"/>
-      <c r="U65" s="96"/>
-      <c r="V65" s="96"/>
-      <c r="W65" s="97"/>
-      <c r="X65" s="97"/>
-      <c r="Y65" s="97"/>
-      <c r="Z65" s="97"/>
-      <c r="AA65" s="97"/>
-      <c r="AB65" s="97"/>
-      <c r="AC65" s="97"/>
-      <c r="AD65" s="97"/>
-      <c r="AE65" s="97"/>
-      <c r="AF65" s="97"/>
-      <c r="AG65" s="97"/>
-      <c r="AH65" s="97"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
+      <c r="L65" s="108"/>
+      <c r="M65" s="108"/>
+      <c r="N65" s="108"/>
+      <c r="O65" s="108"/>
+      <c r="P65" s="108"/>
+      <c r="Q65" s="108"/>
+      <c r="R65" s="108"/>
+      <c r="S65" s="108"/>
+      <c r="T65" s="108"/>
+      <c r="U65" s="108"/>
+      <c r="V65" s="108"/>
+      <c r="W65" s="109"/>
+      <c r="X65" s="109"/>
+      <c r="Y65" s="109"/>
+      <c r="Z65" s="109"/>
+      <c r="AA65" s="109"/>
+      <c r="AB65" s="109"/>
+      <c r="AC65" s="109"/>
+      <c r="AD65" s="109"/>
+      <c r="AE65" s="109"/>
+      <c r="AF65" s="109"/>
+      <c r="AG65" s="109"/>
+      <c r="AH65" s="109"/>
     </row>
     <row r="66" spans="1:34">
-      <c r="A66" s="96"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
-      <c r="L66" s="96"/>
-      <c r="M66" s="96"/>
-      <c r="N66" s="96"/>
-      <c r="O66" s="96"/>
-      <c r="P66" s="96"/>
-      <c r="Q66" s="96"/>
-      <c r="R66" s="96"/>
-      <c r="S66" s="96"/>
-      <c r="T66" s="96"/>
-      <c r="U66" s="96"/>
-      <c r="V66" s="96"/>
-      <c r="W66" s="97"/>
-      <c r="X66" s="97"/>
-      <c r="Y66" s="97"/>
-      <c r="Z66" s="97"/>
-      <c r="AA66" s="97"/>
-      <c r="AB66" s="97"/>
-      <c r="AC66" s="97"/>
-      <c r="AD66" s="97"/>
-      <c r="AE66" s="97"/>
-      <c r="AF66" s="97"/>
-      <c r="AG66" s="97"/>
-      <c r="AH66" s="97"/>
+      <c r="A66" s="108"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+      <c r="J66" s="108"/>
+      <c r="K66" s="108"/>
+      <c r="L66" s="108"/>
+      <c r="M66" s="108"/>
+      <c r="N66" s="108"/>
+      <c r="O66" s="108"/>
+      <c r="P66" s="108"/>
+      <c r="Q66" s="108"/>
+      <c r="R66" s="108"/>
+      <c r="S66" s="108"/>
+      <c r="T66" s="108"/>
+      <c r="U66" s="108"/>
+      <c r="V66" s="108"/>
+      <c r="W66" s="109"/>
+      <c r="X66" s="109"/>
+      <c r="Y66" s="109"/>
+      <c r="Z66" s="109"/>
+      <c r="AA66" s="109"/>
+      <c r="AB66" s="109"/>
+      <c r="AC66" s="109"/>
+      <c r="AD66" s="109"/>
+      <c r="AE66" s="109"/>
+      <c r="AF66" s="109"/>
+      <c r="AG66" s="109"/>
+      <c r="AH66" s="109"/>
     </row>
     <row r="67" spans="1:34">
-      <c r="A67" s="96"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96"/>
-      <c r="L67" s="96"/>
-      <c r="M67" s="96"/>
-      <c r="N67" s="96"/>
-      <c r="O67" s="96"/>
-      <c r="P67" s="96"/>
-      <c r="Q67" s="96"/>
-      <c r="R67" s="96"/>
-      <c r="S67" s="96"/>
-      <c r="T67" s="96"/>
-      <c r="U67" s="96"/>
-      <c r="V67" s="96"/>
-      <c r="W67" s="97"/>
-      <c r="X67" s="97"/>
-      <c r="Y67" s="97"/>
-      <c r="Z67" s="97"/>
-      <c r="AA67" s="97"/>
-      <c r="AB67" s="97"/>
-      <c r="AC67" s="97"/>
-      <c r="AD67" s="97"/>
-      <c r="AE67" s="97"/>
-      <c r="AF67" s="97"/>
-      <c r="AG67" s="97"/>
-      <c r="AH67" s="97"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="108"/>
+      <c r="L67" s="108"/>
+      <c r="M67" s="108"/>
+      <c r="N67" s="108"/>
+      <c r="O67" s="108"/>
+      <c r="P67" s="108"/>
+      <c r="Q67" s="108"/>
+      <c r="R67" s="108"/>
+      <c r="S67" s="108"/>
+      <c r="T67" s="108"/>
+      <c r="U67" s="108"/>
+      <c r="V67" s="108"/>
+      <c r="W67" s="109"/>
+      <c r="X67" s="109"/>
+      <c r="Y67" s="109"/>
+      <c r="Z67" s="109"/>
+      <c r="AA67" s="109"/>
+      <c r="AB67" s="109"/>
+      <c r="AC67" s="109"/>
+      <c r="AD67" s="109"/>
+      <c r="AE67" s="109"/>
+      <c r="AF67" s="109"/>
+      <c r="AG67" s="109"/>
+      <c r="AH67" s="109"/>
     </row>
     <row r="68" spans="1:34">
-      <c r="A68" s="96"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="96"/>
-      <c r="E68" s="96"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="96"/>
-      <c r="H68" s="96"/>
-      <c r="I68" s="96"/>
-      <c r="J68" s="96"/>
-      <c r="K68" s="96"/>
-      <c r="L68" s="96"/>
-      <c r="M68" s="96"/>
-      <c r="N68" s="96"/>
-      <c r="O68" s="96"/>
-      <c r="P68" s="96"/>
-      <c r="Q68" s="96"/>
-      <c r="R68" s="96"/>
-      <c r="S68" s="96"/>
-      <c r="T68" s="96"/>
-      <c r="U68" s="96"/>
-      <c r="V68" s="96"/>
-      <c r="W68" s="97"/>
-      <c r="X68" s="97"/>
-      <c r="Y68" s="97"/>
-      <c r="Z68" s="97"/>
-      <c r="AA68" s="97"/>
-      <c r="AB68" s="97"/>
-      <c r="AC68" s="97"/>
-      <c r="AD68" s="97"/>
-      <c r="AE68" s="97"/>
-      <c r="AF68" s="97"/>
-      <c r="AG68" s="97"/>
-      <c r="AH68" s="97"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
+      <c r="J68" s="108"/>
+      <c r="K68" s="108"/>
+      <c r="L68" s="108"/>
+      <c r="M68" s="108"/>
+      <c r="N68" s="108"/>
+      <c r="O68" s="108"/>
+      <c r="P68" s="108"/>
+      <c r="Q68" s="108"/>
+      <c r="R68" s="108"/>
+      <c r="S68" s="108"/>
+      <c r="T68" s="108"/>
+      <c r="U68" s="108"/>
+      <c r="V68" s="108"/>
+      <c r="W68" s="109"/>
+      <c r="X68" s="109"/>
+      <c r="Y68" s="109"/>
+      <c r="Z68" s="109"/>
+      <c r="AA68" s="109"/>
+      <c r="AB68" s="109"/>
+      <c r="AC68" s="109"/>
+      <c r="AD68" s="109"/>
+      <c r="AE68" s="109"/>
+      <c r="AF68" s="109"/>
+      <c r="AG68" s="109"/>
+      <c r="AH68" s="109"/>
     </row>
     <row r="69" spans="1:34">
-      <c r="A69" s="96"/>
-      <c r="B69" s="96"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="96"/>
-      <c r="E69" s="96"/>
-      <c r="F69" s="96"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="96"/>
-      <c r="L69" s="96"/>
-      <c r="M69" s="96"/>
-      <c r="N69" s="96"/>
-      <c r="O69" s="96"/>
-      <c r="P69" s="96"/>
-      <c r="Q69" s="96"/>
-      <c r="R69" s="96"/>
-      <c r="S69" s="96"/>
-      <c r="T69" s="96"/>
-      <c r="U69" s="96"/>
-      <c r="V69" s="96"/>
-      <c r="W69" s="97"/>
-      <c r="X69" s="97"/>
-      <c r="Y69" s="97"/>
-      <c r="Z69" s="97"/>
-      <c r="AA69" s="97"/>
-      <c r="AB69" s="97"/>
-      <c r="AC69" s="97"/>
-      <c r="AD69" s="97"/>
-      <c r="AE69" s="97"/>
-      <c r="AF69" s="97"/>
-      <c r="AG69" s="97"/>
-      <c r="AH69" s="97"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="108"/>
+      <c r="L69" s="108"/>
+      <c r="M69" s="108"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="108"/>
+      <c r="R69" s="108"/>
+      <c r="S69" s="108"/>
+      <c r="T69" s="108"/>
+      <c r="U69" s="108"/>
+      <c r="V69" s="108"/>
+      <c r="W69" s="109"/>
+      <c r="X69" s="109"/>
+      <c r="Y69" s="109"/>
+      <c r="Z69" s="109"/>
+      <c r="AA69" s="109"/>
+      <c r="AB69" s="109"/>
+      <c r="AC69" s="109"/>
+      <c r="AD69" s="109"/>
+      <c r="AE69" s="109"/>
+      <c r="AF69" s="109"/>
+      <c r="AG69" s="109"/>
+      <c r="AH69" s="109"/>
     </row>
     <row r="70" spans="1:34">
-      <c r="A70" s="96"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="96"/>
-      <c r="E70" s="96"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="96"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="96"/>
-      <c r="L70" s="96"/>
-      <c r="M70" s="96"/>
-      <c r="N70" s="96"/>
-      <c r="O70" s="96"/>
-      <c r="P70" s="96"/>
-      <c r="Q70" s="96"/>
-      <c r="R70" s="96"/>
-      <c r="S70" s="96"/>
-      <c r="T70" s="96"/>
-      <c r="U70" s="96"/>
-      <c r="V70" s="96"/>
-      <c r="W70" s="97"/>
-      <c r="X70" s="97"/>
-      <c r="Y70" s="97"/>
-      <c r="Z70" s="97"/>
-      <c r="AA70" s="97"/>
-      <c r="AB70" s="97"/>
-      <c r="AC70" s="97"/>
-      <c r="AD70" s="97"/>
-      <c r="AE70" s="97"/>
-      <c r="AF70" s="97"/>
-      <c r="AG70" s="97"/>
-      <c r="AH70" s="97"/>
+      <c r="A70" s="108"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="108"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="108"/>
+      <c r="L70" s="108"/>
+      <c r="M70" s="108"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="108"/>
+      <c r="R70" s="108"/>
+      <c r="S70" s="108"/>
+      <c r="T70" s="108"/>
+      <c r="U70" s="108"/>
+      <c r="V70" s="108"/>
+      <c r="W70" s="109"/>
+      <c r="X70" s="109"/>
+      <c r="Y70" s="109"/>
+      <c r="Z70" s="109"/>
+      <c r="AA70" s="109"/>
+      <c r="AB70" s="109"/>
+      <c r="AC70" s="109"/>
+      <c r="AD70" s="109"/>
+      <c r="AE70" s="109"/>
+      <c r="AF70" s="109"/>
+      <c r="AG70" s="109"/>
+      <c r="AH70" s="109"/>
     </row>
     <row r="71" spans="1:34">
-      <c r="A71" s="96"/>
-      <c r="B71" s="96"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="96"/>
-      <c r="O71" s="96"/>
-      <c r="P71" s="96"/>
-      <c r="Q71" s="96"/>
-      <c r="R71" s="96"/>
-      <c r="S71" s="96"/>
-      <c r="T71" s="96"/>
-      <c r="U71" s="96"/>
-      <c r="V71" s="96"/>
-      <c r="W71" s="97"/>
-      <c r="X71" s="97"/>
-      <c r="Y71" s="97"/>
-      <c r="Z71" s="97"/>
-      <c r="AA71" s="97"/>
-      <c r="AB71" s="97"/>
-      <c r="AC71" s="97"/>
-      <c r="AD71" s="97"/>
-      <c r="AE71" s="97"/>
-      <c r="AF71" s="97"/>
-      <c r="AG71" s="97"/>
-      <c r="AH71" s="97"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="108"/>
+      <c r="M71" s="108"/>
+      <c r="N71" s="108"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="108"/>
+      <c r="Q71" s="108"/>
+      <c r="R71" s="108"/>
+      <c r="S71" s="108"/>
+      <c r="T71" s="108"/>
+      <c r="U71" s="108"/>
+      <c r="V71" s="108"/>
+      <c r="W71" s="109"/>
+      <c r="X71" s="109"/>
+      <c r="Y71" s="109"/>
+      <c r="Z71" s="109"/>
+      <c r="AA71" s="109"/>
+      <c r="AB71" s="109"/>
+      <c r="AC71" s="109"/>
+      <c r="AD71" s="109"/>
+      <c r="AE71" s="109"/>
+      <c r="AF71" s="109"/>
+      <c r="AG71" s="109"/>
+      <c r="AH71" s="109"/>
     </row>
     <row r="72" spans="1:34">
-      <c r="A72" s="96"/>
-      <c r="B72" s="96"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="96"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="96"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="96"/>
-      <c r="J72" s="96"/>
-      <c r="K72" s="96"/>
-      <c r="L72" s="96"/>
-      <c r="M72" s="96"/>
-      <c r="N72" s="96"/>
-      <c r="O72" s="96"/>
-      <c r="P72" s="96"/>
-      <c r="Q72" s="96"/>
-      <c r="R72" s="96"/>
-      <c r="S72" s="96"/>
-      <c r="T72" s="96"/>
-      <c r="U72" s="96"/>
-      <c r="V72" s="96"/>
-      <c r="W72" s="97"/>
-      <c r="X72" s="97"/>
-      <c r="Y72" s="97"/>
-      <c r="Z72" s="97"/>
-      <c r="AA72" s="97"/>
-      <c r="AB72" s="97"/>
-      <c r="AC72" s="97"/>
-      <c r="AD72" s="97"/>
-      <c r="AE72" s="97"/>
-      <c r="AF72" s="97"/>
-      <c r="AG72" s="97"/>
-      <c r="AH72" s="97"/>
+      <c r="A72" s="108"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="108"/>
+      <c r="L72" s="108"/>
+      <c r="M72" s="108"/>
+      <c r="N72" s="108"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="108"/>
+      <c r="Q72" s="108"/>
+      <c r="R72" s="108"/>
+      <c r="S72" s="108"/>
+      <c r="T72" s="108"/>
+      <c r="U72" s="108"/>
+      <c r="V72" s="108"/>
+      <c r="W72" s="109"/>
+      <c r="X72" s="109"/>
+      <c r="Y72" s="109"/>
+      <c r="Z72" s="109"/>
+      <c r="AA72" s="109"/>
+      <c r="AB72" s="109"/>
+      <c r="AC72" s="109"/>
+      <c r="AD72" s="109"/>
+      <c r="AE72" s="109"/>
+      <c r="AF72" s="109"/>
+      <c r="AG72" s="109"/>
+      <c r="AH72" s="109"/>
     </row>
     <row r="73" spans="1:34">
-      <c r="A73" s="96"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="96"/>
-      <c r="E73" s="96"/>
-      <c r="F73" s="96"/>
-      <c r="G73" s="96"/>
-      <c r="H73" s="96"/>
-      <c r="I73" s="96"/>
-      <c r="J73" s="96"/>
-      <c r="K73" s="96"/>
-      <c r="L73" s="96"/>
-      <c r="M73" s="96"/>
-      <c r="N73" s="96"/>
-      <c r="O73" s="96"/>
-      <c r="P73" s="96"/>
-      <c r="Q73" s="96"/>
-      <c r="R73" s="96"/>
-      <c r="S73" s="96"/>
-      <c r="T73" s="96"/>
-      <c r="U73" s="96"/>
-      <c r="V73" s="96"/>
-      <c r="W73" s="97"/>
-      <c r="X73" s="97"/>
-      <c r="Y73" s="97"/>
-      <c r="Z73" s="97"/>
-      <c r="AA73" s="97"/>
-      <c r="AB73" s="97"/>
-      <c r="AC73" s="97"/>
-      <c r="AD73" s="97"/>
-      <c r="AE73" s="97"/>
-      <c r="AF73" s="97"/>
-      <c r="AG73" s="97"/>
-      <c r="AH73" s="97"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="108"/>
+      <c r="L73" s="108"/>
+      <c r="M73" s="108"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="108"/>
+      <c r="Q73" s="108"/>
+      <c r="R73" s="108"/>
+      <c r="S73" s="108"/>
+      <c r="T73" s="108"/>
+      <c r="U73" s="108"/>
+      <c r="V73" s="108"/>
+      <c r="W73" s="109"/>
+      <c r="X73" s="109"/>
+      <c r="Y73" s="109"/>
+      <c r="Z73" s="109"/>
+      <c r="AA73" s="109"/>
+      <c r="AB73" s="109"/>
+      <c r="AC73" s="109"/>
+      <c r="AD73" s="109"/>
+      <c r="AE73" s="109"/>
+      <c r="AF73" s="109"/>
+      <c r="AG73" s="109"/>
+      <c r="AH73" s="109"/>
     </row>
     <row r="74" spans="1:34">
-      <c r="A74" s="96"/>
-      <c r="B74" s="96"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="96"/>
-      <c r="O74" s="96"/>
-      <c r="P74" s="96"/>
-      <c r="Q74" s="96"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="96"/>
-      <c r="T74" s="96"/>
-      <c r="U74" s="96"/>
-      <c r="V74" s="96"/>
-      <c r="W74" s="97"/>
-      <c r="X74" s="97"/>
-      <c r="Y74" s="97"/>
-      <c r="Z74" s="97"/>
-      <c r="AA74" s="97"/>
-      <c r="AB74" s="97"/>
-      <c r="AC74" s="97"/>
-      <c r="AD74" s="97"/>
-      <c r="AE74" s="97"/>
-      <c r="AF74" s="97"/>
-      <c r="AG74" s="97"/>
-      <c r="AH74" s="97"/>
+      <c r="A74" s="108"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="108"/>
+      <c r="K74" s="108"/>
+      <c r="L74" s="108"/>
+      <c r="M74" s="108"/>
+      <c r="N74" s="108"/>
+      <c r="O74" s="108"/>
+      <c r="P74" s="108"/>
+      <c r="Q74" s="108"/>
+      <c r="R74" s="108"/>
+      <c r="S74" s="108"/>
+      <c r="T74" s="108"/>
+      <c r="U74" s="108"/>
+      <c r="V74" s="108"/>
+      <c r="W74" s="109"/>
+      <c r="X74" s="109"/>
+      <c r="Y74" s="109"/>
+      <c r="Z74" s="109"/>
+      <c r="AA74" s="109"/>
+      <c r="AB74" s="109"/>
+      <c r="AC74" s="109"/>
+      <c r="AD74" s="109"/>
+      <c r="AE74" s="109"/>
+      <c r="AF74" s="109"/>
+      <c r="AG74" s="109"/>
+      <c r="AH74" s="109"/>
     </row>
     <row r="75" spans="1:34">
-      <c r="A75" s="96"/>
-      <c r="B75" s="96"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="96"/>
-      <c r="L75" s="96"/>
-      <c r="M75" s="96"/>
-      <c r="N75" s="96"/>
-      <c r="O75" s="96"/>
-      <c r="P75" s="96"/>
-      <c r="Q75" s="96"/>
-      <c r="R75" s="96"/>
-      <c r="S75" s="96"/>
-      <c r="T75" s="96"/>
-      <c r="U75" s="96"/>
-      <c r="V75" s="96"/>
-      <c r="W75" s="97"/>
-      <c r="X75" s="97"/>
-      <c r="Y75" s="97"/>
-      <c r="Z75" s="97"/>
-      <c r="AA75" s="97"/>
-      <c r="AB75" s="97"/>
-      <c r="AC75" s="97"/>
-      <c r="AD75" s="97"/>
-      <c r="AE75" s="97"/>
-      <c r="AF75" s="97"/>
-      <c r="AG75" s="97"/>
-      <c r="AH75" s="97"/>
+      <c r="A75" s="108"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="108"/>
+      <c r="J75" s="108"/>
+      <c r="K75" s="108"/>
+      <c r="L75" s="108"/>
+      <c r="M75" s="108"/>
+      <c r="N75" s="108"/>
+      <c r="O75" s="108"/>
+      <c r="P75" s="108"/>
+      <c r="Q75" s="108"/>
+      <c r="R75" s="108"/>
+      <c r="S75" s="108"/>
+      <c r="T75" s="108"/>
+      <c r="U75" s="108"/>
+      <c r="V75" s="108"/>
+      <c r="W75" s="109"/>
+      <c r="X75" s="109"/>
+      <c r="Y75" s="109"/>
+      <c r="Z75" s="109"/>
+      <c r="AA75" s="109"/>
+      <c r="AB75" s="109"/>
+      <c r="AC75" s="109"/>
+      <c r="AD75" s="109"/>
+      <c r="AE75" s="109"/>
+      <c r="AF75" s="109"/>
+      <c r="AG75" s="109"/>
+      <c r="AH75" s="109"/>
     </row>
     <row r="76" spans="1:34">
-      <c r="A76" s="96"/>
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="96"/>
-      <c r="F76" s="96"/>
-      <c r="G76" s="96"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="96"/>
-      <c r="J76" s="96"/>
-      <c r="K76" s="96"/>
-      <c r="L76" s="96"/>
-      <c r="M76" s="96"/>
-      <c r="N76" s="96"/>
-      <c r="O76" s="96"/>
-      <c r="P76" s="96"/>
-      <c r="Q76" s="96"/>
-      <c r="R76" s="96"/>
-      <c r="S76" s="96"/>
-      <c r="T76" s="96"/>
-      <c r="U76" s="96"/>
-      <c r="V76" s="96"/>
-      <c r="W76" s="97"/>
-      <c r="X76" s="97"/>
-      <c r="Y76" s="97"/>
-      <c r="Z76" s="97"/>
-      <c r="AA76" s="97"/>
-      <c r="AB76" s="97"/>
-      <c r="AC76" s="97"/>
-      <c r="AD76" s="97"/>
-      <c r="AE76" s="97"/>
-      <c r="AF76" s="97"/>
-      <c r="AG76" s="97"/>
-      <c r="AH76" s="97"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="108"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="108"/>
+      <c r="K76" s="108"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="108"/>
+      <c r="N76" s="108"/>
+      <c r="O76" s="108"/>
+      <c r="P76" s="108"/>
+      <c r="Q76" s="108"/>
+      <c r="R76" s="108"/>
+      <c r="S76" s="108"/>
+      <c r="T76" s="108"/>
+      <c r="U76" s="108"/>
+      <c r="V76" s="108"/>
+      <c r="W76" s="109"/>
+      <c r="X76" s="109"/>
+      <c r="Y76" s="109"/>
+      <c r="Z76" s="109"/>
+      <c r="AA76" s="109"/>
+      <c r="AB76" s="109"/>
+      <c r="AC76" s="109"/>
+      <c r="AD76" s="109"/>
+      <c r="AE76" s="109"/>
+      <c r="AF76" s="109"/>
+      <c r="AG76" s="109"/>
+      <c r="AH76" s="109"/>
     </row>
     <row r="77" spans="1:34">
-      <c r="A77" s="96"/>
-      <c r="B77" s="96"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="96"/>
-      <c r="H77" s="96"/>
-      <c r="I77" s="96"/>
-      <c r="J77" s="96"/>
-      <c r="K77" s="96"/>
-      <c r="L77" s="96"/>
-      <c r="M77" s="96"/>
-      <c r="N77" s="96"/>
-      <c r="O77" s="96"/>
-      <c r="P77" s="96"/>
-      <c r="Q77" s="96"/>
-      <c r="R77" s="96"/>
-      <c r="S77" s="96"/>
-      <c r="T77" s="96"/>
-      <c r="U77" s="96"/>
-      <c r="V77" s="96"/>
-      <c r="W77" s="97"/>
-      <c r="X77" s="97"/>
-      <c r="Y77" s="97"/>
-      <c r="Z77" s="97"/>
-      <c r="AA77" s="97"/>
-      <c r="AB77" s="97"/>
-      <c r="AC77" s="97"/>
-      <c r="AD77" s="97"/>
-      <c r="AE77" s="97"/>
-      <c r="AF77" s="97"/>
-      <c r="AG77" s="97"/>
-      <c r="AH77" s="97"/>
+      <c r="A77" s="108"/>
+      <c r="B77" s="108"/>
+      <c r="C77" s="108"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="108"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="108"/>
+      <c r="M77" s="108"/>
+      <c r="N77" s="108"/>
+      <c r="O77" s="108"/>
+      <c r="P77" s="108"/>
+      <c r="Q77" s="108"/>
+      <c r="R77" s="108"/>
+      <c r="S77" s="108"/>
+      <c r="T77" s="108"/>
+      <c r="U77" s="108"/>
+      <c r="V77" s="108"/>
+      <c r="W77" s="109"/>
+      <c r="X77" s="109"/>
+      <c r="Y77" s="109"/>
+      <c r="Z77" s="109"/>
+      <c r="AA77" s="109"/>
+      <c r="AB77" s="109"/>
+      <c r="AC77" s="109"/>
+      <c r="AD77" s="109"/>
+      <c r="AE77" s="109"/>
+      <c r="AF77" s="109"/>
+      <c r="AG77" s="109"/>
+      <c r="AH77" s="109"/>
     </row>
     <row r="78" spans="1:34">
-      <c r="A78" s="96"/>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="96"/>
-      <c r="J78" s="96"/>
-      <c r="K78" s="96"/>
-      <c r="L78" s="96"/>
-      <c r="M78" s="96"/>
-      <c r="N78" s="96"/>
-      <c r="O78" s="96"/>
-      <c r="P78" s="96"/>
-      <c r="Q78" s="96"/>
-      <c r="R78" s="96"/>
-      <c r="S78" s="96"/>
-      <c r="T78" s="96"/>
-      <c r="U78" s="96"/>
-      <c r="V78" s="96"/>
-      <c r="W78" s="97"/>
-      <c r="X78" s="97"/>
-      <c r="Y78" s="97"/>
-      <c r="Z78" s="97"/>
-      <c r="AA78" s="97"/>
-      <c r="AB78" s="97"/>
-      <c r="AC78" s="97"/>
-      <c r="AD78" s="97"/>
-      <c r="AE78" s="97"/>
-      <c r="AF78" s="97"/>
-      <c r="AG78" s="97"/>
-      <c r="AH78" s="97"/>
+      <c r="A78" s="108"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="108"/>
+      <c r="K78" s="108"/>
+      <c r="L78" s="108"/>
+      <c r="M78" s="108"/>
+      <c r="N78" s="108"/>
+      <c r="O78" s="108"/>
+      <c r="P78" s="108"/>
+      <c r="Q78" s="108"/>
+      <c r="R78" s="108"/>
+      <c r="S78" s="108"/>
+      <c r="T78" s="108"/>
+      <c r="U78" s="108"/>
+      <c r="V78" s="108"/>
+      <c r="W78" s="109"/>
+      <c r="X78" s="109"/>
+      <c r="Y78" s="109"/>
+      <c r="Z78" s="109"/>
+      <c r="AA78" s="109"/>
+      <c r="AB78" s="109"/>
+      <c r="AC78" s="109"/>
+      <c r="AD78" s="109"/>
+      <c r="AE78" s="109"/>
+      <c r="AF78" s="109"/>
+      <c r="AG78" s="109"/>
+      <c r="AH78" s="109"/>
     </row>
     <row r="79" spans="1:34">
-      <c r="A79" s="96"/>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="96"/>
-      <c r="F79" s="96"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="96"/>
-      <c r="I79" s="96"/>
-      <c r="J79" s="96"/>
-      <c r="K79" s="96"/>
-      <c r="L79" s="96"/>
-      <c r="M79" s="96"/>
-      <c r="N79" s="96"/>
-      <c r="O79" s="96"/>
-      <c r="P79" s="96"/>
-      <c r="Q79" s="96"/>
-      <c r="R79" s="96"/>
-      <c r="S79" s="96"/>
-      <c r="T79" s="96"/>
-      <c r="U79" s="96"/>
-      <c r="V79" s="96"/>
-      <c r="W79" s="97"/>
-      <c r="X79" s="97"/>
-      <c r="Y79" s="97"/>
-      <c r="Z79" s="97"/>
-      <c r="AA79" s="97"/>
-      <c r="AB79" s="97"/>
-      <c r="AC79" s="97"/>
-      <c r="AD79" s="97"/>
-      <c r="AE79" s="97"/>
-      <c r="AF79" s="97"/>
-      <c r="AG79" s="97"/>
-      <c r="AH79" s="97"/>
+      <c r="A79" s="108"/>
+      <c r="B79" s="108"/>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="108"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="108"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="108"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="108"/>
+      <c r="N79" s="108"/>
+      <c r="O79" s="108"/>
+      <c r="P79" s="108"/>
+      <c r="Q79" s="108"/>
+      <c r="R79" s="108"/>
+      <c r="S79" s="108"/>
+      <c r="T79" s="108"/>
+      <c r="U79" s="108"/>
+      <c r="V79" s="108"/>
+      <c r="W79" s="109"/>
+      <c r="X79" s="109"/>
+      <c r="Y79" s="109"/>
+      <c r="Z79" s="109"/>
+      <c r="AA79" s="109"/>
+      <c r="AB79" s="109"/>
+      <c r="AC79" s="109"/>
+      <c r="AD79" s="109"/>
+      <c r="AE79" s="109"/>
+      <c r="AF79" s="109"/>
+      <c r="AG79" s="109"/>
+      <c r="AH79" s="109"/>
     </row>
     <row r="80" spans="1:34">
-      <c r="A80" s="96"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="96"/>
-      <c r="D80" s="96"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="96"/>
-      <c r="G80" s="96"/>
-      <c r="H80" s="96"/>
-      <c r="I80" s="96"/>
-      <c r="J80" s="96"/>
-      <c r="K80" s="96"/>
-      <c r="L80" s="96"/>
-      <c r="M80" s="96"/>
-      <c r="N80" s="96"/>
-      <c r="O80" s="96"/>
-      <c r="P80" s="96"/>
-      <c r="Q80" s="96"/>
-      <c r="R80" s="96"/>
-      <c r="S80" s="96"/>
-      <c r="T80" s="96"/>
-      <c r="U80" s="96"/>
-      <c r="V80" s="96"/>
-      <c r="W80" s="97"/>
-      <c r="X80" s="97"/>
-      <c r="Y80" s="97"/>
-      <c r="Z80" s="97"/>
-      <c r="AA80" s="97"/>
-      <c r="AB80" s="97"/>
-      <c r="AC80" s="97"/>
-      <c r="AD80" s="97"/>
-      <c r="AE80" s="97"/>
-      <c r="AF80" s="97"/>
-      <c r="AG80" s="97"/>
-      <c r="AH80" s="97"/>
+      <c r="A80" s="108"/>
+      <c r="B80" s="108"/>
+      <c r="C80" s="108"/>
+      <c r="D80" s="108"/>
+      <c r="E80" s="108"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="108"/>
+      <c r="J80" s="108"/>
+      <c r="K80" s="108"/>
+      <c r="L80" s="108"/>
+      <c r="M80" s="108"/>
+      <c r="N80" s="108"/>
+      <c r="O80" s="108"/>
+      <c r="P80" s="108"/>
+      <c r="Q80" s="108"/>
+      <c r="R80" s="108"/>
+      <c r="S80" s="108"/>
+      <c r="T80" s="108"/>
+      <c r="U80" s="108"/>
+      <c r="V80" s="108"/>
+      <c r="W80" s="109"/>
+      <c r="X80" s="109"/>
+      <c r="Y80" s="109"/>
+      <c r="Z80" s="109"/>
+      <c r="AA80" s="109"/>
+      <c r="AB80" s="109"/>
+      <c r="AC80" s="109"/>
+      <c r="AD80" s="109"/>
+      <c r="AE80" s="109"/>
+      <c r="AF80" s="109"/>
+      <c r="AG80" s="109"/>
+      <c r="AH80" s="109"/>
     </row>
     <row r="81" spans="1:34">
-      <c r="A81" s="96"/>
-      <c r="B81" s="96"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="96"/>
-      <c r="F81" s="96"/>
-      <c r="G81" s="96"/>
-      <c r="H81" s="96"/>
-      <c r="I81" s="96"/>
-      <c r="J81" s="96"/>
-      <c r="K81" s="96"/>
-      <c r="L81" s="96"/>
-      <c r="M81" s="96"/>
-      <c r="N81" s="96"/>
-      <c r="O81" s="96"/>
-      <c r="P81" s="96"/>
-      <c r="Q81" s="96"/>
-      <c r="R81" s="96"/>
-      <c r="S81" s="96"/>
-      <c r="T81" s="96"/>
-      <c r="U81" s="96"/>
-      <c r="V81" s="96"/>
-      <c r="W81" s="97"/>
-      <c r="X81" s="97"/>
-      <c r="Y81" s="97"/>
-      <c r="Z81" s="97"/>
-      <c r="AA81" s="97"/>
-      <c r="AB81" s="97"/>
-      <c r="AC81" s="97"/>
-      <c r="AD81" s="97"/>
-      <c r="AE81" s="97"/>
-      <c r="AF81" s="97"/>
-      <c r="AG81" s="97"/>
-      <c r="AH81" s="97"/>
+      <c r="A81" s="108"/>
+      <c r="B81" s="108"/>
+      <c r="C81" s="108"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="108"/>
+      <c r="K81" s="108"/>
+      <c r="L81" s="108"/>
+      <c r="M81" s="108"/>
+      <c r="N81" s="108"/>
+      <c r="O81" s="108"/>
+      <c r="P81" s="108"/>
+      <c r="Q81" s="108"/>
+      <c r="R81" s="108"/>
+      <c r="S81" s="108"/>
+      <c r="T81" s="108"/>
+      <c r="U81" s="108"/>
+      <c r="V81" s="108"/>
+      <c r="W81" s="109"/>
+      <c r="X81" s="109"/>
+      <c r="Y81" s="109"/>
+      <c r="Z81" s="109"/>
+      <c r="AA81" s="109"/>
+      <c r="AB81" s="109"/>
+      <c r="AC81" s="109"/>
+      <c r="AD81" s="109"/>
+      <c r="AE81" s="109"/>
+      <c r="AF81" s="109"/>
+      <c r="AG81" s="109"/>
+      <c r="AH81" s="109"/>
     </row>
     <row r="82" spans="1:34">
-      <c r="A82" s="96"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
-      <c r="E82" s="96"/>
-      <c r="F82" s="96"/>
-      <c r="G82" s="96"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="96"/>
-      <c r="J82" s="96"/>
-      <c r="K82" s="96"/>
-      <c r="L82" s="96"/>
-      <c r="M82" s="96"/>
-      <c r="N82" s="96"/>
-      <c r="O82" s="96"/>
-      <c r="P82" s="96"/>
-      <c r="Q82" s="96"/>
-      <c r="R82" s="96"/>
-      <c r="S82" s="96"/>
-      <c r="T82" s="96"/>
-      <c r="U82" s="96"/>
-      <c r="V82" s="96"/>
-      <c r="W82" s="97"/>
-      <c r="X82" s="97"/>
-      <c r="Y82" s="97"/>
-      <c r="Z82" s="97"/>
-      <c r="AA82" s="97"/>
-      <c r="AB82" s="97"/>
-      <c r="AC82" s="97"/>
-      <c r="AD82" s="97"/>
-      <c r="AE82" s="97"/>
-      <c r="AF82" s="97"/>
-      <c r="AG82" s="97"/>
-      <c r="AH82" s="97"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="108"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="108"/>
+      <c r="H82" s="108"/>
+      <c r="I82" s="108"/>
+      <c r="J82" s="108"/>
+      <c r="K82" s="108"/>
+      <c r="L82" s="108"/>
+      <c r="M82" s="108"/>
+      <c r="N82" s="108"/>
+      <c r="O82" s="108"/>
+      <c r="P82" s="108"/>
+      <c r="Q82" s="108"/>
+      <c r="R82" s="108"/>
+      <c r="S82" s="108"/>
+      <c r="T82" s="108"/>
+      <c r="U82" s="108"/>
+      <c r="V82" s="108"/>
+      <c r="W82" s="109"/>
+      <c r="X82" s="109"/>
+      <c r="Y82" s="109"/>
+      <c r="Z82" s="109"/>
+      <c r="AA82" s="109"/>
+      <c r="AB82" s="109"/>
+      <c r="AC82" s="109"/>
+      <c r="AD82" s="109"/>
+      <c r="AE82" s="109"/>
+      <c r="AF82" s="109"/>
+      <c r="AG82" s="109"/>
+      <c r="AH82" s="109"/>
     </row>
     <row r="83" spans="1:34">
-      <c r="A83" s="96"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="96"/>
-      <c r="I83" s="96"/>
-      <c r="J83" s="96"/>
-      <c r="K83" s="96"/>
-      <c r="L83" s="96"/>
-      <c r="M83" s="96"/>
-      <c r="N83" s="96"/>
-      <c r="O83" s="96"/>
-      <c r="P83" s="96"/>
-      <c r="Q83" s="96"/>
-      <c r="R83" s="96"/>
-      <c r="S83" s="96"/>
-      <c r="T83" s="96"/>
-      <c r="U83" s="96"/>
-      <c r="V83" s="96"/>
-      <c r="W83" s="97"/>
-      <c r="X83" s="97"/>
-      <c r="Y83" s="97"/>
-      <c r="Z83" s="97"/>
-      <c r="AA83" s="97"/>
-      <c r="AB83" s="97"/>
-      <c r="AC83" s="97"/>
-      <c r="AD83" s="97"/>
-      <c r="AE83" s="97"/>
-      <c r="AF83" s="97"/>
-      <c r="AG83" s="97"/>
-      <c r="AH83" s="97"/>
+      <c r="A83" s="108"/>
+      <c r="B83" s="108"/>
+      <c r="C83" s="108"/>
+      <c r="D83" s="108"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="108"/>
+      <c r="H83" s="108"/>
+      <c r="I83" s="108"/>
+      <c r="J83" s="108"/>
+      <c r="K83" s="108"/>
+      <c r="L83" s="108"/>
+      <c r="M83" s="108"/>
+      <c r="N83" s="108"/>
+      <c r="O83" s="108"/>
+      <c r="P83" s="108"/>
+      <c r="Q83" s="108"/>
+      <c r="R83" s="108"/>
+      <c r="S83" s="108"/>
+      <c r="T83" s="108"/>
+      <c r="U83" s="108"/>
+      <c r="V83" s="108"/>
+      <c r="W83" s="109"/>
+      <c r="X83" s="109"/>
+      <c r="Y83" s="109"/>
+      <c r="Z83" s="109"/>
+      <c r="AA83" s="109"/>
+      <c r="AB83" s="109"/>
+      <c r="AC83" s="109"/>
+      <c r="AD83" s="109"/>
+      <c r="AE83" s="109"/>
+      <c r="AF83" s="109"/>
+      <c r="AG83" s="109"/>
+      <c r="AH83" s="109"/>
     </row>
     <row r="84" spans="1:34">
-      <c r="A84" s="96"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="96"/>
-      <c r="F84" s="96"/>
-      <c r="G84" s="96"/>
-      <c r="H84" s="96"/>
-      <c r="I84" s="96"/>
-      <c r="J84" s="96"/>
-      <c r="K84" s="96"/>
-      <c r="L84" s="96"/>
-      <c r="M84" s="96"/>
-      <c r="N84" s="96"/>
-      <c r="O84" s="96"/>
-      <c r="P84" s="96"/>
-      <c r="Q84" s="96"/>
-      <c r="R84" s="96"/>
-      <c r="S84" s="96"/>
-      <c r="T84" s="96"/>
-      <c r="U84" s="96"/>
-      <c r="V84" s="96"/>
-      <c r="W84" s="97"/>
-      <c r="X84" s="97"/>
-      <c r="Y84" s="97"/>
-      <c r="Z84" s="97"/>
-      <c r="AA84" s="97"/>
-      <c r="AB84" s="97"/>
-      <c r="AC84" s="97"/>
-      <c r="AD84" s="97"/>
-      <c r="AE84" s="97"/>
-      <c r="AF84" s="97"/>
-      <c r="AG84" s="97"/>
-      <c r="AH84" s="97"/>
+      <c r="A84" s="108"/>
+      <c r="B84" s="108"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="108"/>
+      <c r="H84" s="108"/>
+      <c r="I84" s="108"/>
+      <c r="J84" s="108"/>
+      <c r="K84" s="108"/>
+      <c r="L84" s="108"/>
+      <c r="M84" s="108"/>
+      <c r="N84" s="108"/>
+      <c r="O84" s="108"/>
+      <c r="P84" s="108"/>
+      <c r="Q84" s="108"/>
+      <c r="R84" s="108"/>
+      <c r="S84" s="108"/>
+      <c r="T84" s="108"/>
+      <c r="U84" s="108"/>
+      <c r="V84" s="108"/>
+      <c r="W84" s="109"/>
+      <c r="X84" s="109"/>
+      <c r="Y84" s="109"/>
+      <c r="Z84" s="109"/>
+      <c r="AA84" s="109"/>
+      <c r="AB84" s="109"/>
+      <c r="AC84" s="109"/>
+      <c r="AD84" s="109"/>
+      <c r="AE84" s="109"/>
+      <c r="AF84" s="109"/>
+      <c r="AG84" s="109"/>
+      <c r="AH84" s="109"/>
     </row>
     <row r="85" spans="1:34">
-      <c r="A85" s="96"/>
-      <c r="B85" s="96"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="96"/>
-      <c r="F85" s="96"/>
-      <c r="G85" s="96"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="96"/>
-      <c r="J85" s="96"/>
-      <c r="K85" s="96"/>
-      <c r="L85" s="96"/>
-      <c r="M85" s="96"/>
-      <c r="N85" s="96"/>
-      <c r="O85" s="96"/>
-      <c r="P85" s="96"/>
-      <c r="Q85" s="96"/>
-      <c r="R85" s="96"/>
-      <c r="S85" s="96"/>
-      <c r="T85" s="96"/>
-      <c r="U85" s="96"/>
-      <c r="V85" s="96"/>
-      <c r="W85" s="97"/>
-      <c r="X85" s="97"/>
-      <c r="Y85" s="97"/>
-      <c r="Z85" s="97"/>
-      <c r="AA85" s="97"/>
-      <c r="AB85" s="97"/>
-      <c r="AC85" s="97"/>
-      <c r="AD85" s="97"/>
-      <c r="AE85" s="97"/>
-      <c r="AF85" s="97"/>
-      <c r="AG85" s="97"/>
-      <c r="AH85" s="97"/>
+      <c r="A85" s="108"/>
+      <c r="B85" s="108"/>
+      <c r="C85" s="108"/>
+      <c r="D85" s="108"/>
+      <c r="E85" s="108"/>
+      <c r="F85" s="108"/>
+      <c r="G85" s="108"/>
+      <c r="H85" s="108"/>
+      <c r="I85" s="108"/>
+      <c r="J85" s="108"/>
+      <c r="K85" s="108"/>
+      <c r="L85" s="108"/>
+      <c r="M85" s="108"/>
+      <c r="N85" s="108"/>
+      <c r="O85" s="108"/>
+      <c r="P85" s="108"/>
+      <c r="Q85" s="108"/>
+      <c r="R85" s="108"/>
+      <c r="S85" s="108"/>
+      <c r="T85" s="108"/>
+      <c r="U85" s="108"/>
+      <c r="V85" s="108"/>
+      <c r="W85" s="109"/>
+      <c r="X85" s="109"/>
+      <c r="Y85" s="109"/>
+      <c r="Z85" s="109"/>
+      <c r="AA85" s="109"/>
+      <c r="AB85" s="109"/>
+      <c r="AC85" s="109"/>
+      <c r="AD85" s="109"/>
+      <c r="AE85" s="109"/>
+      <c r="AF85" s="109"/>
+      <c r="AG85" s="109"/>
+      <c r="AH85" s="109"/>
     </row>
     <row r="86" spans="1:34">
-      <c r="A86" s="96"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="96"/>
-      <c r="E86" s="96"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
-      <c r="H86" s="96"/>
-      <c r="I86" s="96"/>
-      <c r="J86" s="96"/>
-      <c r="K86" s="96"/>
-      <c r="L86" s="96"/>
-      <c r="M86" s="96"/>
-      <c r="N86" s="96"/>
-      <c r="O86" s="96"/>
-      <c r="P86" s="96"/>
-      <c r="Q86" s="96"/>
-      <c r="R86" s="96"/>
-      <c r="S86" s="96"/>
-      <c r="T86" s="96"/>
-      <c r="U86" s="96"/>
-      <c r="V86" s="96"/>
-      <c r="W86" s="97"/>
-      <c r="X86" s="97"/>
-      <c r="Y86" s="97"/>
-      <c r="Z86" s="97"/>
-      <c r="AA86" s="97"/>
-      <c r="AB86" s="97"/>
-      <c r="AC86" s="97"/>
-      <c r="AD86" s="97"/>
-      <c r="AE86" s="97"/>
-      <c r="AF86" s="97"/>
-      <c r="AG86" s="97"/>
-      <c r="AH86" s="97"/>
+      <c r="A86" s="108"/>
+      <c r="B86" s="108"/>
+      <c r="C86" s="108"/>
+      <c r="D86" s="108"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108"/>
+      <c r="G86" s="108"/>
+      <c r="H86" s="108"/>
+      <c r="I86" s="108"/>
+      <c r="J86" s="108"/>
+      <c r="K86" s="108"/>
+      <c r="L86" s="108"/>
+      <c r="M86" s="108"/>
+      <c r="N86" s="108"/>
+      <c r="O86" s="108"/>
+      <c r="P86" s="108"/>
+      <c r="Q86" s="108"/>
+      <c r="R86" s="108"/>
+      <c r="S86" s="108"/>
+      <c r="T86" s="108"/>
+      <c r="U86" s="108"/>
+      <c r="V86" s="108"/>
+      <c r="W86" s="109"/>
+      <c r="X86" s="109"/>
+      <c r="Y86" s="109"/>
+      <c r="Z86" s="109"/>
+      <c r="AA86" s="109"/>
+      <c r="AB86" s="109"/>
+      <c r="AC86" s="109"/>
+      <c r="AD86" s="109"/>
+      <c r="AE86" s="109"/>
+      <c r="AF86" s="109"/>
+      <c r="AG86" s="109"/>
+      <c r="AH86" s="109"/>
     </row>
     <row r="87" spans="1:34">
-      <c r="A87" s="96"/>
-      <c r="B87" s="96"/>
-      <c r="C87" s="96"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="96"/>
-      <c r="H87" s="96"/>
-      <c r="I87" s="96"/>
-      <c r="J87" s="96"/>
-      <c r="K87" s="96"/>
-      <c r="L87" s="96"/>
-      <c r="M87" s="96"/>
-      <c r="N87" s="96"/>
-      <c r="O87" s="96"/>
-      <c r="P87" s="96"/>
-      <c r="Q87" s="96"/>
-      <c r="R87" s="96"/>
-      <c r="S87" s="96"/>
-      <c r="T87" s="96"/>
-      <c r="U87" s="96"/>
-      <c r="V87" s="96"/>
-      <c r="W87" s="97"/>
-      <c r="X87" s="97"/>
-      <c r="Y87" s="97"/>
-      <c r="Z87" s="97"/>
-      <c r="AA87" s="97"/>
-      <c r="AB87" s="97"/>
-      <c r="AC87" s="97"/>
-      <c r="AD87" s="97"/>
-      <c r="AE87" s="97"/>
-      <c r="AF87" s="97"/>
-      <c r="AG87" s="97"/>
-      <c r="AH87" s="97"/>
+      <c r="A87" s="108"/>
+      <c r="B87" s="108"/>
+      <c r="C87" s="108"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="108"/>
+      <c r="G87" s="108"/>
+      <c r="H87" s="108"/>
+      <c r="I87" s="108"/>
+      <c r="J87" s="108"/>
+      <c r="K87" s="108"/>
+      <c r="L87" s="108"/>
+      <c r="M87" s="108"/>
+      <c r="N87" s="108"/>
+      <c r="O87" s="108"/>
+      <c r="P87" s="108"/>
+      <c r="Q87" s="108"/>
+      <c r="R87" s="108"/>
+      <c r="S87" s="108"/>
+      <c r="T87" s="108"/>
+      <c r="U87" s="108"/>
+      <c r="V87" s="108"/>
+      <c r="W87" s="109"/>
+      <c r="X87" s="109"/>
+      <c r="Y87" s="109"/>
+      <c r="Z87" s="109"/>
+      <c r="AA87" s="109"/>
+      <c r="AB87" s="109"/>
+      <c r="AC87" s="109"/>
+      <c r="AD87" s="109"/>
+      <c r="AE87" s="109"/>
+      <c r="AF87" s="109"/>
+      <c r="AG87" s="109"/>
+      <c r="AH87" s="109"/>
     </row>
     <row r="88" spans="1:34">
-      <c r="A88" s="96"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="96"/>
-      <c r="D88" s="96"/>
-      <c r="E88" s="96"/>
-      <c r="F88" s="96"/>
-      <c r="G88" s="96"/>
-      <c r="H88" s="96"/>
-      <c r="I88" s="96"/>
-      <c r="J88" s="96"/>
-      <c r="K88" s="96"/>
-      <c r="L88" s="96"/>
-      <c r="M88" s="96"/>
-      <c r="N88" s="96"/>
-      <c r="O88" s="96"/>
-      <c r="P88" s="96"/>
-      <c r="Q88" s="96"/>
-      <c r="R88" s="96"/>
-      <c r="S88" s="96"/>
-      <c r="T88" s="96"/>
-      <c r="U88" s="96"/>
-      <c r="V88" s="96"/>
-      <c r="W88" s="97"/>
-      <c r="X88" s="97"/>
-      <c r="Y88" s="97"/>
-      <c r="Z88" s="97"/>
-      <c r="AA88" s="97"/>
-      <c r="AB88" s="97"/>
-      <c r="AC88" s="97"/>
-      <c r="AD88" s="97"/>
-      <c r="AE88" s="97"/>
-      <c r="AF88" s="97"/>
-      <c r="AG88" s="97"/>
-      <c r="AH88" s="97"/>
+      <c r="A88" s="108"/>
+      <c r="B88" s="108"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="108"/>
+      <c r="F88" s="108"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="108"/>
+      <c r="I88" s="108"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="108"/>
+      <c r="L88" s="108"/>
+      <c r="M88" s="108"/>
+      <c r="N88" s="108"/>
+      <c r="O88" s="108"/>
+      <c r="P88" s="108"/>
+      <c r="Q88" s="108"/>
+      <c r="R88" s="108"/>
+      <c r="S88" s="108"/>
+      <c r="T88" s="108"/>
+      <c r="U88" s="108"/>
+      <c r="V88" s="108"/>
+      <c r="W88" s="109"/>
+      <c r="X88" s="109"/>
+      <c r="Y88" s="109"/>
+      <c r="Z88" s="109"/>
+      <c r="AA88" s="109"/>
+      <c r="AB88" s="109"/>
+      <c r="AC88" s="109"/>
+      <c r="AD88" s="109"/>
+      <c r="AE88" s="109"/>
+      <c r="AF88" s="109"/>
+      <c r="AG88" s="109"/>
+      <c r="AH88" s="109"/>
     </row>
     <row r="89" spans="1:34">
-      <c r="A89" s="96"/>
-      <c r="B89" s="96"/>
-      <c r="C89" s="96"/>
-      <c r="D89" s="96"/>
-      <c r="E89" s="96"/>
-      <c r="F89" s="96"/>
-      <c r="G89" s="96"/>
-      <c r="H89" s="96"/>
-      <c r="I89" s="96"/>
-      <c r="J89" s="96"/>
-      <c r="K89" s="96"/>
-      <c r="L89" s="96"/>
-      <c r="M89" s="96"/>
-      <c r="N89" s="96"/>
-      <c r="O89" s="96"/>
-      <c r="P89" s="96"/>
-      <c r="Q89" s="96"/>
-      <c r="R89" s="96"/>
-      <c r="S89" s="96"/>
-      <c r="T89" s="96"/>
-      <c r="U89" s="96"/>
-      <c r="V89" s="96"/>
-      <c r="W89" s="97"/>
-      <c r="X89" s="97"/>
-      <c r="Y89" s="97"/>
-      <c r="Z89" s="97"/>
-      <c r="AA89" s="97"/>
-      <c r="AB89" s="97"/>
-      <c r="AC89" s="97"/>
-      <c r="AD89" s="97"/>
-      <c r="AE89" s="97"/>
-      <c r="AF89" s="97"/>
-      <c r="AG89" s="97"/>
-      <c r="AH89" s="97"/>
+      <c r="A89" s="108"/>
+      <c r="B89" s="108"/>
+      <c r="C89" s="108"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="108"/>
+      <c r="I89" s="108"/>
+      <c r="J89" s="108"/>
+      <c r="K89" s="108"/>
+      <c r="L89" s="108"/>
+      <c r="M89" s="108"/>
+      <c r="N89" s="108"/>
+      <c r="O89" s="108"/>
+      <c r="P89" s="108"/>
+      <c r="Q89" s="108"/>
+      <c r="R89" s="108"/>
+      <c r="S89" s="108"/>
+      <c r="T89" s="108"/>
+      <c r="U89" s="108"/>
+      <c r="V89" s="108"/>
+      <c r="W89" s="109"/>
+      <c r="X89" s="109"/>
+      <c r="Y89" s="109"/>
+      <c r="Z89" s="109"/>
+      <c r="AA89" s="109"/>
+      <c r="AB89" s="109"/>
+      <c r="AC89" s="109"/>
+      <c r="AD89" s="109"/>
+      <c r="AE89" s="109"/>
+      <c r="AF89" s="109"/>
+      <c r="AG89" s="109"/>
+      <c r="AH89" s="109"/>
     </row>
     <row r="90" spans="1:34">
-      <c r="A90" s="96"/>
-      <c r="B90" s="96"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="96"/>
-      <c r="F90" s="96"/>
-      <c r="G90" s="96"/>
-      <c r="H90" s="96"/>
-      <c r="I90" s="96"/>
-      <c r="J90" s="96"/>
-      <c r="K90" s="96"/>
-      <c r="L90" s="96"/>
-      <c r="M90" s="96"/>
-      <c r="N90" s="96"/>
-      <c r="O90" s="96"/>
-      <c r="P90" s="96"/>
-      <c r="Q90" s="96"/>
-      <c r="R90" s="96"/>
-      <c r="S90" s="96"/>
-      <c r="T90" s="96"/>
-      <c r="U90" s="96"/>
-      <c r="V90" s="96"/>
-      <c r="W90" s="97"/>
-      <c r="X90" s="97"/>
-      <c r="Y90" s="97"/>
-      <c r="Z90" s="97"/>
-      <c r="AA90" s="97"/>
-      <c r="AB90" s="97"/>
-      <c r="AC90" s="97"/>
-      <c r="AD90" s="97"/>
-      <c r="AE90" s="97"/>
-      <c r="AF90" s="97"/>
-      <c r="AG90" s="97"/>
-      <c r="AH90" s="97"/>
+      <c r="A90" s="108"/>
+      <c r="B90" s="108"/>
+      <c r="C90" s="108"/>
+      <c r="D90" s="108"/>
+      <c r="E90" s="108"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="108"/>
+      <c r="H90" s="108"/>
+      <c r="I90" s="108"/>
+      <c r="J90" s="108"/>
+      <c r="K90" s="108"/>
+      <c r="L90" s="108"/>
+      <c r="M90" s="108"/>
+      <c r="N90" s="108"/>
+      <c r="O90" s="108"/>
+      <c r="P90" s="108"/>
+      <c r="Q90" s="108"/>
+      <c r="R90" s="108"/>
+      <c r="S90" s="108"/>
+      <c r="T90" s="108"/>
+      <c r="U90" s="108"/>
+      <c r="V90" s="108"/>
+      <c r="W90" s="109"/>
+      <c r="X90" s="109"/>
+      <c r="Y90" s="109"/>
+      <c r="Z90" s="109"/>
+      <c r="AA90" s="109"/>
+      <c r="AB90" s="109"/>
+      <c r="AC90" s="109"/>
+      <c r="AD90" s="109"/>
+      <c r="AE90" s="109"/>
+      <c r="AF90" s="109"/>
+      <c r="AG90" s="109"/>
+      <c r="AH90" s="109"/>
     </row>
     <row r="91" spans="1:34">
-      <c r="A91" s="96"/>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="96"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="96"/>
-      <c r="H91" s="96"/>
-      <c r="I91" s="96"/>
-      <c r="J91" s="96"/>
-      <c r="K91" s="96"/>
-      <c r="L91" s="96"/>
-      <c r="M91" s="96"/>
-      <c r="N91" s="96"/>
-      <c r="O91" s="96"/>
-      <c r="P91" s="96"/>
-      <c r="Q91" s="96"/>
-      <c r="R91" s="96"/>
-      <c r="S91" s="96"/>
-      <c r="T91" s="96"/>
-      <c r="U91" s="96"/>
-      <c r="V91" s="96"/>
-      <c r="W91" s="97"/>
-      <c r="X91" s="97"/>
-      <c r="Y91" s="97"/>
-      <c r="Z91" s="97"/>
-      <c r="AA91" s="97"/>
-      <c r="AB91" s="97"/>
-      <c r="AC91" s="97"/>
-      <c r="AD91" s="97"/>
-      <c r="AE91" s="97"/>
-      <c r="AF91" s="97"/>
-      <c r="AG91" s="97"/>
-      <c r="AH91" s="97"/>
+      <c r="A91" s="108"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="108"/>
+      <c r="I91" s="108"/>
+      <c r="J91" s="108"/>
+      <c r="K91" s="108"/>
+      <c r="L91" s="108"/>
+      <c r="M91" s="108"/>
+      <c r="N91" s="108"/>
+      <c r="O91" s="108"/>
+      <c r="P91" s="108"/>
+      <c r="Q91" s="108"/>
+      <c r="R91" s="108"/>
+      <c r="S91" s="108"/>
+      <c r="T91" s="108"/>
+      <c r="U91" s="108"/>
+      <c r="V91" s="108"/>
+      <c r="W91" s="109"/>
+      <c r="X91" s="109"/>
+      <c r="Y91" s="109"/>
+      <c r="Z91" s="109"/>
+      <c r="AA91" s="109"/>
+      <c r="AB91" s="109"/>
+      <c r="AC91" s="109"/>
+      <c r="AD91" s="109"/>
+      <c r="AE91" s="109"/>
+      <c r="AF91" s="109"/>
+      <c r="AG91" s="109"/>
+      <c r="AH91" s="109"/>
     </row>
     <row r="92" spans="1:34">
-      <c r="A92" s="96"/>
-      <c r="B92" s="96"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="96"/>
-      <c r="E92" s="96"/>
-      <c r="F92" s="96"/>
-      <c r="G92" s="96"/>
-      <c r="H92" s="96"/>
-      <c r="I92" s="96"/>
-      <c r="J92" s="96"/>
-      <c r="K92" s="96"/>
-      <c r="L92" s="96"/>
-      <c r="M92" s="96"/>
-      <c r="N92" s="96"/>
-      <c r="O92" s="96"/>
-      <c r="P92" s="96"/>
-      <c r="Q92" s="96"/>
-      <c r="R92" s="96"/>
-      <c r="S92" s="96"/>
-      <c r="T92" s="96"/>
-      <c r="U92" s="96"/>
-      <c r="V92" s="96"/>
-      <c r="W92" s="97"/>
-      <c r="X92" s="97"/>
-      <c r="Y92" s="97"/>
-      <c r="Z92" s="97"/>
-      <c r="AA92" s="97"/>
-      <c r="AB92" s="97"/>
-      <c r="AC92" s="97"/>
-      <c r="AD92" s="97"/>
-      <c r="AE92" s="97"/>
-      <c r="AF92" s="97"/>
-      <c r="AG92" s="97"/>
-      <c r="AH92" s="97"/>
+      <c r="A92" s="108"/>
+      <c r="B92" s="108"/>
+      <c r="C92" s="108"/>
+      <c r="D92" s="108"/>
+      <c r="E92" s="108"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="108"/>
+      <c r="H92" s="108"/>
+      <c r="I92" s="108"/>
+      <c r="J92" s="108"/>
+      <c r="K92" s="108"/>
+      <c r="L92" s="108"/>
+      <c r="M92" s="108"/>
+      <c r="N92" s="108"/>
+      <c r="O92" s="108"/>
+      <c r="P92" s="108"/>
+      <c r="Q92" s="108"/>
+      <c r="R92" s="108"/>
+      <c r="S92" s="108"/>
+      <c r="T92" s="108"/>
+      <c r="U92" s="108"/>
+      <c r="V92" s="108"/>
+      <c r="W92" s="109"/>
+      <c r="X92" s="109"/>
+      <c r="Y92" s="109"/>
+      <c r="Z92" s="109"/>
+      <c r="AA92" s="109"/>
+      <c r="AB92" s="109"/>
+      <c r="AC92" s="109"/>
+      <c r="AD92" s="109"/>
+      <c r="AE92" s="109"/>
+      <c r="AF92" s="109"/>
+      <c r="AG92" s="109"/>
+      <c r="AH92" s="109"/>
     </row>
     <row r="93" spans="1:34">
-      <c r="A93" s="96"/>
-      <c r="B93" s="96"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="96"/>
-      <c r="H93" s="96"/>
-      <c r="I93" s="96"/>
-      <c r="J93" s="96"/>
-      <c r="K93" s="96"/>
-      <c r="L93" s="96"/>
-      <c r="M93" s="96"/>
-      <c r="N93" s="96"/>
-      <c r="O93" s="96"/>
-      <c r="P93" s="96"/>
-      <c r="Q93" s="96"/>
-      <c r="R93" s="96"/>
-      <c r="S93" s="96"/>
-      <c r="T93" s="96"/>
-      <c r="U93" s="96"/>
-      <c r="V93" s="96"/>
-      <c r="W93" s="97"/>
-      <c r="X93" s="97"/>
-      <c r="Y93" s="97"/>
-      <c r="Z93" s="97"/>
-      <c r="AA93" s="97"/>
-      <c r="AB93" s="97"/>
-      <c r="AC93" s="97"/>
-      <c r="AD93" s="97"/>
-      <c r="AE93" s="97"/>
-      <c r="AF93" s="97"/>
-      <c r="AG93" s="97"/>
-      <c r="AH93" s="97"/>
+      <c r="A93" s="108"/>
+      <c r="B93" s="108"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="108"/>
+      <c r="F93" s="108"/>
+      <c r="G93" s="108"/>
+      <c r="H93" s="108"/>
+      <c r="I93" s="108"/>
+      <c r="J93" s="108"/>
+      <c r="K93" s="108"/>
+      <c r="L93" s="108"/>
+      <c r="M93" s="108"/>
+      <c r="N93" s="108"/>
+      <c r="O93" s="108"/>
+      <c r="P93" s="108"/>
+      <c r="Q93" s="108"/>
+      <c r="R93" s="108"/>
+      <c r="S93" s="108"/>
+      <c r="T93" s="108"/>
+      <c r="U93" s="108"/>
+      <c r="V93" s="108"/>
+      <c r="W93" s="109"/>
+      <c r="X93" s="109"/>
+      <c r="Y93" s="109"/>
+      <c r="Z93" s="109"/>
+      <c r="AA93" s="109"/>
+      <c r="AB93" s="109"/>
+      <c r="AC93" s="109"/>
+      <c r="AD93" s="109"/>
+      <c r="AE93" s="109"/>
+      <c r="AF93" s="109"/>
+      <c r="AG93" s="109"/>
+      <c r="AH93" s="109"/>
     </row>
     <row r="94" spans="1:34">
-      <c r="A94" s="96"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="96"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="96"/>
-      <c r="I94" s="96"/>
-      <c r="J94" s="96"/>
-      <c r="K94" s="96"/>
-      <c r="L94" s="96"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="96"/>
-      <c r="O94" s="96"/>
-      <c r="P94" s="96"/>
-      <c r="Q94" s="96"/>
-      <c r="R94" s="96"/>
-      <c r="S94" s="96"/>
-      <c r="T94" s="96"/>
-      <c r="U94" s="96"/>
-      <c r="V94" s="96"/>
-      <c r="W94" s="97"/>
-      <c r="X94" s="97"/>
-      <c r="Y94" s="97"/>
-      <c r="Z94" s="97"/>
-      <c r="AA94" s="97"/>
-      <c r="AB94" s="97"/>
-      <c r="AC94" s="97"/>
-      <c r="AD94" s="97"/>
-      <c r="AE94" s="97"/>
-      <c r="AF94" s="97"/>
-      <c r="AG94" s="97"/>
-      <c r="AH94" s="97"/>
+      <c r="A94" s="108"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="108"/>
+      <c r="D94" s="108"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="108"/>
+      <c r="H94" s="108"/>
+      <c r="I94" s="108"/>
+      <c r="J94" s="108"/>
+      <c r="K94" s="108"/>
+      <c r="L94" s="108"/>
+      <c r="M94" s="108"/>
+      <c r="N94" s="108"/>
+      <c r="O94" s="108"/>
+      <c r="P94" s="108"/>
+      <c r="Q94" s="108"/>
+      <c r="R94" s="108"/>
+      <c r="S94" s="108"/>
+      <c r="T94" s="108"/>
+      <c r="U94" s="108"/>
+      <c r="V94" s="108"/>
+      <c r="W94" s="109"/>
+      <c r="X94" s="109"/>
+      <c r="Y94" s="109"/>
+      <c r="Z94" s="109"/>
+      <c r="AA94" s="109"/>
+      <c r="AB94" s="109"/>
+      <c r="AC94" s="109"/>
+      <c r="AD94" s="109"/>
+      <c r="AE94" s="109"/>
+      <c r="AF94" s="109"/>
+      <c r="AG94" s="109"/>
+      <c r="AH94" s="109"/>
     </row>
     <row r="95" spans="1:34">
-      <c r="A95" s="96"/>
-      <c r="B95" s="96"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="96"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="96"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="96"/>
-      <c r="J95" s="96"/>
-      <c r="K95" s="96"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="96"/>
-      <c r="O95" s="96"/>
-      <c r="P95" s="96"/>
-      <c r="Q95" s="96"/>
-      <c r="R95" s="96"/>
-      <c r="S95" s="96"/>
-      <c r="T95" s="96"/>
-      <c r="U95" s="96"/>
-      <c r="V95" s="96"/>
-      <c r="W95" s="97"/>
-      <c r="X95" s="97"/>
-      <c r="Y95" s="97"/>
-      <c r="Z95" s="97"/>
-      <c r="AA95" s="97"/>
-      <c r="AB95" s="97"/>
-      <c r="AC95" s="97"/>
-      <c r="AD95" s="97"/>
-      <c r="AE95" s="97"/>
-      <c r="AF95" s="97"/>
-      <c r="AG95" s="97"/>
-      <c r="AH95" s="97"/>
+      <c r="A95" s="108"/>
+      <c r="B95" s="108"/>
+      <c r="C95" s="108"/>
+      <c r="D95" s="108"/>
+      <c r="E95" s="108"/>
+      <c r="F95" s="108"/>
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
+      <c r="I95" s="108"/>
+      <c r="J95" s="108"/>
+      <c r="K95" s="108"/>
+      <c r="L95" s="108"/>
+      <c r="M95" s="108"/>
+      <c r="N95" s="108"/>
+      <c r="O95" s="108"/>
+      <c r="P95" s="108"/>
+      <c r="Q95" s="108"/>
+      <c r="R95" s="108"/>
+      <c r="S95" s="108"/>
+      <c r="T95" s="108"/>
+      <c r="U95" s="108"/>
+      <c r="V95" s="108"/>
+      <c r="W95" s="109"/>
+      <c r="X95" s="109"/>
+      <c r="Y95" s="109"/>
+      <c r="Z95" s="109"/>
+      <c r="AA95" s="109"/>
+      <c r="AB95" s="109"/>
+      <c r="AC95" s="109"/>
+      <c r="AD95" s="109"/>
+      <c r="AE95" s="109"/>
+      <c r="AF95" s="109"/>
+      <c r="AG95" s="109"/>
+      <c r="AH95" s="109"/>
     </row>
     <row r="96" spans="1:34">
-      <c r="A96" s="96"/>
-      <c r="B96" s="96"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="96"/>
-      <c r="E96" s="96"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="96"/>
-      <c r="H96" s="96"/>
-      <c r="I96" s="96"/>
-      <c r="J96" s="96"/>
-      <c r="K96" s="96"/>
-      <c r="L96" s="96"/>
-      <c r="M96" s="96"/>
-      <c r="N96" s="96"/>
-      <c r="O96" s="96"/>
-      <c r="P96" s="96"/>
-      <c r="Q96" s="96"/>
-      <c r="R96" s="96"/>
-      <c r="S96" s="96"/>
-      <c r="T96" s="96"/>
-      <c r="U96" s="96"/>
-      <c r="V96" s="96"/>
-      <c r="W96" s="97"/>
-      <c r="X96" s="97"/>
-      <c r="Y96" s="97"/>
-      <c r="Z96" s="97"/>
-      <c r="AA96" s="97"/>
-      <c r="AB96" s="97"/>
-      <c r="AC96" s="97"/>
-      <c r="AD96" s="97"/>
-      <c r="AE96" s="97"/>
-      <c r="AF96" s="97"/>
-      <c r="AG96" s="97"/>
-      <c r="AH96" s="97"/>
+      <c r="A96" s="108"/>
+      <c r="B96" s="108"/>
+      <c r="C96" s="108"/>
+      <c r="D96" s="108"/>
+      <c r="E96" s="108"/>
+      <c r="F96" s="108"/>
+      <c r="G96" s="108"/>
+      <c r="H96" s="108"/>
+      <c r="I96" s="108"/>
+      <c r="J96" s="108"/>
+      <c r="K96" s="108"/>
+      <c r="L96" s="108"/>
+      <c r="M96" s="108"/>
+      <c r="N96" s="108"/>
+      <c r="O96" s="108"/>
+      <c r="P96" s="108"/>
+      <c r="Q96" s="108"/>
+      <c r="R96" s="108"/>
+      <c r="S96" s="108"/>
+      <c r="T96" s="108"/>
+      <c r="U96" s="108"/>
+      <c r="V96" s="108"/>
+      <c r="W96" s="109"/>
+      <c r="X96" s="109"/>
+      <c r="Y96" s="109"/>
+      <c r="Z96" s="109"/>
+      <c r="AA96" s="109"/>
+      <c r="AB96" s="109"/>
+      <c r="AC96" s="109"/>
+      <c r="AD96" s="109"/>
+      <c r="AE96" s="109"/>
+      <c r="AF96" s="109"/>
+      <c r="AG96" s="109"/>
+      <c r="AH96" s="109"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="96"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="96"/>
-      <c r="D97" s="96"/>
-      <c r="E97" s="96"/>
-      <c r="F97" s="96"/>
-      <c r="G97" s="96"/>
-      <c r="H97" s="96"/>
-      <c r="I97" s="96"/>
-      <c r="J97" s="96"/>
-      <c r="K97" s="96"/>
-      <c r="L97" s="96"/>
-      <c r="M97" s="96"/>
-      <c r="N97" s="96"/>
-      <c r="O97" s="96"/>
-      <c r="P97" s="96"/>
-      <c r="Q97" s="96"/>
-      <c r="R97" s="96"/>
-      <c r="S97" s="96"/>
-      <c r="T97" s="96"/>
-      <c r="U97" s="96"/>
-      <c r="V97" s="96"/>
+      <c r="A97" s="108"/>
+      <c r="B97" s="108"/>
+      <c r="C97" s="108"/>
+      <c r="D97" s="108"/>
+      <c r="E97" s="108"/>
+      <c r="F97" s="108"/>
+      <c r="G97" s="108"/>
+      <c r="H97" s="108"/>
+      <c r="I97" s="108"/>
+      <c r="J97" s="108"/>
+      <c r="K97" s="108"/>
+      <c r="L97" s="108"/>
+      <c r="M97" s="108"/>
+      <c r="N97" s="108"/>
+      <c r="O97" s="108"/>
+      <c r="P97" s="108"/>
+      <c r="Q97" s="108"/>
+      <c r="R97" s="108"/>
+      <c r="S97" s="108"/>
+      <c r="T97" s="108"/>
+      <c r="U97" s="108"/>
+      <c r="V97" s="108"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="96"/>
-      <c r="B98" s="96"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="96"/>
-      <c r="E98" s="96"/>
-      <c r="F98" s="96"/>
-      <c r="G98" s="96"/>
-      <c r="H98" s="96"/>
-      <c r="I98" s="96"/>
-      <c r="J98" s="96"/>
-      <c r="K98" s="96"/>
-      <c r="L98" s="96"/>
-      <c r="M98" s="96"/>
-      <c r="N98" s="96"/>
-      <c r="O98" s="96"/>
-      <c r="P98" s="96"/>
-      <c r="Q98" s="96"/>
-      <c r="R98" s="96"/>
-      <c r="S98" s="96"/>
-      <c r="T98" s="96"/>
-      <c r="U98" s="96"/>
-      <c r="V98" s="96"/>
+      <c r="A98" s="108"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="108"/>
+      <c r="D98" s="108"/>
+      <c r="E98" s="108"/>
+      <c r="F98" s="108"/>
+      <c r="G98" s="108"/>
+      <c r="H98" s="108"/>
+      <c r="I98" s="108"/>
+      <c r="J98" s="108"/>
+      <c r="K98" s="108"/>
+      <c r="L98" s="108"/>
+      <c r="M98" s="108"/>
+      <c r="N98" s="108"/>
+      <c r="O98" s="108"/>
+      <c r="P98" s="108"/>
+      <c r="Q98" s="108"/>
+      <c r="R98" s="108"/>
+      <c r="S98" s="108"/>
+      <c r="T98" s="108"/>
+      <c r="U98" s="108"/>
+      <c r="V98" s="108"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="96"/>
-      <c r="B99" s="96"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="96"/>
-      <c r="E99" s="96"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="96"/>
-      <c r="H99" s="96"/>
-      <c r="I99" s="96"/>
-      <c r="J99" s="96"/>
-      <c r="K99" s="96"/>
-      <c r="L99" s="96"/>
-      <c r="M99" s="96"/>
-      <c r="N99" s="96"/>
-      <c r="O99" s="96"/>
-      <c r="P99" s="96"/>
-      <c r="Q99" s="96"/>
-      <c r="R99" s="96"/>
-      <c r="S99" s="96"/>
-      <c r="T99" s="96"/>
-      <c r="U99" s="96"/>
-      <c r="V99" s="96"/>
+      <c r="A99" s="108"/>
+      <c r="B99" s="108"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="108"/>
+      <c r="H99" s="108"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="108"/>
+      <c r="K99" s="108"/>
+      <c r="L99" s="108"/>
+      <c r="M99" s="108"/>
+      <c r="N99" s="108"/>
+      <c r="O99" s="108"/>
+      <c r="P99" s="108"/>
+      <c r="Q99" s="108"/>
+      <c r="R99" s="108"/>
+      <c r="S99" s="108"/>
+      <c r="T99" s="108"/>
+      <c r="U99" s="108"/>
+      <c r="V99" s="108"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="96"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="96"/>
-      <c r="D100" s="96"/>
-      <c r="E100" s="96"/>
-      <c r="F100" s="96"/>
-      <c r="G100" s="96"/>
-      <c r="H100" s="96"/>
-      <c r="I100" s="96"/>
-      <c r="J100" s="96"/>
-      <c r="K100" s="96"/>
-      <c r="L100" s="96"/>
-      <c r="M100" s="96"/>
-      <c r="N100" s="96"/>
-      <c r="O100" s="96"/>
-      <c r="P100" s="96"/>
-      <c r="Q100" s="96"/>
-      <c r="R100" s="96"/>
-      <c r="S100" s="96"/>
-      <c r="T100" s="96"/>
-      <c r="U100" s="96"/>
-      <c r="V100" s="96"/>
+      <c r="A100" s="108"/>
+      <c r="B100" s="108"/>
+      <c r="C100" s="108"/>
+      <c r="D100" s="108"/>
+      <c r="E100" s="108"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="108"/>
+      <c r="I100" s="108"/>
+      <c r="J100" s="108"/>
+      <c r="K100" s="108"/>
+      <c r="L100" s="108"/>
+      <c r="M100" s="108"/>
+      <c r="N100" s="108"/>
+      <c r="O100" s="108"/>
+      <c r="P100" s="108"/>
+      <c r="Q100" s="108"/>
+      <c r="R100" s="108"/>
+      <c r="S100" s="108"/>
+      <c r="T100" s="108"/>
+      <c r="U100" s="108"/>
+      <c r="V100" s="108"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="96"/>
-      <c r="B101" s="96"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="96"/>
-      <c r="G101" s="96"/>
-      <c r="H101" s="96"/>
-      <c r="I101" s="96"/>
-      <c r="J101" s="96"/>
-      <c r="K101" s="96"/>
-      <c r="L101" s="96"/>
-      <c r="M101" s="96"/>
-      <c r="N101" s="96"/>
-      <c r="O101" s="96"/>
-      <c r="P101" s="96"/>
-      <c r="Q101" s="96"/>
-      <c r="R101" s="96"/>
-      <c r="S101" s="96"/>
-      <c r="T101" s="96"/>
-      <c r="U101" s="96"/>
-      <c r="V101" s="96"/>
+      <c r="A101" s="108"/>
+      <c r="B101" s="108"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="108"/>
+      <c r="K101" s="108"/>
+      <c r="L101" s="108"/>
+      <c r="M101" s="108"/>
+      <c r="N101" s="108"/>
+      <c r="O101" s="108"/>
+      <c r="P101" s="108"/>
+      <c r="Q101" s="108"/>
+      <c r="R101" s="108"/>
+      <c r="S101" s="108"/>
+      <c r="T101" s="108"/>
+      <c r="U101" s="108"/>
+      <c r="V101" s="108"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="96"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="96"/>
-      <c r="E102" s="96"/>
-      <c r="F102" s="96"/>
-      <c r="G102" s="96"/>
-      <c r="H102" s="96"/>
-      <c r="I102" s="96"/>
-      <c r="J102" s="96"/>
-      <c r="K102" s="96"/>
-      <c r="L102" s="96"/>
-      <c r="M102" s="96"/>
-      <c r="N102" s="96"/>
-      <c r="O102" s="96"/>
-      <c r="P102" s="96"/>
-      <c r="Q102" s="96"/>
-      <c r="R102" s="96"/>
-      <c r="S102" s="96"/>
-      <c r="T102" s="96"/>
-      <c r="U102" s="96"/>
-      <c r="V102" s="96"/>
+      <c r="A102" s="108"/>
+      <c r="B102" s="108"/>
+      <c r="C102" s="108"/>
+      <c r="D102" s="108"/>
+      <c r="E102" s="108"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
+      <c r="H102" s="108"/>
+      <c r="I102" s="108"/>
+      <c r="J102" s="108"/>
+      <c r="K102" s="108"/>
+      <c r="L102" s="108"/>
+      <c r="M102" s="108"/>
+      <c r="N102" s="108"/>
+      <c r="O102" s="108"/>
+      <c r="P102" s="108"/>
+      <c r="Q102" s="108"/>
+      <c r="R102" s="108"/>
+      <c r="S102" s="108"/>
+      <c r="T102" s="108"/>
+      <c r="U102" s="108"/>
+      <c r="V102" s="108"/>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="96"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="96"/>
-      <c r="E103" s="96"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="96"/>
-      <c r="H103" s="96"/>
-      <c r="I103" s="96"/>
-      <c r="J103" s="96"/>
-      <c r="K103" s="96"/>
-      <c r="L103" s="96"/>
-      <c r="M103" s="96"/>
-      <c r="N103" s="96"/>
-      <c r="O103" s="96"/>
-      <c r="P103" s="96"/>
-      <c r="Q103" s="96"/>
-      <c r="R103" s="96"/>
-      <c r="S103" s="96"/>
-      <c r="T103" s="96"/>
-      <c r="U103" s="96"/>
-      <c r="V103" s="96"/>
+      <c r="A103" s="108"/>
+      <c r="B103" s="108"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
+      <c r="I103" s="108"/>
+      <c r="J103" s="108"/>
+      <c r="K103" s="108"/>
+      <c r="L103" s="108"/>
+      <c r="M103" s="108"/>
+      <c r="N103" s="108"/>
+      <c r="O103" s="108"/>
+      <c r="P103" s="108"/>
+      <c r="Q103" s="108"/>
+      <c r="R103" s="108"/>
+      <c r="S103" s="108"/>
+      <c r="T103" s="108"/>
+      <c r="U103" s="108"/>
+      <c r="V103" s="108"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="96"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="96"/>
-      <c r="D104" s="96"/>
-      <c r="E104" s="96"/>
-      <c r="F104" s="96"/>
-      <c r="G104" s="96"/>
-      <c r="H104" s="96"/>
-      <c r="I104" s="96"/>
-      <c r="J104" s="96"/>
-      <c r="K104" s="96"/>
-      <c r="L104" s="96"/>
-      <c r="M104" s="96"/>
-      <c r="N104" s="96"/>
-      <c r="O104" s="96"/>
-      <c r="P104" s="96"/>
-      <c r="Q104" s="96"/>
-      <c r="R104" s="96"/>
-      <c r="S104" s="96"/>
-      <c r="T104" s="96"/>
-      <c r="U104" s="96"/>
-      <c r="V104" s="96"/>
+      <c r="A104" s="108"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="108"/>
+      <c r="D104" s="108"/>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="108"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="108"/>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108"/>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="108"/>
+      <c r="T104" s="108"/>
+      <c r="U104" s="108"/>
+      <c r="V104" s="108"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="96"/>
-      <c r="B105" s="96"/>
-      <c r="C105" s="96"/>
-      <c r="D105" s="96"/>
-      <c r="E105" s="96"/>
-      <c r="F105" s="96"/>
-      <c r="G105" s="96"/>
-      <c r="H105" s="96"/>
-      <c r="I105" s="96"/>
-      <c r="J105" s="96"/>
-      <c r="K105" s="96"/>
-      <c r="L105" s="96"/>
-      <c r="M105" s="96"/>
-      <c r="N105" s="96"/>
-      <c r="O105" s="96"/>
-      <c r="P105" s="96"/>
-      <c r="Q105" s="96"/>
-      <c r="R105" s="96"/>
-      <c r="S105" s="96"/>
-      <c r="T105" s="96"/>
-      <c r="U105" s="96"/>
-      <c r="V105" s="96"/>
+      <c r="A105" s="108"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="108"/>
+      <c r="I105" s="108"/>
+      <c r="J105" s="108"/>
+      <c r="K105" s="108"/>
+      <c r="L105" s="108"/>
+      <c r="M105" s="108"/>
+      <c r="N105" s="108"/>
+      <c r="O105" s="108"/>
+      <c r="P105" s="108"/>
+      <c r="Q105" s="108"/>
+      <c r="R105" s="108"/>
+      <c r="S105" s="108"/>
+      <c r="T105" s="108"/>
+      <c r="U105" s="108"/>
+      <c r="V105" s="108"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="96"/>
-      <c r="B106" s="96"/>
-      <c r="C106" s="96"/>
-      <c r="D106" s="96"/>
-      <c r="E106" s="96"/>
-      <c r="F106" s="96"/>
-      <c r="G106" s="96"/>
-      <c r="H106" s="96"/>
-      <c r="I106" s="96"/>
-      <c r="J106" s="96"/>
-      <c r="K106" s="96"/>
-      <c r="L106" s="96"/>
-      <c r="M106" s="96"/>
-      <c r="N106" s="96"/>
-      <c r="O106" s="96"/>
-      <c r="P106" s="96"/>
-      <c r="Q106" s="96"/>
-      <c r="R106" s="96"/>
-      <c r="S106" s="96"/>
-      <c r="T106" s="96"/>
-      <c r="U106" s="96"/>
-      <c r="V106" s="96"/>
+      <c r="A106" s="108"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="108"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="108"/>
+      <c r="F106" s="108"/>
+      <c r="G106" s="108"/>
+      <c r="H106" s="108"/>
+      <c r="I106" s="108"/>
+      <c r="J106" s="108"/>
+      <c r="K106" s="108"/>
+      <c r="L106" s="108"/>
+      <c r="M106" s="108"/>
+      <c r="N106" s="108"/>
+      <c r="O106" s="108"/>
+      <c r="P106" s="108"/>
+      <c r="Q106" s="108"/>
+      <c r="R106" s="108"/>
+      <c r="S106" s="108"/>
+      <c r="T106" s="108"/>
+      <c r="U106" s="108"/>
+      <c r="V106" s="108"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="96"/>
-      <c r="B107" s="96"/>
-      <c r="C107" s="96"/>
-      <c r="D107" s="96"/>
-      <c r="E107" s="96"/>
-      <c r="F107" s="96"/>
-      <c r="G107" s="96"/>
-      <c r="H107" s="96"/>
-      <c r="I107" s="96"/>
-      <c r="J107" s="96"/>
-      <c r="K107" s="96"/>
-      <c r="L107" s="96"/>
-      <c r="M107" s="96"/>
-      <c r="N107" s="96"/>
-      <c r="O107" s="96"/>
-      <c r="P107" s="96"/>
-      <c r="Q107" s="96"/>
-      <c r="R107" s="96"/>
-      <c r="S107" s="96"/>
-      <c r="T107" s="96"/>
-      <c r="U107" s="96"/>
-      <c r="V107" s="96"/>
+      <c r="A107" s="108"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="108"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="108"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="108"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="108"/>
+      <c r="K107" s="108"/>
+      <c r="L107" s="108"/>
+      <c r="M107" s="108"/>
+      <c r="N107" s="108"/>
+      <c r="O107" s="108"/>
+      <c r="P107" s="108"/>
+      <c r="Q107" s="108"/>
+      <c r="R107" s="108"/>
+      <c r="S107" s="108"/>
+      <c r="T107" s="108"/>
+      <c r="U107" s="108"/>
+      <c r="V107" s="108"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="96"/>
-      <c r="B108" s="96"/>
-      <c r="C108" s="96"/>
-      <c r="D108" s="96"/>
-      <c r="E108" s="96"/>
-      <c r="F108" s="96"/>
-      <c r="G108" s="96"/>
-      <c r="H108" s="96"/>
-      <c r="I108" s="96"/>
-      <c r="J108" s="96"/>
-      <c r="K108" s="96"/>
-      <c r="L108" s="96"/>
-      <c r="M108" s="96"/>
-      <c r="N108" s="96"/>
-      <c r="O108" s="96"/>
-      <c r="P108" s="96"/>
-      <c r="Q108" s="96"/>
-      <c r="R108" s="96"/>
-      <c r="S108" s="96"/>
-      <c r="T108" s="96"/>
-      <c r="U108" s="96"/>
-      <c r="V108" s="96"/>
+      <c r="A108" s="108"/>
+      <c r="B108" s="108"/>
+      <c r="C108" s="108"/>
+      <c r="D108" s="108"/>
+      <c r="E108" s="108"/>
+      <c r="F108" s="108"/>
+      <c r="G108" s="108"/>
+      <c r="H108" s="108"/>
+      <c r="I108" s="108"/>
+      <c r="J108" s="108"/>
+      <c r="K108" s="108"/>
+      <c r="L108" s="108"/>
+      <c r="M108" s="108"/>
+      <c r="N108" s="108"/>
+      <c r="O108" s="108"/>
+      <c r="P108" s="108"/>
+      <c r="Q108" s="108"/>
+      <c r="R108" s="108"/>
+      <c r="S108" s="108"/>
+      <c r="T108" s="108"/>
+      <c r="U108" s="108"/>
+      <c r="V108" s="108"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="96"/>
-      <c r="B109" s="96"/>
-      <c r="C109" s="96"/>
-      <c r="D109" s="96"/>
-      <c r="E109" s="96"/>
-      <c r="F109" s="96"/>
-      <c r="G109" s="96"/>
-      <c r="H109" s="96"/>
-      <c r="I109" s="96"/>
-      <c r="J109" s="96"/>
-      <c r="K109" s="96"/>
-      <c r="L109" s="96"/>
-      <c r="M109" s="96"/>
-      <c r="N109" s="96"/>
-      <c r="O109" s="96"/>
-      <c r="P109" s="96"/>
-      <c r="Q109" s="96"/>
-      <c r="R109" s="96"/>
-      <c r="S109" s="96"/>
-      <c r="T109" s="96"/>
-      <c r="U109" s="96"/>
-      <c r="V109" s="96"/>
+      <c r="A109" s="108"/>
+      <c r="B109" s="108"/>
+      <c r="C109" s="108"/>
+      <c r="D109" s="108"/>
+      <c r="E109" s="108"/>
+      <c r="F109" s="108"/>
+      <c r="G109" s="108"/>
+      <c r="H109" s="108"/>
+      <c r="I109" s="108"/>
+      <c r="J109" s="108"/>
+      <c r="K109" s="108"/>
+      <c r="L109" s="108"/>
+      <c r="M109" s="108"/>
+      <c r="N109" s="108"/>
+      <c r="O109" s="108"/>
+      <c r="P109" s="108"/>
+      <c r="Q109" s="108"/>
+      <c r="R109" s="108"/>
+      <c r="S109" s="108"/>
+      <c r="T109" s="108"/>
+      <c r="U109" s="108"/>
+      <c r="V109" s="108"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="96"/>
-      <c r="B110" s="96"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="96"/>
-      <c r="E110" s="96"/>
-      <c r="F110" s="96"/>
-      <c r="G110" s="96"/>
-      <c r="H110" s="96"/>
-      <c r="I110" s="96"/>
-      <c r="J110" s="96"/>
-      <c r="K110" s="96"/>
-      <c r="L110" s="96"/>
-      <c r="M110" s="96"/>
-      <c r="N110" s="96"/>
-      <c r="O110" s="96"/>
-      <c r="P110" s="96"/>
-      <c r="Q110" s="96"/>
-      <c r="R110" s="96"/>
-      <c r="S110" s="96"/>
-      <c r="T110" s="96"/>
-      <c r="U110" s="96"/>
-      <c r="V110" s="96"/>
+      <c r="A110" s="108"/>
+      <c r="B110" s="108"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="108"/>
+      <c r="E110" s="108"/>
+      <c r="F110" s="108"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="108"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="108"/>
+      <c r="K110" s="108"/>
+      <c r="L110" s="108"/>
+      <c r="M110" s="108"/>
+      <c r="N110" s="108"/>
+      <c r="O110" s="108"/>
+      <c r="P110" s="108"/>
+      <c r="Q110" s="108"/>
+      <c r="R110" s="108"/>
+      <c r="S110" s="108"/>
+      <c r="T110" s="108"/>
+      <c r="U110" s="108"/>
+      <c r="V110" s="108"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="96"/>
-      <c r="B111" s="96"/>
-      <c r="C111" s="96"/>
-      <c r="D111" s="96"/>
-      <c r="E111" s="96"/>
-      <c r="F111" s="96"/>
-      <c r="G111" s="96"/>
-      <c r="H111" s="96"/>
-      <c r="I111" s="96"/>
-      <c r="J111" s="96"/>
-      <c r="K111" s="96"/>
-      <c r="L111" s="96"/>
-      <c r="M111" s="96"/>
-      <c r="N111" s="96"/>
-      <c r="O111" s="96"/>
-      <c r="P111" s="96"/>
-      <c r="Q111" s="96"/>
-      <c r="R111" s="96"/>
-      <c r="S111" s="96"/>
-      <c r="T111" s="96"/>
-      <c r="U111" s="96"/>
-      <c r="V111" s="96"/>
+      <c r="A111" s="108"/>
+      <c r="B111" s="108"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="108"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="108"/>
+      <c r="H111" s="108"/>
+      <c r="I111" s="108"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="108"/>
+      <c r="L111" s="108"/>
+      <c r="M111" s="108"/>
+      <c r="N111" s="108"/>
+      <c r="O111" s="108"/>
+      <c r="P111" s="108"/>
+      <c r="Q111" s="108"/>
+      <c r="R111" s="108"/>
+      <c r="S111" s="108"/>
+      <c r="T111" s="108"/>
+      <c r="U111" s="108"/>
+      <c r="V111" s="108"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="96"/>
-      <c r="B112" s="96"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="96"/>
-      <c r="E112" s="96"/>
-      <c r="F112" s="96"/>
-      <c r="G112" s="96"/>
-      <c r="H112" s="96"/>
-      <c r="I112" s="96"/>
-      <c r="J112" s="96"/>
-      <c r="K112" s="96"/>
-      <c r="L112" s="96"/>
-      <c r="M112" s="96"/>
-      <c r="N112" s="96"/>
-      <c r="O112" s="96"/>
-      <c r="P112" s="96"/>
-      <c r="Q112" s="96"/>
-      <c r="R112" s="96"/>
-      <c r="S112" s="96"/>
-      <c r="T112" s="96"/>
-      <c r="U112" s="96"/>
-      <c r="V112" s="96"/>
+      <c r="A112" s="108"/>
+      <c r="B112" s="108"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="108"/>
+      <c r="E112" s="108"/>
+      <c r="F112" s="108"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="108"/>
+      <c r="I112" s="108"/>
+      <c r="J112" s="108"/>
+      <c r="K112" s="108"/>
+      <c r="L112" s="108"/>
+      <c r="M112" s="108"/>
+      <c r="N112" s="108"/>
+      <c r="O112" s="108"/>
+      <c r="P112" s="108"/>
+      <c r="Q112" s="108"/>
+      <c r="R112" s="108"/>
+      <c r="S112" s="108"/>
+      <c r="T112" s="108"/>
+      <c r="U112" s="108"/>
+      <c r="V112" s="108"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="96"/>
-      <c r="B113" s="96"/>
-      <c r="C113" s="96"/>
-      <c r="D113" s="96"/>
-      <c r="E113" s="96"/>
-      <c r="F113" s="96"/>
-      <c r="G113" s="96"/>
-      <c r="H113" s="96"/>
-      <c r="I113" s="96"/>
-      <c r="J113" s="96"/>
-      <c r="K113" s="96"/>
-      <c r="L113" s="96"/>
-      <c r="M113" s="96"/>
-      <c r="N113" s="96"/>
-      <c r="O113" s="96"/>
-      <c r="P113" s="96"/>
-      <c r="Q113" s="96"/>
-      <c r="R113" s="96"/>
-      <c r="S113" s="96"/>
-      <c r="T113" s="96"/>
-      <c r="U113" s="96"/>
-      <c r="V113" s="96"/>
+      <c r="A113" s="108"/>
+      <c r="B113" s="108"/>
+      <c r="C113" s="108"/>
+      <c r="D113" s="108"/>
+      <c r="E113" s="108"/>
+      <c r="F113" s="108"/>
+      <c r="G113" s="108"/>
+      <c r="H113" s="108"/>
+      <c r="I113" s="108"/>
+      <c r="J113" s="108"/>
+      <c r="K113" s="108"/>
+      <c r="L113" s="108"/>
+      <c r="M113" s="108"/>
+      <c r="N113" s="108"/>
+      <c r="O113" s="108"/>
+      <c r="P113" s="108"/>
+      <c r="Q113" s="108"/>
+      <c r="R113" s="108"/>
+      <c r="S113" s="108"/>
+      <c r="T113" s="108"/>
+      <c r="U113" s="108"/>
+      <c r="V113" s="108"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="96"/>
-      <c r="B114" s="96"/>
-      <c r="C114" s="96"/>
-      <c r="D114" s="96"/>
-      <c r="E114" s="96"/>
-      <c r="F114" s="96"/>
-      <c r="G114" s="96"/>
-      <c r="H114" s="96"/>
-      <c r="I114" s="96"/>
-      <c r="J114" s="96"/>
-      <c r="K114" s="96"/>
-      <c r="L114" s="96"/>
-      <c r="M114" s="96"/>
-      <c r="N114" s="96"/>
-      <c r="O114" s="96"/>
-      <c r="P114" s="96"/>
-      <c r="Q114" s="96"/>
-      <c r="R114" s="96"/>
-      <c r="S114" s="96"/>
-      <c r="T114" s="96"/>
-      <c r="U114" s="96"/>
-      <c r="V114" s="96"/>
+      <c r="A114" s="108"/>
+      <c r="B114" s="108"/>
+      <c r="C114" s="108"/>
+      <c r="D114" s="108"/>
+      <c r="E114" s="108"/>
+      <c r="F114" s="108"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="108"/>
+      <c r="I114" s="108"/>
+      <c r="J114" s="108"/>
+      <c r="K114" s="108"/>
+      <c r="L114" s="108"/>
+      <c r="M114" s="108"/>
+      <c r="N114" s="108"/>
+      <c r="O114" s="108"/>
+      <c r="P114" s="108"/>
+      <c r="Q114" s="108"/>
+      <c r="R114" s="108"/>
+      <c r="S114" s="108"/>
+      <c r="T114" s="108"/>
+      <c r="U114" s="108"/>
+      <c r="V114" s="108"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="96"/>
-      <c r="B115" s="96"/>
-      <c r="C115" s="96"/>
-      <c r="D115" s="96"/>
-      <c r="E115" s="96"/>
-      <c r="F115" s="96"/>
-      <c r="G115" s="96"/>
-      <c r="H115" s="96"/>
-      <c r="I115" s="96"/>
-      <c r="J115" s="96"/>
-      <c r="K115" s="96"/>
-      <c r="L115" s="96"/>
-      <c r="M115" s="96"/>
-      <c r="N115" s="96"/>
-      <c r="O115" s="96"/>
-      <c r="P115" s="96"/>
-      <c r="Q115" s="96"/>
-      <c r="R115" s="96"/>
-      <c r="S115" s="96"/>
-      <c r="T115" s="96"/>
-      <c r="U115" s="96"/>
-      <c r="V115" s="96"/>
+      <c r="A115" s="108"/>
+      <c r="B115" s="108"/>
+      <c r="C115" s="108"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="108"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="108"/>
+      <c r="H115" s="108"/>
+      <c r="I115" s="108"/>
+      <c r="J115" s="108"/>
+      <c r="K115" s="108"/>
+      <c r="L115" s="108"/>
+      <c r="M115" s="108"/>
+      <c r="N115" s="108"/>
+      <c r="O115" s="108"/>
+      <c r="P115" s="108"/>
+      <c r="Q115" s="108"/>
+      <c r="R115" s="108"/>
+      <c r="S115" s="108"/>
+      <c r="T115" s="108"/>
+      <c r="U115" s="108"/>
+      <c r="V115" s="108"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="96"/>
-      <c r="B116" s="96"/>
-      <c r="C116" s="96"/>
-      <c r="D116" s="96"/>
-      <c r="E116" s="96"/>
-      <c r="F116" s="96"/>
-      <c r="G116" s="96"/>
-      <c r="H116" s="96"/>
-      <c r="I116" s="96"/>
-      <c r="J116" s="96"/>
-      <c r="K116" s="96"/>
-      <c r="L116" s="96"/>
-      <c r="M116" s="96"/>
-      <c r="N116" s="96"/>
-      <c r="O116" s="96"/>
-      <c r="P116" s="96"/>
-      <c r="Q116" s="96"/>
-      <c r="R116" s="96"/>
-      <c r="S116" s="96"/>
-      <c r="T116" s="96"/>
-      <c r="U116" s="96"/>
-      <c r="V116" s="96"/>
+      <c r="A116" s="108"/>
+      <c r="B116" s="108"/>
+      <c r="C116" s="108"/>
+      <c r="D116" s="108"/>
+      <c r="E116" s="108"/>
+      <c r="F116" s="108"/>
+      <c r="G116" s="108"/>
+      <c r="H116" s="108"/>
+      <c r="I116" s="108"/>
+      <c r="J116" s="108"/>
+      <c r="K116" s="108"/>
+      <c r="L116" s="108"/>
+      <c r="M116" s="108"/>
+      <c r="N116" s="108"/>
+      <c r="O116" s="108"/>
+      <c r="P116" s="108"/>
+      <c r="Q116" s="108"/>
+      <c r="R116" s="108"/>
+      <c r="S116" s="108"/>
+      <c r="T116" s="108"/>
+      <c r="U116" s="108"/>
+      <c r="V116" s="108"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="96"/>
-      <c r="B117" s="96"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="96"/>
-      <c r="E117" s="96"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
-      <c r="H117" s="96"/>
-      <c r="I117" s="96"/>
-      <c r="J117" s="96"/>
-      <c r="K117" s="96"/>
-      <c r="L117" s="96"/>
-      <c r="M117" s="96"/>
-      <c r="N117" s="96"/>
-      <c r="O117" s="96"/>
-      <c r="P117" s="96"/>
-      <c r="Q117" s="96"/>
-      <c r="R117" s="96"/>
-      <c r="S117" s="96"/>
-      <c r="T117" s="96"/>
-      <c r="U117" s="96"/>
-      <c r="V117" s="96"/>
+      <c r="A117" s="108"/>
+      <c r="B117" s="108"/>
+      <c r="C117" s="108"/>
+      <c r="D117" s="108"/>
+      <c r="E117" s="108"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="108"/>
+      <c r="H117" s="108"/>
+      <c r="I117" s="108"/>
+      <c r="J117" s="108"/>
+      <c r="K117" s="108"/>
+      <c r="L117" s="108"/>
+      <c r="M117" s="108"/>
+      <c r="N117" s="108"/>
+      <c r="O117" s="108"/>
+      <c r="P117" s="108"/>
+      <c r="Q117" s="108"/>
+      <c r="R117" s="108"/>
+      <c r="S117" s="108"/>
+      <c r="T117" s="108"/>
+      <c r="U117" s="108"/>
+      <c r="V117" s="108"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="96"/>
-      <c r="B118" s="96"/>
-      <c r="C118" s="96"/>
-      <c r="D118" s="96"/>
-      <c r="E118" s="96"/>
-      <c r="F118" s="96"/>
-      <c r="G118" s="96"/>
-      <c r="H118" s="96"/>
-      <c r="I118" s="96"/>
-      <c r="J118" s="96"/>
-      <c r="K118" s="96"/>
-      <c r="L118" s="96"/>
-      <c r="M118" s="96"/>
-      <c r="N118" s="96"/>
-      <c r="O118" s="96"/>
-      <c r="P118" s="96"/>
-      <c r="Q118" s="96"/>
-      <c r="R118" s="96"/>
-      <c r="S118" s="96"/>
-      <c r="T118" s="96"/>
-      <c r="U118" s="96"/>
-      <c r="V118" s="96"/>
+      <c r="A118" s="108"/>
+      <c r="B118" s="108"/>
+      <c r="C118" s="108"/>
+      <c r="D118" s="108"/>
+      <c r="E118" s="108"/>
+      <c r="F118" s="108"/>
+      <c r="G118" s="108"/>
+      <c r="H118" s="108"/>
+      <c r="I118" s="108"/>
+      <c r="J118" s="108"/>
+      <c r="K118" s="108"/>
+      <c r="L118" s="108"/>
+      <c r="M118" s="108"/>
+      <c r="N118" s="108"/>
+      <c r="O118" s="108"/>
+      <c r="P118" s="108"/>
+      <c r="Q118" s="108"/>
+      <c r="R118" s="108"/>
+      <c r="S118" s="108"/>
+      <c r="T118" s="108"/>
+      <c r="U118" s="108"/>
+      <c r="V118" s="108"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="96"/>
-      <c r="B119" s="96"/>
-      <c r="C119" s="96"/>
-      <c r="D119" s="96"/>
-      <c r="E119" s="96"/>
-      <c r="F119" s="96"/>
-      <c r="G119" s="96"/>
-      <c r="H119" s="96"/>
-      <c r="I119" s="96"/>
-      <c r="J119" s="96"/>
-      <c r="K119" s="96"/>
-      <c r="L119" s="96"/>
-      <c r="M119" s="96"/>
-      <c r="N119" s="96"/>
-      <c r="O119" s="96"/>
-      <c r="P119" s="96"/>
-      <c r="Q119" s="96"/>
-      <c r="R119" s="96"/>
-      <c r="S119" s="96"/>
-      <c r="T119" s="96"/>
-      <c r="U119" s="96"/>
-      <c r="V119" s="96"/>
+      <c r="A119" s="108"/>
+      <c r="B119" s="108"/>
+      <c r="C119" s="108"/>
+      <c r="D119" s="108"/>
+      <c r="E119" s="108"/>
+      <c r="F119" s="108"/>
+      <c r="G119" s="108"/>
+      <c r="H119" s="108"/>
+      <c r="I119" s="108"/>
+      <c r="J119" s="108"/>
+      <c r="K119" s="108"/>
+      <c r="L119" s="108"/>
+      <c r="M119" s="108"/>
+      <c r="N119" s="108"/>
+      <c r="O119" s="108"/>
+      <c r="P119" s="108"/>
+      <c r="Q119" s="108"/>
+      <c r="R119" s="108"/>
+      <c r="S119" s="108"/>
+      <c r="T119" s="108"/>
+      <c r="U119" s="108"/>
+      <c r="V119" s="108"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="96"/>
-      <c r="B120" s="96"/>
-      <c r="C120" s="96"/>
-      <c r="D120" s="96"/>
-      <c r="E120" s="96"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
-      <c r="H120" s="96"/>
-      <c r="I120" s="96"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="96"/>
-      <c r="L120" s="96"/>
-      <c r="M120" s="96"/>
-      <c r="N120" s="96"/>
-      <c r="O120" s="96"/>
-      <c r="P120" s="96"/>
-      <c r="Q120" s="96"/>
-      <c r="R120" s="96"/>
-      <c r="S120" s="96"/>
-      <c r="T120" s="96"/>
-      <c r="U120" s="96"/>
-      <c r="V120" s="96"/>
+      <c r="A120" s="108"/>
+      <c r="B120" s="108"/>
+      <c r="C120" s="108"/>
+      <c r="D120" s="108"/>
+      <c r="E120" s="108"/>
+      <c r="F120" s="108"/>
+      <c r="G120" s="108"/>
+      <c r="H120" s="108"/>
+      <c r="I120" s="108"/>
+      <c r="J120" s="108"/>
+      <c r="K120" s="108"/>
+      <c r="L120" s="108"/>
+      <c r="M120" s="108"/>
+      <c r="N120" s="108"/>
+      <c r="O120" s="108"/>
+      <c r="P120" s="108"/>
+      <c r="Q120" s="108"/>
+      <c r="R120" s="108"/>
+      <c r="S120" s="108"/>
+      <c r="T120" s="108"/>
+      <c r="U120" s="108"/>
+      <c r="V120" s="108"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="96"/>
-      <c r="B121" s="96"/>
-      <c r="C121" s="96"/>
-      <c r="D121" s="96"/>
-      <c r="E121" s="96"/>
-      <c r="F121" s="96"/>
-      <c r="G121" s="96"/>
-      <c r="H121" s="96"/>
-      <c r="I121" s="96"/>
-      <c r="J121" s="96"/>
-      <c r="K121" s="96"/>
-      <c r="L121" s="96"/>
-      <c r="M121" s="96"/>
-      <c r="N121" s="96"/>
-      <c r="O121" s="96"/>
-      <c r="P121" s="96"/>
-      <c r="Q121" s="96"/>
-      <c r="R121" s="96"/>
-      <c r="S121" s="96"/>
-      <c r="T121" s="96"/>
-      <c r="U121" s="96"/>
-      <c r="V121" s="96"/>
+      <c r="A121" s="108"/>
+      <c r="B121" s="108"/>
+      <c r="C121" s="108"/>
+      <c r="D121" s="108"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="108"/>
+      <c r="G121" s="108"/>
+      <c r="H121" s="108"/>
+      <c r="I121" s="108"/>
+      <c r="J121" s="108"/>
+      <c r="K121" s="108"/>
+      <c r="L121" s="108"/>
+      <c r="M121" s="108"/>
+      <c r="N121" s="108"/>
+      <c r="O121" s="108"/>
+      <c r="P121" s="108"/>
+      <c r="Q121" s="108"/>
+      <c r="R121" s="108"/>
+      <c r="S121" s="108"/>
+      <c r="T121" s="108"/>
+      <c r="U121" s="108"/>
+      <c r="V121" s="108"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="96"/>
-      <c r="B122" s="96"/>
-      <c r="C122" s="96"/>
-      <c r="D122" s="96"/>
-      <c r="E122" s="96"/>
-      <c r="F122" s="96"/>
-      <c r="G122" s="96"/>
-      <c r="H122" s="96"/>
-      <c r="I122" s="96"/>
-      <c r="J122" s="96"/>
-      <c r="K122" s="96"/>
-      <c r="L122" s="96"/>
-      <c r="M122" s="96"/>
-      <c r="N122" s="96"/>
-      <c r="O122" s="96"/>
-      <c r="P122" s="96"/>
-      <c r="Q122" s="96"/>
-      <c r="R122" s="96"/>
-      <c r="S122" s="96"/>
-      <c r="T122" s="96"/>
-      <c r="U122" s="96"/>
-      <c r="V122" s="96"/>
+      <c r="A122" s="108"/>
+      <c r="B122" s="108"/>
+      <c r="C122" s="108"/>
+      <c r="D122" s="108"/>
+      <c r="E122" s="108"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="108"/>
+      <c r="H122" s="108"/>
+      <c r="I122" s="108"/>
+      <c r="J122" s="108"/>
+      <c r="K122" s="108"/>
+      <c r="L122" s="108"/>
+      <c r="M122" s="108"/>
+      <c r="N122" s="108"/>
+      <c r="O122" s="108"/>
+      <c r="P122" s="108"/>
+      <c r="Q122" s="108"/>
+      <c r="R122" s="108"/>
+      <c r="S122" s="108"/>
+      <c r="T122" s="108"/>
+      <c r="U122" s="108"/>
+      <c r="V122" s="108"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="96"/>
-      <c r="B123" s="96"/>
-      <c r="C123" s="96"/>
-      <c r="D123" s="96"/>
-      <c r="E123" s="96"/>
-      <c r="F123" s="96"/>
-      <c r="G123" s="96"/>
-      <c r="H123" s="96"/>
-      <c r="I123" s="96"/>
-      <c r="J123" s="96"/>
-      <c r="K123" s="96"/>
-      <c r="L123" s="96"/>
-      <c r="M123" s="96"/>
-      <c r="N123" s="96"/>
-      <c r="O123" s="96"/>
-      <c r="P123" s="96"/>
-      <c r="Q123" s="96"/>
-      <c r="R123" s="96"/>
-      <c r="S123" s="96"/>
-      <c r="T123" s="96"/>
-      <c r="U123" s="96"/>
-      <c r="V123" s="96"/>
+      <c r="A123" s="108"/>
+      <c r="B123" s="108"/>
+      <c r="C123" s="108"/>
+      <c r="D123" s="108"/>
+      <c r="E123" s="108"/>
+      <c r="F123" s="108"/>
+      <c r="G123" s="108"/>
+      <c r="H123" s="108"/>
+      <c r="I123" s="108"/>
+      <c r="J123" s="108"/>
+      <c r="K123" s="108"/>
+      <c r="L123" s="108"/>
+      <c r="M123" s="108"/>
+      <c r="N123" s="108"/>
+      <c r="O123" s="108"/>
+      <c r="P123" s="108"/>
+      <c r="Q123" s="108"/>
+      <c r="R123" s="108"/>
+      <c r="S123" s="108"/>
+      <c r="T123" s="108"/>
+      <c r="U123" s="108"/>
+      <c r="V123" s="108"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="96"/>
-      <c r="B124" s="96"/>
-      <c r="C124" s="96"/>
-      <c r="D124" s="96"/>
-      <c r="E124" s="96"/>
-      <c r="F124" s="96"/>
-      <c r="G124" s="96"/>
-      <c r="H124" s="96"/>
-      <c r="I124" s="96"/>
-      <c r="J124" s="96"/>
-      <c r="K124" s="96"/>
-      <c r="L124" s="96"/>
-      <c r="M124" s="96"/>
-      <c r="N124" s="96"/>
-      <c r="O124" s="96"/>
-      <c r="P124" s="96"/>
-      <c r="Q124" s="96"/>
-      <c r="R124" s="96"/>
-      <c r="S124" s="96"/>
-      <c r="T124" s="96"/>
-      <c r="U124" s="96"/>
-      <c r="V124" s="96"/>
+      <c r="A124" s="108"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="108"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="108"/>
+      <c r="H124" s="108"/>
+      <c r="I124" s="108"/>
+      <c r="J124" s="108"/>
+      <c r="K124" s="108"/>
+      <c r="L124" s="108"/>
+      <c r="M124" s="108"/>
+      <c r="N124" s="108"/>
+      <c r="O124" s="108"/>
+      <c r="P124" s="108"/>
+      <c r="Q124" s="108"/>
+      <c r="R124" s="108"/>
+      <c r="S124" s="108"/>
+      <c r="T124" s="108"/>
+      <c r="U124" s="108"/>
+      <c r="V124" s="108"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="96"/>
-      <c r="B125" s="96"/>
-      <c r="C125" s="96"/>
-      <c r="D125" s="96"/>
-      <c r="E125" s="96"/>
-      <c r="F125" s="96"/>
-      <c r="G125" s="96"/>
-      <c r="H125" s="96"/>
-      <c r="I125" s="96"/>
-      <c r="J125" s="96"/>
-      <c r="K125" s="96"/>
-      <c r="L125" s="96"/>
-      <c r="M125" s="96"/>
-      <c r="N125" s="96"/>
-      <c r="O125" s="96"/>
-      <c r="P125" s="96"/>
-      <c r="Q125" s="96"/>
-      <c r="R125" s="96"/>
-      <c r="S125" s="96"/>
-      <c r="T125" s="96"/>
-      <c r="U125" s="96"/>
-      <c r="V125" s="96"/>
+      <c r="A125" s="108"/>
+      <c r="B125" s="108"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="108"/>
+      <c r="E125" s="108"/>
+      <c r="F125" s="108"/>
+      <c r="G125" s="108"/>
+      <c r="H125" s="108"/>
+      <c r="I125" s="108"/>
+      <c r="J125" s="108"/>
+      <c r="K125" s="108"/>
+      <c r="L125" s="108"/>
+      <c r="M125" s="108"/>
+      <c r="N125" s="108"/>
+      <c r="O125" s="108"/>
+      <c r="P125" s="108"/>
+      <c r="Q125" s="108"/>
+      <c r="R125" s="108"/>
+      <c r="S125" s="108"/>
+      <c r="T125" s="108"/>
+      <c r="U125" s="108"/>
+      <c r="V125" s="108"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="96"/>
-      <c r="B126" s="96"/>
-      <c r="C126" s="96"/>
-      <c r="D126" s="96"/>
-      <c r="E126" s="96"/>
-      <c r="F126" s="96"/>
-      <c r="G126" s="96"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="96"/>
-      <c r="J126" s="96"/>
-      <c r="K126" s="96"/>
-      <c r="L126" s="96"/>
-      <c r="M126" s="96"/>
-      <c r="N126" s="96"/>
-      <c r="O126" s="96"/>
-      <c r="P126" s="96"/>
-      <c r="Q126" s="96"/>
-      <c r="R126" s="96"/>
-      <c r="S126" s="96"/>
-      <c r="T126" s="96"/>
-      <c r="U126" s="96"/>
-      <c r="V126" s="96"/>
+      <c r="A126" s="108"/>
+      <c r="B126" s="108"/>
+      <c r="C126" s="108"/>
+      <c r="D126" s="108"/>
+      <c r="E126" s="108"/>
+      <c r="F126" s="108"/>
+      <c r="G126" s="108"/>
+      <c r="H126" s="108"/>
+      <c r="I126" s="108"/>
+      <c r="J126" s="108"/>
+      <c r="K126" s="108"/>
+      <c r="L126" s="108"/>
+      <c r="M126" s="108"/>
+      <c r="N126" s="108"/>
+      <c r="O126" s="108"/>
+      <c r="P126" s="108"/>
+      <c r="Q126" s="108"/>
+      <c r="R126" s="108"/>
+      <c r="S126" s="108"/>
+      <c r="T126" s="108"/>
+      <c r="U126" s="108"/>
+      <c r="V126" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
+++ b/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
@@ -29,12 +29,12 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
+    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
     <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
-    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
-    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
-    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1228,6 +1228,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,132 +1365,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1512,7 +1512,7 @@
         <xdr:cNvPr id="8" name="순서도: 병합 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1578,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,26 +1936,26 @@
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="92"/>
+      <c r="D1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="92"/>
+      <c r="F1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="92"/>
+      <c r="H1" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="92"/>
+      <c r="J1" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="94"/>
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
@@ -1982,26 +1982,26 @@
       <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="88">
         <v>44165</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="53">
+      <c r="C2" s="89"/>
+      <c r="D2" s="88">
         <v>44166</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="53">
+      <c r="E2" s="89"/>
+      <c r="F2" s="88">
         <v>44167</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="53">
+      <c r="G2" s="89"/>
+      <c r="H2" s="88">
         <v>44169</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="53">
+      <c r="I2" s="89"/>
+      <c r="J2" s="88">
         <v>44170</v>
       </c>
-      <c r="K2" s="55"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -2028,24 +2028,24 @@
       <c r="A3" s="41">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66" t="s">
+      <c r="E3" s="83"/>
+      <c r="F3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="58" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="60"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
@@ -2072,18 +2072,18 @@
       <c r="A4" s="41">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="58" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="60"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="57"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
@@ -2112,8 +2112,8 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -2148,10 +2148,10 @@
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
@@ -2184,22 +2184,22 @@
       <c r="A7" s="44">
         <v>0.58333333333333404</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="56" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="66" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="60"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -2226,22 +2226,22 @@
       <c r="A8" s="44">
         <v>0.625</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="66"/>
+      <c r="D8" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="66" t="s">
+      <c r="E8" s="68"/>
+      <c r="F8" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="60"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -2268,16 +2268,16 @@
       <c r="A9" s="44">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="60"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -2304,16 +2304,16 @@
       <c r="A10" s="44">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="60"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="57"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -2340,18 +2340,18 @@
       <c r="A11" s="44">
         <v>0.75</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="62" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="60"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -2378,16 +2378,16 @@
       <c r="A12" s="44">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="60"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="57"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -2414,16 +2414,16 @@
       <c r="A13" s="47">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="78"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="81"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -2450,18 +2450,18 @@
       <c r="A14" s="47">
         <v>0.875</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="93" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="60"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="57"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
@@ -2488,16 +2488,16 @@
       <c r="A15" s="47">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="84"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
@@ -2524,16 +2524,16 @@
       <c r="A16" s="47">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="60"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="57"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -2557,19 +2557,19 @@
       <c r="AF16" s="38"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="91"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="59"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -2593,17 +2593,17 @@
       <c r="AF17" s="38"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="86"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="91"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -2627,17 +2627,17 @@
       <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="87"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="92"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -2763,19 +2763,19 @@
       <c r="AF22" s="38"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
@@ -2799,17 +2799,17 @@
       <c r="AF23" s="38"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -2833,17 +2833,17 @@
       <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -2870,16 +2870,16 @@
       <c r="A26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -2903,27 +2903,27 @@
       <c r="AF26" s="38"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90" t="s">
+      <c r="F27" s="53"/>
+      <c r="G27" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90" t="s">
+      <c r="H27" s="53"/>
+      <c r="I27" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
@@ -2947,17 +2947,17 @@
       <c r="AF27" s="38"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -2981,17 +2981,17 @@
       <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -3015,17 +3015,17 @@
       <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -3119,27 +3119,27 @@
       <c r="AF32" s="38"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90" t="s">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90" t="s">
+      <c r="F33" s="53"/>
+      <c r="G33" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90" t="s">
+      <c r="H33" s="53"/>
+      <c r="I33" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
@@ -3163,17 +3163,17 @@
       <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
@@ -3197,17 +3197,17 @@
       <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -3231,17 +3231,17 @@
       <c r="AF35" s="38"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -3302,16 +3302,16 @@
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -3335,27 +3335,27 @@
       <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90" t="s">
+      <c r="B39" s="53"/>
+      <c r="C39" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90" t="s">
+      <c r="F39" s="53"/>
+      <c r="G39" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90" t="s">
+      <c r="H39" s="53"/>
+      <c r="I39" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -3379,17 +3379,17 @@
       <c r="AF39" s="38"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="90"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -3413,17 +3413,17 @@
       <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="90"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -3447,17 +3447,17 @@
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="90"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -3958,78 +3958,16 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="A28:B30"/>
-    <mergeCell ref="C28:D30"/>
-    <mergeCell ref="E28:F30"/>
-    <mergeCell ref="G28:H30"/>
-    <mergeCell ref="I28:K30"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B36"/>
-    <mergeCell ref="C34:D36"/>
-    <mergeCell ref="E34:F36"/>
-    <mergeCell ref="G34:H36"/>
-    <mergeCell ref="I34:K36"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="A40:B42"/>
-    <mergeCell ref="C40:D42"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:H42"/>
-    <mergeCell ref="I40:K42"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K19"/>
-    <mergeCell ref="A23:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:I19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F8:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D8:E10"/>
-    <mergeCell ref="D11:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B8:C11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B3:C4"/>
@@ -4043,16 +3981,78 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="D6:E7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F8:G12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:I19"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="A40:B42"/>
+    <mergeCell ref="C40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:H42"/>
+    <mergeCell ref="I40:K42"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A34:B36"/>
+    <mergeCell ref="C34:D36"/>
+    <mergeCell ref="E34:F36"/>
+    <mergeCell ref="G34:H36"/>
+    <mergeCell ref="I34:K36"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="E28:F30"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="I28:K30"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K19"/>
+    <mergeCell ref="A23:K25"/>
+    <mergeCell ref="B26:K26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5726,12 +5726,41 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId2"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId3"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
+      <pane xSplit="2" ySplit="12" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21:B25"/>
+      <rowBreaks count="3" manualBreakCount="3">
+        <brk id="49" max="16383" man="1"/>
+        <brk id="107" max="16383" man="1"/>
+        <brk id="128" max="16383" man="1"/>
+      </rowBreaks>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
@@ -5744,41 +5773,12 @@
       </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId5"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
-      <pane xSplit="2" ySplit="12" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21:B25"/>
-      <rowBreaks count="3" manualBreakCount="3">
-        <brk id="49" max="16383" man="1"/>
-        <brk id="107" max="16383" man="1"/>
-        <brk id="128" max="16383" man="1"/>
-      </rowBreaks>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId3"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId4"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId5"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
+    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId6"/>
@@ -6481,11 +6481,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -6493,6 +6488,11 @@
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:V17">

--- a/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
+++ b/공용폴더/주간발표자료/주간_스토리보드_정리자료_JRH.xlsx
@@ -29,12 +29,12 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
+    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
+    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
+    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
     <customWorkbookView name="remarkv - 사용자 보기" guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
-    <customWorkbookView name="kimpro - 사용자 보기" guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="win7 - 사용자 보기" guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1920" windowHeight="842" activeSheetId="1"/>
-    <customWorkbookView name="whlee - 사용자 보기" guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" mergeInterval="0" personalView="1" maximized="1" xWindow="1592" yWindow="-188" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Registered User - 사용자 보기" guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1832" windowHeight="885" activeSheetId="1"/>
-    <customWorkbookView name="65405 - 사용자 보기" guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1596" windowHeight="662" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>작업이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,8 +309,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>홈페이지 삽입 영상
+썸네일 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지 삽입 영상
+사운드 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>홈페이지 레이아웃
-재 배치</t>
+재배치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,10 +1238,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1240,132 +1298,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1410,6 +1420,9 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1512,7 +1525,7 @@
         <xdr:cNvPr id="8" name="순서도: 병합 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1591,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1940,7 @@
   <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1936,26 +1949,26 @@
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="91" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="92"/>
-      <c r="F1" s="91" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="91" t="s">
+      <c r="G1" s="50"/>
+      <c r="H1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="92"/>
-      <c r="J1" s="93" t="s">
+      <c r="I1" s="50"/>
+      <c r="J1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="94"/>
+      <c r="K1" s="52"/>
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
@@ -1982,26 +1995,26 @@
       <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="88">
+      <c r="B2" s="53">
         <v>44165</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="88">
+      <c r="C2" s="54"/>
+      <c r="D2" s="53">
         <v>44166</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="88">
+      <c r="E2" s="54"/>
+      <c r="F2" s="53">
         <v>44167</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="88">
+      <c r="G2" s="54"/>
+      <c r="H2" s="53">
         <v>44169</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="88">
+      <c r="I2" s="54"/>
+      <c r="J2" s="53">
         <v>44170</v>
       </c>
-      <c r="K2" s="90"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="38"/>
@@ -2028,24 +2041,24 @@
       <c r="A3" s="41">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="49" t="s">
+      <c r="E3" s="62"/>
+      <c r="F3" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="55" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="57"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
@@ -2072,18 +2085,18 @@
       <c r="A4" s="41">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="55" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="57"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
@@ -2112,8 +2125,8 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="43"/>
@@ -2148,10 +2161,10 @@
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
@@ -2184,22 +2197,22 @@
       <c r="A7" s="44">
         <v>0.58333333333333404</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="86" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="57"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="66"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
@@ -2226,22 +2239,22 @@
       <c r="A8" s="44">
         <v>0.625</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="49" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="57"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
@@ -2264,20 +2277,22 @@
       <c r="AE8" s="38"/>
       <c r="AF8" s="38"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" ht="36.75" customHeight="1">
       <c r="A9" s="44">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="65"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
@@ -2304,16 +2319,18 @@
       <c r="A10" s="44">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="66"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -2340,18 +2357,18 @@
       <c r="A11" s="44">
         <v>0.75</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="57"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
@@ -2378,16 +2395,16 @@
       <c r="A12" s="44">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
@@ -2414,16 +2431,16 @@
       <c r="A13" s="47">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="81"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
@@ -2450,18 +2467,18 @@
       <c r="A14" s="47">
         <v>0.875</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="71" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="57"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
@@ -2488,16 +2505,16 @@
       <c r="A15" s="47">
         <v>0.91666666666666596</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="77"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="84"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
@@ -2524,16 +2541,16 @@
       <c r="A16" s="47">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="57"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -2557,19 +2574,19 @@
       <c r="AF16" s="38"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -2593,17 +2610,17 @@
       <c r="AF17" s="38"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="63"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="93"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -2627,17 +2644,17 @@
       <c r="AF18" s="38"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="64"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="94"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
@@ -2763,19 +2780,19 @@
       <c r="AF22" s="38"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
@@ -2799,17 +2816,17 @@
       <c r="AF23" s="38"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -2833,17 +2850,17 @@
       <c r="AF24" s="38"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
       <c r="N25" s="38"/>
@@ -2870,16 +2887,16 @@
       <c r="A26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
       <c r="N26" s="38"/>
@@ -2903,27 +2920,27 @@
       <c r="AF26" s="38"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53" t="s">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53" t="s">
+      <c r="D27" s="87"/>
+      <c r="E27" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53" t="s">
+      <c r="F27" s="87"/>
+      <c r="G27" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53" t="s">
+      <c r="H27" s="87"/>
+      <c r="I27" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
       <c r="L27" s="38"/>
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
@@ -2947,17 +2964,17 @@
       <c r="AF27" s="38"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
       <c r="L28" s="38"/>
       <c r="M28" s="38"/>
       <c r="N28" s="38"/>
@@ -2981,17 +2998,17 @@
       <c r="AF28" s="38"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
@@ -3015,17 +3032,17 @@
       <c r="AF29" s="38"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -3119,27 +3136,27 @@
       <c r="AF32" s="38"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53" t="s">
+      <c r="F33" s="87"/>
+      <c r="G33" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53" t="s">
+      <c r="H33" s="87"/>
+      <c r="I33" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
@@ -3163,17 +3180,17 @@
       <c r="AF33" s="38"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
@@ -3197,17 +3214,17 @@
       <c r="AF34" s="38"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
       <c r="N35" s="38"/>
@@ -3231,17 +3248,17 @@
       <c r="AF35" s="38"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
       <c r="L36" s="38"/>
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
@@ -3302,16 +3319,16 @@
       <c r="A38" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
       <c r="N38" s="38"/>
@@ -3335,27 +3352,27 @@
       <c r="AF38" s="38"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53" t="s">
+      <c r="B39" s="87"/>
+      <c r="C39" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53" t="s">
+      <c r="D39" s="87"/>
+      <c r="E39" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53" t="s">
+      <c r="F39" s="87"/>
+      <c r="G39" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53" t="s">
+      <c r="H39" s="87"/>
+      <c r="I39" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
@@ -3379,17 +3396,17 @@
       <c r="AF39" s="38"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
       <c r="L40" s="38"/>
       <c r="M40" s="38"/>
       <c r="N40" s="38"/>
@@ -3413,17 +3430,17 @@
       <c r="AF40" s="38"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
       <c r="L41" s="38"/>
       <c r="M41" s="38"/>
       <c r="N41" s="38"/>
@@ -3447,17 +3464,17 @@
       <c r="AF41" s="38"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
       <c r="L42" s="38"/>
       <c r="M42" s="38"/>
       <c r="N42" s="38"/>
@@ -3957,17 +3974,75 @@
       <c r="AF56" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+  <mergeCells count="94">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="C28:D30"/>
+    <mergeCell ref="E28:F30"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="I28:K30"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B36"/>
+    <mergeCell ref="C34:D36"/>
+    <mergeCell ref="E34:F36"/>
+    <mergeCell ref="G34:H36"/>
+    <mergeCell ref="I34:K36"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="A40:B42"/>
+    <mergeCell ref="C40:D42"/>
+    <mergeCell ref="E40:F42"/>
+    <mergeCell ref="G40:H42"/>
+    <mergeCell ref="I40:K42"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="H17:I19"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="J17:K19"/>
+    <mergeCell ref="A23:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F8:G12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D8:E10"/>
+    <mergeCell ref="D11:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="B8:C11"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B3:C4"/>
@@ -3981,78 +4056,19 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="D6:E7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F8:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D8:E10"/>
-    <mergeCell ref="D11:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="H17:I19"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="A40:B42"/>
-    <mergeCell ref="C40:D42"/>
-    <mergeCell ref="E40:F42"/>
-    <mergeCell ref="G40:H42"/>
-    <mergeCell ref="I40:K42"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A34:B36"/>
-    <mergeCell ref="C34:D36"/>
-    <mergeCell ref="E34:F36"/>
-    <mergeCell ref="G34:H36"/>
-    <mergeCell ref="I34:K36"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="H7:I8"/>
-    <mergeCell ref="A28:B30"/>
-    <mergeCell ref="C28:D30"/>
-    <mergeCell ref="E28:F30"/>
-    <mergeCell ref="G28:H30"/>
-    <mergeCell ref="I28:K30"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K19"/>
-    <mergeCell ref="A23:K25"/>
-    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5726,28 +5742,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
+    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
+      <rowBreaks count="3" manualBreakCount="3">
+        <brk id="49" max="16383" man="1"/>
+        <brk id="107" max="16383" man="1"/>
+        <brk id="128" max="16383" man="1"/>
+      </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId2"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
-      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
-      <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId3"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
     <customSheetView guid="{23850B04-1E96-450B-9BA9-F0D0F3135657}" scale="115" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
@@ -5760,25 +5773,28 @@
       </rowBreaks>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{69A00CD3-999F-4FB1-8E72-38B96FA6F0E5}" showPageBreaks="1" showGridLines="0" fitToPage="1" view="pageBreakPreview">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AG29" sqref="AG29"/>
-      <rowBreaks count="3" manualBreakCount="3">
-        <brk id="49" max="16383" man="1"/>
-        <brk id="107" max="16383" man="1"/>
-        <brk id="128" max="16383" man="1"/>
-      </rowBreaks>
+    <customSheetView guid="{5A73BA8F-0B6C-4C73-9036-1590BE65C20D}" scale="115" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AH21" sqref="AH21"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="76" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{56F1418B-5B19-48CE-83EE-8C2540E4985A}" showGridLines="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+    <customSheetView guid="{CD8AA89C-E9C0-4B5A-84A9-409329BA5C2A}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AE109" sqref="AE109"/>
+      <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId5"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
+    <customSheetView guid="{F64BC8EB-E4C5-49CE-995F-59B1A73C0D9F}" showGridLines="0">
+      <pane xSplit="2" ySplit="12" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="BB74" sqref="BB74"/>
       <pageMargins left="0.15748031496062992" right="0.19685039370078741" top="0.23622047244094491" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.15748031496062992"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId6"/>
@@ -6481,6 +6497,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -6488,11 +6509,6 @@
     <mergeCell ref="P1:V1"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I5:V17">
